--- a/data.xlsx
+++ b/data.xlsx
@@ -241,7 +241,7 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -317,124 +317,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="39.75" sheetId="1" r:id="rId1"/>
     <sheet name="45.14" sheetId="2" r:id="rId2"/>
     <sheet name="48.51" sheetId="3" r:id="rId3"/>
     <sheet name="60.61" sheetId="4" r:id="rId4"/>
+    <sheet name="85.98" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'39.75'!$G$3:$G$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'45.14'!$G$3:$G$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'48.51'!$G$3:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'60.61'!$G$3:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'85.98'!$G$3:$G$34</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>Load</t>
   </si>
@@ -54,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -106,7 +110,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -170,13 +174,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -208,6 +219,9 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -239,9 +253,168 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -301,22 +474,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -647,10 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G42"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B3:H42"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -663,7 +821,7 @@
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,155 +840,186 @@
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4">
-        <v>4903</v>
+        <v>490</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>16599600</v>
+        <v>50.673227871000002</v>
       </c>
       <c r="E4">
-        <v>503.90499999999997</v>
+        <v>50.423000000000002</v>
       </c>
       <c r="F4">
-        <v>537.05700000000002</v>
+        <v>51.844999999999999</v>
       </c>
       <c r="G4">
         <f>(E4-D4)/E4*100</f>
-        <v>-3294092.3576864689</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>-0.49625740435912158</v>
+      </c>
+      <c r="H4">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <v>1828.9985552198725</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5">
-        <v>2942</v>
+        <v>490</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>10020600</v>
+        <v>52.309503683099997</v>
       </c>
       <c r="E5">
-        <v>303.11700000000002</v>
+        <v>52.28</v>
       </c>
       <c r="F5">
-        <v>324.892</v>
+        <v>53.691000000000003</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G42" si="0">(E5-D5)/E5*100</f>
-        <v>-3305752.1956868134</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <f>(E5-D5)/E5*100</f>
+        <v>-5.6433976855386724E-2</v>
+      </c>
+      <c r="H5">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <v>1771.7862728322841</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6">
-        <v>980</v>
+        <v>490</v>
       </c>
       <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>52.985750513200003</v>
+      </c>
+      <c r="E6">
+        <v>52.758000000000003</v>
+      </c>
+      <c r="F6">
+        <v>54.406999999999996</v>
+      </c>
+      <c r="G6">
+        <f>(E6-D6)/E6*100</f>
+        <v>-0.43168905796277374</v>
+      </c>
+      <c r="H6">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <v>1749.1733091767246</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>490</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>386738.88888899999</v>
-      </c>
-      <c r="E6">
-        <v>104.934</v>
-      </c>
-      <c r="F6">
-        <v>108.82599999999999</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>-368454.41409743269</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7">
-        <v>4903</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
       <c r="D7">
-        <v>170372.5</v>
+        <v>50.606810771600003</v>
       </c>
       <c r="E7">
-        <v>515.64099999999996</v>
+        <v>50.188000000000002</v>
       </c>
       <c r="F7">
-        <v>554.774</v>
+        <v>51.645000000000003</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-32940.91412436172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <f>(E7-D7)/E7*100</f>
+        <v>-0.83448388379692451</v>
+      </c>
+      <c r="H7">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <v>1831.3989589796104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8">
-        <v>2942</v>
+        <v>490</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>10119250</v>
+        <v>54.486173167499999</v>
       </c>
       <c r="E8">
-        <v>306.89299999999997</v>
+        <v>54.12</v>
       </c>
       <c r="F8">
-        <v>325.96899999999999</v>
+        <v>55.723999999999997</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>-3297221.8678822918</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <f>(E8-D8)/E8*100</f>
+        <v>-0.67659491407982497</v>
+      </c>
+      <c r="H8">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <v>1701.005139037165</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9">
-        <v>1961</v>
+        <v>490</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>7329950</v>
+        <v>50.975123777299999</v>
       </c>
       <c r="E9">
-        <v>219.893</v>
+        <v>51.1</v>
       </c>
       <c r="F9">
-        <v>229.732</v>
+        <v>52.719000000000001</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>-3333316.7072166912</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <f>(E9-D9)/E9*100</f>
+        <v>0.24437616966732462</v>
+      </c>
+      <c r="H9">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <v>1818.1664642795583</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10">
-        <v>490</v>
+        <v>980</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>104906.25</v>
+        <v>105.079398623</v>
       </c>
       <c r="E10">
-        <v>50.423000000000002</v>
+        <v>104.934</v>
       </c>
       <c r="F10">
-        <v>51.844999999999999</v>
+        <v>108.82599999999999</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>-207952.37689149793</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <f>(E10-D10)/E10*100</f>
+        <v>-0.13856197514628768</v>
+      </c>
+      <c r="H10">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <v>1764.0234295002922</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>980</v>
       </c>
@@ -838,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>391355.55555599998</v>
+        <v>106.333776114</v>
       </c>
       <c r="E11">
         <v>106.29600000000001</v>
@@ -847,11 +1036,15 @@
         <v>109.79</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>-368075.24230074504</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <f>(E11-D11)/E11*100</f>
+        <v>-3.5538603522236152E-2</v>
+      </c>
+      <c r="H11">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <v>1743.2139429530496</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" hidden="1">
       <c r="B12">
         <v>9807</v>
       </c>
@@ -859,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>3663044.4444400002</v>
+        <v>995.27231010699995</v>
       </c>
       <c r="E12">
         <v>1024.172</v>
@@ -868,11 +1061,15 @@
         <v>1174.8420000000001</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-357559.1084739673</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <f>(E12-D12)/E12*100</f>
+        <v>2.821761373382603</v>
+      </c>
+      <c r="H12">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <v>1863.7605110267439</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" hidden="1">
       <c r="B13">
         <v>4903</v>
       </c>
@@ -880,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>1644.4444444400001</v>
+        <v>0.44680594131099999</v>
       </c>
       <c r="E13">
         <v>497.334</v>
@@ -889,116 +1086,140 @@
         <v>527.98</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>-230.65192495184323</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <f>(E13-D13)/E13*100</f>
+        <v>99.910159783704515</v>
+      </c>
+      <c r="H13">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <v>2075576.7911499839</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14">
-        <v>2942</v>
+        <v>980</v>
       </c>
       <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>105.31185847099999</v>
+      </c>
+      <c r="E14">
+        <v>105.22</v>
+      </c>
+      <c r="F14">
+        <v>109.17</v>
+      </c>
+      <c r="G14">
+        <f>(E14-D14)/E14*100</f>
+        <v>-8.7301340999804952E-2</v>
+      </c>
+      <c r="H14">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <v>1760.1296171201511</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>980</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>104.68995290399999</v>
+      </c>
+      <c r="E15">
+        <v>103.883</v>
+      </c>
+      <c r="F15">
+        <v>109.033</v>
+      </c>
+      <c r="G15">
+        <f>(E15-D15)/E15*100</f>
+        <v>-0.77679014275675451</v>
+      </c>
+      <c r="H15">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <v>1770.5855813952746</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>980</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>10222500</v>
-      </c>
-      <c r="E14">
-        <v>309.358</v>
-      </c>
-      <c r="F14">
-        <v>354.54500000000002</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>-3304324.00067236</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15">
-        <v>4903</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>16747050</v>
-      </c>
-      <c r="E15">
-        <v>505.84100000000001</v>
-      </c>
-      <c r="F15">
-        <v>561.76700000000005</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>-3310634.0053495071</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16">
+      <c r="D16">
+        <v>104.96165922</v>
+      </c>
+      <c r="E16">
+        <v>105.27200000000001</v>
+      </c>
+      <c r="F16">
+        <v>109.35899999999999</v>
+      </c>
+      <c r="G16">
+        <f>(E16-D16)/E16*100</f>
+        <v>0.29479897788586157</v>
+      </c>
+      <c r="H16">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <v>1766.0022002915587</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
         <v>1961</v>
       </c>
-      <c r="C16">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>221.288189832</v>
+      </c>
+      <c r="E17">
+        <v>219.893</v>
+      </c>
+      <c r="F17">
+        <v>229.732</v>
+      </c>
+      <c r="G17">
+        <f>(E17-D17)/E17*100</f>
+        <v>-0.63448578717830939</v>
+      </c>
+      <c r="H17">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <v>1676.1589851173867</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>1961</v>
+      </c>
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>406550</v>
-      </c>
-      <c r="E16">
+      <c r="D18">
+        <v>196.37724912499999</v>
+      </c>
+      <c r="E18">
         <v>196.62100000000001</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>206.095</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>-206668.35129513123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17">
-        <v>2942</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>2591837.5</v>
-      </c>
-      <c r="E17">
-        <v>313.07299999999998</v>
-      </c>
-      <c r="F17">
-        <v>350.92200000000003</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>-827770.01753584645</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18">
-        <v>490</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>192522.22222200001</v>
-      </c>
-      <c r="E18">
-        <v>52.28</v>
-      </c>
-      <c r="F18">
-        <v>53.691000000000003</v>
-      </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>-368152.14656082634</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <f>(E18-D18)/E18*100</f>
+        <v>0.12396990911449828</v>
+      </c>
+      <c r="H18">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <v>1888.7839061803475</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>1961</v>
       </c>
@@ -1006,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>7075600</v>
+        <v>213.609467456</v>
       </c>
       <c r="E19">
         <v>213.244</v>
@@ -1015,11 +1236,15 @@
         <v>225.785</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>-3317976.9447206017</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <f>(E19-D19)/E19*100</f>
+        <v>-0.17138463731687861</v>
+      </c>
+      <c r="H19">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <v>1736.4126791977087</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20">
         <v>1961</v>
       </c>
@@ -1027,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>707683.33333299996</v>
+        <v>192.28203115599999</v>
       </c>
       <c r="E20">
         <v>192.29</v>
@@ -1036,95 +1261,115 @@
         <v>205.30799999999999</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>-367929.19201882568</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <f>(E20-D20)/E20*100</f>
+        <v>4.1441801445754245E-3</v>
+      </c>
+      <c r="H20">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <v>1929.0111793459421</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21">
-        <v>4903</v>
+        <v>1961</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>4221925</v>
+        <v>202.23402970699999</v>
       </c>
       <c r="E21">
-        <v>508.94799999999998</v>
+        <v>202.55</v>
       </c>
       <c r="F21">
-        <v>551.45100000000002</v>
+        <v>227.91200000000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>-829439.56003363803</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <f>(E21-D21)/E21*100</f>
+        <v>0.15599619501358714</v>
+      </c>
+      <c r="H21">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <v>1834.0839483080831</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22">
         <v>1961</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>744311.11111099995</v>
+        <v>206.66737108999999</v>
       </c>
       <c r="E22">
-        <v>202.55</v>
+        <v>206.28200000000001</v>
       </c>
       <c r="F22">
-        <v>227.91200000000001</v>
+        <v>216.90700000000001</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>-367370.30911429267</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <f>(E22-D22)/E22*100</f>
+        <v>-0.18681760405657219</v>
+      </c>
+      <c r="H22">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <v>1794.7399520833994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23">
-        <v>4903</v>
+        <v>1961</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>1853238.8888900001</v>
+        <v>212.50754739800001</v>
       </c>
       <c r="E23">
-        <v>505.00799999999998</v>
+        <v>211.47300000000001</v>
       </c>
       <c r="F23">
-        <v>547.04700000000003</v>
+        <v>221.64699999999999</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>-366872.18437925738</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <f>(E23-D23)/E23*100</f>
+        <v>-0.48921015827079622</v>
+      </c>
+      <c r="H23">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <v>1745.4165380422603</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24">
-        <v>2942</v>
+        <v>1961</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>87030.578512399996</v>
+        <v>209.96256490799999</v>
       </c>
       <c r="E24">
-        <v>317.77800000000002</v>
+        <v>209.88499999999999</v>
       </c>
       <c r="F24">
-        <v>335.38900000000001</v>
+        <v>219.904</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>-27287.225834513396</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <f>(E24-D24)/E24*100</f>
+        <v>-3.6955908235461979E-2</v>
+      </c>
+      <c r="H24">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <v>1766.5729500389436</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" hidden="1">
       <c r="B25">
         <v>490</v>
       </c>
@@ -1132,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>1714750</v>
+        <v>51.767600531299998</v>
       </c>
       <c r="E25">
         <v>53.011000000000003</v>
@@ -1141,137 +1386,165 @@
         <v>53.481999999999999</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>-3234606.004414178</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <f>(E25-D25)/E25*100</f>
+        <v>2.3455499211484505</v>
+      </c>
+      <c r="H25">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <v>1790.3333284367498</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26">
-        <v>490</v>
+        <v>2942</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>1755100</v>
+        <v>302.51781185800002</v>
       </c>
       <c r="E26">
-        <v>52.758000000000003</v>
+        <v>303.11700000000002</v>
       </c>
       <c r="F26">
-        <v>54.406999999999996</v>
+        <v>324.892</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
-        <v>-3326599.2683574054</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
+        <f>(E26-D26)/E26*100</f>
+        <v>0.19767553189032708</v>
+      </c>
+      <c r="H26">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <v>1839.4482322481108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27">
-        <v>4903</v>
+        <v>2942</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>457681.94444400002</v>
+        <v>305.49601497399999</v>
       </c>
       <c r="E27">
-        <v>497.60399999999998</v>
+        <v>306.89299999999997</v>
       </c>
       <c r="F27">
-        <v>527.96900000000005</v>
+        <v>325.96899999999999</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>-91877.143359780079</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <f>(E27-D27)/E27*100</f>
+        <v>0.45520263609791745</v>
+      </c>
+      <c r="H27">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <v>1821.5159182784237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28">
         <v>2942</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>413002</v>
+        <v>308.61309020599998</v>
       </c>
       <c r="E28">
-        <v>310.99900000000002</v>
+        <v>309.358</v>
       </c>
       <c r="F28">
-        <v>333.42899999999997</v>
+        <v>354.54500000000002</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>-132698.49774436574</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <f>(E28-D28)/E28*100</f>
+        <v>0.24079215472042839</v>
+      </c>
+      <c r="H28">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <v>1803.1181174924316</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29">
         <v>2942</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>1162355.55556</v>
+        <v>312.98605240900002</v>
       </c>
       <c r="E29">
-        <v>315.63400000000001</v>
+        <v>313.07299999999998</v>
       </c>
       <c r="F29">
-        <v>33.816000000000003</v>
+        <v>350.92200000000003</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>-368160.56621276541</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+        <f>(E29-D29)/E29*100</f>
+        <v>2.7772305820034014E-2</v>
+      </c>
+      <c r="H29">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <v>1777.9254058215768</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30">
         <v>2942</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>1134550</v>
+        <v>317.91752203800002</v>
       </c>
       <c r="E30">
-        <v>310.66000000000003</v>
+        <v>317.77800000000002</v>
       </c>
       <c r="F30">
-        <v>330.59399999999999</v>
+        <v>335.38900000000001</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>-365106.33489989053</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <f>(E30-D30)/E30*100</f>
+        <v>-4.3905505730414164E-2</v>
+      </c>
+      <c r="H30">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <v>1750.3466014661863</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31">
-        <v>4903</v>
+        <v>2942</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>1888444.44444</v>
+        <v>311.70903272599998</v>
       </c>
       <c r="E31">
-        <v>512.40300000000002</v>
+        <v>310.99900000000002</v>
       </c>
       <c r="F31">
-        <v>548.06399999999996</v>
+        <v>333.42899999999997</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>-368446.71897705516</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <f>(E31-D31)/E31*100</f>
+        <v>-0.22830707687161428</v>
+      </c>
+      <c r="H31">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <v>1785.2092683336259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1">
       <c r="B32">
         <v>980</v>
       </c>
@@ -1279,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>6856850</v>
+        <v>207.005494505</v>
       </c>
       <c r="E32">
         <v>200.58</v>
@@ -1288,200 +1561,240 @@
         <v>202.35900000000001</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>-3418411.3171801772</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
+        <f>(E32-D32)/E32*100</f>
+        <v>-3.2034572265430197</v>
+      </c>
+      <c r="H32">
+        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <v>895.44734825526825</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33">
-        <v>490</v>
+        <v>2942</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>1676300</v>
+        <v>315.81934548999999</v>
       </c>
       <c r="E33">
-        <v>50.188000000000002</v>
+        <v>315.63400000000001</v>
       </c>
       <c r="F33">
-        <v>51.645000000000003</v>
+        <v>33.816000000000003</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>-3339941.4441699204</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <f>(E33-D33)/E33*100</f>
+        <v>-5.8721649125244649E-2</v>
+      </c>
+      <c r="H33">
+        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <v>1761.9751994052069</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34">
-        <v>1961</v>
+        <v>2942</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>760627.77777799999</v>
+        <v>308.26440043500003</v>
       </c>
       <c r="E34">
-        <v>206.28200000000001</v>
+        <v>310.66000000000003</v>
       </c>
       <c r="F34">
-        <v>216.90700000000001</v>
+        <v>330.59399999999999</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>-368632.01625832595</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <f>(E34-D34)/E34*100</f>
+        <v>0.77113228771003595</v>
+      </c>
+      <c r="H34">
+        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <v>1805.1576940461532</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35">
-        <v>980</v>
+        <v>4903</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>387594.44444400002</v>
+        <v>501.135128608</v>
       </c>
       <c r="E35">
-        <v>105.22</v>
+        <v>503.90499999999997</v>
       </c>
       <c r="F35">
-        <v>109.17</v>
+        <v>537.05700000000002</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
-        <v>-368265.75218019396</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+        <f>(E35-D35)/E35*100</f>
+        <v>0.54968126769926284</v>
+      </c>
+      <c r="H35">
+        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
+        <v>1850.5588393074963</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36">
-        <v>980</v>
+        <v>4903</v>
       </c>
       <c r="C36">
         <v>7</v>
       </c>
       <c r="D36">
-        <v>28659.090909099999</v>
+        <v>514.34760294700004</v>
       </c>
       <c r="E36">
-        <v>103.883</v>
+        <v>515.64099999999996</v>
       </c>
       <c r="F36">
-        <v>109.033</v>
+        <v>554.774</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>-27487.854518159849</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <f>(E36-D36)/E36*100</f>
+        <v>0.25083285716223525</v>
+      </c>
+      <c r="H36">
+        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
+        <v>1803.0219964466198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37">
-        <v>490</v>
+        <v>4903</v>
       </c>
       <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>505.58658374599997</v>
+      </c>
+      <c r="E37">
+        <v>505.84100000000001</v>
+      </c>
+      <c r="F37">
+        <v>561.76700000000005</v>
+      </c>
+      <c r="G37">
+        <f>(E37-D37)/E37*100</f>
+        <v>5.0295696473799931E-2</v>
+      </c>
+      <c r="H37">
+        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
+        <v>1834.2655278980601</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38">
+        <v>4903</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D37">
-        <v>2887.68</v>
-      </c>
-      <c r="E37">
-        <v>54.12</v>
-      </c>
-      <c r="F37">
-        <v>55.723999999999997</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>-5235.6984478935701</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38">
-        <v>490</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
       <c r="D38">
-        <v>20845.679012299999</v>
+        <v>509.83274966800002</v>
       </c>
       <c r="E38">
-        <v>51.1</v>
+        <v>508.94799999999998</v>
       </c>
       <c r="F38">
-        <v>52.719000000000001</v>
+        <v>551.45100000000002</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>-40693.892391976515</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <f>(E38-D38)/E38*100</f>
+        <v>-0.17383891242328106</v>
+      </c>
+      <c r="H38">
+        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
+        <v>1818.9887615829655</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39">
-        <v>980</v>
+        <v>4903</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>386305.55555599998</v>
+        <v>503.53671054199998</v>
       </c>
       <c r="E39">
-        <v>105.27200000000001</v>
+        <v>505.00799999999998</v>
       </c>
       <c r="F39">
-        <v>109.35899999999999</v>
+        <v>547.04700000000003</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>-366859.45318413252</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <f>(E39-D39)/E39*100</f>
+        <v>0.29133983184424822</v>
+      </c>
+      <c r="H39">
+        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
+        <v>1841.7327327233288</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40">
-        <v>1961</v>
+        <v>4903</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>7039100</v>
+        <v>497.42029948099997</v>
       </c>
       <c r="E40">
-        <v>211.47300000000001</v>
+        <v>497.60399999999998</v>
       </c>
       <c r="F40">
-        <v>221.64699999999999</v>
+        <v>527.96900000000005</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>-3328504.5972771933</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <f>(E40-D40)/E40*100</f>
+        <v>3.6917010112461457E-2</v>
+      </c>
+      <c r="H40">
+        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
+        <v>1864.379163658271</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41">
-        <v>1961</v>
+        <v>4903</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>108668.75</v>
+        <v>513.10228233299995</v>
       </c>
       <c r="E41">
-        <v>209.88499999999999</v>
+        <v>512.40300000000002</v>
       </c>
       <c r="F41">
-        <v>219.904</v>
+        <v>548.06399999999996</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
-        <v>-51675.376992162375</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <f>(E41-D41)/E41*100</f>
+        <v>-0.13647116293228734</v>
+      </c>
+      <c r="H41">
+        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
+        <v>1807.3980059421563</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42">
         <v>9807</v>
       </c>
@@ -1489,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <v>3786222.2222199999</v>
+        <v>1028.7404902799999</v>
       </c>
       <c r="E42">
         <v>1031.056</v>
@@ -1498,16 +1811,28 @@
         <v>1101.7090000000001</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
-        <v>-367117.90302563587</v>
+        <f>(E42-D42)/E42*100</f>
+        <v>0.22457652348661339</v>
+      </c>
+      <c r="H42">
+        <f>2*B42*SIN((136*3.14159/180)/2)*102/D42</f>
+        <v>1803.1264899381135</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G3:G42">
+    <filterColumn colId="0">
+      <colorFilter dxfId="10"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="B4:H42">
+    <sortCondition ref="B4"/>
+  </sortState>
   <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1526,7 +1851,7 @@
   <dimension ref="B3:H43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B4" sqref="B4:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1555,7 +1880,7 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1620,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>53.567581154800003</v>
+        <v>54.024445450400002</v>
       </c>
       <c r="E6">
         <v>53.869</v>
@@ -1630,11 +1955,11 @@
       </c>
       <c r="G6">
         <f>((D6-E6)/E6)*100</f>
-        <v>-0.55954045035177391</v>
+        <v>0.28856197516197074</v>
       </c>
       <c r="H6" s="2">
         <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
-        <v>1730.1744556386702</v>
+        <v>1715.5430248604275</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -1645,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>52.525316001100002</v>
+        <v>52.973291081900001</v>
       </c>
       <c r="E7">
         <v>52.523000000000003</v>
@@ -1655,11 +1980,11 @@
       </c>
       <c r="G7">
         <f>((D7-E7)/E7)*100</f>
-        <v>4.4094988861998422E-3</v>
+        <v>0.85732171029834148</v>
       </c>
       <c r="H7" s="2">
         <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
-        <v>1764.5064822160311</v>
+        <v>1749.5847184781362</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -1670,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>51.797256535499997</v>
+        <v>52.239022181999999</v>
       </c>
       <c r="E8">
         <v>51.984999999999999</v>
@@ -1680,11 +2005,11 @@
       </c>
       <c r="G8">
         <f>((D8-E8)/E8)*100</f>
-        <v>-0.36114930172165477</v>
+        <v>0.48864515148600546</v>
       </c>
       <c r="H8" s="2">
         <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
-        <v>1789.3082908911583</v>
+        <v>1774.1767876413576</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -1737,7 +2062,7 @@
         <v>1709.6979038281797</v>
       </c>
     </row>
-    <row r="11" spans="2:8" hidden="1">
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>980</v>
       </c>
@@ -1745,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>1486612.5</v>
+        <v>107.67677682199999</v>
       </c>
       <c r="E11">
         <v>107.121</v>
@@ -1755,11 +2080,11 @@
       </c>
       <c r="G11">
         <f>((D11-E11)/E11)*100</f>
-        <v>1387688.1087741901</v>
+        <v>0.51883087536523986</v>
       </c>
       <c r="H11" s="2">
         <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
-        <v>0.1246878531754393</v>
+        <v>1721.471672904871</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -1770,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>105.760736857</v>
+        <v>106.662743323</v>
       </c>
       <c r="E12">
         <v>106.157</v>
@@ -1780,61 +2105,61 @@
       </c>
       <c r="G12">
         <f>((D12-E12)/E12)*100</f>
-        <v>-0.3732802763830918</v>
+        <v>0.47641071526136231</v>
       </c>
       <c r="H12" s="2">
         <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
-        <v>1752.6591307642175</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>1737.8375555881892</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" hidden="1">
       <c r="B13">
-        <v>980</v>
+        <v>4903</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>109.62154821199999</v>
+        <v>4.2917671122799997E-2</v>
       </c>
       <c r="E13">
-        <v>109.083</v>
+        <v>552.21900000000005</v>
       </c>
       <c r="F13">
-        <v>112.379</v>
+        <v>576.06200000000001</v>
       </c>
       <c r="G13">
         <f>((D13-E13)/E13)*100</f>
-        <v>0.49370498794495465</v>
+        <v>-99.992228142978988</v>
       </c>
       <c r="H13" s="2">
         <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
-        <v>1690.9314286484562</v>
+        <v>21608349.606844418</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14">
-        <v>1961</v>
+        <v>980</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>208.14151824199999</v>
+        <v>109.62154821199999</v>
       </c>
       <c r="E14">
-        <v>209.31200000000001</v>
+        <v>109.083</v>
       </c>
       <c r="F14">
-        <v>281.69099999999997</v>
+        <v>112.379</v>
       </c>
       <c r="G14">
         <f>((D14-E14)/E14)*100</f>
-        <v>-0.55920432560007183</v>
+        <v>0.49370498794495465</v>
       </c>
       <c r="H14" s="2">
         <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
-        <v>1782.0288370147168</v>
+        <v>1690.9314286484562</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -1842,24 +2167,24 @@
         <v>1961</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>214.35650675100001</v>
+        <v>209.916704391</v>
       </c>
       <c r="E15">
-        <v>215.86500000000001</v>
+        <v>209.31200000000001</v>
       </c>
       <c r="F15">
-        <v>223.44200000000001</v>
+        <v>281.69099999999997</v>
       </c>
       <c r="G15">
         <f>((D15-E15)/E15)*100</f>
-        <v>-0.69881326245570008</v>
+        <v>0.28890096649976316</v>
       </c>
       <c r="H15" s="2">
         <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
-        <v>1730.3612253680203</v>
+        <v>1766.9588933541363</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -1867,49 +2192,49 @@
         <v>1961</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>188.447841332</v>
+        <v>216.184698959</v>
       </c>
       <c r="E16">
-        <v>188.21899999999999</v>
+        <v>215.86500000000001</v>
       </c>
       <c r="F16">
-        <v>195.405</v>
+        <v>223.44200000000001</v>
       </c>
       <c r="G16">
         <f>((D16-E16)/E16)*100</f>
-        <v>0.12158248210860849</v>
+        <v>0.14810134065271952</v>
       </c>
       <c r="H16" s="2">
         <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
-        <v>1968.2591483433694</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" hidden="1">
+        <v>1715.7282151481663</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>1961</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>195.52834392599999</v>
+        <v>188.447841332</v>
       </c>
       <c r="E17">
-        <v>199.26900000000001</v>
+        <v>188.21899999999999</v>
       </c>
       <c r="F17">
-        <v>207.82599999999999</v>
+        <v>195.405</v>
       </c>
       <c r="G17">
         <f>((D17-E17)/E17)*100</f>
-        <v>-1.8771891633922055</v>
+        <v>0.12158248210860849</v>
       </c>
       <c r="H17" s="2">
         <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
-        <v>1896.9842440216523</v>
+        <v>1968.2591483433694</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1920,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>215.472385809</v>
+        <v>217.310095066</v>
       </c>
       <c r="E18">
         <v>216.71600000000001</v>
@@ -1930,11 +2255,11 @@
       </c>
       <c r="G18">
         <f>((D18-E18)/E18)*100</f>
-        <v>-0.57384512034183255</v>
+        <v>0.27413530426917909</v>
       </c>
       <c r="H18" s="2">
         <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
-        <v>1721.4001056082245</v>
+        <v>1706.8428761885962</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -2170,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <v>324.39044096499998</v>
+        <v>327.15708465400002</v>
       </c>
       <c r="E28">
         <v>326.83100000000002</v>
@@ -2180,11 +2505,11 @@
       </c>
       <c r="G28">
         <f>((D28-E28)/E28)*100</f>
-        <v>-0.74673425562447715</v>
+        <v>9.9771641612943343E-2</v>
       </c>
       <c r="H28" s="2">
         <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
-        <v>1715.4200123480346</v>
+        <v>1700.9133543119833</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -2195,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>314.24788135599999</v>
+        <v>316.92802172900002</v>
       </c>
       <c r="E29">
         <v>316.96199999999999</v>
@@ -2205,11 +2530,11 @@
       </c>
       <c r="G29">
         <f>((D29-E29)/E29)*100</f>
-        <v>-0.85629149361752999</v>
+        <v>-1.071998252155361E-2</v>
       </c>
       <c r="H29" s="2">
         <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
-        <v>1770.7863354386939</v>
+        <v>1755.8114653603889</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -2262,54 +2587,54 @@
         <v>1820.373241571785</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
+    <row r="32" spans="2:8">
       <c r="B32">
         <v>4903</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>4.2917671122799997E-2</v>
+        <v>521.964689905</v>
       </c>
       <c r="E32">
-        <v>552.21900000000005</v>
+        <v>522.28099999999995</v>
       </c>
       <c r="F32">
-        <v>576.06200000000001</v>
+        <v>547.66899999999998</v>
       </c>
       <c r="G32">
         <f>((D32-E32)/E32)*100</f>
-        <v>-99.992228142978988</v>
+        <v>-6.0563201609851583E-2</v>
       </c>
       <c r="H32" s="2">
         <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
-        <v>21608349.606844418</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+        <v>1776.710302188872</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1">
       <c r="B33">
-        <v>4903</v>
+        <v>1961</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>521.964689905</v>
+        <v>195.52834392599999</v>
       </c>
       <c r="E33">
-        <v>522.28099999999995</v>
+        <v>199.26900000000001</v>
       </c>
       <c r="F33">
-        <v>547.66899999999998</v>
+        <v>207.82599999999999</v>
       </c>
       <c r="G33">
         <f>((D33-E33)/E33)*100</f>
-        <v>-6.0563201609851583E-2</v>
+        <v>-1.8771891633922055</v>
       </c>
       <c r="H33" s="2">
         <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
-        <v>1776.710302188872</v>
+        <v>1896.9842440216523</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -2320,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>516.397048262</v>
+        <v>520.80126754200001</v>
       </c>
       <c r="E34">
         <v>520.32799999999997</v>
@@ -2330,11 +2655,11 @@
       </c>
       <c r="G34">
         <f>((D34-E34)/E34)*100</f>
-        <v>-0.75547572646484074</v>
+        <v>9.0955616841690345E-2</v>
       </c>
       <c r="H34" s="2">
         <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
-        <v>1795.8662719979693</v>
+        <v>1780.6793103825248</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -2345,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>519.97540218300003</v>
+        <v>524.41014033500005</v>
       </c>
       <c r="E35">
         <v>524.529</v>
@@ -2355,11 +2680,11 @@
       </c>
       <c r="G35">
         <f>((D35-E35)/E35)*100</f>
-        <v>-0.86813080249137187</v>
+        <v>-2.2660265685966914E-2</v>
       </c>
       <c r="H35" s="2">
         <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
-        <v>1783.5075237013837</v>
+        <v>1768.425075343911</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -2565,17 +2890,17 @@
   </sheetData>
   <autoFilter ref="G3:G43">
     <filterColumn colId="0">
-      <colorFilter dxfId="9"/>
+      <colorFilter dxfId="7"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H43">
     <sortCondition ref="B4"/>
   </sortState>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="G1:G2 G4:G1048576">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2595,7 +2920,7 @@
   <dimension ref="B3:H43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2639,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>25.627232092700002</v>
+        <v>25.386035955899999</v>
       </c>
       <c r="E4">
         <v>24.876999999999999</v>
@@ -2648,12 +2973,12 @@
         <v>25.408000000000001</v>
       </c>
       <c r="G4">
-        <f>(E4-D4)/E4*100</f>
-        <v>-3.0157659392209784</v>
+        <f t="shared" ref="G4:G41" si="0">(E4-D4)/E4*100</f>
+        <v>-2.0462111826184826</v>
       </c>
       <c r="H4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
-        <v>1808.2573301153918</v>
+        <f t="shared" ref="H4:H41" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <v>1825.4378258462646</v>
       </c>
     </row>
     <row r="5" spans="2:8" hidden="1">
@@ -2664,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>23.969387755100001</v>
+        <v>23.519268422900002</v>
       </c>
       <c r="E5">
         <v>24.625</v>
@@ -2673,12 +2998,12 @@
         <v>25.094000000000001</v>
       </c>
       <c r="G5">
-        <f>(E5-D5)/E5*100</f>
-        <v>2.6623847508629384</v>
+        <f t="shared" si="0"/>
+        <v>4.4902805161421258</v>
       </c>
       <c r="H5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
-        <v>1933.325571585917</v>
+        <f t="shared" si="1"/>
+        <v>1970.3261788990305</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -2706,82 +3031,82 @@
         <v>1896.2382550247062</v>
       </c>
     </row>
-    <row r="7" spans="2:8" hidden="1">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>245</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>24.327845286500001</v>
+        <v>24.825338198600001</v>
       </c>
       <c r="E7">
-        <v>24.79</v>
+        <v>24.911999999999999</v>
       </c>
       <c r="F7">
-        <v>25.084</v>
+        <v>25.545999999999999</v>
       </c>
       <c r="G7">
         <f>(E7-D7)/E7*100</f>
-        <v>1.8642787958854319</v>
+        <v>0.34787171403339051</v>
       </c>
       <c r="H7" s="2">
         <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
-        <v>1904.8390737632863</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" hidden="1">
+        <v>1866.6666255046839</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>245</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>1115750</v>
+        <v>25.495060519799999</v>
       </c>
       <c r="E8">
-        <v>24.911999999999999</v>
+        <v>25.527999999999999</v>
       </c>
       <c r="F8">
-        <v>25.545999999999999</v>
+        <v>25.959</v>
       </c>
       <c r="G8">
         <f>(E8-D8)/E8*100</f>
-        <v>-4478665.2536929995</v>
+        <v>0.12903274913819959</v>
       </c>
       <c r="H8" s="2">
         <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
-        <v>4.15331662847351E-2</v>
+        <v>1817.6317034511089</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9">
-        <v>245</v>
+        <v>980</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>25.7372925136</v>
+        <v>108.500578498</v>
       </c>
       <c r="E9">
-        <v>25.527999999999999</v>
+        <v>108.527</v>
       </c>
       <c r="F9">
-        <v>25.959</v>
+        <v>111.765</v>
       </c>
       <c r="G9">
         <f>(E9-D9)/E9*100</f>
-        <v>-0.81985472265747905</v>
+        <v>2.4345556405323234E-2</v>
       </c>
       <c r="H9" s="2">
         <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
-        <v>1800.5246767003971</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>1708.4012241666487</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" hidden="1">
       <c r="B10">
         <v>490</v>
       </c>
@@ -2789,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>55.266553933799997</v>
+        <v>55.791648884799997</v>
       </c>
       <c r="E10">
         <v>55.084000000000003</v>
@@ -2799,36 +3124,36 @@
       </c>
       <c r="G10">
         <f>(E10-D10)/E10*100</f>
-        <v>-0.33141008968120356</v>
+        <v>-1.2846722910463908</v>
       </c>
       <c r="H10" s="2">
         <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
-        <v>1676.9864224826263</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" hidden="1">
+        <v>1661.203108654433</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11">
-        <v>490</v>
+        <v>980</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>51.303879068299999</v>
+        <v>110.81011925999999</v>
       </c>
       <c r="E11">
-        <v>50.665999999999997</v>
+        <v>110.47199999999999</v>
       </c>
       <c r="F11">
-        <v>52.44</v>
+        <v>114.065</v>
       </c>
       <c r="G11">
         <f>(E11-D11)/E11*100</f>
-        <v>-1.2589884109659377</v>
+        <v>-0.30606783619378586</v>
       </c>
       <c r="H11" s="2">
         <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
-        <v>1806.5156523739922</v>
+        <v>1672.7941668742933</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -2836,49 +3161,49 @@
         <v>980</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>108.500578498</v>
+        <v>109.130250979</v>
       </c>
       <c r="E12">
-        <v>108.527</v>
+        <v>108.779</v>
       </c>
       <c r="F12">
-        <v>111.765</v>
+        <v>112.337</v>
       </c>
       <c r="G12">
         <f>(E12-D12)/E12*100</f>
-        <v>2.4345556405323234E-2</v>
+        <v>-0.32290329843076293</v>
       </c>
       <c r="H12" s="2">
         <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
-        <v>1708.4012241666487</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" hidden="1">
+        <v>1698.5438910466924</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>980</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>111.862941084</v>
+        <v>106.202162691</v>
       </c>
       <c r="E13">
-        <v>110.47199999999999</v>
+        <v>105.628</v>
       </c>
       <c r="F13">
-        <v>114.065</v>
+        <v>109.27200000000001</v>
       </c>
       <c r="G13">
         <f>(E13-D13)/E13*100</f>
-        <v>-1.2590892570063048</v>
+        <v>-0.54357054095504787</v>
       </c>
       <c r="H13" s="2">
         <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
-        <v>1657.0503093565235</v>
+        <v>1745.3742601089341</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -2886,49 +3211,49 @@
         <v>980</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>109.130250979</v>
+        <v>108.269179423</v>
       </c>
       <c r="E14">
-        <v>108.779</v>
+        <v>107.468</v>
       </c>
       <c r="F14">
-        <v>112.337</v>
+        <v>111.276</v>
       </c>
       <c r="G14">
         <f>(E14-D14)/E14*100</f>
-        <v>-0.32290329843076293</v>
+        <v>-0.74550510198384035</v>
       </c>
       <c r="H14" s="2">
         <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
-        <v>1698.5438910466924</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" hidden="1">
+        <v>1712.0525168531531</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15">
         <v>980</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>107.21120370200001</v>
+        <v>107.086596654</v>
       </c>
       <c r="E15">
-        <v>105.628</v>
+        <v>106.53100000000001</v>
       </c>
       <c r="F15">
-        <v>109.27200000000001</v>
+        <v>110.11199999999999</v>
       </c>
       <c r="G15">
         <f>(E15-D15)/E15*100</f>
-        <v>-1.4988485079713767</v>
+        <v>-0.52153519069566467</v>
       </c>
       <c r="H15" s="2">
         <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
-        <v>1728.9472996124457</v>
+        <v>1730.959120193955</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -2936,74 +3261,74 @@
         <v>980</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>108.269179423</v>
+        <v>105.67261481</v>
       </c>
       <c r="E16">
-        <v>107.468</v>
+        <v>105.05500000000001</v>
       </c>
       <c r="F16">
-        <v>111.276</v>
+        <v>108.401</v>
       </c>
       <c r="G16">
         <f>(E16-D16)/E16*100</f>
-        <v>-0.74550510198384035</v>
+        <v>-0.58789663509589452</v>
       </c>
       <c r="H16" s="2">
         <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
-        <v>1712.0525168531531</v>
+        <v>1754.1207006380573</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17">
-        <v>980</v>
+        <v>1961</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>107.086596654</v>
+        <v>206.20216269100001</v>
       </c>
       <c r="E17">
-        <v>106.53100000000001</v>
+        <v>206.43</v>
       </c>
       <c r="F17">
-        <v>110.11199999999999</v>
+        <v>215.887</v>
       </c>
       <c r="G17">
         <f>(E17-D17)/E17*100</f>
-        <v>-0.52153519069566467</v>
+        <v>0.11037025093251684</v>
       </c>
       <c r="H17" s="2">
         <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
-        <v>1730.959120193955</v>
+        <v>1798.789027460854</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18">
-        <v>980</v>
+        <v>1961</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>105.67261481</v>
+        <v>215.36022605900001</v>
       </c>
       <c r="E18">
-        <v>105.05500000000001</v>
+        <v>214.99700000000001</v>
       </c>
       <c r="F18">
-        <v>108.401</v>
+        <v>223.328</v>
       </c>
       <c r="G18">
         <f>(E18-D18)/E18*100</f>
-        <v>-0.58789663509589452</v>
+        <v>-0.16894471039130718</v>
       </c>
       <c r="H18" s="2">
         <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
-        <v>1754.1207006380573</v>
+        <v>1722.2966119363805</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -3011,24 +3336,24 @@
         <v>1961</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>206.20216269100001</v>
+        <v>216.43155927399999</v>
       </c>
       <c r="E19">
-        <v>206.43</v>
+        <v>216.238</v>
       </c>
       <c r="F19">
-        <v>215.887</v>
+        <v>224.88200000000001</v>
       </c>
       <c r="G19">
         <f>(E19-D19)/E19*100</f>
-        <v>0.11037025093251684</v>
+        <v>-8.951214587630052E-2</v>
       </c>
       <c r="H19" s="2">
         <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
-        <v>1798.789027460854</v>
+        <v>1713.7712676074907</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -3036,49 +3361,49 @@
         <v>1961</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>215.36022605900001</v>
+        <v>216.98001958</v>
       </c>
       <c r="E20">
-        <v>214.99700000000001</v>
+        <v>216.96799999999999</v>
       </c>
       <c r="F20">
-        <v>223.328</v>
+        <v>226.245</v>
       </c>
       <c r="G20">
         <f>(E20-D20)/E20*100</f>
-        <v>-0.16894471039130718</v>
+        <v>-5.539793886662865E-3</v>
       </c>
       <c r="H20" s="2">
         <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
-        <v>1722.2966119363805</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>1709.4393686811959</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" hidden="1">
       <c r="B21">
-        <v>1961</v>
+        <v>490</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>216.43155927399999</v>
+        <v>51.303879068299999</v>
       </c>
       <c r="E21">
-        <v>216.238</v>
+        <v>50.665999999999997</v>
       </c>
       <c r="F21">
-        <v>224.88200000000001</v>
+        <v>52.44</v>
       </c>
       <c r="G21">
         <f>(E21-D21)/E21*100</f>
-        <v>-8.951214587630052E-2</v>
+        <v>-1.2589884109659377</v>
       </c>
       <c r="H21" s="2">
         <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
-        <v>1713.7712676074907</v>
+        <v>1806.5156523739922</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -3086,24 +3411,24 @@
         <v>1961</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>219.041575886</v>
+        <v>213.73958356700001</v>
       </c>
       <c r="E22">
-        <v>216.96799999999999</v>
+        <v>213.322</v>
       </c>
       <c r="F22">
-        <v>226.245</v>
+        <v>219.27199999999999</v>
       </c>
       <c r="G22">
         <f>(E22-D22)/E22*100</f>
-        <v>-0.95570585800671748</v>
+        <v>-0.1957526963932498</v>
       </c>
       <c r="H22" s="2">
         <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
-        <v>1693.3506170550502</v>
+        <v>1735.3556205979969</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -3111,24 +3436,24 @@
         <v>1961</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>213.73958356700001</v>
+        <v>215.086552154</v>
       </c>
       <c r="E23">
-        <v>213.322</v>
+        <v>214.589</v>
       </c>
       <c r="F23">
-        <v>219.27199999999999</v>
+        <v>222.99299999999999</v>
       </c>
       <c r="G23">
         <f>(E23-D23)/E23*100</f>
-        <v>-0.1957526963932498</v>
+        <v>-0.2318628419909709</v>
       </c>
       <c r="H23" s="2">
         <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
-        <v>1735.3556205979969</v>
+        <v>1724.4880443371353</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -3136,74 +3461,74 @@
         <v>1961</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>215.086552154</v>
+        <v>204.60128159499999</v>
       </c>
       <c r="E24">
-        <v>214.589</v>
+        <v>204.11199999999999</v>
       </c>
       <c r="F24">
-        <v>222.99299999999999</v>
+        <v>214.07599999999999</v>
       </c>
       <c r="G24">
         <f>(E24-D24)/E24*100</f>
-        <v>-0.2318628419909709</v>
+        <v>-0.23971231235791832</v>
       </c>
       <c r="H24" s="2">
         <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
-        <v>1724.4880443371353</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" hidden="1">
+        <v>1812.8634620260025</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25">
         <v>1961</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>206.545225848</v>
+        <v>207.85088109599999</v>
       </c>
       <c r="E25">
-        <v>204.11199999999999</v>
+        <v>207.59299999999999</v>
       </c>
       <c r="F25">
-        <v>214.07599999999999</v>
+        <v>215.55199999999999</v>
       </c>
       <c r="G25">
         <f>(E25-D25)/E25*100</f>
-        <v>-1.192103280551857</v>
+        <v>-0.1242243698005258</v>
       </c>
       <c r="H25" s="2">
         <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
-        <v>1795.8013125911248</v>
+        <v>1784.520641584169</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26">
-        <v>1961</v>
+        <v>2942</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>207.85088109599999</v>
+        <v>304.24750800999999</v>
       </c>
       <c r="E26">
-        <v>207.59299999999999</v>
+        <v>304.28899999999999</v>
       </c>
       <c r="F26">
-        <v>215.55199999999999</v>
+        <v>319.17099999999999</v>
       </c>
       <c r="G26">
         <f>(E26-D26)/E26*100</f>
-        <v>-0.1242243698005258</v>
+        <v>1.3635718018067448E-2</v>
       </c>
       <c r="H26" s="2">
         <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
-        <v>1784.520641584169</v>
+        <v>1828.9906723820225</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -3211,24 +3536,24 @@
         <v>2942</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>304.24750800999999</v>
+        <v>317.19139373399997</v>
       </c>
       <c r="E27">
-        <v>304.28899999999999</v>
+        <v>317.22300000000001</v>
       </c>
       <c r="F27">
-        <v>319.17099999999999</v>
+        <v>337.45299999999997</v>
       </c>
       <c r="G27">
         <f>(E27-D27)/E27*100</f>
-        <v>1.3635718018067448E-2</v>
+        <v>9.9634219460883328E-3</v>
       </c>
       <c r="H27" s="2">
         <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
-        <v>1828.9906723820225</v>
+        <v>1754.3535708677605</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -3236,24 +3561,24 @@
         <v>2942</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>317.19139373399997</v>
+        <v>307.73740655</v>
       </c>
       <c r="E28">
-        <v>317.22300000000001</v>
+        <v>308.02199999999999</v>
       </c>
       <c r="F28">
-        <v>337.45299999999997</v>
+        <v>329.65100000000001</v>
       </c>
       <c r="G28">
         <f>(E28-D28)/E28*100</f>
-        <v>9.9634219460883328E-3</v>
+        <v>9.239387121698725E-2</v>
       </c>
       <c r="H28" s="2">
         <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
-        <v>1754.3535708677605</v>
+        <v>1808.2489889163091</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -3261,24 +3586,24 @@
         <v>2942</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>307.73740655</v>
+        <v>313.18029693900002</v>
       </c>
       <c r="E29">
-        <v>308.02199999999999</v>
+        <v>310.90300000000002</v>
       </c>
       <c r="F29">
-        <v>329.65100000000001</v>
+        <v>326.54300000000001</v>
       </c>
       <c r="G29">
         <f>(E29-D29)/E29*100</f>
-        <v>9.239387121698725E-2</v>
+        <v>-0.73247827746917715</v>
       </c>
       <c r="H29" s="2">
         <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
-        <v>1808.2489889163091</v>
+        <v>1776.8226790913056</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -3286,49 +3611,49 @@
         <v>2942</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>313.18029693900002</v>
+        <v>312.72361160600002</v>
       </c>
       <c r="E30">
-        <v>310.90300000000002</v>
+        <v>313.28199999999998</v>
       </c>
       <c r="F30">
-        <v>326.54300000000001</v>
+        <v>329.93900000000002</v>
       </c>
       <c r="G30">
         <f>(E30-D30)/E30*100</f>
-        <v>-0.73247827746917715</v>
+        <v>0.17823826265152876</v>
       </c>
       <c r="H30" s="2">
         <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
-        <v>1776.8226790913056</v>
+        <v>1779.4174587202424</v>
       </c>
     </row>
     <row r="31" spans="2:8" hidden="1">
       <c r="B31">
-        <v>2942</v>
+        <v>245</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>14055050</v>
+        <v>24.327845286500001</v>
       </c>
       <c r="E31">
-        <v>313.28199999999998</v>
+        <v>24.79</v>
       </c>
       <c r="F31">
-        <v>329.93900000000002</v>
+        <v>25.084</v>
       </c>
       <c r="G31">
         <f>(E31-D31)/E31*100</f>
-        <v>-4486289.2595169852</v>
+        <v>1.8642787958854319</v>
       </c>
       <c r="H31" s="2">
         <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
-        <v>3.959188008906156E-2</v>
+        <v>1904.8390737632863</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -3464,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>500.20914916300001</v>
+        <v>504.96170346600002</v>
       </c>
       <c r="E37">
         <v>503.33199999999999</v>
@@ -3474,14 +3799,14 @@
       </c>
       <c r="G37">
         <f>(E37-D37)/E37*100</f>
-        <v>0.62043558466379789</v>
+        <v>-0.32378300326623849</v>
       </c>
       <c r="H37" s="2">
         <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
-        <v>1853.9845652260028</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" hidden="1">
+        <v>1836.5353957886343</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38">
         <v>4903</v>
       </c>
@@ -3489,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="D38">
-        <v>23088450</v>
+        <v>518.59684193999999</v>
       </c>
       <c r="E38">
         <v>515.36300000000006</v>
@@ -3499,11 +3824,11 @@
       </c>
       <c r="G38">
         <f>(E38-D38)/E38*100</f>
-        <v>-4479936.4015266905</v>
+        <v>-0.62748818599704159</v>
       </c>
       <c r="H38" s="2">
         <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
-        <v>4.0166405364285319E-2</v>
+        <v>1788.2485332225149</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -3590,17 +3915,17 @@
   </sheetData>
   <autoFilter ref="G3:G43">
     <filterColumn colId="0">
-      <colorFilter dxfId="8"/>
+      <colorFilter dxfId="6"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B4:G41">
-    <sortCondition ref="B4"/>
+  <sortState ref="B6:H41">
+    <sortCondition ref="B6"/>
   </sortState>
   <conditionalFormatting sqref="G4:G41">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3616,10 +3941,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3629,6 +3955,7 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
@@ -3700,7 +4027,7 @@
         <v>0.69734839596614817</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H17" si="0">2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
         <v>585.8834382611559</v>
       </c>
     </row>
@@ -3712,7 +4039,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>305.59987380600001</v>
+        <v>307.982709806</v>
       </c>
       <c r="E6">
         <v>307.62200000000001</v>
@@ -3722,11 +4049,11 @@
       </c>
       <c r="G6">
         <f>(E6-D6)/E6*100</f>
-        <v>0.65734121551774871</v>
+        <v>-0.1172574802842412</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>606.5530028538036</v>
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <v>601.86015392076274</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -3750,7 +4077,7 @@
         <v>0.64426869463358183</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
         <v>546.34892095553369</v>
       </c>
     </row>
@@ -3762,7 +4089,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>309.42701760699998</v>
+        <v>311.83969477199997</v>
       </c>
       <c r="E8">
         <v>311.71899999999999</v>
@@ -3772,11 +4099,11 @@
       </c>
       <c r="G8">
         <f>(E8-D8)/E8*100</f>
-        <v>0.73527195743602791</v>
+        <v>-3.8719093799216252E-2</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>599.05086040094841</v>
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <v>594.41605490378527</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -3787,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>500.775182062</v>
+        <v>504.69512939499998</v>
       </c>
       <c r="E9">
         <v>500.85899999999998</v>
@@ -3797,11 +4124,11 @@
       </c>
       <c r="G9">
         <f>(E9-D9)/E9*100</f>
-        <v>1.6734837149772992E-2</v>
+        <v>-0.76591004554175934</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>740.68005159518179</v>
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <v>734.92721860006793</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -3825,7 +4152,7 @@
         <v>-0.3410579314807976</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
         <v>736.07553890244765</v>
       </c>
     </row>
@@ -3837,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>496.71969833499998</v>
+        <v>500.59274175199999</v>
       </c>
       <c r="E11">
         <v>500.60700000000003</v>
@@ -3847,11 +4174,11 @@
       </c>
       <c r="G11">
         <f>(E11-D11)/E11*100</f>
-        <v>0.77651764058434103</v>
+        <v>2.8481918950459813E-3</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>746.72735736184768</v>
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <v>740.94999138246453</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -3875,7 +4202,7 @@
         <v>-0.55297122711298508</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
         <v>747.61435561660664</v>
       </c>
     </row>
@@ -3887,7 +4214,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>500.26666065699999</v>
+        <v>504.16736059599998</v>
       </c>
       <c r="E13">
         <v>504.565</v>
@@ -3897,11 +4224,11 @@
       </c>
       <c r="G13">
         <f>(E13-D13)/E13*100</f>
-        <v>0.85189011187855068</v>
+        <v>7.8808360468922201E-2</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>741.43295337759923</v>
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <v>735.69654975045114</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -3912,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>499.056547083</v>
+        <v>502.947811473</v>
       </c>
       <c r="E14">
         <v>502.178</v>
@@ -3922,11 +4249,11 @@
       </c>
       <c r="G14">
         <f>(E14-D14)/E14*100</f>
-        <v>0.6215829679914292</v>
+        <v>-0.1532945435682177</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>743.23078187286171</v>
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <v>737.48046860162287</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -3950,7 +4277,7 @@
         <v>0.54789815191881719</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
         <v>697.98070803577423</v>
       </c>
     </row>
@@ -3975,7 +4302,7 @@
         <v>-0.80351593305974123</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
         <v>696.81942878103769</v>
       </c>
     </row>
@@ -4000,20 +4327,33 @@
         <v>0.65379037186126687</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
         <v>602.6143558494864</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:G17">
+  <autoFilter ref="G3:G17">
+    <filterColumn colId="0">
+      <colorFilter dxfId="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="B4:H17">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4024,4 +4364,847 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B3:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>980</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>142.901106021</v>
+      </c>
+      <c r="E4">
+        <v>142.15799999999999</v>
+      </c>
+      <c r="F4">
+        <v>147.114</v>
+      </c>
+      <c r="G4">
+        <f>(E4-D4)/E4*100</f>
+        <v>-0.5227324673954451</v>
+      </c>
+      <c r="H4" s="2">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <v>1297.138463725626</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>1961</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>260.24341709499998</v>
+      </c>
+      <c r="E5">
+        <v>257.87799999999999</v>
+      </c>
+      <c r="F5">
+        <v>268.334</v>
+      </c>
+      <c r="G5">
+        <f>(E5-D5)/E5*100</f>
+        <v>-0.91726207547755068</v>
+      </c>
+      <c r="H5" s="2">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <v>1425.2586744657951</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" hidden="1">
+      <c r="B6">
+        <v>4903</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>612.24258410799996</v>
+      </c>
+      <c r="E6">
+        <v>603.952</v>
+      </c>
+      <c r="F6">
+        <v>635.53099999999995</v>
+      </c>
+      <c r="G6">
+        <f>(E6-D6)/E6*100</f>
+        <v>-1.3727223534320545</v>
+      </c>
+      <c r="H6" s="2">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <v>1514.726459748254</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" hidden="1">
+      <c r="B7">
+        <v>2942</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>392.674348651</v>
+      </c>
+      <c r="E7">
+        <v>386.43599999999998</v>
+      </c>
+      <c r="F7">
+        <v>403.05200000000002</v>
+      </c>
+      <c r="G7">
+        <f>(E7-D7)/E7*100</f>
+        <v>-1.614329061215835</v>
+      </c>
+      <c r="H7" s="2">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <v>1417.1179150292264</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" hidden="1">
+      <c r="B8">
+        <v>1961</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>263.08251191599999</v>
+      </c>
+      <c r="E8">
+        <v>257.89800000000002</v>
+      </c>
+      <c r="F8">
+        <v>266.67500000000001</v>
+      </c>
+      <c r="G8">
+        <f>(E8-D8)/E8*100</f>
+        <v>-2.0102955106282181</v>
+      </c>
+      <c r="H8" s="2">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <v>1409.8777793550125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>1961</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>233.52769679299999</v>
+      </c>
+      <c r="E9">
+        <v>232.042</v>
+      </c>
+      <c r="F9">
+        <v>243.648</v>
+      </c>
+      <c r="G9">
+        <f>(E9-D9)/E9*100</f>
+        <v>-0.64027063764318026</v>
+      </c>
+      <c r="H9" s="2">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <v>1588.3091932176624</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" hidden="1">
+      <c r="B10">
+        <v>9807</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.101809431255</v>
+      </c>
+      <c r="E10">
+        <v>610.86300000000006</v>
+      </c>
+      <c r="F10">
+        <v>782.41499999999996</v>
+      </c>
+      <c r="G10">
+        <f>(E10-D10)/E10*100</f>
+        <v>99.983333508289917</v>
+      </c>
+      <c r="H10" s="2">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <v>18219817.225476261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" hidden="1">
+      <c r="B11">
+        <v>9807</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.19899116109000001</v>
+      </c>
+      <c r="E11">
+        <v>805.73900000000003</v>
+      </c>
+      <c r="F11">
+        <v>1372.942</v>
+      </c>
+      <c r="G11">
+        <f>(E11-D11)/E11*100</f>
+        <v>99.975303273009004</v>
+      </c>
+      <c r="H11" s="2">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <v>9321766.9525373094</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" hidden="1">
+      <c r="B12">
+        <v>1961</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>272.75209403500003</v>
+      </c>
+      <c r="E12">
+        <v>265.53300000000002</v>
+      </c>
+      <c r="F12">
+        <v>275.97899999999998</v>
+      </c>
+      <c r="G12">
+        <f>(E12-D12)/E12*100</f>
+        <v>-2.7187182139319828</v>
+      </c>
+      <c r="H12" s="2">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <v>1359.8949221620728</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>1961</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>268.17761118099997</v>
+      </c>
+      <c r="E13">
+        <v>266.899</v>
+      </c>
+      <c r="F13">
+        <v>277.31299999999999</v>
+      </c>
+      <c r="G13">
+        <f>(E13-D13)/E13*100</f>
+        <v>-0.47906181027278999</v>
+      </c>
+      <c r="H13" s="2">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <v>1383.0915491186518</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>2942</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>366.98829191499999</v>
+      </c>
+      <c r="E14">
+        <v>365.50200000000001</v>
+      </c>
+      <c r="F14">
+        <v>381.09899999999999</v>
+      </c>
+      <c r="G14">
+        <f>(E14-D14)/E14*100</f>
+        <v>-0.40664398963616644</v>
+      </c>
+      <c r="H14" s="2">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <v>1516.3041069840194</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>2942</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>393.53741496599997</v>
+      </c>
+      <c r="E15">
+        <v>392.66300000000001</v>
+      </c>
+      <c r="F15">
+        <v>406.68200000000002</v>
+      </c>
+      <c r="G15">
+        <f>(E15-D15)/E15*100</f>
+        <v>-0.22268840354195854</v>
+      </c>
+      <c r="H15" s="2">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <v>1414.0100358534933</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>2942</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>382.67851358199999</v>
+      </c>
+      <c r="E16">
+        <v>381.43299999999999</v>
+      </c>
+      <c r="F16">
+        <v>397.80799999999999</v>
+      </c>
+      <c r="G16">
+        <f>(E16-D16)/E16*100</f>
+        <v>-0.32653535011391277</v>
+      </c>
+      <c r="H16" s="2">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <v>1454.1340433176049</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" hidden="1">
+      <c r="B17">
+        <v>2942</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>364.84566615799997</v>
+      </c>
+      <c r="E17">
+        <v>356.78199999999998</v>
+      </c>
+      <c r="F17">
+        <v>386.34399999999999</v>
+      </c>
+      <c r="G17">
+        <f>(E17-D17)/E17*100</f>
+        <v>-2.260110139524973</v>
+      </c>
+      <c r="H17" s="2">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <v>1525.208892038152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" hidden="1">
+      <c r="B18">
+        <v>1961</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>254.014530982</v>
+      </c>
+      <c r="E18">
+        <v>251.02699999999999</v>
+      </c>
+      <c r="F18">
+        <v>264.346</v>
+      </c>
+      <c r="G18">
+        <f>(E18-D18)/E18*100</f>
+        <v>-1.1901233660124249</v>
+      </c>
+      <c r="H18" s="2">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <v>1460.2085410363884</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>2942</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>378.95784164000003</v>
+      </c>
+      <c r="E19">
+        <v>375.52699999999999</v>
+      </c>
+      <c r="F19">
+        <v>390.80500000000001</v>
+      </c>
+      <c r="G19">
+        <f>(E19-D19)/E19*100</f>
+        <v>-0.9136071813744524</v>
+      </c>
+      <c r="H19" s="2">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <v>1468.4109763702754</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" hidden="1">
+      <c r="B20">
+        <v>4903</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>597.81803878000005</v>
+      </c>
+      <c r="E20">
+        <v>591.71699999999998</v>
+      </c>
+      <c r="F20">
+        <v>620.23400000000004</v>
+      </c>
+      <c r="G20">
+        <f>(E20-D20)/E20*100</f>
+        <v>-1.0310737700623891</v>
+      </c>
+      <c r="H20" s="2">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <v>1551.2747722126092</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <v>2942</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>377.33351844100002</v>
+      </c>
+      <c r="E21">
+        <v>375.185</v>
+      </c>
+      <c r="F21">
+        <v>390.01100000000002</v>
+      </c>
+      <c r="G21">
+        <f>(E21-D21)/E21*100</f>
+        <v>-0.57265574076789361</v>
+      </c>
+      <c r="H21" s="2">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <v>1474.7321058168168</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <v>4903</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>584.90443796600005</v>
+      </c>
+      <c r="E22">
+        <v>582.59699999999998</v>
+      </c>
+      <c r="F22">
+        <v>616.78399999999999</v>
+      </c>
+      <c r="G22">
+        <f>(E22-D22)/E22*100</f>
+        <v>-0.39606073598045749</v>
+      </c>
+      <c r="H22" s="2">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <v>1585.5240304860554</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" hidden="1">
+      <c r="B23">
+        <v>9807</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>0.33319450229100001</v>
+      </c>
+      <c r="E23">
+        <v>678.005</v>
+      </c>
+      <c r="F23">
+        <v>1199.7809999999999</v>
+      </c>
+      <c r="G23">
+        <f>(E23-D23)/E23*100</f>
+        <v>99.950856630512902</v>
+      </c>
+      <c r="H23" s="2">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <v>5567166.3744191816</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1">
+      <c r="B24">
+        <v>1961</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>274.92017214999998</v>
+      </c>
+      <c r="E24">
+        <v>269.26900000000001</v>
+      </c>
+      <c r="F24">
+        <v>278.65199999999999</v>
+      </c>
+      <c r="G24">
+        <f>(E24-D24)/E24*100</f>
+        <v>-2.0987087819243877</v>
+      </c>
+      <c r="H24" s="2">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <v>1349.1705057018994</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" hidden="1">
+      <c r="B25">
+        <v>980</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>141.804340784</v>
+      </c>
+      <c r="E25">
+        <v>140.00899999999999</v>
+      </c>
+      <c r="F25">
+        <v>144.15100000000001</v>
+      </c>
+      <c r="G25">
+        <f>(E25-D25)/E25*100</f>
+        <v>-1.2823038404674116</v>
+      </c>
+      <c r="H25" s="2">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <v>1307.1709942301534</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26">
+        <v>4903</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>606.44638807900003</v>
+      </c>
+      <c r="E26">
+        <v>603.24900000000002</v>
+      </c>
+      <c r="F26">
+        <v>641.21199999999999</v>
+      </c>
+      <c r="G26">
+        <f>(E26-D26)/E26*100</f>
+        <v>-0.53002791202306287</v>
+      </c>
+      <c r="H26" s="2">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <v>1529.2036693806251</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" hidden="1">
+      <c r="B27">
+        <v>2942</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>385.05715211299997</v>
+      </c>
+      <c r="E27">
+        <v>379.58499999999998</v>
+      </c>
+      <c r="F27">
+        <v>395.10599999999999</v>
+      </c>
+      <c r="G27">
+        <f>(E27-D27)/E27*100</f>
+        <v>-1.4416144244372124</v>
+      </c>
+      <c r="H27" s="2">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <v>1445.1513267372388</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28">
+        <v>980</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>139.379425239</v>
+      </c>
+      <c r="E28">
+        <v>137.37700000000001</v>
+      </c>
+      <c r="F28">
+        <v>141.33099999999999</v>
+      </c>
+      <c r="G28">
+        <f>(E28-D28)/E28*100</f>
+        <v>-1.4576131659593599</v>
+      </c>
+      <c r="H28" s="2">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <v>1329.9130830172642</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <v>4903</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>576.74348651000003</v>
+      </c>
+      <c r="E29">
+        <v>573.697</v>
+      </c>
+      <c r="F29">
+        <v>603.45899999999995</v>
+      </c>
+      <c r="G29">
+        <f>(E29-D29)/E29*100</f>
+        <v>-0.53102709444184337</v>
+      </c>
+      <c r="H29" s="2">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <v>1607.9592810745228</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30">
+        <v>4903</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>658.16095145500003</v>
+      </c>
+      <c r="E30">
+        <v>653.51499999999999</v>
+      </c>
+      <c r="F30">
+        <v>682.35599999999999</v>
+      </c>
+      <c r="G30">
+        <f>(E30-D30)/E30*100</f>
+        <v>-0.7109173400763632</v>
+      </c>
+      <c r="H30" s="2">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <v>1409.0474980061781</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <v>4903</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>625.40839464999999</v>
+      </c>
+      <c r="E31">
+        <v>622.07399999999996</v>
+      </c>
+      <c r="F31">
+        <v>650.601</v>
+      </c>
+      <c r="G31">
+        <f>(E31-D31)/E31*100</f>
+        <v>-0.53601254030871504</v>
+      </c>
+      <c r="H31" s="2">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <v>1482.8391333826389</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <v>4903</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>604.42176870699996</v>
+      </c>
+      <c r="E32">
+        <v>600.81799999999998</v>
+      </c>
+      <c r="F32">
+        <v>628.98599999999999</v>
+      </c>
+      <c r="G32">
+        <f>(E32-D32)/E32*100</f>
+        <v>-0.5998103763535666</v>
+      </c>
+      <c r="H32" s="2">
+        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <v>1534.3260119782201</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33">
+        <v>9807</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>907.37424221399999</v>
+      </c>
+      <c r="E33">
+        <v>915.87300000000005</v>
+      </c>
+      <c r="F33">
+        <v>1263.8409999999999</v>
+      </c>
+      <c r="G33">
+        <f>(E33-D33)/E33*100</f>
+        <v>0.92794064089672423</v>
+      </c>
+      <c r="H33" s="2">
+        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <v>2044.3044809930907</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34">
+        <v>9807</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>1059.3896061800001</v>
+      </c>
+      <c r="E34">
+        <v>1059.539</v>
+      </c>
+      <c r="F34">
+        <v>1128.4090000000001</v>
+      </c>
+      <c r="G34">
+        <f>(E34-D34)/E34*100</f>
+        <v>1.4099888725180152E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <v>1750.9603817848079</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="G3:G34">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="B4:H34">
+    <sortCondition ref="B4"/>
+  </sortState>
+  <conditionalFormatting sqref="G4:G34">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="39.75" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="48.51" sheetId="3" r:id="rId3"/>
     <sheet name="60.61" sheetId="4" r:id="rId4"/>
     <sheet name="85.98" sheetId="5" r:id="rId5"/>
+    <sheet name="89.93" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'39.75'!$G$3:$G$42</definedName>
@@ -258,51 +259,7 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -343,8 +300,17 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -356,39 +322,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1822,17 +1755,17 @@
   </sheetData>
   <autoFilter ref="G3:G42">
     <filterColumn colId="0">
-      <colorFilter dxfId="10"/>
+      <colorFilter dxfId="6"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H42">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2890,17 +2823,17 @@
   </sheetData>
   <autoFilter ref="G3:G43">
     <filterColumn colId="0">
-      <colorFilter dxfId="7"/>
+      <colorFilter dxfId="5"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H43">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G1:G2 G4:G1048576">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3915,17 +3848,17 @@
   </sheetData>
   <autoFilter ref="G3:G43">
     <filterColumn colId="0">
-      <colorFilter dxfId="6"/>
+      <colorFilter dxfId="4"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B6:H41">
     <sortCondition ref="B6"/>
   </sortState>
   <conditionalFormatting sqref="G4:G41">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4341,18 +4274,18 @@
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G17">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4371,7 +4304,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B34"/>
     </sheetView>
   </sheetViews>
@@ -5193,10 +5126,10 @@
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5207,4 +5140,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'48.51'!$G$3:$G$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'60.61'!$G$3:$G$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'85.98'!$G$3:$G$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'89.93'!$G$3:$G$25</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>Load</t>
   </si>
@@ -111,8 +112,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -188,7 +191,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -223,6 +226,7 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -257,55 +261,10 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -370,8 +329,51 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -391,6 +393,14 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
@@ -405,8 +415,31 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -738,10 +771,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:H42"/>
+  <dimension ref="B3:H47"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -794,11 +827,11 @@
         <v>51.844999999999999</v>
       </c>
       <c r="G4">
-        <f>(E4-D4)/E4*100</f>
+        <f t="shared" ref="G4:G42" si="0">(E4-D4)/E4*100</f>
         <v>-0.49625740435912158</v>
       </c>
-      <c r="H4">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H42" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1828.9985552198725</v>
       </c>
     </row>
@@ -819,11 +852,11 @@
         <v>53.691000000000003</v>
       </c>
       <c r="G5">
-        <f>(E5-D5)/E5*100</f>
+        <f t="shared" si="0"/>
         <v>-5.6433976855386724E-2</v>
       </c>
-      <c r="H5">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
         <v>1771.7862728322841</v>
       </c>
     </row>
@@ -844,11 +877,11 @@
         <v>54.406999999999996</v>
       </c>
       <c r="G6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>-0.43168905796277374</v>
       </c>
-      <c r="H6">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
         <v>1749.1733091767246</v>
       </c>
     </row>
@@ -869,11 +902,11 @@
         <v>51.645000000000003</v>
       </c>
       <c r="G7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="0"/>
         <v>-0.83448388379692451</v>
       </c>
-      <c r="H7">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
         <v>1831.3989589796104</v>
       </c>
     </row>
@@ -894,11 +927,11 @@
         <v>55.723999999999997</v>
       </c>
       <c r="G8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="0"/>
         <v>-0.67659491407982497</v>
       </c>
-      <c r="H8">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
         <v>1701.005139037165</v>
       </c>
     </row>
@@ -919,11 +952,11 @@
         <v>52.719000000000001</v>
       </c>
       <c r="G9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="0"/>
         <v>0.24437616966732462</v>
       </c>
-      <c r="H9">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
         <v>1818.1664642795583</v>
       </c>
     </row>
@@ -944,11 +977,11 @@
         <v>108.82599999999999</v>
       </c>
       <c r="G10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="0"/>
         <v>-0.13856197514628768</v>
       </c>
-      <c r="H10">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
         <v>1764.0234295002922</v>
       </c>
     </row>
@@ -969,11 +1002,11 @@
         <v>109.79</v>
       </c>
       <c r="G11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="0"/>
         <v>-3.5538603522236152E-2</v>
       </c>
-      <c r="H11">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
         <v>1743.2139429530496</v>
       </c>
     </row>
@@ -994,11 +1027,11 @@
         <v>1174.8420000000001</v>
       </c>
       <c r="G12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="0"/>
         <v>2.821761373382603</v>
       </c>
       <c r="H12">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1863.7605110267439</v>
       </c>
     </row>
@@ -1019,11 +1052,11 @@
         <v>527.98</v>
       </c>
       <c r="G13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="0"/>
         <v>99.910159783704515</v>
       </c>
       <c r="H13">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>2075576.7911499839</v>
       </c>
     </row>
@@ -1044,11 +1077,11 @@
         <v>109.17</v>
       </c>
       <c r="G14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="0"/>
         <v>-8.7301340999804952E-2</v>
       </c>
-      <c r="H14">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
         <v>1760.1296171201511</v>
       </c>
     </row>
@@ -1069,11 +1102,11 @@
         <v>109.033</v>
       </c>
       <c r="G15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="0"/>
         <v>-0.77679014275675451</v>
       </c>
-      <c r="H15">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
         <v>1770.5855813952746</v>
       </c>
     </row>
@@ -1094,11 +1127,11 @@
         <v>109.35899999999999</v>
       </c>
       <c r="G16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="0"/>
         <v>0.29479897788586157</v>
       </c>
-      <c r="H16">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
         <v>1766.0022002915587</v>
       </c>
     </row>
@@ -1119,11 +1152,11 @@
         <v>229.732</v>
       </c>
       <c r="G17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="0"/>
         <v>-0.63448578717830939</v>
       </c>
-      <c r="H17">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
         <v>1676.1589851173867</v>
       </c>
     </row>
@@ -1144,11 +1177,11 @@
         <v>206.095</v>
       </c>
       <c r="G18">
-        <f>(E18-D18)/E18*100</f>
+        <f t="shared" si="0"/>
         <v>0.12396990911449828</v>
       </c>
-      <c r="H18">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
         <v>1888.7839061803475</v>
       </c>
     </row>
@@ -1169,11 +1202,11 @@
         <v>225.785</v>
       </c>
       <c r="G19">
-        <f>(E19-D19)/E19*100</f>
+        <f t="shared" si="0"/>
         <v>-0.17138463731687861</v>
       </c>
-      <c r="H19">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
         <v>1736.4126791977087</v>
       </c>
     </row>
@@ -1194,11 +1227,11 @@
         <v>205.30799999999999</v>
       </c>
       <c r="G20">
-        <f>(E20-D20)/E20*100</f>
+        <f t="shared" si="0"/>
         <v>4.1441801445754245E-3</v>
       </c>
-      <c r="H20">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
         <v>1929.0111793459421</v>
       </c>
     </row>
@@ -1219,11 +1252,11 @@
         <v>227.91200000000001</v>
       </c>
       <c r="G21">
-        <f>(E21-D21)/E21*100</f>
+        <f t="shared" si="0"/>
         <v>0.15599619501358714</v>
       </c>
-      <c r="H21">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
         <v>1834.0839483080831</v>
       </c>
     </row>
@@ -1244,11 +1277,11 @@
         <v>216.90700000000001</v>
       </c>
       <c r="G22">
-        <f>(E22-D22)/E22*100</f>
+        <f t="shared" si="0"/>
         <v>-0.18681760405657219</v>
       </c>
-      <c r="H22">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
         <v>1794.7399520833994</v>
       </c>
     </row>
@@ -1269,11 +1302,11 @@
         <v>221.64699999999999</v>
       </c>
       <c r="G23">
-        <f>(E23-D23)/E23*100</f>
+        <f t="shared" si="0"/>
         <v>-0.48921015827079622</v>
       </c>
-      <c r="H23">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
         <v>1745.4165380422603</v>
       </c>
     </row>
@@ -1294,11 +1327,11 @@
         <v>219.904</v>
       </c>
       <c r="G24">
-        <f>(E24-D24)/E24*100</f>
+        <f t="shared" si="0"/>
         <v>-3.6955908235461979E-2</v>
       </c>
-      <c r="H24">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
         <v>1766.5729500389436</v>
       </c>
     </row>
@@ -1319,11 +1352,11 @@
         <v>53.481999999999999</v>
       </c>
       <c r="G25">
-        <f>(E25-D25)/E25*100</f>
+        <f t="shared" si="0"/>
         <v>2.3455499211484505</v>
       </c>
       <c r="H25">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>1790.3333284367498</v>
       </c>
     </row>
@@ -1344,11 +1377,11 @@
         <v>324.892</v>
       </c>
       <c r="G26">
-        <f>(E26-D26)/E26*100</f>
+        <f t="shared" si="0"/>
         <v>0.19767553189032708</v>
       </c>
-      <c r="H26">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
         <v>1839.4482322481108</v>
       </c>
     </row>
@@ -1369,11 +1402,11 @@
         <v>325.96899999999999</v>
       </c>
       <c r="G27">
-        <f>(E27-D27)/E27*100</f>
+        <f t="shared" si="0"/>
         <v>0.45520263609791745</v>
       </c>
-      <c r="H27">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
         <v>1821.5159182784237</v>
       </c>
     </row>
@@ -1394,11 +1427,11 @@
         <v>354.54500000000002</v>
       </c>
       <c r="G28">
-        <f>(E28-D28)/E28*100</f>
+        <f t="shared" si="0"/>
         <v>0.24079215472042839</v>
       </c>
-      <c r="H28">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
         <v>1803.1181174924316</v>
       </c>
     </row>
@@ -1419,11 +1452,11 @@
         <v>350.92200000000003</v>
       </c>
       <c r="G29">
-        <f>(E29-D29)/E29*100</f>
+        <f t="shared" si="0"/>
         <v>2.7772305820034014E-2</v>
       </c>
-      <c r="H29">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
         <v>1777.9254058215768</v>
       </c>
     </row>
@@ -1444,11 +1477,11 @@
         <v>335.38900000000001</v>
       </c>
       <c r="G30">
-        <f>(E30-D30)/E30*100</f>
+        <f t="shared" si="0"/>
         <v>-4.3905505730414164E-2</v>
       </c>
-      <c r="H30">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
         <v>1750.3466014661863</v>
       </c>
     </row>
@@ -1469,11 +1502,11 @@
         <v>333.42899999999997</v>
       </c>
       <c r="G31">
-        <f>(E31-D31)/E31*100</f>
+        <f t="shared" si="0"/>
         <v>-0.22830707687161428</v>
       </c>
-      <c r="H31">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
         <v>1785.2092683336259</v>
       </c>
     </row>
@@ -1494,11 +1527,11 @@
         <v>202.35900000000001</v>
       </c>
       <c r="G32">
-        <f>(E32-D32)/E32*100</f>
+        <f t="shared" si="0"/>
         <v>-3.2034572265430197</v>
       </c>
       <c r="H32">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <f t="shared" si="1"/>
         <v>895.44734825526825</v>
       </c>
     </row>
@@ -1519,11 +1552,11 @@
         <v>33.816000000000003</v>
       </c>
       <c r="G33">
-        <f>(E33-D33)/E33*100</f>
+        <f t="shared" si="0"/>
         <v>-5.8721649125244649E-2</v>
       </c>
-      <c r="H33">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
         <v>1761.9751994052069</v>
       </c>
     </row>
@@ -1544,11 +1577,11 @@
         <v>330.59399999999999</v>
       </c>
       <c r="G34">
-        <f>(E34-D34)/E34*100</f>
+        <f t="shared" si="0"/>
         <v>0.77113228771003595</v>
       </c>
-      <c r="H34">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
         <v>1805.1576940461532</v>
       </c>
     </row>
@@ -1569,11 +1602,11 @@
         <v>537.05700000000002</v>
       </c>
       <c r="G35">
-        <f>(E35-D35)/E35*100</f>
+        <f t="shared" si="0"/>
         <v>0.54968126769926284</v>
       </c>
-      <c r="H35">
-        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
         <v>1850.5588393074963</v>
       </c>
     </row>
@@ -1594,11 +1627,11 @@
         <v>554.774</v>
       </c>
       <c r="G36">
-        <f>(E36-D36)/E36*100</f>
+        <f t="shared" si="0"/>
         <v>0.25083285716223525</v>
       </c>
-      <c r="H36">
-        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
         <v>1803.0219964466198</v>
       </c>
     </row>
@@ -1619,11 +1652,11 @@
         <v>561.76700000000005</v>
       </c>
       <c r="G37">
-        <f>(E37-D37)/E37*100</f>
+        <f t="shared" si="0"/>
         <v>5.0295696473799931E-2</v>
       </c>
-      <c r="H37">
-        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
         <v>1834.2655278980601</v>
       </c>
     </row>
@@ -1644,11 +1677,11 @@
         <v>551.45100000000002</v>
       </c>
       <c r="G38">
-        <f>(E38-D38)/E38*100</f>
+        <f t="shared" si="0"/>
         <v>-0.17383891242328106</v>
       </c>
-      <c r="H38">
-        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
         <v>1818.9887615829655</v>
       </c>
     </row>
@@ -1669,11 +1702,11 @@
         <v>547.04700000000003</v>
       </c>
       <c r="G39">
-        <f>(E39-D39)/E39*100</f>
+        <f t="shared" si="0"/>
         <v>0.29133983184424822</v>
       </c>
-      <c r="H39">
-        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
         <v>1841.7327327233288</v>
       </c>
     </row>
@@ -1694,11 +1727,11 @@
         <v>527.96900000000005</v>
       </c>
       <c r="G40">
-        <f>(E40-D40)/E40*100</f>
+        <f t="shared" si="0"/>
         <v>3.6917010112461457E-2</v>
       </c>
-      <c r="H40">
-        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
         <v>1864.379163658271</v>
       </c>
     </row>
@@ -1719,11 +1752,11 @@
         <v>548.06399999999996</v>
       </c>
       <c r="G41">
-        <f>(E41-D41)/E41*100</f>
+        <f t="shared" si="0"/>
         <v>-0.13647116293228734</v>
       </c>
-      <c r="H41">
-        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
         <v>1807.3980059421563</v>
       </c>
     </row>
@@ -1744,28 +1777,43 @@
         <v>1101.7090000000001</v>
       </c>
       <c r="G42">
-        <f>(E42-D42)/E42*100</f>
+        <f t="shared" si="0"/>
         <v>0.22457652348661339</v>
       </c>
-      <c r="H42">
-        <f>2*B42*SIN((136*3.14159/180)/2)*102/D42</f>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
         <v>1803.1264899381135</v>
       </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="H47" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="G3:G42">
     <filterColumn colId="0">
-      <colorFilter dxfId="6"/>
+      <colorFilter dxfId="21"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H42">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1837,11 +1885,11 @@
         <v>54.997999999999998</v>
       </c>
       <c r="G4">
-        <f>((D4-E4)/E4)*100</f>
+        <f t="shared" ref="G4:G43" si="0">((D4-E4)/E4)*100</f>
         <v>-0.36632840017859142</v>
       </c>
       <c r="H4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="H4:H43" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1730.4491901645849</v>
       </c>
     </row>
@@ -1862,11 +1910,11 @@
         <v>50.825000000000003</v>
       </c>
       <c r="G5">
-        <f>((D5-E5)/E5)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.37362403168197178</v>
       </c>
       <c r="H5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>1877.2846062359467</v>
       </c>
     </row>
@@ -1887,11 +1935,11 @@
         <v>55.183</v>
       </c>
       <c r="G6">
-        <f>((D6-E6)/E6)*100</f>
+        <f t="shared" si="0"/>
         <v>0.28856197516197074</v>
       </c>
       <c r="H6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>1715.5430248604275</v>
       </c>
     </row>
@@ -1912,11 +1960,11 @@
         <v>53.978999999999999</v>
       </c>
       <c r="G7">
-        <f>((D7-E7)/E7)*100</f>
+        <f t="shared" si="0"/>
         <v>0.85732171029834148</v>
       </c>
       <c r="H7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>1749.5847184781362</v>
       </c>
     </row>
@@ -1937,11 +1985,11 @@
         <v>53.313000000000002</v>
       </c>
       <c r="G8">
-        <f>((D8-E8)/E8)*100</f>
+        <f t="shared" si="0"/>
         <v>0.48864515148600546</v>
       </c>
       <c r="H8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>1774.1767876413576</v>
       </c>
     </row>
@@ -1962,11 +2010,11 @@
         <v>53.582999999999998</v>
       </c>
       <c r="G9">
-        <f>((D9-E9)/E9)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.12679962855828877</v>
       </c>
       <c r="H9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>1777.6891548599031</v>
       </c>
     </row>
@@ -1987,11 +2035,11 @@
         <v>112.015</v>
       </c>
       <c r="G10">
-        <f>((D10-E10)/E10)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.19581075567748313</v>
       </c>
       <c r="H10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>1709.6979038281797</v>
       </c>
     </row>
@@ -2012,11 +2060,11 @@
         <v>110.69499999999999</v>
       </c>
       <c r="G11">
-        <f>((D11-E11)/E11)*100</f>
+        <f t="shared" si="0"/>
         <v>0.51883087536523986</v>
       </c>
       <c r="H11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>1721.471672904871</v>
       </c>
     </row>
@@ -2037,11 +2085,11 @@
         <v>109.31699999999999</v>
       </c>
       <c r="G12">
-        <f>((D12-E12)/E12)*100</f>
+        <f t="shared" si="0"/>
         <v>0.47641071526136231</v>
       </c>
       <c r="H12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1737.8375555881892</v>
       </c>
     </row>
@@ -2062,11 +2110,11 @@
         <v>576.06200000000001</v>
       </c>
       <c r="G13">
-        <f>((D13-E13)/E13)*100</f>
+        <f t="shared" si="0"/>
         <v>-99.992228142978988</v>
       </c>
       <c r="H13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>21608349.606844418</v>
       </c>
     </row>
@@ -2087,11 +2135,11 @@
         <v>112.379</v>
       </c>
       <c r="G14">
-        <f>((D14-E14)/E14)*100</f>
+        <f t="shared" si="0"/>
         <v>0.49370498794495465</v>
       </c>
       <c r="H14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>1690.9314286484562</v>
       </c>
     </row>
@@ -2112,11 +2160,11 @@
         <v>281.69099999999997</v>
       </c>
       <c r="G15">
-        <f>((D15-E15)/E15)*100</f>
+        <f t="shared" si="0"/>
         <v>0.28890096649976316</v>
       </c>
       <c r="H15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>1766.9588933541363</v>
       </c>
     </row>
@@ -2137,11 +2185,11 @@
         <v>223.44200000000001</v>
       </c>
       <c r="G16">
-        <f>((D16-E16)/E16)*100</f>
+        <f t="shared" si="0"/>
         <v>0.14810134065271952</v>
       </c>
       <c r="H16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>1715.7282151481663</v>
       </c>
     </row>
@@ -2162,11 +2210,11 @@
         <v>195.405</v>
       </c>
       <c r="G17">
-        <f>((D17-E17)/E17)*100</f>
+        <f t="shared" si="0"/>
         <v>0.12158248210860849</v>
       </c>
       <c r="H17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>1968.2591483433694</v>
       </c>
     </row>
@@ -2187,11 +2235,11 @@
         <v>224.68199999999999</v>
       </c>
       <c r="G18">
-        <f>((D18-E18)/E18)*100</f>
+        <f t="shared" si="0"/>
         <v>0.27413530426917909</v>
       </c>
       <c r="H18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="1"/>
         <v>1706.8428761885962</v>
       </c>
     </row>
@@ -2212,11 +2260,11 @@
         <v>221.685</v>
       </c>
       <c r="G19">
-        <f>((D19-E19)/E19)*100</f>
+        <f t="shared" si="0"/>
         <v>0.62316852493898378</v>
       </c>
       <c r="H19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="1"/>
         <v>1720.0742969270493</v>
       </c>
     </row>
@@ -2237,11 +2285,11 @@
         <v>320.76100000000002</v>
       </c>
       <c r="G20">
-        <f>((D20-E20)/E20)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.14285891752528038</v>
       </c>
       <c r="H20" s="2">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="1"/>
         <v>1809.5211817051024</v>
       </c>
     </row>
@@ -2262,11 +2310,11 @@
         <v>325.38099999999997</v>
       </c>
       <c r="G21">
-        <f>((D21-E21)/E21)*100</f>
+        <f t="shared" si="0"/>
         <v>0.11211865795083954</v>
       </c>
       <c r="H21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="1"/>
         <v>1771.5592251544304</v>
       </c>
     </row>
@@ -2287,11 +2335,11 @@
         <v>318.06799999999998</v>
       </c>
       <c r="G22">
-        <f>((D22-E22)/E22)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.28424571359814599</v>
       </c>
       <c r="H22" s="2">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="1"/>
         <v>1839.6735490876711</v>
       </c>
     </row>
@@ -2312,11 +2360,11 @@
         <v>329.05</v>
       </c>
       <c r="G23">
-        <f>((D23-E23)/E23)*100</f>
+        <f t="shared" si="0"/>
         <v>0.18435685171280033</v>
       </c>
       <c r="H23" s="2">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="1"/>
         <v>1759.670836212126</v>
       </c>
     </row>
@@ -2337,11 +2385,11 @@
         <v>336.173</v>
       </c>
       <c r="G24">
-        <f>((D24-E24)/E24)*100</f>
+        <f t="shared" si="0"/>
         <v>4.6531441046675684E-2</v>
       </c>
       <c r="H24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="1"/>
         <v>1738.4295044613821</v>
       </c>
     </row>
@@ -2362,11 +2410,11 @@
         <v>328.06400000000002</v>
       </c>
       <c r="G25">
-        <f>((D25-E25)/E25)*100</f>
+        <f t="shared" si="0"/>
         <v>-1.7408698510842199E-2</v>
       </c>
       <c r="H25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>1785.0621560606423</v>
       </c>
     </row>
@@ -2387,11 +2435,11 @@
         <v>327.48500000000001</v>
       </c>
       <c r="G26">
-        <f>((D26-E26)/E26)*100</f>
+        <f t="shared" si="0"/>
         <v>9.0794856576069047E-2</v>
       </c>
       <c r="H26" s="2">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <f t="shared" si="1"/>
         <v>1790.45988473741</v>
       </c>
     </row>
@@ -2412,11 +2460,11 @@
         <v>336.10300000000001</v>
       </c>
       <c r="G27">
-        <f>((D27-E27)/E27)*100</f>
+        <f t="shared" si="0"/>
         <v>-5.0408319048471754E-2</v>
       </c>
       <c r="H27" s="2">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <f t="shared" si="1"/>
         <v>1722.6813686180039</v>
       </c>
     </row>
@@ -2437,11 +2485,11 @@
         <v>340.964</v>
       </c>
       <c r="G28">
-        <f>((D28-E28)/E28)*100</f>
+        <f t="shared" si="0"/>
         <v>9.9771641612943343E-2</v>
       </c>
       <c r="H28" s="2">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <f t="shared" si="1"/>
         <v>1700.9133543119833</v>
       </c>
     </row>
@@ -2462,11 +2510,11 @@
         <v>334.35300000000001</v>
       </c>
       <c r="G29">
-        <f>((D29-E29)/E29)*100</f>
+        <f t="shared" si="0"/>
         <v>-1.071998252155361E-2</v>
       </c>
       <c r="H29" s="2">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <f t="shared" si="1"/>
         <v>1755.8114653603889</v>
       </c>
     </row>
@@ -2487,11 +2535,11 @@
         <v>550.03200000000004</v>
       </c>
       <c r="G30">
-        <f>((D30-E30)/E30)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.21618824744933923</v>
       </c>
       <c r="H30" s="2">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <f t="shared" si="1"/>
         <v>1766.7687610858295</v>
       </c>
     </row>
@@ -2512,11 +2560,11 @@
         <v>536.27</v>
       </c>
       <c r="G31">
-        <f>((D31-E31)/E31)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.25277291262021784</v>
       </c>
       <c r="H31" s="2">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <f t="shared" si="1"/>
         <v>1820.373241571785</v>
       </c>
     </row>
@@ -2537,11 +2585,11 @@
         <v>547.66899999999998</v>
       </c>
       <c r="G32">
-        <f>((D32-E32)/E32)*100</f>
+        <f t="shared" si="0"/>
         <v>-6.0563201609851583E-2</v>
       </c>
       <c r="H32" s="2">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <f t="shared" si="1"/>
         <v>1776.710302188872</v>
       </c>
     </row>
@@ -2562,11 +2610,11 @@
         <v>207.82599999999999</v>
       </c>
       <c r="G33">
-        <f>((D33-E33)/E33)*100</f>
+        <f t="shared" si="0"/>
         <v>-1.8771891633922055</v>
       </c>
       <c r="H33" s="2">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <f t="shared" si="1"/>
         <v>1896.9842440216523</v>
       </c>
     </row>
@@ -2587,11 +2635,11 @@
         <v>551.33199999999999</v>
       </c>
       <c r="G34">
-        <f>((D34-E34)/E34)*100</f>
+        <f t="shared" si="0"/>
         <v>9.0955616841690345E-2</v>
       </c>
       <c r="H34" s="2">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <f t="shared" si="1"/>
         <v>1780.6793103825248</v>
       </c>
     </row>
@@ -2612,11 +2660,11 @@
         <v>554.71500000000003</v>
       </c>
       <c r="G35">
-        <f>((D35-E35)/E35)*100</f>
+        <f t="shared" si="0"/>
         <v>-2.2660265685966914E-2</v>
       </c>
       <c r="H35" s="2">
-        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
+        <f t="shared" si="1"/>
         <v>1768.425075343911</v>
       </c>
     </row>
@@ -2637,11 +2685,11 @@
         <v>541.197</v>
       </c>
       <c r="G36">
-        <f>((D36-E36)/E36)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.20070884431756408</v>
       </c>
       <c r="H36" s="2">
-        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
+        <f t="shared" si="1"/>
         <v>1809.3342453666801</v>
       </c>
     </row>
@@ -2662,11 +2710,11 @@
         <v>558.46900000000005</v>
       </c>
       <c r="G37">
-        <f>((D37-E37)/E37)*100</f>
+        <f t="shared" si="0"/>
         <v>4.4415323019862517E-3</v>
       </c>
       <c r="H37" s="2">
-        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
+        <f t="shared" si="1"/>
         <v>1741.4617936291602</v>
       </c>
     </row>
@@ -2687,11 +2735,11 @@
         <v>561.97299999999996</v>
       </c>
       <c r="G38">
-        <f>((D38-E38)/E38)*100</f>
+        <f t="shared" si="0"/>
         <v>0.63353333339539097</v>
       </c>
       <c r="H38" s="2">
-        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
+        <f t="shared" si="1"/>
         <v>1715.5016756867478</v>
       </c>
     </row>
@@ -2712,11 +2760,11 @@
         <v>541.93700000000001</v>
       </c>
       <c r="G39">
-        <f>((D39-E39)/E39)*100</f>
+        <f t="shared" si="0"/>
         <v>0.66191015114517204</v>
       </c>
       <c r="H39" s="2">
-        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
+        <f t="shared" si="1"/>
         <v>1786.8257242906818</v>
       </c>
     </row>
@@ -2737,11 +2785,11 @@
         <v>1086.876</v>
       </c>
       <c r="G40">
-        <f>((D40-E40)/E40)*100</f>
+        <f t="shared" si="0"/>
         <v>0.36384042202343359</v>
       </c>
       <c r="H40" s="2">
-        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
+        <f t="shared" si="1"/>
         <v>1798.0500541997289</v>
       </c>
     </row>
@@ -2762,11 +2810,11 @@
         <v>1091.03</v>
       </c>
       <c r="G41">
-        <f>((D41-E41)/E41)*100</f>
+        <f t="shared" si="0"/>
         <v>0.23147140103300601</v>
       </c>
       <c r="H41" s="2">
-        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
+        <f t="shared" si="1"/>
         <v>1815.5259629947925</v>
       </c>
     </row>
@@ -2787,11 +2835,11 @@
         <v>1100.847</v>
       </c>
       <c r="G42">
-        <f>((D42-E42)/E42)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.33021476589197618</v>
       </c>
       <c r="H42" s="2">
-        <f>2*B42*SIN((136*3.14159/180)/2)*102/D42</f>
+        <f t="shared" si="1"/>
         <v>1798.6180429233038</v>
       </c>
     </row>
@@ -2812,28 +2860,28 @@
         <v>1090.731</v>
       </c>
       <c r="G43">
-        <f>((D43-E43)/E43)*100</f>
+        <f t="shared" si="0"/>
         <v>0.58938659237060975</v>
       </c>
       <c r="H43" s="2">
-        <f>2*B43*SIN((136*3.14159/180)/2)*102/D43</f>
+        <f t="shared" si="1"/>
         <v>1768.9089131037813</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="G3:G43">
     <filterColumn colId="0">
-      <colorFilter dxfId="5"/>
+      <colorFilter dxfId="18"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H43">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G1:G2 G4:G1048576">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2906,11 +2954,11 @@
         <v>25.408000000000001</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G41" si="0">(E4-D4)/E4*100</f>
+        <f t="shared" ref="G4:G5" si="0">(E4-D4)/E4*100</f>
         <v>-2.0462111826184826</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H41" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="H4:H5" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1825.4378258462646</v>
       </c>
     </row>
@@ -2956,11 +3004,11 @@
         <v>25.25</v>
       </c>
       <c r="G6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" ref="G6:G41" si="2">(E6-D6)/E6*100</f>
         <v>0.89947385563666249</v>
       </c>
       <c r="H6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" ref="H6:H41" si="3">2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
         <v>1896.2382550247062</v>
       </c>
     </row>
@@ -2981,11 +3029,11 @@
         <v>25.545999999999999</v>
       </c>
       <c r="G7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="2"/>
         <v>0.34787171403339051</v>
       </c>
       <c r="H7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="3"/>
         <v>1866.6666255046839</v>
       </c>
     </row>
@@ -3006,11 +3054,11 @@
         <v>25.959</v>
       </c>
       <c r="G8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="2"/>
         <v>0.12903274913819959</v>
       </c>
       <c r="H8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="3"/>
         <v>1817.6317034511089</v>
       </c>
     </row>
@@ -3031,11 +3079,11 @@
         <v>111.765</v>
       </c>
       <c r="G9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="2"/>
         <v>2.4345556405323234E-2</v>
       </c>
       <c r="H9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="3"/>
         <v>1708.4012241666487</v>
       </c>
     </row>
@@ -3056,11 +3104,11 @@
         <v>56.924999999999997</v>
       </c>
       <c r="G10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="2"/>
         <v>-1.2846722910463908</v>
       </c>
       <c r="H10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="3"/>
         <v>1661.203108654433</v>
       </c>
     </row>
@@ -3081,11 +3129,11 @@
         <v>114.065</v>
       </c>
       <c r="G11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="2"/>
         <v>-0.30606783619378586</v>
       </c>
       <c r="H11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="3"/>
         <v>1672.7941668742933</v>
       </c>
     </row>
@@ -3106,11 +3154,11 @@
         <v>112.337</v>
       </c>
       <c r="G12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="2"/>
         <v>-0.32290329843076293</v>
       </c>
       <c r="H12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="3"/>
         <v>1698.5438910466924</v>
       </c>
     </row>
@@ -3131,11 +3179,11 @@
         <v>109.27200000000001</v>
       </c>
       <c r="G13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="2"/>
         <v>-0.54357054095504787</v>
       </c>
       <c r="H13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="3"/>
         <v>1745.3742601089341</v>
       </c>
     </row>
@@ -3156,11 +3204,11 @@
         <v>111.276</v>
       </c>
       <c r="G14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="2"/>
         <v>-0.74550510198384035</v>
       </c>
       <c r="H14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="3"/>
         <v>1712.0525168531531</v>
       </c>
     </row>
@@ -3181,11 +3229,11 @@
         <v>110.11199999999999</v>
       </c>
       <c r="G15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="2"/>
         <v>-0.52153519069566467</v>
       </c>
       <c r="H15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="3"/>
         <v>1730.959120193955</v>
       </c>
     </row>
@@ -3206,11 +3254,11 @@
         <v>108.401</v>
       </c>
       <c r="G16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="2"/>
         <v>-0.58789663509589452</v>
       </c>
       <c r="H16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="3"/>
         <v>1754.1207006380573</v>
       </c>
     </row>
@@ -3231,11 +3279,11 @@
         <v>215.887</v>
       </c>
       <c r="G17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="2"/>
         <v>0.11037025093251684</v>
       </c>
       <c r="H17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="3"/>
         <v>1798.789027460854</v>
       </c>
     </row>
@@ -3256,11 +3304,11 @@
         <v>223.328</v>
       </c>
       <c r="G18">
-        <f>(E18-D18)/E18*100</f>
+        <f t="shared" si="2"/>
         <v>-0.16894471039130718</v>
       </c>
       <c r="H18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="3"/>
         <v>1722.2966119363805</v>
       </c>
     </row>
@@ -3281,11 +3329,11 @@
         <v>224.88200000000001</v>
       </c>
       <c r="G19">
-        <f>(E19-D19)/E19*100</f>
+        <f t="shared" si="2"/>
         <v>-8.951214587630052E-2</v>
       </c>
       <c r="H19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="3"/>
         <v>1713.7712676074907</v>
       </c>
     </row>
@@ -3306,11 +3354,11 @@
         <v>226.245</v>
       </c>
       <c r="G20">
-        <f>(E20-D20)/E20*100</f>
+        <f t="shared" si="2"/>
         <v>-5.539793886662865E-3</v>
       </c>
       <c r="H20" s="2">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="3"/>
         <v>1709.4393686811959</v>
       </c>
     </row>
@@ -3331,11 +3379,11 @@
         <v>52.44</v>
       </c>
       <c r="G21">
-        <f>(E21-D21)/E21*100</f>
+        <f t="shared" si="2"/>
         <v>-1.2589884109659377</v>
       </c>
       <c r="H21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="3"/>
         <v>1806.5156523739922</v>
       </c>
     </row>
@@ -3356,11 +3404,11 @@
         <v>219.27199999999999</v>
       </c>
       <c r="G22">
-        <f>(E22-D22)/E22*100</f>
+        <f t="shared" si="2"/>
         <v>-0.1957526963932498</v>
       </c>
       <c r="H22" s="2">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="3"/>
         <v>1735.3556205979969</v>
       </c>
     </row>
@@ -3381,11 +3429,11 @@
         <v>222.99299999999999</v>
       </c>
       <c r="G23">
-        <f>(E23-D23)/E23*100</f>
+        <f t="shared" si="2"/>
         <v>-0.2318628419909709</v>
       </c>
       <c r="H23" s="2">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="3"/>
         <v>1724.4880443371353</v>
       </c>
     </row>
@@ -3406,11 +3454,11 @@
         <v>214.07599999999999</v>
       </c>
       <c r="G24">
-        <f>(E24-D24)/E24*100</f>
+        <f t="shared" si="2"/>
         <v>-0.23971231235791832</v>
       </c>
       <c r="H24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="3"/>
         <v>1812.8634620260025</v>
       </c>
     </row>
@@ -3431,11 +3479,11 @@
         <v>215.55199999999999</v>
       </c>
       <c r="G25">
-        <f>(E25-D25)/E25*100</f>
+        <f t="shared" si="2"/>
         <v>-0.1242243698005258</v>
       </c>
       <c r="H25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="3"/>
         <v>1784.520641584169</v>
       </c>
     </row>
@@ -3456,11 +3504,11 @@
         <v>319.17099999999999</v>
       </c>
       <c r="G26">
-        <f>(E26-D26)/E26*100</f>
+        <f t="shared" si="2"/>
         <v>1.3635718018067448E-2</v>
       </c>
       <c r="H26" s="2">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <f t="shared" si="3"/>
         <v>1828.9906723820225</v>
       </c>
     </row>
@@ -3481,11 +3529,11 @@
         <v>337.45299999999997</v>
       </c>
       <c r="G27">
-        <f>(E27-D27)/E27*100</f>
+        <f t="shared" si="2"/>
         <v>9.9634219460883328E-3</v>
       </c>
       <c r="H27" s="2">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <f t="shared" si="3"/>
         <v>1754.3535708677605</v>
       </c>
     </row>
@@ -3506,11 +3554,11 @@
         <v>329.65100000000001</v>
       </c>
       <c r="G28">
-        <f>(E28-D28)/E28*100</f>
+        <f t="shared" si="2"/>
         <v>9.239387121698725E-2</v>
       </c>
       <c r="H28" s="2">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <f t="shared" si="3"/>
         <v>1808.2489889163091</v>
       </c>
     </row>
@@ -3531,11 +3579,11 @@
         <v>326.54300000000001</v>
       </c>
       <c r="G29">
-        <f>(E29-D29)/E29*100</f>
+        <f t="shared" si="2"/>
         <v>-0.73247827746917715</v>
       </c>
       <c r="H29" s="2">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <f t="shared" si="3"/>
         <v>1776.8226790913056</v>
       </c>
     </row>
@@ -3556,11 +3604,11 @@
         <v>329.93900000000002</v>
       </c>
       <c r="G30">
-        <f>(E30-D30)/E30*100</f>
+        <f t="shared" si="2"/>
         <v>0.17823826265152876</v>
       </c>
       <c r="H30" s="2">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <f t="shared" si="3"/>
         <v>1779.4174587202424</v>
       </c>
     </row>
@@ -3581,11 +3629,11 @@
         <v>25.084</v>
       </c>
       <c r="G31">
-        <f>(E31-D31)/E31*100</f>
+        <f t="shared" si="2"/>
         <v>1.8642787958854319</v>
       </c>
       <c r="H31" s="2">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <f t="shared" si="3"/>
         <v>1904.8390737632863</v>
       </c>
     </row>
@@ -3606,11 +3654,11 @@
         <v>543.78599999999994</v>
       </c>
       <c r="G32">
-        <f>(E32-D32)/E32*100</f>
+        <f t="shared" si="2"/>
         <v>0.19486181206547393</v>
       </c>
       <c r="H32" s="2">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <f t="shared" si="3"/>
         <v>1812.0473097479394</v>
       </c>
     </row>
@@ -3631,11 +3679,11 @@
         <v>538.95600000000002</v>
       </c>
       <c r="G33">
-        <f>(E33-D33)/E33*100</f>
+        <f t="shared" si="2"/>
         <v>0.20546102182278531</v>
       </c>
       <c r="H33" s="2">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <f t="shared" si="3"/>
         <v>1822.729298883608</v>
       </c>
     </row>
@@ -3656,11 +3704,11 @@
         <v>548.34500000000003</v>
       </c>
       <c r="G34">
-        <f>(E34-D34)/E34*100</f>
+        <f t="shared" si="2"/>
         <v>0.1414157726093318</v>
       </c>
       <c r="H34" s="2">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <f t="shared" si="3"/>
         <v>1785.0905542035844</v>
       </c>
     </row>
@@ -3681,11 +3729,11 @@
         <v>541.12800000000004</v>
       </c>
       <c r="G35">
-        <f>(E35-D35)/E35*100</f>
+        <f t="shared" si="2"/>
         <v>0.29492006146765398</v>
       </c>
       <c r="H35" s="2">
-        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
+        <f t="shared" si="3"/>
         <v>1810.4023266104459</v>
       </c>
     </row>
@@ -3706,11 +3754,11 @@
         <v>543.04100000000005</v>
       </c>
       <c r="G36">
-        <f>(E36-D36)/E36*100</f>
+        <f t="shared" si="2"/>
         <v>0.16576013134014794</v>
       </c>
       <c r="H36" s="2">
-        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
+        <f t="shared" si="3"/>
         <v>1816.6240742978969</v>
       </c>
     </row>
@@ -3731,11 +3779,11 @@
         <v>530.32399999999996</v>
       </c>
       <c r="G37">
-        <f>(E37-D37)/E37*100</f>
+        <f t="shared" si="2"/>
         <v>-0.32378300326623849</v>
       </c>
       <c r="H37" s="2">
-        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
+        <f t="shared" si="3"/>
         <v>1836.5353957886343</v>
       </c>
     </row>
@@ -3756,11 +3804,11 @@
         <v>553.90099999999995</v>
       </c>
       <c r="G38">
-        <f>(E38-D38)/E38*100</f>
+        <f t="shared" si="2"/>
         <v>-0.62748818599704159</v>
       </c>
       <c r="H38" s="2">
-        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
+        <f t="shared" si="3"/>
         <v>1788.2485332225149</v>
       </c>
     </row>
@@ -3781,11 +3829,11 @@
         <v>528.89099999999996</v>
       </c>
       <c r="G39">
-        <f>(E39-D39)/E39*100</f>
+        <f t="shared" si="2"/>
         <v>0.29403721591589715</v>
       </c>
       <c r="H39" s="2">
-        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
+        <f t="shared" si="3"/>
         <v>1856.2055981954372</v>
       </c>
     </row>
@@ -3806,11 +3854,11 @@
         <v>537.88699999999994</v>
       </c>
       <c r="G40">
-        <f>(E40-D40)/E40*100</f>
+        <f t="shared" si="2"/>
         <v>0.18694243637731839</v>
       </c>
       <c r="H40" s="2">
-        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
+        <f t="shared" si="3"/>
         <v>1840.0906181193704</v>
       </c>
     </row>
@@ -3831,11 +3879,11 @@
         <v>525.27200000000005</v>
       </c>
       <c r="G41">
-        <f>(E41-D41)/E41*100</f>
+        <f t="shared" si="2"/>
         <v>-0.84776830080463794</v>
       </c>
       <c r="H41" s="2">
-        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
+        <f t="shared" si="3"/>
         <v>1847.9942192687311</v>
       </c>
     </row>
@@ -3848,7 +3896,7 @@
   </sheetData>
   <autoFilter ref="G3:G43">
     <filterColumn colId="0">
-      <colorFilter dxfId="4"/>
+      <colorFilter dxfId="15"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B6:H41">
@@ -3931,11 +3979,11 @@
         <v>366.27100000000002</v>
       </c>
       <c r="G4">
-        <f>(E4-D4)/E4*100</f>
+        <f t="shared" ref="G4:G17" si="0">(E4-D4)/E4*100</f>
         <v>0.711913841610335</v>
       </c>
       <c r="H4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="H4:H17" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>528.62131655095016</v>
       </c>
     </row>
@@ -3956,11 +4004,11 @@
         <v>332.30599999999998</v>
       </c>
       <c r="G5">
-        <f>(E5-D5)/E5*100</f>
+        <f t="shared" si="0"/>
         <v>0.69734839596614817</v>
       </c>
       <c r="H5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>585.8834382611559</v>
       </c>
     </row>
@@ -3981,11 +4029,11 @@
         <v>324.24599999999998</v>
       </c>
       <c r="G6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>-0.1172574802842412</v>
       </c>
       <c r="H6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>601.86015392076274</v>
       </c>
     </row>
@@ -4006,11 +4054,11 @@
         <v>353.74099999999999</v>
       </c>
       <c r="G7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="0"/>
         <v>0.64426869463358183</v>
       </c>
       <c r="H7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>546.34892095553369</v>
       </c>
     </row>
@@ -4031,11 +4079,11 @@
         <v>325.37099999999998</v>
       </c>
       <c r="G8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="0"/>
         <v>-3.8719093799216252E-2</v>
       </c>
       <c r="H8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>594.41605490378527</v>
       </c>
     </row>
@@ -4056,11 +4104,11 @@
         <v>526.92899999999997</v>
       </c>
       <c r="G9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="0"/>
         <v>-0.76591004554175934</v>
       </c>
       <c r="H9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>734.92721860006793</v>
       </c>
     </row>
@@ -4081,11 +4129,11 @@
         <v>528.93700000000001</v>
       </c>
       <c r="G10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="0"/>
         <v>-0.3410579314807976</v>
       </c>
       <c r="H10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>736.07553890244765</v>
       </c>
     </row>
@@ -4106,11 +4154,11 @@
         <v>529.70899999999995</v>
       </c>
       <c r="G11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="0"/>
         <v>2.8481918950459813E-3</v>
       </c>
       <c r="H11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>740.94999138246453</v>
       </c>
     </row>
@@ -4131,11 +4179,11 @@
         <v>522.63800000000003</v>
       </c>
       <c r="G12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="0"/>
         <v>-0.55297122711298508</v>
       </c>
       <c r="H12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>747.61435561660664</v>
       </c>
     </row>
@@ -4156,11 +4204,11 @@
         <v>538.68499999999995</v>
       </c>
       <c r="G13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="0"/>
         <v>7.8808360468922201E-2</v>
       </c>
       <c r="H13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>735.69654975045114</v>
       </c>
     </row>
@@ -4181,11 +4229,11 @@
         <v>528.95799999999997</v>
       </c>
       <c r="G14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="0"/>
         <v>-0.1532945435682177</v>
       </c>
       <c r="H14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>737.48046860162287</v>
       </c>
     </row>
@@ -4206,11 +4254,11 @@
         <v>558.61699999999996</v>
       </c>
       <c r="G15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="0"/>
         <v>0.54789815191881719</v>
       </c>
       <c r="H15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>697.98070803577423</v>
       </c>
     </row>
@@ -4231,11 +4279,11 @@
         <v>550.49599999999998</v>
       </c>
       <c r="G16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="0"/>
         <v>-0.80351593305974123</v>
       </c>
       <c r="H16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>696.81942878103769</v>
       </c>
     </row>
@@ -4256,36 +4304,36 @@
         <v>645.28399999999999</v>
       </c>
       <c r="G17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="0"/>
         <v>0.65379037186126687</v>
       </c>
       <c r="H17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>602.6143558494864</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="G3:G17">
     <filterColumn colId="0">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="12"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H17">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G17">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4305,7 +4353,7 @@
   <dimension ref="B3:H34"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B34"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4358,11 +4406,11 @@
         <v>147.114</v>
       </c>
       <c r="G4">
-        <f>(E4-D4)/E4*100</f>
+        <f t="shared" ref="G4:G34" si="0">(E4-D4)/E4*100</f>
         <v>-0.5227324673954451</v>
       </c>
       <c r="H4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="H4:H34" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1297.138463725626</v>
       </c>
     </row>
@@ -4383,11 +4431,11 @@
         <v>268.334</v>
       </c>
       <c r="G5">
-        <f>(E5-D5)/E5*100</f>
+        <f t="shared" si="0"/>
         <v>-0.91726207547755068</v>
       </c>
       <c r="H5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>1425.2586744657951</v>
       </c>
     </row>
@@ -4408,11 +4456,11 @@
         <v>635.53099999999995</v>
       </c>
       <c r="G6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>-1.3727223534320545</v>
       </c>
       <c r="H6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>1514.726459748254</v>
       </c>
     </row>
@@ -4433,11 +4481,11 @@
         <v>403.05200000000002</v>
       </c>
       <c r="G7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="0"/>
         <v>-1.614329061215835</v>
       </c>
       <c r="H7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>1417.1179150292264</v>
       </c>
     </row>
@@ -4458,11 +4506,11 @@
         <v>266.67500000000001</v>
       </c>
       <c r="G8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="0"/>
         <v>-2.0102955106282181</v>
       </c>
       <c r="H8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>1409.8777793550125</v>
       </c>
     </row>
@@ -4483,11 +4531,11 @@
         <v>243.648</v>
       </c>
       <c r="G9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="0"/>
         <v>-0.64027063764318026</v>
       </c>
       <c r="H9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>1588.3091932176624</v>
       </c>
     </row>
@@ -4508,11 +4556,11 @@
         <v>782.41499999999996</v>
       </c>
       <c r="G10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="0"/>
         <v>99.983333508289917</v>
       </c>
       <c r="H10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>18219817.225476261</v>
       </c>
     </row>
@@ -4533,11 +4581,11 @@
         <v>1372.942</v>
       </c>
       <c r="G11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="0"/>
         <v>99.975303273009004</v>
       </c>
       <c r="H11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>9321766.9525373094</v>
       </c>
     </row>
@@ -4558,11 +4606,11 @@
         <v>275.97899999999998</v>
       </c>
       <c r="G12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="0"/>
         <v>-2.7187182139319828</v>
       </c>
       <c r="H12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1359.8949221620728</v>
       </c>
     </row>
@@ -4583,11 +4631,11 @@
         <v>277.31299999999999</v>
       </c>
       <c r="G13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="0"/>
         <v>-0.47906181027278999</v>
       </c>
       <c r="H13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>1383.0915491186518</v>
       </c>
     </row>
@@ -4608,11 +4656,11 @@
         <v>381.09899999999999</v>
       </c>
       <c r="G14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="0"/>
         <v>-0.40664398963616644</v>
       </c>
       <c r="H14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>1516.3041069840194</v>
       </c>
     </row>
@@ -4633,11 +4681,11 @@
         <v>406.68200000000002</v>
       </c>
       <c r="G15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="0"/>
         <v>-0.22268840354195854</v>
       </c>
       <c r="H15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>1414.0100358534933</v>
       </c>
     </row>
@@ -4658,11 +4706,11 @@
         <v>397.80799999999999</v>
       </c>
       <c r="G16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="0"/>
         <v>-0.32653535011391277</v>
       </c>
       <c r="H16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>1454.1340433176049</v>
       </c>
     </row>
@@ -4683,11 +4731,11 @@
         <v>386.34399999999999</v>
       </c>
       <c r="G17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="0"/>
         <v>-2.260110139524973</v>
       </c>
       <c r="H17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>1525.208892038152</v>
       </c>
     </row>
@@ -4708,11 +4756,11 @@
         <v>264.346</v>
       </c>
       <c r="G18">
-        <f>(E18-D18)/E18*100</f>
+        <f t="shared" si="0"/>
         <v>-1.1901233660124249</v>
       </c>
       <c r="H18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="1"/>
         <v>1460.2085410363884</v>
       </c>
     </row>
@@ -4733,11 +4781,11 @@
         <v>390.80500000000001</v>
       </c>
       <c r="G19">
-        <f>(E19-D19)/E19*100</f>
+        <f t="shared" si="0"/>
         <v>-0.9136071813744524</v>
       </c>
       <c r="H19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="1"/>
         <v>1468.4109763702754</v>
       </c>
     </row>
@@ -4758,11 +4806,11 @@
         <v>620.23400000000004</v>
       </c>
       <c r="G20">
-        <f>(E20-D20)/E20*100</f>
+        <f t="shared" si="0"/>
         <v>-1.0310737700623891</v>
       </c>
       <c r="H20" s="2">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="1"/>
         <v>1551.2747722126092</v>
       </c>
     </row>
@@ -4783,11 +4831,11 @@
         <v>390.01100000000002</v>
       </c>
       <c r="G21">
-        <f>(E21-D21)/E21*100</f>
+        <f t="shared" si="0"/>
         <v>-0.57265574076789361</v>
       </c>
       <c r="H21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="1"/>
         <v>1474.7321058168168</v>
       </c>
     </row>
@@ -4808,11 +4856,11 @@
         <v>616.78399999999999</v>
       </c>
       <c r="G22">
-        <f>(E22-D22)/E22*100</f>
+        <f t="shared" si="0"/>
         <v>-0.39606073598045749</v>
       </c>
       <c r="H22" s="2">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="1"/>
         <v>1585.5240304860554</v>
       </c>
     </row>
@@ -4833,11 +4881,11 @@
         <v>1199.7809999999999</v>
       </c>
       <c r="G23">
-        <f>(E23-D23)/E23*100</f>
+        <f t="shared" si="0"/>
         <v>99.950856630512902</v>
       </c>
       <c r="H23" s="2">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="1"/>
         <v>5567166.3744191816</v>
       </c>
     </row>
@@ -4858,11 +4906,11 @@
         <v>278.65199999999999</v>
       </c>
       <c r="G24">
-        <f>(E24-D24)/E24*100</f>
+        <f t="shared" si="0"/>
         <v>-2.0987087819243877</v>
       </c>
       <c r="H24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="1"/>
         <v>1349.1705057018994</v>
       </c>
     </row>
@@ -4883,11 +4931,11 @@
         <v>144.15100000000001</v>
       </c>
       <c r="G25">
-        <f>(E25-D25)/E25*100</f>
+        <f t="shared" si="0"/>
         <v>-1.2823038404674116</v>
       </c>
       <c r="H25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>1307.1709942301534</v>
       </c>
     </row>
@@ -4908,11 +4956,11 @@
         <v>641.21199999999999</v>
       </c>
       <c r="G26">
-        <f>(E26-D26)/E26*100</f>
+        <f t="shared" si="0"/>
         <v>-0.53002791202306287</v>
       </c>
       <c r="H26" s="2">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <f t="shared" si="1"/>
         <v>1529.2036693806251</v>
       </c>
     </row>
@@ -4933,11 +4981,11 @@
         <v>395.10599999999999</v>
       </c>
       <c r="G27">
-        <f>(E27-D27)/E27*100</f>
+        <f t="shared" si="0"/>
         <v>-1.4416144244372124</v>
       </c>
       <c r="H27" s="2">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <f t="shared" si="1"/>
         <v>1445.1513267372388</v>
       </c>
     </row>
@@ -4958,11 +5006,11 @@
         <v>141.33099999999999</v>
       </c>
       <c r="G28">
-        <f>(E28-D28)/E28*100</f>
+        <f t="shared" si="0"/>
         <v>-1.4576131659593599</v>
       </c>
       <c r="H28" s="2">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <f t="shared" si="1"/>
         <v>1329.9130830172642</v>
       </c>
     </row>
@@ -4983,11 +5031,11 @@
         <v>603.45899999999995</v>
       </c>
       <c r="G29">
-        <f>(E29-D29)/E29*100</f>
+        <f t="shared" si="0"/>
         <v>-0.53102709444184337</v>
       </c>
       <c r="H29" s="2">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <f t="shared" si="1"/>
         <v>1607.9592810745228</v>
       </c>
     </row>
@@ -5008,11 +5056,11 @@
         <v>682.35599999999999</v>
       </c>
       <c r="G30">
-        <f>(E30-D30)/E30*100</f>
+        <f t="shared" si="0"/>
         <v>-0.7109173400763632</v>
       </c>
       <c r="H30" s="2">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <f t="shared" si="1"/>
         <v>1409.0474980061781</v>
       </c>
     </row>
@@ -5033,11 +5081,11 @@
         <v>650.601</v>
       </c>
       <c r="G31">
-        <f>(E31-D31)/E31*100</f>
+        <f t="shared" si="0"/>
         <v>-0.53601254030871504</v>
       </c>
       <c r="H31" s="2">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <f t="shared" si="1"/>
         <v>1482.8391333826389</v>
       </c>
     </row>
@@ -5058,11 +5106,11 @@
         <v>628.98599999999999</v>
       </c>
       <c r="G32">
-        <f>(E32-D32)/E32*100</f>
+        <f t="shared" si="0"/>
         <v>-0.5998103763535666</v>
       </c>
       <c r="H32" s="2">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <f t="shared" si="1"/>
         <v>1534.3260119782201</v>
       </c>
     </row>
@@ -5083,11 +5131,11 @@
         <v>1263.8409999999999</v>
       </c>
       <c r="G33">
-        <f>(E33-D33)/E33*100</f>
+        <f t="shared" si="0"/>
         <v>0.92794064089672423</v>
       </c>
       <c r="H33" s="2">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <f t="shared" si="1"/>
         <v>2044.3044809930907</v>
       </c>
     </row>
@@ -5108,32 +5156,33 @@
         <v>1128.4090000000001</v>
       </c>
       <c r="G34">
-        <f>(E34-D34)/E34*100</f>
+        <f t="shared" si="0"/>
         <v>1.4099888725180152E-2</v>
       </c>
       <c r="H34" s="2">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <f t="shared" si="1"/>
         <v>1750.9603817848079</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="G3:G34">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="7"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H34">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5144,12 +5193,616 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>980</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>113.655219492</v>
+      </c>
+      <c r="E4">
+        <v>113.349</v>
+      </c>
+      <c r="F4">
+        <v>118.129</v>
+      </c>
+      <c r="G4">
+        <f>(E4-D4)/E4*100</f>
+        <v>-0.27015632427281822</v>
+      </c>
+      <c r="H4" s="2">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <v>1630.9195649551327</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" hidden="1">
+      <c r="B5">
+        <v>980</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>123.57024793399999</v>
+      </c>
+      <c r="E5">
+        <v>121.827</v>
+      </c>
+      <c r="F5">
+        <v>126.575</v>
+      </c>
+      <c r="G5">
+        <f>(E5-D5)/E5*100</f>
+        <v>-1.4309208418495045</v>
+      </c>
+      <c r="H5">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <v>1500.0578555752077</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" hidden="1">
+      <c r="B6">
+        <v>980</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>111.90138626300001</v>
+      </c>
+      <c r="E6">
+        <v>11.039</v>
+      </c>
+      <c r="F6">
+        <v>115.93300000000001</v>
+      </c>
+      <c r="G6">
+        <f>(E6-D6)/E6*100</f>
+        <v>-913.69133311894211</v>
+      </c>
+      <c r="H6">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <v>1656.4810081362016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>980</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>128.48666246600001</v>
+      </c>
+      <c r="E7">
+        <v>127.27200000000001</v>
+      </c>
+      <c r="F7">
+        <v>132.17099999999999</v>
+      </c>
+      <c r="G7">
+        <f>(E7-D7)/E7*100</f>
+        <v>-0.95438310547489402</v>
+      </c>
+      <c r="H7" s="2">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <v>1442.659631522635</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>980</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>113.83112791400001</v>
+      </c>
+      <c r="E8">
+        <v>114.072</v>
+      </c>
+      <c r="F8">
+        <v>119.431</v>
+      </c>
+      <c r="G8">
+        <f>(E8-D8)/E8*100</f>
+        <v>0.21115794059891646</v>
+      </c>
+      <c r="H8" s="2">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <v>1628.3992307342776</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>1961</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>214.84194496999999</v>
+      </c>
+      <c r="E9">
+        <v>214.845</v>
+      </c>
+      <c r="F9">
+        <v>298.37400000000002</v>
+      </c>
+      <c r="G9">
+        <f>(E9-D9)/E9*100</f>
+        <v>1.421969326729944E-3</v>
+      </c>
+      <c r="H9" s="2">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <v>1726.4514512706644</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>1961</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>223.687250578</v>
+      </c>
+      <c r="E10">
+        <v>223.423</v>
+      </c>
+      <c r="F10">
+        <v>241.45599999999999</v>
+      </c>
+      <c r="G10">
+        <f>(E10-D10)/E10*100</f>
+        <v>-0.11827366833316273</v>
+      </c>
+      <c r="H10" s="2">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <v>1658.1820677255384</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>1961</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>247.875971435</v>
+      </c>
+      <c r="E11">
+        <v>247.33099999999999</v>
+      </c>
+      <c r="F11">
+        <v>257.85700000000003</v>
+      </c>
+      <c r="G11">
+        <f>(E11-D11)/E11*100</f>
+        <v>-0.2203409338093518</v>
+      </c>
+      <c r="H11" s="2">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <v>1496.3700819404869</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" hidden="1">
+      <c r="B12">
+        <v>1961</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>233.324958678</v>
+      </c>
+      <c r="E12">
+        <v>227.50200000000001</v>
+      </c>
+      <c r="F12">
+        <v>239.566</v>
+      </c>
+      <c r="G12">
+        <f>(E12-D12)/E12*100</f>
+        <v>-2.5595197747712071</v>
+      </c>
+      <c r="H12">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <v>1589.6892890877939</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" hidden="1">
+      <c r="B13">
+        <v>1961</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>254.899180844</v>
+      </c>
+      <c r="E13">
+        <v>251.73099999999999</v>
+      </c>
+      <c r="F13">
+        <v>263.12900000000002</v>
+      </c>
+      <c r="G13">
+        <f>(E13-D13)/E13*100</f>
+        <v>-1.2585580814440833</v>
+      </c>
+      <c r="H13">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <v>1455.1407598060139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" hidden="1">
+      <c r="B14">
+        <v>2942</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>307.48004620900002</v>
+      </c>
+      <c r="E14">
+        <v>301.25299999999999</v>
+      </c>
+      <c r="F14">
+        <v>350.404</v>
+      </c>
+      <c r="G14">
+        <f>(E14-D14)/E14*100</f>
+        <v>-2.0670486962785555</v>
+      </c>
+      <c r="H14">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <v>1809.7624906284952</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>2942</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>295.555030456</v>
+      </c>
+      <c r="E15">
+        <v>297.61700000000002</v>
+      </c>
+      <c r="F15">
+        <v>322.25</v>
+      </c>
+      <c r="G15">
+        <f>(E15-D15)/E15*100</f>
+        <v>0.69282653343055711</v>
+      </c>
+      <c r="H15" s="2">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <v>1882.7825511452668</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" hidden="1">
+      <c r="B16">
+        <v>2942</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>293.92396694199999</v>
+      </c>
+      <c r="E16">
+        <v>302.67899999999997</v>
+      </c>
+      <c r="F16">
+        <v>329.529</v>
+      </c>
+      <c r="G16">
+        <f>(E16-D16)/E16*100</f>
+        <v>2.8925142008530429</v>
+      </c>
+      <c r="H16">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <v>1893.2306202698062</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" hidden="1">
+      <c r="B17">
+        <v>2942</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>410.64902331399998</v>
+      </c>
+      <c r="E17">
+        <v>399.69499999999999</v>
+      </c>
+      <c r="F17">
+        <v>413.95600000000002</v>
+      </c>
+      <c r="G17">
+        <f>(E17-D17)/E17*100</f>
+        <v>-2.7405955325935984</v>
+      </c>
+      <c r="H17">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <v>1355.08870751719</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>2942</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>347.34280991700001</v>
+      </c>
+      <c r="E18">
+        <v>347.56099999999998</v>
+      </c>
+      <c r="F18">
+        <v>392.02499999999998</v>
+      </c>
+      <c r="G18">
+        <f>(E18-D18)/E18*100</f>
+        <v>6.2777493159464862E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <v>1602.0652748756656</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>2942</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>280.600330579</v>
+      </c>
+      <c r="E19">
+        <v>282.589</v>
+      </c>
+      <c r="F19">
+        <v>329.67200000000003</v>
+      </c>
+      <c r="G19">
+        <f>(E19-D19)/E19*100</f>
+        <v>0.70373207060430421</v>
+      </c>
+      <c r="H19" s="2">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <v>1983.1261534779187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <v>4903</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>493.08033057900002</v>
+      </c>
+      <c r="E20">
+        <v>491.40699999999998</v>
+      </c>
+      <c r="F20">
+        <v>551.625</v>
+      </c>
+      <c r="G20">
+        <f>(E20-D20)/E20*100</f>
+        <v>-0.34051826266211865</v>
+      </c>
+      <c r="H20" s="2">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <v>1880.7889595678184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <v>4903</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>449.55891619400001</v>
+      </c>
+      <c r="E21">
+        <v>450.50299999999999</v>
+      </c>
+      <c r="F21">
+        <v>521.71699999999998</v>
+      </c>
+      <c r="G21">
+        <f>(E21-D21)/E21*100</f>
+        <v>0.20956215741071213</v>
+      </c>
+      <c r="H21" s="2">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <v>2062.8665310084457</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <v>4903</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>462.96595041299997</v>
+      </c>
+      <c r="E22">
+        <v>464.58699999999999</v>
+      </c>
+      <c r="F22">
+        <v>512.78200000000004</v>
+      </c>
+      <c r="G22">
+        <f>(E22-D22)/E22*100</f>
+        <v>0.34892271781173728</v>
+      </c>
+      <c r="H22" s="2">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <v>2003.1279646067742</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23">
+        <v>4903</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>385.441608906</v>
+      </c>
+      <c r="E23">
+        <v>386.73700000000002</v>
+      </c>
+      <c r="F23">
+        <v>678.50300000000004</v>
+      </c>
+      <c r="G23">
+        <f>(E23-D23)/E23*100</f>
+        <v>0.33495401112384493</v>
+      </c>
+      <c r="H23" s="2">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <v>2406.0195383814912</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <v>4903</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>451.46240285699997</v>
+      </c>
+      <c r="E24">
+        <v>450.74400000000003</v>
+      </c>
+      <c r="F24">
+        <v>494.625</v>
+      </c>
+      <c r="G24">
+        <f>(E24-D24)/E24*100</f>
+        <v>-0.15938156847344481</v>
+      </c>
+      <c r="H24" s="2">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <v>2054.1689320401274</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <v>4903</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>460.105545054</v>
+      </c>
+      <c r="E25">
+        <v>458.35899999999998</v>
+      </c>
+      <c r="F25">
+        <v>521.48400000000004</v>
+      </c>
+      <c r="G25">
+        <f>(E25-D25)/E25*100</f>
+        <v>-0.38104303700811448</v>
+      </c>
+      <c r="H25" s="2">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <v>2015.5811028623705</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="H26" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="G3:G25">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="B4:H25">
+    <sortCondition ref="B4"/>
+  </sortState>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data.xlsx
+++ b/data.xlsx
@@ -112,8 +112,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -191,7 +263,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -227,6 +299,42 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -262,17 +370,45 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -288,22 +424,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -773,8 +897,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:H47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1803,21 +1927,22 @@
   </sheetData>
   <autoFilter ref="G3:G42">
     <filterColumn colId="0">
-      <colorFilter dxfId="21"/>
+      <colorFilter dxfId="19"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H42">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2871,17 +2996,17 @@
   </sheetData>
   <autoFilter ref="G3:G43">
     <filterColumn colId="0">
-      <colorFilter dxfId="18"/>
+      <colorFilter dxfId="16"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H43">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G1:G2 G4:G1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3896,17 +4021,17 @@
   </sheetData>
   <autoFilter ref="G3:G43">
     <filterColumn colId="0">
-      <colorFilter dxfId="15"/>
+      <colorFilter dxfId="13"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B6:H41">
     <sortCondition ref="B6"/>
   </sortState>
   <conditionalFormatting sqref="G4:G41">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4315,25 +4440,25 @@
   </sheetData>
   <autoFilter ref="G3:G17">
     <filterColumn colId="0">
-      <colorFilter dxfId="12"/>
+      <colorFilter dxfId="10"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H17">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G17">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5167,17 +5292,17 @@
   </sheetData>
   <autoFilter ref="G3:G34">
     <filterColumn colId="0">
-      <colorFilter dxfId="7"/>
+      <colorFilter dxfId="5"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H34">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5197,7 +5322,7 @@
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5250,11 +5375,11 @@
         <v>118.129</v>
       </c>
       <c r="G4">
-        <f>(E4-D4)/E4*100</f>
+        <f t="shared" ref="G4:G25" si="0">(E4-D4)/E4*100</f>
         <v>-0.27015632427281822</v>
       </c>
       <c r="H4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="H4:H25" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1630.9195649551327</v>
       </c>
     </row>
@@ -5275,11 +5400,11 @@
         <v>126.575</v>
       </c>
       <c r="G5">
-        <f>(E5-D5)/E5*100</f>
+        <f t="shared" si="0"/>
         <v>-1.4309208418495045</v>
       </c>
       <c r="H5">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>1500.0578555752077</v>
       </c>
     </row>
@@ -5300,11 +5425,11 @@
         <v>115.93300000000001</v>
       </c>
       <c r="G6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>-913.69133311894211</v>
       </c>
       <c r="H6">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>1656.4810081362016</v>
       </c>
     </row>
@@ -5325,11 +5450,11 @@
         <v>132.17099999999999</v>
       </c>
       <c r="G7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="0"/>
         <v>-0.95438310547489402</v>
       </c>
       <c r="H7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>1442.659631522635</v>
       </c>
     </row>
@@ -5350,11 +5475,11 @@
         <v>119.431</v>
       </c>
       <c r="G8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="0"/>
         <v>0.21115794059891646</v>
       </c>
       <c r="H8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>1628.3992307342776</v>
       </c>
     </row>
@@ -5375,11 +5500,11 @@
         <v>298.37400000000002</v>
       </c>
       <c r="G9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="0"/>
         <v>1.421969326729944E-3</v>
       </c>
       <c r="H9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>1726.4514512706644</v>
       </c>
     </row>
@@ -5400,11 +5525,11 @@
         <v>241.45599999999999</v>
       </c>
       <c r="G10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="0"/>
         <v>-0.11827366833316273</v>
       </c>
       <c r="H10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>1658.1820677255384</v>
       </c>
     </row>
@@ -5425,11 +5550,11 @@
         <v>257.85700000000003</v>
       </c>
       <c r="G11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="0"/>
         <v>-0.2203409338093518</v>
       </c>
       <c r="H11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>1496.3700819404869</v>
       </c>
     </row>
@@ -5450,11 +5575,11 @@
         <v>239.566</v>
       </c>
       <c r="G12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="0"/>
         <v>-2.5595197747712071</v>
       </c>
       <c r="H12">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1589.6892890877939</v>
       </c>
     </row>
@@ -5475,11 +5600,11 @@
         <v>263.12900000000002</v>
       </c>
       <c r="G13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="0"/>
         <v>-1.2585580814440833</v>
       </c>
       <c r="H13">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>1455.1407598060139</v>
       </c>
     </row>
@@ -5500,11 +5625,11 @@
         <v>350.404</v>
       </c>
       <c r="G14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="0"/>
         <v>-2.0670486962785555</v>
       </c>
       <c r="H14">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>1809.7624906284952</v>
       </c>
     </row>
@@ -5525,11 +5650,11 @@
         <v>322.25</v>
       </c>
       <c r="G15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="0"/>
         <v>0.69282653343055711</v>
       </c>
       <c r="H15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>1882.7825511452668</v>
       </c>
     </row>
@@ -5550,11 +5675,11 @@
         <v>329.529</v>
       </c>
       <c r="G16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="0"/>
         <v>2.8925142008530429</v>
       </c>
       <c r="H16">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>1893.2306202698062</v>
       </c>
     </row>
@@ -5575,11 +5700,11 @@
         <v>413.95600000000002</v>
       </c>
       <c r="G17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="0"/>
         <v>-2.7405955325935984</v>
       </c>
       <c r="H17">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>1355.08870751719</v>
       </c>
     </row>
@@ -5600,11 +5725,11 @@
         <v>392.02499999999998</v>
       </c>
       <c r="G18">
-        <f>(E18-D18)/E18*100</f>
+        <f t="shared" si="0"/>
         <v>6.2777493159464862E-2</v>
       </c>
       <c r="H18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="1"/>
         <v>1602.0652748756656</v>
       </c>
     </row>
@@ -5625,11 +5750,11 @@
         <v>329.67200000000003</v>
       </c>
       <c r="G19">
-        <f>(E19-D19)/E19*100</f>
+        <f t="shared" si="0"/>
         <v>0.70373207060430421</v>
       </c>
       <c r="H19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="1"/>
         <v>1983.1261534779187</v>
       </c>
     </row>
@@ -5650,11 +5775,11 @@
         <v>551.625</v>
       </c>
       <c r="G20">
-        <f>(E20-D20)/E20*100</f>
+        <f t="shared" si="0"/>
         <v>-0.34051826266211865</v>
       </c>
       <c r="H20" s="2">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="1"/>
         <v>1880.7889595678184</v>
       </c>
     </row>
@@ -5675,11 +5800,11 @@
         <v>521.71699999999998</v>
       </c>
       <c r="G21">
-        <f>(E21-D21)/E21*100</f>
+        <f t="shared" si="0"/>
         <v>0.20956215741071213</v>
       </c>
       <c r="H21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="1"/>
         <v>2062.8665310084457</v>
       </c>
     </row>
@@ -5700,11 +5825,11 @@
         <v>512.78200000000004</v>
       </c>
       <c r="G22">
-        <f>(E22-D22)/E22*100</f>
+        <f t="shared" si="0"/>
         <v>0.34892271781173728</v>
       </c>
       <c r="H22" s="2">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="1"/>
         <v>2003.1279646067742</v>
       </c>
     </row>
@@ -5725,11 +5850,11 @@
         <v>678.50300000000004</v>
       </c>
       <c r="G23">
-        <f>(E23-D23)/E23*100</f>
+        <f t="shared" si="0"/>
         <v>0.33495401112384493</v>
       </c>
       <c r="H23" s="2">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="1"/>
         <v>2406.0195383814912</v>
       </c>
     </row>
@@ -5750,11 +5875,11 @@
         <v>494.625</v>
       </c>
       <c r="G24">
-        <f>(E24-D24)/E24*100</f>
+        <f t="shared" si="0"/>
         <v>-0.15938156847344481</v>
       </c>
       <c r="H24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="1"/>
         <v>2054.1689320401274</v>
       </c>
     </row>
@@ -5775,11 +5900,11 @@
         <v>521.48400000000004</v>
       </c>
       <c r="G25">
-        <f>(E25-D25)/E25*100</f>
+        <f t="shared" si="0"/>
         <v>-0.38104303700811448</v>
       </c>
       <c r="H25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>2015.5811028623705</v>
       </c>
     </row>
@@ -5789,21 +5914,22 @@
   </sheetData>
   <autoFilter ref="G3:G25">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:H25">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="39.75" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,16 @@
     <sheet name="60.61" sheetId="4" r:id="rId4"/>
     <sheet name="85.98" sheetId="5" r:id="rId5"/>
     <sheet name="89.93" sheetId="6" r:id="rId6"/>
+    <sheet name="100" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'39.75'!$G$3:$G$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'45.14'!$G$3:$G$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'48.51'!$G$3:$G$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'60.61'!$G$3:$G$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'85.98'!$G$3:$G$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'89.93'!$G$3:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'100'!$H$3:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'39.75'!$H$3:$H$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'45.14'!$H$3:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'48.51'!$H$3:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'60.61'!$H$3:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'85.98'!$H$3:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'89.93'!$H$3:$H$25</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
   <si>
     <t>Load</t>
   </si>
@@ -53,6 +55,12 @@
   </si>
   <si>
     <t>Hardness</t>
+  </si>
+  <si>
+    <t>My Box Area</t>
+  </si>
+  <si>
+    <t>Hardness with Box</t>
   </si>
 </sst>
 </file>
@@ -112,8 +120,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -263,7 +289,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -335,6 +361,15 @@
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -406,9 +441,490 @@
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="79">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -453,9 +969,77 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -502,6 +1086,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -509,6 +1096,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -516,14 +1106,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -531,6 +1116,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -538,14 +1126,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -553,6 +1136,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -560,10 +1146,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -895,10 +1493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:H47"/>
+  <dimension ref="B3:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -908,10 +1506,11 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,13 +1527,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>490</v>
       </c>
@@ -951,15 +1556,22 @@
         <v>51.844999999999999</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G42" si="0">(E4-D4)/E4*100</f>
-        <v>-0.49625740435912158</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H42" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <v>64.728393663800006</v>
+      </c>
+      <c r="H4">
+        <f>((D4-E4)/E4)*100</f>
+        <v>0.49625740435912158</v>
+      </c>
+      <c r="I4" s="2">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1828.9985552198725</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="J4">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <v>1431.8486110712693</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>490</v>
       </c>
@@ -976,215 +1588,278 @@
         <v>53.691000000000003</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-5.6433976855386724E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <v>65.318952534499999</v>
+      </c>
+      <c r="H5">
+        <f>((D5-E5)/E5)*100</f>
+        <v>5.6433976855386724E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
         <v>1771.7862728322841</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="J5">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <v>1418.9030437289121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" hidden="1">
       <c r="B6">
         <v>490</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>52.985750513200003</v>
+        <v>51.767600531299998</v>
       </c>
       <c r="E6">
-        <v>52.758000000000003</v>
+        <v>53.011000000000003</v>
       </c>
       <c r="F6">
-        <v>54.406999999999996</v>
+        <v>53.481999999999999</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>-0.43168905796277374</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>1749.1733091767246</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+        <v>62.238960301500001</v>
+      </c>
+      <c r="H6">
+        <f>((D6-E6)/E6)*100</f>
+        <v>-2.3455499211484505</v>
+      </c>
+      <c r="I6" s="2">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <v>1790.3333284367498</v>
+      </c>
+      <c r="J6">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <v>1489.119678661353</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>490</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>50.606810771600003</v>
+        <v>52.985750513200003</v>
       </c>
       <c r="E7">
-        <v>50.188000000000002</v>
+        <v>52.758000000000003</v>
       </c>
       <c r="F7">
-        <v>51.645000000000003</v>
+        <v>54.406999999999996</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-0.83448388379692451</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>1831.3989589796104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>57.989676575799997</v>
+      </c>
+      <c r="H7">
+        <f>((D7-E7)/E7)*100</f>
+        <v>0.43168905796277374</v>
+      </c>
+      <c r="I7" s="2">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <v>1749.1733091767246</v>
+      </c>
+      <c r="J7">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <v>1598.2372387133423</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>490</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>54.486173167499999</v>
+        <v>50.606810771600003</v>
       </c>
       <c r="E8">
-        <v>54.12</v>
+        <v>50.188000000000002</v>
       </c>
       <c r="F8">
-        <v>55.723999999999997</v>
+        <v>51.645000000000003</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>-0.67659491407982497</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>1701.005139037165</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>61.984560191</v>
+      </c>
+      <c r="H8">
+        <f>((D8-E8)/E8)*100</f>
+        <v>0.83448388379692451</v>
+      </c>
+      <c r="I8" s="2">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <v>1831.3989589796104</v>
+      </c>
+      <c r="J8">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <v>1495.231397606068</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>490</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>54.486173167499999</v>
+      </c>
+      <c r="E9">
+        <v>54.12</v>
+      </c>
+      <c r="F9">
+        <v>55.723999999999997</v>
+      </c>
+      <c r="G9">
+        <v>68.519872780100002</v>
+      </c>
+      <c r="H9">
+        <f>((D9-E9)/E9)*100</f>
+        <v>0.67659491407982497</v>
+      </c>
+      <c r="I9" s="2">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <v>1701.005139037165</v>
+      </c>
+      <c r="J9">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <v>1352.6186900817406</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10">
+        <v>490</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>50.975123777299999</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>51.1</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>52.719000000000001</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.24437616966732462</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
+      <c r="G10">
+        <v>64.068407559500002</v>
+      </c>
+      <c r="H10">
+        <f>((D10-E10)/E10)*100</f>
+        <v>-0.24437616966732462</v>
+      </c>
+      <c r="I10" s="2">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
         <v>1818.1664642795583</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10">
-        <v>980</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>105.079398623</v>
-      </c>
-      <c r="E10">
-        <v>104.934</v>
-      </c>
-      <c r="F10">
-        <v>108.82599999999999</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>-0.13856197514628768</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>1764.0234295002922</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="J10">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <v>1446.5984733320204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11">
         <v>980</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>105.079398623</v>
+      </c>
+      <c r="E11">
+        <v>104.934</v>
+      </c>
+      <c r="F11">
+        <v>108.82599999999999</v>
+      </c>
+      <c r="G11">
+        <v>127.509532648</v>
+      </c>
+      <c r="H11">
+        <f>((D11-E11)/E11)*100</f>
+        <v>0.13856197514628768</v>
+      </c>
+      <c r="I11" s="2">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <v>1764.0234295002922</v>
+      </c>
+      <c r="J11">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <v>1453.7150068652547</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12">
+        <v>980</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>106.333776114</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>106.29600000000001</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>109.79</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>-3.5538603522236152E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
+      <c r="G12">
+        <v>134.16567345199999</v>
+      </c>
+      <c r="H12">
+        <f>((D12-E12)/E12)*100</f>
+        <v>3.5538603522236152E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
         <v>1743.2139429530496</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" hidden="1">
-      <c r="B12">
-        <v>9807</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>995.27231010699995</v>
-      </c>
-      <c r="E12">
-        <v>1024.172</v>
-      </c>
-      <c r="F12">
-        <v>1174.8420000000001</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>2.821761373382603</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>1863.7605110267439</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" hidden="1">
+      <c r="J12">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <v>1381.5942361373775</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" hidden="1">
       <c r="B13">
-        <v>4903</v>
+        <v>980</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>0.44680594131099999</v>
+        <v>207.005494505</v>
       </c>
       <c r="E13">
-        <v>497.334</v>
+        <v>200.58</v>
       </c>
       <c r="F13">
-        <v>527.98</v>
+        <v>202.35900000000001</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>99.910159783704515</v>
+        <v>229.03660427299999</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>2075576.7911499839</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+        <f>((D13-E13)/E13)*100</f>
+        <v>3.2034572265430197</v>
+      </c>
+      <c r="I13" s="2">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <v>895.44734825526825</v>
+      </c>
+      <c r="J13">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <v>809.31395973645351</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14">
         <v>980</v>
       </c>
@@ -1201,15 +1876,22 @@
         <v>109.17</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>-8.7301340999804952E-2</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <v>131.47177410200001</v>
+      </c>
+      <c r="H14">
+        <f>((D14-E14)/E14)*100</f>
+        <v>8.7301340999804952E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
         <v>1760.1296171201511</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="J14">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <v>1409.9035507420974</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15">
         <v>980</v>
       </c>
@@ -1226,15 +1908,22 @@
         <v>109.033</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>-0.77679014275675451</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <v>129.75410529999999</v>
+      </c>
+      <c r="H15">
+        <f>((D15-E15)/E15)*100</f>
+        <v>0.77679014275675451</v>
+      </c>
+      <c r="I15" s="2">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
         <v>1770.5855813952746</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="J15">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <v>1428.5676796137006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16">
         <v>980</v>
       </c>
@@ -1251,15 +1940,22 @@
         <v>109.35899999999999</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0.29479897788586157</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <v>132.75055655400001</v>
+      </c>
+      <c r="H16">
+        <f>((D16-E16)/E16)*100</f>
+        <v>-0.29479897788586157</v>
+      </c>
+      <c r="I16" s="2">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
         <v>1766.0022002915587</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="J16">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <v>1396.3219887019559</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17">
         <v>1961</v>
       </c>
@@ -1276,15 +1972,22 @@
         <v>229.732</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>-0.63448578717830939</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <v>277.415683634</v>
+      </c>
+      <c r="H17">
+        <f>((D17-E17)/E17)*100</f>
+        <v>0.63448578717830939</v>
+      </c>
+      <c r="I17" s="2">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
         <v>1676.1589851173867</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="J17">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <v>1337.0339514640532</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18">
         <v>1961</v>
       </c>
@@ -1301,15 +2004,22 @@
         <v>206.095</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0.12396990911449828</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <v>243.53122477299999</v>
+      </c>
+      <c r="H18">
+        <f>((D18-E18)/E18)*100</f>
+        <v>-0.12396990911449828</v>
+      </c>
+      <c r="I18" s="2">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
         <v>1888.7839061803475</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="J18">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <v>1523.0662434889191</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19">
         <v>1961</v>
       </c>
@@ -1326,15 +2036,22 @@
         <v>225.785</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>-0.17138463731687861</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <v>253.831581943</v>
+      </c>
+      <c r="H19">
+        <f>((D19-E19)/E19)*100</f>
+        <v>0.17138463731687861</v>
+      </c>
+      <c r="I19" s="2">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
         <v>1736.4126791977087</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="J19">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <v>1461.2609859184527</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20">
         <v>1961</v>
       </c>
@@ -1351,15 +2068,22 @@
         <v>205.30799999999999</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>4.1441801445754245E-3</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <v>220.684018149</v>
+      </c>
+      <c r="H20">
+        <f>((D20-E20)/E20)*100</f>
+        <v>-4.1441801445754245E-3</v>
+      </c>
+      <c r="I20" s="2">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
         <v>1929.0111793459421</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="J20">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <v>1680.7478439006729</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21">
         <v>1961</v>
       </c>
@@ -1376,15 +2100,22 @@
         <v>227.91200000000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0.15599619501358714</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <v>261.42446260000003</v>
+      </c>
+      <c r="H21">
+        <f>((D21-E21)/E21)*100</f>
+        <v>-0.15599619501358714</v>
+      </c>
+      <c r="I21" s="2">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
         <v>1834.0839483080831</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="J21">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <v>1418.8197385904034</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22">
         <v>1961</v>
       </c>
@@ -1401,15 +2132,22 @@
         <v>216.90700000000001</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>-0.18681760405657219</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <v>249.237884138</v>
+      </c>
+      <c r="H22">
+        <f>((D22-E22)/E22)*100</f>
+        <v>0.18681760405657219</v>
+      </c>
+      <c r="I22" s="2">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
         <v>1794.7399520833994</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="J22">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <v>1488.1934540974437</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23">
         <v>1961</v>
       </c>
@@ -1426,15 +2164,22 @@
         <v>221.64699999999999</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>-0.48921015827079622</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <v>267.08919540400001</v>
+      </c>
+      <c r="H23">
+        <f>((D23-E23)/E23)*100</f>
+        <v>0.48921015827079622</v>
+      </c>
+      <c r="I23" s="2">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
         <v>1745.4165380422603</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="J23">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <v>1388.7277885809744</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24">
         <v>1961</v>
       </c>
@@ -1451,440 +2196,566 @@
         <v>219.904</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>-3.6955908235461979E-2</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <v>263.41370725600001</v>
+      </c>
+      <c r="H24">
+        <f>((D24-E24)/E24)*100</f>
+        <v>3.6955908235461979E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
         <v>1766.5729500389436</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" hidden="1">
+      <c r="J24">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <v>1408.1051117313109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25">
-        <v>490</v>
+        <v>2942</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>51.767600531299998</v>
+        <v>302.51781185800002</v>
       </c>
       <c r="E25">
-        <v>53.011000000000003</v>
+        <v>303.11700000000002</v>
       </c>
       <c r="F25">
-        <v>53.481999999999999</v>
+        <v>324.892</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>2.3455499211484505</v>
+        <v>381.53998950900001</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
-        <v>1790.3333284367498</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <f>((D25-E25)/E25)*100</f>
+        <v>-0.19767553189032708</v>
+      </c>
+      <c r="I25" s="2">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <v>1839.4482322481108</v>
+      </c>
+      <c r="J25">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <v>1458.4732126293629</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26">
         <v>2942</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>302.51781185800002</v>
+        <v>305.49601497399999</v>
       </c>
       <c r="E26">
-        <v>303.11700000000002</v>
+        <v>306.89299999999997</v>
       </c>
       <c r="F26">
-        <v>324.892</v>
+        <v>325.96899999999999</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
-        <v>0.19767553189032708</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>1839.4482322481108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+        <v>383.577801502</v>
+      </c>
+      <c r="H26">
+        <f>((D26-E26)/E26)*100</f>
+        <v>-0.45520263609791745</v>
+      </c>
+      <c r="I26" s="2">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <v>1821.5159182784237</v>
+      </c>
+      <c r="J26">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/G26</f>
+        <v>1450.7248648560369</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27">
         <v>2942</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>305.49601497399999</v>
+        <v>308.61309020599998</v>
       </c>
       <c r="E27">
-        <v>306.89299999999997</v>
+        <v>309.358</v>
       </c>
       <c r="F27">
-        <v>325.96899999999999</v>
+        <v>354.54500000000002</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0.45520263609791745</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
-        <v>1821.5159182784237</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+        <v>400.96906540200001</v>
+      </c>
+      <c r="H27">
+        <f>((D27-E27)/E27)*100</f>
+        <v>-0.24079215472042839</v>
+      </c>
+      <c r="I27" s="2">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <v>1803.1181174924316</v>
+      </c>
+      <c r="J27">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/G27</f>
+        <v>1387.8024572490849</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28">
         <v>2942</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>308.61309020599998</v>
+        <v>312.98605240900002</v>
       </c>
       <c r="E28">
-        <v>309.358</v>
+        <v>313.07299999999998</v>
       </c>
       <c r="F28">
-        <v>354.54500000000002</v>
+        <v>350.92200000000003</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0.24079215472042839</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
-        <v>1803.1181174924316</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>382.86810314000002</v>
+      </c>
+      <c r="H28">
+        <f>((D28-E28)/E28)*100</f>
+        <v>-2.7772305820034014E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <v>1777.9254058215768</v>
+      </c>
+      <c r="J28">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/G28</f>
+        <v>1453.4139816872828</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29">
         <v>2942</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>312.98605240900002</v>
+        <v>317.91752203800002</v>
       </c>
       <c r="E29">
-        <v>313.07299999999998</v>
+        <v>317.77800000000002</v>
       </c>
       <c r="F29">
-        <v>350.92200000000003</v>
+        <v>335.38900000000001</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>2.7772305820034014E-2</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>1777.9254058215768</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+        <v>399.34814357599998</v>
+      </c>
+      <c r="H29">
+        <f>((D29-E29)/E29)*100</f>
+        <v>4.3905505730414164E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <v>1750.3466014661863</v>
+      </c>
+      <c r="J29">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/G29</f>
+        <v>1393.4354352140956</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30">
         <v>2942</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>317.91752203800002</v>
+        <v>311.70903272599998</v>
       </c>
       <c r="E30">
-        <v>317.77800000000002</v>
+        <v>310.99900000000002</v>
       </c>
       <c r="F30">
-        <v>335.38900000000001</v>
+        <v>333.42899999999997</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>-4.3905505730414164E-2</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
-        <v>1750.3466014661863</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
+        <v>400.04014783000002</v>
+      </c>
+      <c r="H30">
+        <f>((D30-E30)/E30)*100</f>
+        <v>0.22830707687161428</v>
+      </c>
+      <c r="I30" s="2">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <v>1785.2092683336259</v>
+      </c>
+      <c r="J30">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/G30</f>
+        <v>1391.0250190244378</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31">
         <v>2942</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>311.70903272599998</v>
+        <v>315.81934548999999</v>
       </c>
       <c r="E31">
-        <v>310.99900000000002</v>
+        <v>315.63400000000001</v>
       </c>
       <c r="F31">
-        <v>333.42899999999997</v>
+        <v>33.816000000000003</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>-0.22830707687161428</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
-        <v>1785.2092683336259</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" hidden="1">
+        <v>380.147975901</v>
+      </c>
+      <c r="H31">
+        <f>((D31-E31)/E31)*100</f>
+        <v>5.8721649125244649E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <v>1761.9751994052069</v>
+      </c>
+      <c r="J31">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/G31</f>
+        <v>1463.8138028405083</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32">
-        <v>980</v>
+        <v>2942</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>207.005494505</v>
+        <v>308.26440043500003</v>
       </c>
       <c r="E32">
-        <v>200.58</v>
+        <v>310.66000000000003</v>
       </c>
       <c r="F32">
-        <v>202.35900000000001</v>
+        <v>330.59399999999999</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>-3.2034572265430197</v>
+        <v>373.78974087500001</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
-        <v>895.44734825526825</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+        <f>((D32-E32)/E32)*100</f>
+        <v>-0.77113228771003595</v>
+      </c>
+      <c r="I32" s="2">
+        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <v>1805.1576940461532</v>
+      </c>
+      <c r="J32">
+        <f>2*B32*SIN((136*3.14159/180)/2)*102/G32</f>
+        <v>1488.7135557630349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33">
-        <v>2942</v>
+        <v>4903</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>315.81934548999999</v>
+        <v>501.135128608</v>
       </c>
       <c r="E33">
-        <v>315.63400000000001</v>
+        <v>503.90499999999997</v>
       </c>
       <c r="F33">
-        <v>33.816000000000003</v>
+        <v>537.05700000000002</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>-5.8721649125244649E-2</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>1761.9751994052069</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+        <v>629.31803098700004</v>
+      </c>
+      <c r="H33">
+        <f>((D33-E33)/E33)*100</f>
+        <v>-0.54968126769926284</v>
+      </c>
+      <c r="I33" s="2">
+        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <v>1850.5588393074963</v>
+      </c>
+      <c r="J33">
+        <f>2*B33*SIN((136*3.14159/180)/2)*102/G33</f>
+        <v>1473.6269998152818</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34">
-        <v>2942</v>
+        <v>4903</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>308.26440043500003</v>
+        <v>514.34760294700004</v>
       </c>
       <c r="E34">
-        <v>310.66000000000003</v>
+        <v>515.64099999999996</v>
       </c>
       <c r="F34">
-        <v>330.59399999999999</v>
+        <v>554.774</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0.77113228771003595</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="1"/>
-        <v>1805.1576940461532</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <v>617.13922991499999</v>
+      </c>
+      <c r="H34">
+        <f>((D34-E34)/E34)*100</f>
+        <v>-0.25083285716223525</v>
+      </c>
+      <c r="I34" s="2">
+        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <v>1803.0219964466198</v>
+      </c>
+      <c r="J34">
+        <f>2*B34*SIN((136*3.14159/180)/2)*102/G34</f>
+        <v>1502.7079741159278</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" hidden="1">
       <c r="B35">
         <v>4903</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>501.135128608</v>
+        <v>0.44680594131099999</v>
       </c>
       <c r="E35">
-        <v>503.90499999999997</v>
+        <v>497.334</v>
       </c>
       <c r="F35">
-        <v>537.05700000000002</v>
+        <v>527.98</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0.54968126769926284</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>1850.5588393074963</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+        <v>0.36348747917599999</v>
+      </c>
+      <c r="H35">
+        <f>((D35-E35)/E35)*100</f>
+        <v>-99.910159783704515</v>
+      </c>
+      <c r="I35" s="2">
+        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
+        <v>2075576.7911499839</v>
+      </c>
+      <c r="J35">
+        <f>2*B35*SIN((136*3.14159/180)/2)*102/G35</f>
+        <v>2551339.7161171474</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36">
         <v>4903</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>514.34760294700004</v>
+        <v>505.58658374599997</v>
       </c>
       <c r="E36">
-        <v>515.64099999999996</v>
+        <v>505.84100000000001</v>
       </c>
       <c r="F36">
-        <v>554.774</v>
+        <v>561.76700000000005</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>0.25083285716223525</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>1803.0219964466198</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <v>626.18157665900003</v>
+      </c>
+      <c r="H36">
+        <f>((D36-E36)/E36)*100</f>
+        <v>-5.0295696473799931E-2</v>
+      </c>
+      <c r="I36" s="2">
+        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
+        <v>1834.2655278980601</v>
+      </c>
+      <c r="J36">
+        <f>2*B36*SIN((136*3.14159/180)/2)*102/G36</f>
+        <v>1481.0081875629137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37">
         <v>4903</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>505.58658374599997</v>
+        <v>509.83274966800002</v>
       </c>
       <c r="E37">
-        <v>505.84100000000001</v>
+        <v>508.94799999999998</v>
       </c>
       <c r="F37">
-        <v>561.76700000000005</v>
+        <v>551.45100000000002</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>5.0295696473799931E-2</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="1"/>
-        <v>1834.2655278980601</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+        <v>662.43219597699999</v>
+      </c>
+      <c r="H37">
+        <f>((D37-E37)/E37)*100</f>
+        <v>0.17383891242328106</v>
+      </c>
+      <c r="I37" s="2">
+        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
+        <v>1818.9887615829655</v>
+      </c>
+      <c r="J37">
+        <f>2*B37*SIN((136*3.14159/180)/2)*102/G37</f>
+        <v>1399.9622113252969</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38">
         <v>4903</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>509.83274966800002</v>
+        <v>503.53671054199998</v>
       </c>
       <c r="E38">
-        <v>508.94799999999998</v>
+        <v>505.00799999999998</v>
       </c>
       <c r="F38">
-        <v>551.45100000000002</v>
+        <v>547.04700000000003</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>-0.17383891242328106</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="1"/>
-        <v>1818.9887615829655</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
+        <v>636.92771173599999</v>
+      </c>
+      <c r="H38">
+        <f>((D38-E38)/E38)*100</f>
+        <v>-0.29133983184424822</v>
+      </c>
+      <c r="I38" s="2">
+        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
+        <v>1841.7327327233288</v>
+      </c>
+      <c r="J38">
+        <f>2*B38*SIN((136*3.14159/180)/2)*102/G38</f>
+        <v>1456.0208715136309</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39">
         <v>4903</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>503.53671054199998</v>
+        <v>497.42029948099997</v>
       </c>
       <c r="E39">
-        <v>505.00799999999998</v>
+        <v>497.60399999999998</v>
       </c>
       <c r="F39">
-        <v>547.04700000000003</v>
+        <v>527.96900000000005</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>0.29133983184424822</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="1"/>
-        <v>1841.7327327233288</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
+        <v>649.35947337000005</v>
+      </c>
+      <c r="H39">
+        <f>((D39-E39)/E39)*100</f>
+        <v>-3.6917010112461457E-2</v>
+      </c>
+      <c r="I39" s="2">
+        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
+        <v>1864.379163658271</v>
+      </c>
+      <c r="J39">
+        <f>2*B39*SIN((136*3.14159/180)/2)*102/G39</f>
+        <v>1428.1458575173806</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40">
         <v>4903</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D40">
-        <v>497.42029948099997</v>
+        <v>513.10228233299995</v>
       </c>
       <c r="E40">
-        <v>497.60399999999998</v>
+        <v>512.40300000000002</v>
       </c>
       <c r="F40">
-        <v>527.96900000000005</v>
+        <v>548.06399999999996</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>3.6917010112461457E-2</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="1"/>
-        <v>1864.379163658271</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+        <v>627.491244843</v>
+      </c>
+      <c r="H40">
+        <f>((D40-E40)/E40)*100</f>
+        <v>0.13647116293228734</v>
+      </c>
+      <c r="I40" s="2">
+        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
+        <v>1807.3980059421563</v>
+      </c>
+      <c r="J40">
+        <f>2*B40*SIN((136*3.14159/180)/2)*102/G40</f>
+        <v>1477.9171017199872</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" hidden="1">
       <c r="B41">
-        <v>4903</v>
+        <v>9807</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>513.10228233299995</v>
+        <v>995.27231010699995</v>
       </c>
       <c r="E41">
-        <v>512.40300000000002</v>
+        <v>1024.172</v>
       </c>
       <c r="F41">
-        <v>548.06399999999996</v>
+        <v>1174.8420000000001</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
-        <v>-0.13647116293228734</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="1"/>
-        <v>1807.3980059421563</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+        <v>1247.87008158</v>
+      </c>
+      <c r="H41">
+        <f>((D41-E41)/E41)*100</f>
+        <v>-2.821761373382603</v>
+      </c>
+      <c r="I41" s="2">
+        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
+        <v>1863.7605110267439</v>
+      </c>
+      <c r="J41">
+        <f>2*B41*SIN((136*3.14159/180)/2)*102/G41</f>
+        <v>1486.4922692490009</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42">
         <v>9807</v>
       </c>
@@ -1901,44 +2772,51 @@
         <v>1101.7090000000001</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
-        <v>0.22457652348661339</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="1"/>
+        <v>1285.8612890899999</v>
+      </c>
+      <c r="H42">
+        <f>((D42-E42)/E42)*100</f>
+        <v>-0.22457652348661339</v>
+      </c>
+      <c r="I42" s="2">
+        <f>2*B42*SIN((136*3.14159/180)/2)*102/D42</f>
         <v>1803.1264899381135</v>
       </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="H47" s="2"/>
+      <c r="J42">
+        <f>2*B42*SIN((136*3.14159/180)/2)*102/G42</f>
+        <v>1442.5733514448764</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="I47" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="G3:G42">
+  <autoFilter ref="H3:H42">
     <filterColumn colId="0">
-      <colorFilter dxfId="19"/>
+      <colorFilter dxfId="45"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B4:H42">
+  <sortState ref="B4:J42">
     <sortCondition ref="B4"/>
   </sortState>
-  <conditionalFormatting sqref="G4:G42">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
-      <formula>-1</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
+      <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+      <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1954,10 +2832,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:H43"/>
+  <dimension ref="B3:J43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B43"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1967,10 +2845,11 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1986,14 +2865,20 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>490</v>
       </c>
@@ -2010,15 +2895,22 @@
         <v>54.997999999999998</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G43" si="0">((D4-E4)/E4)*100</f>
+        <v>64.299096951199999</v>
+      </c>
+      <c r="H4">
+        <f>((D4-E4)/E4)*100</f>
         <v>-0.36632840017859142</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H43" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+      <c r="I4" s="2">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1730.4491901645849</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="J4">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <v>1441.4084327611492</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>490</v>
       </c>
@@ -2035,15 +2927,22 @@
         <v>50.825000000000003</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <v>62.684202589800002</v>
+      </c>
+      <c r="H5">
+        <f>((D5-E5)/E5)*100</f>
         <v>-0.37362403168197178</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
+      <c r="I5" s="2">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
         <v>1877.2846062359467</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="J5">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <v>1478.5425471690935</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>490</v>
       </c>
@@ -2060,15 +2959,22 @@
         <v>55.183</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <v>64.617478080599994</v>
+      </c>
+      <c r="H6">
+        <f>((D6-E6)/E6)*100</f>
         <v>0.28856197516197074</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
+      <c r="I6" s="2">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
         <v>1715.5430248604275</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="J6">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <v>1434.306372167315</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>490</v>
       </c>
@@ -2085,15 +2991,22 @@
         <v>53.978999999999999</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <v>64.2395125675</v>
+      </c>
+      <c r="H7">
+        <f>((D7-E7)/E7)*100</f>
         <v>0.85732171029834148</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
+      <c r="I7" s="2">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
         <v>1749.5847184781362</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="J7">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <v>1442.7453892493513</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>490</v>
       </c>
@@ -2110,15 +3023,22 @@
         <v>53.313000000000002</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <v>67.0941215605</v>
+      </c>
+      <c r="H8">
+        <f>((D8-E8)/E8)*100</f>
         <v>0.48864515148600546</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
+      <c r="I8" s="2">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
         <v>1774.1767876413576</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="J8">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <v>1381.3618601566156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>490</v>
       </c>
@@ -2135,15 +3055,22 @@
         <v>53.582999999999998</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <v>62.477365651699998</v>
+      </c>
+      <c r="H9">
+        <f>((D9-E9)/E9)*100</f>
         <v>-0.12679962855828877</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
+      <c r="I9" s="2">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
         <v>1777.6891548599031</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="J9">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <v>1483.4373952491471</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10">
         <v>980</v>
       </c>
@@ -2160,15 +3087,22 @@
         <v>112.015</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <v>131.20762337900001</v>
+      </c>
+      <c r="H10">
+        <f>((D10-E10)/E10)*100</f>
         <v>-0.19581075567748313</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
+      <c r="I10" s="2">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
         <v>1709.6979038281797</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="J10">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <v>1412.7420065627095</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11">
         <v>980</v>
       </c>
@@ -2185,15 +3119,22 @@
         <v>110.69499999999999</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <v>125.74568232999999</v>
+      </c>
+      <c r="H11">
+        <f>((D11-E11)/E11)*100</f>
         <v>0.51883087536523986</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
+      <c r="I11" s="2">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
         <v>1721.471672904871</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="J11">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <v>1474.1064479837776</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12">
         <v>980</v>
       </c>
@@ -2210,140 +3151,178 @@
         <v>109.31699999999999</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <v>129.15430543799999</v>
+      </c>
+      <c r="H12">
+        <f>((D12-E12)/E12)*100</f>
         <v>0.47641071526136231</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
+      <c r="I12" s="2">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
         <v>1737.8375555881892</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" hidden="1">
+      <c r="J12">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <v>1435.2020283036968</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13">
-        <v>4903</v>
+        <v>980</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>4.2917671122799997E-2</v>
+        <v>109.62154821199999</v>
       </c>
       <c r="E13">
-        <v>552.21900000000005</v>
+        <v>109.083</v>
       </c>
       <c r="F13">
-        <v>576.06200000000001</v>
+        <v>112.379</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>-99.992228142978988</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>21608349.606844418</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+        <v>143.37796906299999</v>
+      </c>
+      <c r="H13">
+        <f>((D13-E13)/E13)*100</f>
+        <v>0.49370498794495465</v>
+      </c>
+      <c r="I13" s="2">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <v>1690.9314286484562</v>
+      </c>
+      <c r="J13">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <v>1292.8242905109421</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14">
-        <v>980</v>
+        <v>1961</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>109.62154821199999</v>
+        <v>209.916704391</v>
       </c>
       <c r="E14">
-        <v>109.083</v>
+        <v>209.31200000000001</v>
       </c>
       <c r="F14">
-        <v>112.379</v>
+        <v>281.69099999999997</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0.49370498794495465</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>1690.9314286484562</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>250.847986147</v>
+      </c>
+      <c r="H14">
+        <f>((D14-E14)/E14)*100</f>
+        <v>0.28890096649976316</v>
+      </c>
+      <c r="I14" s="2">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <v>1766.9588933541363</v>
+      </c>
+      <c r="J14">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <v>1478.6412814568439</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15">
         <v>1961</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>209.916704391</v>
+        <v>216.184698959</v>
       </c>
       <c r="E15">
-        <v>209.31200000000001</v>
+        <v>215.86500000000001</v>
       </c>
       <c r="F15">
-        <v>281.69099999999997</v>
+        <v>223.44200000000001</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0.28890096649976316</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
-        <v>1766.9588933541363</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>255.131021522</v>
+      </c>
+      <c r="H15">
+        <f>((D15-E15)/E15)*100</f>
+        <v>0.14810134065271952</v>
+      </c>
+      <c r="I15" s="2">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <v>1715.7282151481663</v>
+      </c>
+      <c r="J15">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <v>1453.8184556098158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16">
         <v>1961</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>216.184698959</v>
+        <v>188.447841332</v>
       </c>
       <c r="E16">
-        <v>215.86500000000001</v>
+        <v>188.21899999999999</v>
       </c>
       <c r="F16">
-        <v>223.44200000000001</v>
+        <v>195.405</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0.14810134065271952</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>1715.7282151481663</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+        <v>224.302887932</v>
+      </c>
+      <c r="H16">
+        <f>((D16-E16)/E16)*100</f>
+        <v>0.12158248210860849</v>
+      </c>
+      <c r="I16" s="2">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <v>1968.2591483433694</v>
+      </c>
+      <c r="J16">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <v>1653.6309055446295</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" hidden="1">
       <c r="B17">
         <v>1961</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>188.447841332</v>
+        <v>195.52834392599999</v>
       </c>
       <c r="E17">
-        <v>188.21899999999999</v>
+        <v>199.26900000000001</v>
       </c>
       <c r="F17">
-        <v>195.405</v>
+        <v>207.82599999999999</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0.12158248210860849</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>1968.2591483433694</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>257.23653474299999</v>
+      </c>
+      <c r="H17">
+        <f>((D17-E17)/E17)*100</f>
+        <v>-1.8771891633922055</v>
+      </c>
+      <c r="I17" s="2">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <v>1896.9842440216523</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18">
         <v>1961</v>
       </c>
@@ -2360,15 +3339,22 @@
         <v>224.68199999999999</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <v>258.00954874000001</v>
+      </c>
+      <c r="H18">
+        <f>((D18-E18)/E18)*100</f>
         <v>0.27413530426917909</v>
       </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
+      <c r="I18" s="2">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
         <v>1706.8428761885962</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="J18">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <v>1437.5986838419083</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19">
         <v>1961</v>
       </c>
@@ -2385,15 +3371,22 @@
         <v>221.685</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <v>256.84931624000001</v>
+      </c>
+      <c r="H19">
+        <f>((D19-E19)/E19)*100</f>
         <v>0.62316852493898378</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
+      <c r="I19" s="2">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
         <v>1720.0742969270493</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="J19">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <v>1444.0925641424969</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20">
         <v>2942</v>
       </c>
@@ -2410,15 +3403,22 @@
         <v>320.76100000000002</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <v>368.61746544800002</v>
+      </c>
+      <c r="H20">
+        <f>((D20-E20)/E20)*100</f>
         <v>-0.14285891752528038</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
+      <c r="I20" s="2">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
         <v>1809.5211817051024</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="J20">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <v>1509.6025186149623</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21">
         <v>2942</v>
       </c>
@@ -2435,15 +3435,22 @@
         <v>325.38099999999997</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <v>373.319264514</v>
+      </c>
+      <c r="H21">
+        <f>((D21-E21)/E21)*100</f>
         <v>0.11211865795083954</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
+      <c r="I21" s="2">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
         <v>1771.5592251544304</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="J21">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <v>1490.5897100440056</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22">
         <v>2942</v>
       </c>
@@ -2460,15 +3467,22 @@
         <v>318.06799999999998</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <v>371.32574954500001</v>
+      </c>
+      <c r="H22">
+        <f>((D22-E22)/E22)*100</f>
         <v>-0.28424571359814599</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
+      <c r="I22" s="2">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
         <v>1839.6735490876711</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="J22">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <v>1498.5921523827101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23">
         <v>2942</v>
       </c>
@@ -2485,15 +3499,22 @@
         <v>329.05</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <v>370.974486985</v>
+      </c>
+      <c r="H23">
+        <f>((D23-E23)/E23)*100</f>
         <v>0.18435685171280033</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
+      <c r="I23" s="2">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
         <v>1759.670836212126</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="J23">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <v>1500.0111160427721</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24">
         <v>2942</v>
       </c>
@@ -2510,15 +3531,22 @@
         <v>336.173</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <v>378.09465159899997</v>
+      </c>
+      <c r="H24">
+        <f>((D24-E24)/E24)*100</f>
         <v>4.6531441046675684E-2</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
+      <c r="I24" s="2">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
         <v>1738.4295044613821</v>
       </c>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="J24">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <v>1471.7633584405785</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25">
         <v>2942</v>
       </c>
@@ -2535,15 +3563,22 @@
         <v>328.06400000000002</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <v>376.02096105999999</v>
+      </c>
+      <c r="H25">
+        <f>((D25-E25)/E25)*100</f>
         <v>-1.7408698510842199E-2</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
+      <c r="I25" s="2">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
         <v>1785.0621560606423</v>
       </c>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="J25">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <v>1479.8798787096655</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26">
         <v>2942</v>
       </c>
@@ -2560,15 +3595,22 @@
         <v>327.48500000000001</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <v>370.30092538700001</v>
+      </c>
+      <c r="H26">
+        <f>((D26-E26)/E26)*100</f>
         <v>9.0794856576069047E-2</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
+      <c r="I26" s="2">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
         <v>1790.45988473741</v>
       </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="J26">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/G26</f>
+        <v>1502.7395723200109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27">
         <v>2942</v>
       </c>
@@ -2585,15 +3627,22 @@
         <v>336.10300000000001</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <v>383.70355886200002</v>
+      </c>
+      <c r="H27">
+        <f>((D27-E27)/E27)*100</f>
         <v>-5.0408319048471754E-2</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
+      <c r="I27" s="2">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
         <v>1722.6813686180039</v>
       </c>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="J27">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/G27</f>
+        <v>1450.2493953825929</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28">
         <v>2942</v>
       </c>
@@ -2610,15 +3659,22 @@
         <v>340.964</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <v>394.82818801799999</v>
+      </c>
+      <c r="H28">
+        <f>((D28-E28)/E28)*100</f>
         <v>9.9771641612943343E-2</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
+      <c r="I28" s="2">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
         <v>1700.9133543119833</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="J28">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/G28</f>
+        <v>1409.3873515950581</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29">
         <v>2942</v>
       </c>
@@ -2635,15 +3691,22 @@
         <v>334.35300000000001</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <v>354.76118498099999</v>
+      </c>
+      <c r="H29">
+        <f>((D29-E29)/E29)*100</f>
         <v>-1.071998252155361E-2</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
+      <c r="I29" s="2">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
         <v>1755.8114653603889</v>
       </c>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="J29">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/G29</f>
+        <v>1568.5646508243776</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30">
         <v>4903</v>
       </c>
@@ -2660,15 +3723,22 @@
         <v>550.03200000000004</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <v>636.15356541799997</v>
+      </c>
+      <c r="H30">
+        <f>((D30-E30)/E30)*100</f>
         <v>-0.21618824744933923</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
+      <c r="I30" s="2">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
         <v>1766.7687610858295</v>
       </c>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="J30">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/G30</f>
+        <v>1457.7927285901103</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31">
         <v>4903</v>
       </c>
@@ -2685,65 +3755,82 @@
         <v>536.27</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <v>618.68161622100001</v>
+      </c>
+      <c r="H31">
+        <f>((D31-E31)/E31)*100</f>
         <v>-0.25277291262021784</v>
       </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
+      <c r="I31" s="2">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
         <v>1820.373241571785</v>
       </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="J31">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/G31</f>
+        <v>1498.9616914716321</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" hidden="1">
       <c r="B32">
         <v>4903</v>
       </c>
       <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>4.2917671122799997E-2</v>
+      </c>
+      <c r="E32">
+        <v>552.21900000000005</v>
+      </c>
+      <c r="F32">
+        <v>576.06200000000001</v>
+      </c>
+      <c r="G32">
+        <v>2.3778157831099999E-2</v>
+      </c>
+      <c r="H32">
+        <f>((D32-E32)/E32)*100</f>
+        <v>-99.992228142978988</v>
+      </c>
+      <c r="I32" s="2">
+        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <v>21608349.606844418</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <v>4903</v>
+      </c>
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>521.964689905</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>522.28099999999995</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>547.66899999999998</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
+      <c r="G33">
+        <v>629.108739227</v>
+      </c>
+      <c r="H33">
+        <f>((D33-E33)/E33)*100</f>
         <v>-6.0563201609851583E-2</v>
       </c>
-      <c r="H32" s="2">
-        <f t="shared" si="1"/>
+      <c r="I33" s="2">
+        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
         <v>1776.710302188872</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" hidden="1">
-      <c r="B33">
-        <v>1961</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>195.52834392599999</v>
-      </c>
-      <c r="E33">
-        <v>199.26900000000001</v>
-      </c>
-      <c r="F33">
-        <v>207.82599999999999</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>-1.8771891633922055</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>1896.9842440216523</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="J33">
+        <f>2*B33*SIN((136*3.14159/180)/2)*102/G33</f>
+        <v>1474.1172457284983</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34">
         <v>4903</v>
       </c>
@@ -2760,15 +3847,22 @@
         <v>551.33199999999999</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <v>637.55453732000001</v>
+      </c>
+      <c r="H34">
+        <f>((D34-E34)/E34)*100</f>
         <v>9.0955616841690345E-2</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" si="1"/>
+      <c r="I34" s="2">
+        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
         <v>1780.6793103825248</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="J34">
+        <f>2*B34*SIN((136*3.14159/180)/2)*102/G34</f>
+        <v>1454.589352985131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35">
         <v>4903</v>
       </c>
@@ -2785,15 +3879,22 @@
         <v>554.71500000000003</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <v>635.88970359899997</v>
+      </c>
+      <c r="H35">
+        <f>((D35-E35)/E35)*100</f>
         <v>-2.2660265685966914E-2</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
+      <c r="I35" s="2">
+        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
         <v>1768.425075343911</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="J35">
+        <f>2*B35*SIN((136*3.14159/180)/2)*102/G35</f>
+        <v>1458.3976382763556</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36">
         <v>4903</v>
       </c>
@@ -2810,15 +3911,22 @@
         <v>541.197</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <v>610.21077248200004</v>
+      </c>
+      <c r="H36">
+        <f>((D36-E36)/E36)*100</f>
         <v>-0.20070884431756408</v>
       </c>
-      <c r="H36" s="2">
-        <f t="shared" si="1"/>
+      <c r="I36" s="2">
+        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
         <v>1809.3342453666801</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="J36">
+        <f>2*B36*SIN((136*3.14159/180)/2)*102/G36</f>
+        <v>1519.7700266105826</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37">
         <v>4903</v>
       </c>
@@ -2835,15 +3943,22 @@
         <v>558.46900000000005</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <v>629.26795327800005</v>
+      </c>
+      <c r="H37">
+        <f>((D37-E37)/E37)*100</f>
         <v>4.4415323019862517E-3</v>
       </c>
-      <c r="H37" s="2">
-        <f t="shared" si="1"/>
+      <c r="I37" s="2">
+        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
         <v>1741.4617936291602</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="J37">
+        <f>2*B37*SIN((136*3.14159/180)/2)*102/G37</f>
+        <v>1473.7442723757019</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38">
         <v>4903</v>
       </c>
@@ -2860,15 +3975,22 @@
         <v>561.97299999999996</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <v>637.32188651599995</v>
+      </c>
+      <c r="H38">
+        <f>((D38-E38)/E38)*100</f>
         <v>0.63353333339539097</v>
       </c>
-      <c r="H38" s="2">
-        <f t="shared" si="1"/>
+      <c r="I38" s="2">
+        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
         <v>1715.5016756867478</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="J38">
+        <f>2*B38*SIN((136*3.14159/180)/2)*102/G38</f>
+        <v>1455.1203427245732</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39">
         <v>4903</v>
       </c>
@@ -2885,15 +4007,22 @@
         <v>541.93700000000001</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <v>624.53728806100003</v>
+      </c>
+      <c r="H39">
+        <f>((D39-E39)/E39)*100</f>
         <v>0.66191015114517204</v>
       </c>
-      <c r="H39" s="2">
-        <f t="shared" si="1"/>
+      <c r="I39" s="2">
+        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
         <v>1786.8257242906818</v>
       </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="J39">
+        <f>2*B39*SIN((136*3.14159/180)/2)*102/G39</f>
+        <v>1484.9074021060758</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40">
         <v>9807</v>
       </c>
@@ -2910,15 +4039,22 @@
         <v>1086.876</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <v>1218.83039347</v>
+      </c>
+      <c r="H40">
+        <f>((D40-E40)/E40)*100</f>
         <v>0.36384042202343359</v>
       </c>
-      <c r="H40" s="2">
-        <f t="shared" si="1"/>
+      <c r="I40" s="2">
+        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
         <v>1798.0500541997289</v>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="J40">
+        <f>2*B40*SIN((136*3.14159/180)/2)*102/G40</f>
+        <v>1521.9092330104809</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41">
         <v>9807</v>
       </c>
@@ -2935,15 +4071,22 @@
         <v>1091.03</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <v>1187.23613699</v>
+      </c>
+      <c r="H41">
+        <f>((D41-E41)/E41)*100</f>
         <v>0.23147140103300601</v>
       </c>
-      <c r="H41" s="2">
-        <f t="shared" si="1"/>
+      <c r="I41" s="2">
+        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
         <v>1815.5259629947925</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="J41">
+        <f>2*B41*SIN((136*3.14159/180)/2)*102/G41</f>
+        <v>1562.4096769819046</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42">
         <v>9807</v>
       </c>
@@ -2960,15 +4103,22 @@
         <v>1100.847</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <v>1209.3732865100001</v>
+      </c>
+      <c r="H42">
+        <f>((D42-E42)/E42)*100</f>
         <v>-0.33021476589197618</v>
       </c>
-      <c r="H42" s="2">
-        <f t="shared" si="1"/>
+      <c r="I42" s="2">
+        <f>2*B42*SIN((136*3.14159/180)/2)*102/D42</f>
         <v>1798.6180429233038</v>
       </c>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="J42">
+        <f>2*B42*SIN((136*3.14159/180)/2)*102/G42</f>
+        <v>1533.8103214176228</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43">
         <v>9807</v>
       </c>
@@ -2985,29 +4135,36 @@
         <v>1090.731</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <v>1247.3555520100001</v>
+      </c>
+      <c r="H43">
+        <f>((D43-E43)/E43)*100</f>
         <v>0.58938659237060975</v>
       </c>
-      <c r="H43" s="2">
-        <f t="shared" si="1"/>
+      <c r="I43" s="2">
+        <f>2*B43*SIN((136*3.14159/180)/2)*102/D43</f>
         <v>1768.9089131037813</v>
       </c>
+      <c r="J43">
+        <f>2*B43*SIN((136*3.14159/180)/2)*102/G43</f>
+        <v>1487.1054418338927</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="G3:G43">
+  <autoFilter ref="H3:H43">
     <filterColumn colId="0">
-      <colorFilter dxfId="16"/>
+      <colorFilter dxfId="54"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B4:H43">
+  <sortState ref="B4:J43">
     <sortCondition ref="B4"/>
   </sortState>
-  <conditionalFormatting sqref="G1:G2 G4:G1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
+      <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
-      <formula>-1</formula>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+      <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3023,10 +4180,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:H43"/>
+  <dimension ref="B3:J43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3036,10 +4193,11 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3056,13 +4214,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" hidden="1">
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" hidden="1">
       <c r="B4">
         <v>245</v>
       </c>
@@ -3079,15 +4243,18 @@
         <v>25.408000000000001</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G5" si="0">(E4-D4)/E4*100</f>
+        <v>31.832070885899999</v>
+      </c>
+      <c r="H4">
+        <f>(E4-D4)/E4*100</f>
         <v>-2.0462111826184826</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H5" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+      <c r="I4" s="2">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1825.4378258462646</v>
       </c>
     </row>
-    <row r="5" spans="2:8" hidden="1">
+    <row r="5" spans="2:10" hidden="1">
       <c r="B5">
         <v>245</v>
       </c>
@@ -3104,15 +4271,18 @@
         <v>25.094000000000001</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <v>22.438302803799999</v>
+      </c>
+      <c r="H5">
+        <f>(E5-D5)/E5*100</f>
         <v>4.4902805161421258</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
+      <c r="I5" s="2">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
         <v>1970.3261788990305</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>245</v>
       </c>
@@ -3129,90 +4299,114 @@
         <v>25.25</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G41" si="2">(E6-D6)/E6*100</f>
+        <v>27.266981072299998</v>
+      </c>
+      <c r="H6">
+        <f>(E6-D6)/E6*100</f>
         <v>0.89947385563666249</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:H41" si="3">2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+      <c r="I6" s="2">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
         <v>1896.2382550247062</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="J6">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <v>1699.5145212195766</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" hidden="1">
       <c r="B7">
         <v>245</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>24.825338198600001</v>
+        <v>24.327845286500001</v>
       </c>
       <c r="E7">
-        <v>24.911999999999999</v>
+        <v>24.79</v>
       </c>
       <c r="F7">
-        <v>25.545999999999999</v>
+        <v>25.084</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>0.34787171403339051</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="3"/>
-        <v>1866.6666255046839</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>27.8964888625</v>
+      </c>
+      <c r="H7">
+        <f>(E7-D7)/E7*100</f>
+        <v>1.8642787958854319</v>
+      </c>
+      <c r="I7" s="2">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <v>1904.8390737632863</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>245</v>
       </c>
       <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>24.825338198600001</v>
+      </c>
+      <c r="E8">
+        <v>24.911999999999999</v>
+      </c>
+      <c r="F8">
+        <v>25.545999999999999</v>
+      </c>
+      <c r="G8">
+        <v>29.7573172514</v>
+      </c>
+      <c r="H8">
+        <f>(E8-D8)/E8*100</f>
+        <v>0.34787171403339051</v>
+      </c>
+      <c r="I8" s="2">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <v>1866.6666255046839</v>
+      </c>
+      <c r="J8">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <v>1557.2852179748493</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
+        <v>245</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>25.495060519799999</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>25.527999999999999</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>25.959</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
+      <c r="G9">
+        <v>30.1383574014</v>
+      </c>
+      <c r="H9">
+        <f>(E9-D9)/E9*100</f>
         <v>0.12903274913819959</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="3"/>
+      <c r="I9" s="2">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
         <v>1817.6317034511089</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9">
-        <v>980</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>108.500578498</v>
-      </c>
-      <c r="E9">
-        <v>108.527</v>
-      </c>
-      <c r="F9">
-        <v>111.765</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>2.4345556405323234E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="3"/>
-        <v>1708.4012241666487</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" hidden="1">
+      <c r="J9">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <v>1537.5964145955929</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10">
         <v>490</v>
       </c>
@@ -3229,540 +4423,686 @@
         <v>56.924999999999997</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <v>68.618507097299997</v>
+      </c>
+      <c r="H10">
+        <f>(E10-D10)/E10*100</f>
         <v>-1.2846722910463908</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="3"/>
+      <c r="I10" s="2">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
         <v>1661.203108654433</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:10">
       <c r="B11">
-        <v>980</v>
+        <v>490</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>110.81011925999999</v>
+        <v>51.303879068299999</v>
       </c>
       <c r="E11">
-        <v>110.47199999999999</v>
+        <v>50.665999999999997</v>
       </c>
       <c r="F11">
-        <v>114.065</v>
+        <v>52.44</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>-0.30606783619378586</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="3"/>
-        <v>1672.7941668742933</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+        <v>64.286525971900005</v>
+      </c>
+      <c r="H11">
+        <f>(E11-D11)/E11*100</f>
+        <v>-1.2589884109659377</v>
+      </c>
+      <c r="I11" s="2">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <v>1806.5156523739922</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12">
         <v>980</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>109.130250979</v>
+        <v>108.500578498</v>
       </c>
       <c r="E12">
-        <v>108.779</v>
+        <v>108.527</v>
       </c>
       <c r="F12">
-        <v>112.337</v>
+        <v>111.765</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>-0.32290329843076293</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="3"/>
-        <v>1698.5438910466924</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>132.451348736</v>
+      </c>
+      <c r="H12">
+        <f>(E12-D12)/E12*100</f>
+        <v>2.4345556405323234E-2</v>
+      </c>
+      <c r="I12" s="2">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <v>1708.4012241666487</v>
+      </c>
+      <c r="J12">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <v>1399.4762824064139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13">
         <v>980</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>106.202162691</v>
+        <v>110.81011925999999</v>
       </c>
       <c r="E13">
-        <v>105.628</v>
+        <v>110.47199999999999</v>
       </c>
       <c r="F13">
-        <v>109.27200000000001</v>
+        <v>114.065</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>-0.54357054095504787</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
-        <v>1745.3742601089341</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+        <v>132.816407191</v>
+      </c>
+      <c r="H13">
+        <f>(E13-D13)/E13*100</f>
+        <v>-0.30606783619378586</v>
+      </c>
+      <c r="I13" s="2">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <v>1672.7941668742933</v>
+      </c>
+      <c r="J13">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <v>1395.6296895021976</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14">
         <v>980</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>108.269179423</v>
+        <v>109.130250979</v>
       </c>
       <c r="E14">
-        <v>107.468</v>
+        <v>108.779</v>
       </c>
       <c r="F14">
-        <v>111.276</v>
+        <v>112.337</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>-0.74550510198384035</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="3"/>
-        <v>1712.0525168531531</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>130.864181567</v>
+      </c>
+      <c r="H14">
+        <f>(E14-D14)/E14*100</f>
+        <v>-0.32290329843076293</v>
+      </c>
+      <c r="I14" s="2">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <v>1698.5438910466924</v>
+      </c>
+      <c r="J14">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <v>1416.4496266984304</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15">
         <v>980</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>107.086596654</v>
+        <v>106.202162691</v>
       </c>
       <c r="E15">
-        <v>106.53100000000001</v>
+        <v>105.628</v>
       </c>
       <c r="F15">
-        <v>110.11199999999999</v>
+        <v>109.27200000000001</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
-        <v>-0.52153519069566467</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="3"/>
-        <v>1730.959120193955</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>130.84358175599999</v>
+      </c>
+      <c r="H15">
+        <f>(E15-D15)/E15*100</f>
+        <v>-0.54357054095504787</v>
+      </c>
+      <c r="I15" s="2">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <v>1745.3742601089341</v>
+      </c>
+      <c r="J15">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <v>1416.6726303353639</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16">
         <v>980</v>
       </c>
       <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>108.269179423</v>
+      </c>
+      <c r="E16">
+        <v>107.468</v>
+      </c>
+      <c r="F16">
+        <v>111.276</v>
+      </c>
+      <c r="G16">
+        <v>138.92986140799999</v>
+      </c>
+      <c r="H16">
+        <f>(E16-D16)/E16*100</f>
+        <v>-0.74550510198384035</v>
+      </c>
+      <c r="I16" s="2">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <v>1712.0525168531531</v>
+      </c>
+      <c r="J16">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <v>1334.2165553913021</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>980</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>107.086596654</v>
+      </c>
+      <c r="E17">
+        <v>106.53100000000001</v>
+      </c>
+      <c r="F17">
+        <v>110.11199999999999</v>
+      </c>
+      <c r="G17">
+        <v>131.286272002</v>
+      </c>
+      <c r="H17">
+        <f>(E17-D17)/E17*100</f>
+        <v>-0.52153519069566467</v>
+      </c>
+      <c r="I17" s="2">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <v>1730.959120193955</v>
+      </c>
+      <c r="J17">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <v>1411.8956864427453</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18">
+        <v>980</v>
+      </c>
+      <c r="C18">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>105.67261481</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>105.05500000000001</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>108.401</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
+      <c r="G18">
+        <v>139.40095450499999</v>
+      </c>
+      <c r="H18">
+        <f>(E18-D18)/E18*100</f>
         <v>-0.58789663509589452</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" si="3"/>
+      <c r="I18" s="2">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
         <v>1754.1207006380573</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17">
-        <v>1961</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>206.20216269100001</v>
-      </c>
-      <c r="E17">
-        <v>206.43</v>
-      </c>
-      <c r="F17">
-        <v>215.887</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>0.11037025093251684</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="3"/>
-        <v>1798.789027460854</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18">
-        <v>1961</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>215.36022605900001</v>
-      </c>
-      <c r="E18">
-        <v>214.99700000000001</v>
-      </c>
-      <c r="F18">
-        <v>223.328</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>-0.16894471039130718</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="3"/>
-        <v>1722.2966119363805</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="J18">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <v>1329.7076894988136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19">
         <v>1961</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>216.43155927399999</v>
+        <v>206.20216269100001</v>
       </c>
       <c r="E19">
-        <v>216.238</v>
+        <v>206.43</v>
       </c>
       <c r="F19">
-        <v>224.88200000000001</v>
+        <v>215.887</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
-        <v>-8.951214587630052E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="3"/>
-        <v>1713.7712676074907</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>241.906667341</v>
+      </c>
+      <c r="H19">
+        <f>(E19-D19)/E19*100</f>
+        <v>0.11037025093251684</v>
+      </c>
+      <c r="I19" s="2">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <v>1798.789027460854</v>
+      </c>
+      <c r="J19">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <v>1533.2946039243113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20">
         <v>1961</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>216.98001958</v>
+        <v>215.36022605900001</v>
       </c>
       <c r="E20">
-        <v>216.96799999999999</v>
+        <v>214.99700000000001</v>
       </c>
       <c r="F20">
-        <v>226.245</v>
+        <v>223.328</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
-        <v>-5.539793886662865E-3</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="3"/>
-        <v>1709.4393686811959</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" hidden="1">
+        <v>260.51860473400001</v>
+      </c>
+      <c r="H20">
+        <f>(E20-D20)/E20*100</f>
+        <v>-0.16894471039130718</v>
+      </c>
+      <c r="I20" s="2">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <v>1722.2966119363805</v>
+      </c>
+      <c r="J20">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <v>1423.7531636789897</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21">
-        <v>490</v>
+        <v>1961</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>51.303879068299999</v>
+        <v>216.43155927399999</v>
       </c>
       <c r="E21">
-        <v>50.665999999999997</v>
+        <v>216.238</v>
       </c>
       <c r="F21">
-        <v>52.44</v>
+        <v>224.88200000000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
-        <v>-1.2589884109659377</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="3"/>
-        <v>1806.5156523739922</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>265.31792249799997</v>
+      </c>
+      <c r="H21">
+        <f>(E21-D21)/E21*100</f>
+        <v>-8.951214587630052E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <v>1713.7712676074907</v>
+      </c>
+      <c r="J21">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <v>1397.9989900232417</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22">
         <v>1961</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>213.73958356700001</v>
+        <v>216.98001958</v>
       </c>
       <c r="E22">
-        <v>213.322</v>
+        <v>216.96799999999999</v>
       </c>
       <c r="F22">
-        <v>219.27199999999999</v>
+        <v>226.245</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
-        <v>-0.1957526963932498</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="3"/>
-        <v>1735.3556205979969</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>260.49979464</v>
+      </c>
+      <c r="H22">
+        <f>(E22-D22)/E22*100</f>
+        <v>-5.539793886662865E-3</v>
+      </c>
+      <c r="I22" s="2">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <v>1709.4393686811959</v>
+      </c>
+      <c r="J22">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <v>1423.855969636586</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23">
         <v>1961</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>215.086552154</v>
+        <v>213.73958356700001</v>
       </c>
       <c r="E23">
-        <v>214.589</v>
+        <v>213.322</v>
       </c>
       <c r="F23">
-        <v>222.99299999999999</v>
+        <v>219.27199999999999</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
-        <v>-0.2318628419909709</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="3"/>
-        <v>1724.4880443371353</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+        <v>251.68993040399999</v>
+      </c>
+      <c r="H23">
+        <f>(E23-D23)/E23*100</f>
+        <v>-0.1957526963932498</v>
+      </c>
+      <c r="I23" s="2">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <v>1735.3556205979969</v>
+      </c>
+      <c r="J23">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <v>1473.6949829176556</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24">
         <v>1961</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>204.60128159499999</v>
+        <v>215.086552154</v>
       </c>
       <c r="E24">
-        <v>204.11199999999999</v>
+        <v>214.589</v>
       </c>
       <c r="F24">
-        <v>214.07599999999999</v>
+        <v>222.99299999999999</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
-        <v>-0.23971231235791832</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="3"/>
-        <v>1812.8634620260025</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>256.43459727800001</v>
+      </c>
+      <c r="H24">
+        <f>(E24-D24)/E24*100</f>
+        <v>-0.2318628419909709</v>
+      </c>
+      <c r="I24" s="2">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <v>1724.4880443371353</v>
+      </c>
+      <c r="J24">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <v>1446.4280234587914</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25">
         <v>1961</v>
       </c>
       <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>204.60128159499999</v>
+      </c>
+      <c r="E25">
+        <v>204.11199999999999</v>
+      </c>
+      <c r="F25">
+        <v>214.07599999999999</v>
+      </c>
+      <c r="G25">
+        <v>252.02617637899999</v>
+      </c>
+      <c r="H25">
+        <f>(E25-D25)/E25*100</f>
+        <v>-0.23971231235791832</v>
+      </c>
+      <c r="I25" s="2">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <v>1812.8634620260025</v>
+      </c>
+      <c r="J25">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <v>1471.7288220469745</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>1961</v>
+      </c>
+      <c r="C26">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>207.85088109599999</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>207.59299999999999</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>215.55199999999999</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
+      <c r="G26">
+        <v>252.975875078</v>
+      </c>
+      <c r="H26">
+        <f>(E26-D26)/E26*100</f>
         <v>-0.1242243698005258</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="3"/>
+      <c r="I26" s="2">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
         <v>1784.520641584169</v>
       </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26">
-        <v>2942</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>304.24750800999999</v>
-      </c>
-      <c r="E26">
-        <v>304.28899999999999</v>
-      </c>
-      <c r="F26">
-        <v>319.17099999999999</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>1.3635718018067448E-2</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="3"/>
-        <v>1828.9906723820225</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="J26">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/G26</f>
+        <v>1466.2037934364484</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27">
         <v>2942</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>317.19139373399997</v>
+        <v>304.24750800999999</v>
       </c>
       <c r="E27">
-        <v>317.22300000000001</v>
+        <v>304.28899999999999</v>
       </c>
       <c r="F27">
-        <v>337.45299999999997</v>
+        <v>319.17099999999999</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
-        <v>9.9634219460883328E-3</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="3"/>
-        <v>1754.3535708677605</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+        <v>373.59498682200001</v>
+      </c>
+      <c r="H27">
+        <f>(E27-D27)/E27*100</f>
+        <v>1.3635718018067448E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <v>1828.9906723820225</v>
+      </c>
+      <c r="J27">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/G27</f>
+        <v>1489.4896181005067</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28">
         <v>2942</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>307.73740655</v>
+        <v>317.19139373399997</v>
       </c>
       <c r="E28">
-        <v>308.02199999999999</v>
+        <v>317.22300000000001</v>
       </c>
       <c r="F28">
-        <v>329.65100000000001</v>
+        <v>337.45299999999997</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
-        <v>9.239387121698725E-2</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="3"/>
-        <v>1808.2489889163091</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>384.01009813899998</v>
+      </c>
+      <c r="H28">
+        <f>(E28-D28)/E28*100</f>
+        <v>9.9634219460883328E-3</v>
+      </c>
+      <c r="I28" s="2">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <v>1754.3535708677605</v>
+      </c>
+      <c r="J28">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/G28</f>
+        <v>1449.0917216566033</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29">
         <v>2942</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>313.18029693900002</v>
+        <v>307.73740655</v>
       </c>
       <c r="E29">
-        <v>310.90300000000002</v>
+        <v>308.02199999999999</v>
       </c>
       <c r="F29">
-        <v>326.54300000000001</v>
+        <v>329.65100000000001</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
-        <v>-0.73247827746917715</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="3"/>
-        <v>1776.8226790913056</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+        <v>371.74563323400002</v>
+      </c>
+      <c r="H29">
+        <f>(E29-D29)/E29*100</f>
+        <v>9.239387121698725E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <v>1808.2489889163091</v>
+      </c>
+      <c r="J29">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/G29</f>
+        <v>1496.8995046553516</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30">
         <v>2942</v>
       </c>
       <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>313.18029693900002</v>
+      </c>
+      <c r="E30">
+        <v>310.90300000000002</v>
+      </c>
+      <c r="F30">
+        <v>326.54300000000001</v>
+      </c>
+      <c r="G30">
+        <v>384.477042375</v>
+      </c>
+      <c r="H30">
+        <f>(E30-D30)/E30*100</f>
+        <v>-0.73247827746917715</v>
+      </c>
+      <c r="I30" s="2">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <v>1776.8226790913056</v>
+      </c>
+      <c r="J30">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/G30</f>
+        <v>1447.331811565007</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <v>2942</v>
+      </c>
+      <c r="C31">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>312.72361160600002</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>313.28199999999998</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>329.93900000000002</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
+      <c r="G31">
+        <v>369.33176488999999</v>
+      </c>
+      <c r="H31">
+        <f>(E31-D31)/E31*100</f>
         <v>0.17823826265152876</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="3"/>
+      <c r="I31" s="2">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
         <v>1779.4174587202424</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" hidden="1">
-      <c r="B31">
-        <v>245</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>24.327845286500001</v>
-      </c>
-      <c r="E31">
-        <v>24.79</v>
-      </c>
-      <c r="F31">
-        <v>25.084</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>1.8642787958854319</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="3"/>
-        <v>1904.8390737632863</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="J31">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/G31</f>
+        <v>1506.6828990772017</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32">
         <v>4903</v>
       </c>
@@ -3779,15 +5119,22 @@
         <v>543.78599999999994</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <v>646.77871231699999</v>
+      </c>
+      <c r="H32">
+        <f>(E32-D32)/E32*100</f>
         <v>0.19486181206547393</v>
       </c>
-      <c r="H32" s="2">
-        <f t="shared" si="3"/>
+      <c r="I32" s="2">
+        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
         <v>1812.0473097479394</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="J32">
+        <f>2*B32*SIN((136*3.14159/180)/2)*102/G32</f>
+        <v>1433.8444111909866</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33">
         <v>4903</v>
       </c>
@@ -3804,15 +5151,22 @@
         <v>538.95600000000002</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <v>619.66163711900003</v>
+      </c>
+      <c r="H33">
+        <f>(E33-D33)/E33*100</f>
         <v>0.20546102182278531</v>
       </c>
-      <c r="H33" s="2">
-        <f t="shared" si="3"/>
+      <c r="I33" s="2">
+        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
         <v>1822.729298883608</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="J33">
+        <f>2*B33*SIN((136*3.14159/180)/2)*102/G33</f>
+        <v>1496.5910206168517</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34">
         <v>4903</v>
       </c>
@@ -3829,15 +5183,22 @@
         <v>548.34500000000003</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <v>620.54513263299998</v>
+      </c>
+      <c r="H34">
+        <f>(E34-D34)/E34*100</f>
         <v>0.1414157726093318</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" si="3"/>
+      <c r="I34" s="2">
+        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
         <v>1785.0905542035844</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="J34">
+        <f>2*B34*SIN((136*3.14159/180)/2)*102/G34</f>
+        <v>1494.460262701795</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35">
         <v>4903</v>
       </c>
@@ -3854,15 +5215,22 @@
         <v>541.12800000000004</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <v>622.68316510399995</v>
+      </c>
+      <c r="H35">
+        <f>(E35-D35)/E35*100</f>
         <v>0.29492006146765398</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" si="3"/>
+      <c r="I35" s="2">
+        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
         <v>1810.4023266104459</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="J35">
+        <f>2*B35*SIN((136*3.14159/180)/2)*102/G35</f>
+        <v>1489.3289138114778</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36">
         <v>4903</v>
       </c>
@@ -3879,15 +5247,22 @@
         <v>543.04100000000005</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <v>617.058493376</v>
+      </c>
+      <c r="H36">
+        <f>(E36-D36)/E36*100</f>
         <v>0.16576013134014794</v>
       </c>
-      <c r="H36" s="2">
-        <f t="shared" si="3"/>
+      <c r="I36" s="2">
+        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
         <v>1816.6240742978969</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="J36">
+        <f>2*B36*SIN((136*3.14159/180)/2)*102/G36</f>
+        <v>1502.9045899023729</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37">
         <v>4903</v>
       </c>
@@ -3904,15 +5279,22 @@
         <v>530.32399999999996</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <v>607.63047869900004</v>
+      </c>
+      <c r="H37">
+        <f>(E37-D37)/E37*100</f>
         <v>-0.32378300326623849</v>
       </c>
-      <c r="H37" s="2">
-        <f t="shared" si="3"/>
+      <c r="I37" s="2">
+        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
         <v>1836.5353957886343</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="J37">
+        <f>2*B37*SIN((136*3.14159/180)/2)*102/G37</f>
+        <v>1526.2237074062682</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38">
         <v>4903</v>
       </c>
@@ -3929,15 +5311,22 @@
         <v>553.90099999999995</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <v>629.51009361399997</v>
+      </c>
+      <c r="H38">
+        <f>(E38-D38)/E38*100</f>
         <v>-0.62748818599704159</v>
       </c>
-      <c r="H38" s="2">
-        <f t="shared" si="3"/>
+      <c r="I38" s="2">
+        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
         <v>1788.2485332225149</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="J38">
+        <f>2*B38*SIN((136*3.14159/180)/2)*102/G38</f>
+        <v>1473.1773983304545</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39">
         <v>4903</v>
       </c>
@@ -3954,15 +5343,22 @@
         <v>528.89099999999996</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <v>604.46839100099999</v>
+      </c>
+      <c r="H39">
+        <f>(E39-D39)/E39*100</f>
         <v>0.29403721591589715</v>
       </c>
-      <c r="H39" s="2">
-        <f t="shared" si="3"/>
+      <c r="I39" s="2">
+        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
         <v>1856.2055981954372</v>
       </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="J39">
+        <f>2*B39*SIN((136*3.14159/180)/2)*102/G39</f>
+        <v>1534.2076703089331</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40">
         <v>4903</v>
       </c>
@@ -3979,15 +5375,22 @@
         <v>537.88699999999994</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <v>605.97842360100003</v>
+      </c>
+      <c r="H40">
+        <f>(E40-D40)/E40*100</f>
         <v>0.18694243637731839</v>
       </c>
-      <c r="H40" s="2">
-        <f t="shared" si="3"/>
+      <c r="I40" s="2">
+        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
         <v>1840.0906181193704</v>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="J40">
+        <f>2*B40*SIN((136*3.14159/180)/2)*102/G40</f>
+        <v>1530.3845909597217</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41">
         <v>4903</v>
       </c>
@@ -4004,35 +5407,42 @@
         <v>525.27200000000005</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <v>614.47975941599998</v>
+      </c>
+      <c r="H41">
+        <f>(E41-D41)/E41*100</f>
         <v>-0.84776830080463794</v>
       </c>
-      <c r="H41" s="2">
-        <f t="shared" si="3"/>
+      <c r="I41" s="2">
+        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
         <v>1847.9942192687311</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="H43" s="2"/>
+      <c r="J41">
+        <f>2*B41*SIN((136*3.14159/180)/2)*102/G41</f>
+        <v>1509.2116993640491</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="I43" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="G3:G43">
+  <autoFilter ref="H3:H43">
     <filterColumn colId="0">
-      <colorFilter dxfId="13"/>
+      <colorFilter dxfId="59"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B6:H41">
-    <sortCondition ref="B6"/>
+  <sortState ref="B4:J41">
+    <sortCondition ref="B4"/>
   </sortState>
-  <conditionalFormatting sqref="G4:G41">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
-      <formula>-1</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+      <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+      <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4047,11 +5457,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:H17"/>
+  <dimension ref="B3:J17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4061,10 +5470,11 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4081,13 +5491,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>980</v>
       </c>
@@ -4104,15 +5520,22 @@
         <v>366.27100000000002</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G17" si="0">(E4-D4)/E4*100</f>
+        <v>365.78829599400001</v>
+      </c>
+      <c r="H4">
+        <f>(E4-D4)/E4*100</f>
         <v>0.711913841610335</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H17" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+      <c r="I4" s="2">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>528.62131655095016</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="J4">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <v>506.7480921582391</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>980</v>
       </c>
@@ -4129,15 +5552,22 @@
         <v>332.30599999999998</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <v>367.89376955099999</v>
+      </c>
+      <c r="H5">
+        <f>(E5-D5)/E5*100</f>
         <v>0.69734839596614817</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
+      <c r="I5" s="2">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
         <v>585.8834382611559</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="J5">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <v>503.84794870269343</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>980</v>
       </c>
@@ -4154,15 +5584,22 @@
         <v>324.24599999999998</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <v>370.24069813800003</v>
+      </c>
+      <c r="H6">
+        <f>(E6-D6)/E6*100</f>
         <v>-0.1172574802842412</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
+      <c r="I6" s="2">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
         <v>601.86015392076274</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="J6">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <v>500.65409356937437</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>980</v>
       </c>
@@ -4179,15 +5616,22 @@
         <v>353.74099999999999</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <v>374.09387770000001</v>
+      </c>
+      <c r="H7">
+        <f>(E7-D7)/E7*100</f>
         <v>0.64426869463358183</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
+      <c r="I7" s="2">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
         <v>546.34892095553369</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="J7">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <v>495.49733951385849</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>980</v>
       </c>
@@ -4204,15 +5648,22 @@
         <v>325.37099999999998</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <v>376.26291068500001</v>
+      </c>
+      <c r="H8">
+        <f>(E8-D8)/E8*100</f>
         <v>-3.8719093799216252E-2</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
+      <c r="I8" s="2">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
         <v>594.41605490378527</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="J8">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <v>492.64095892766494</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>1961</v>
       </c>
@@ -4229,15 +5680,22 @@
         <v>526.92899999999997</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <v>615.26629976599997</v>
+      </c>
+      <c r="H9">
+        <f>(E9-D9)/E9*100</f>
         <v>-0.76591004554175934</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
+      <c r="I9" s="2">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
         <v>734.92721860006793</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="J9">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <v>602.85146095005689</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10">
         <v>1961</v>
       </c>
@@ -4254,15 +5712,22 @@
         <v>528.93700000000001</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <v>603.98992726400002</v>
+      </c>
+      <c r="H10">
+        <f>(E10-D10)/E10*100</f>
         <v>-0.3410579314807976</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
+      <c r="I10" s="2">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
         <v>736.07553890244765</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="J10">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <v>614.10657851110909</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11">
         <v>1961</v>
       </c>
@@ -4279,15 +5744,22 @@
         <v>529.70899999999995</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <v>620.538215616</v>
+      </c>
+      <c r="H11">
+        <f>(E11-D11)/E11*100</f>
         <v>2.8481918950459813E-3</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
+      <c r="I11" s="2">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
         <v>740.94999138246453</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="J11">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <v>597.7298067276439</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12">
         <v>1961</v>
       </c>
@@ -4304,15 +5776,22 @@
         <v>522.63800000000003</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <v>607.68541366700003</v>
+      </c>
+      <c r="H12">
+        <f>(E12-D12)/E12*100</f>
         <v>-0.55297122711298508</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
+      <c r="I12" s="2">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
         <v>747.61435561660664</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="J12">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <v>610.37204340488347</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13">
         <v>1961</v>
       </c>
@@ -4329,15 +5808,22 @@
         <v>538.68499999999995</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <v>609.67705160499997</v>
+      </c>
+      <c r="H13">
+        <f>(E13-D13)/E13*100</f>
         <v>7.8808360468922201E-2</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
+      <c r="I13" s="2">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
         <v>735.69654975045114</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="J13">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <v>608.37813513042988</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14">
         <v>1961</v>
       </c>
@@ -4354,15 +5840,22 @@
         <v>528.95799999999997</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <v>611.66389825500005</v>
+      </c>
+      <c r="H14">
+        <f>(E14-D14)/E14*100</f>
         <v>-0.1532945435682177</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
+      <c r="I14" s="2">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
         <v>737.48046860162287</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="J14">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <v>606.40196151095415</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15">
         <v>1961</v>
       </c>
@@ -4379,15 +5872,22 @@
         <v>558.61699999999996</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <v>594.23545630800004</v>
+      </c>
+      <c r="H15">
+        <f>(E15-D15)/E15*100</f>
         <v>0.54789815191881719</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
+      <c r="I15" s="2">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
         <v>697.98070803577423</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="J15">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <v>624.18723714631233</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16">
         <v>1961</v>
       </c>
@@ -4404,15 +5904,22 @@
         <v>550.49599999999998</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <v>619.860151331</v>
+      </c>
+      <c r="H16">
+        <f>(E16-D16)/E16*100</f>
         <v>-0.80351593305974123</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
+      <c r="I16" s="2">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
         <v>696.81942878103769</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="J16">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <v>598.38366265490697</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17">
         <v>1961</v>
       </c>
@@ -4429,37 +5936,32 @@
         <v>645.28399999999999</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <v>705.46924269399995</v>
+      </c>
+      <c r="H17">
+        <f>(E17-D17)/E17*100</f>
         <v>0.65379037186126687</v>
       </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
+      <c r="I17" s="2">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
         <v>602.6143558494864</v>
       </c>
+      <c r="J17">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <v>525.76946695910624</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="G3:G17">
-    <filterColumn colId="0">
-      <colorFilter dxfId="10"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="B4:H17">
+  <autoFilter ref="H3:H17"/>
+  <sortState ref="B4:J17">
     <sortCondition ref="B4"/>
   </sortState>
-  <conditionalFormatting sqref="G4:G17">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
-      <formula>-1</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+      <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
-      <formula>-1</formula>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+      <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4475,10 +5977,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:H34"/>
+  <dimension ref="B3:J34"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4488,10 +5990,11 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="1" customFormat="1">
+    <row r="3" spans="2:10" s="1" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4508,113 +6011,147 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>980</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>142.901106021</v>
+        <v>141.804340784</v>
       </c>
       <c r="E4">
-        <v>142.15799999999999</v>
+        <v>140.00899999999999</v>
       </c>
       <c r="F4">
-        <v>147.114</v>
+        <v>144.15100000000001</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G34" si="0">(E4-D4)/E4*100</f>
-        <v>-0.5227324673954451</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H34" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
-        <v>1297.138463725626</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>158.482620674</v>
+      </c>
+      <c r="H4">
+        <f>(E4-D4)/E4*100</f>
+        <v>-1.2823038404674116</v>
+      </c>
+      <c r="I4" s="2">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <v>1307.1709942301534</v>
+      </c>
+      <c r="J4">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <v>1169.6078746076828</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5">
-        <v>1961</v>
+        <v>980</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
+        <v>139.379425239</v>
+      </c>
+      <c r="E5">
+        <v>137.37700000000001</v>
+      </c>
+      <c r="F5">
+        <v>141.33099999999999</v>
+      </c>
+      <c r="G5">
+        <v>144.16835659399999</v>
+      </c>
+      <c r="H5">
+        <f>(E5-D5)/E5*100</f>
+        <v>-1.4576131659593599</v>
+      </c>
+      <c r="I5" s="2">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <v>1329.9130830172642</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J34" si="0">2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <v>1285.7365201906393</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
+        <v>980</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>142.901106021</v>
+      </c>
+      <c r="E6">
+        <v>142.15799999999999</v>
+      </c>
+      <c r="F6">
+        <v>147.114</v>
+      </c>
+      <c r="G6">
+        <v>142.536167869</v>
+      </c>
+      <c r="H6">
+        <f>(E6-D6)/E6*100</f>
+        <v>-0.5227324673954451</v>
+      </c>
+      <c r="I6" s="2">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <v>1297.138463725626</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1300.4595528282546</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7">
+        <v>1961</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>260.24341709499998</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>257.87799999999999</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>268.334</v>
       </c>
-      <c r="G5">
+      <c r="G7">
+        <v>295.08769347200001</v>
+      </c>
+      <c r="H7">
+        <f>(E7-D7)/E7*100</f>
+        <v>-0.91726207547755068</v>
+      </c>
+      <c r="I7" s="2">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <v>1425.2586744657951</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>-0.91726207547755068</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
-        <v>1425.2586744657951</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" hidden="1">
-      <c r="B6">
-        <v>4903</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>612.24258410799996</v>
-      </c>
-      <c r="E6">
-        <v>603.952</v>
-      </c>
-      <c r="F6">
-        <v>635.53099999999995</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>-1.3727223534320545</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>1514.726459748254</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" hidden="1">
-      <c r="B7">
-        <v>2942</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>392.674348651</v>
-      </c>
-      <c r="E7">
-        <v>386.43599999999998</v>
-      </c>
-      <c r="F7">
-        <v>403.05200000000002</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-1.614329061215835</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>1417.1179150292264</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" hidden="1">
+        <v>1256.9625772023721</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" hidden="1">
       <c r="B8">
         <v>1961</v>
       </c>
@@ -4631,315 +6168,406 @@
         <v>266.67500000000001</v>
       </c>
       <c r="G8">
+        <v>300.163447179</v>
+      </c>
+      <c r="H8">
+        <f>(E8-D8)/E8*100</f>
+        <v>-2.0102955106282181</v>
+      </c>
+      <c r="I8" s="2">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <v>1409.8777793550125</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>-2.0102955106282181</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>1409.8777793550125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>1235.7073826716719</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" hidden="1">
       <c r="B9">
         <v>1961</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>272.75209403500003</v>
+      </c>
+      <c r="E9">
+        <v>265.53300000000002</v>
+      </c>
+      <c r="F9">
+        <v>275.97899999999998</v>
+      </c>
+      <c r="G9">
+        <v>290.86769312400003</v>
+      </c>
+      <c r="H9">
+        <f>(E9-D9)/E9*100</f>
+        <v>-2.7187182139319828</v>
+      </c>
+      <c r="I9" s="2">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <v>1359.8949221620728</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1275.1989872218087</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10">
+        <v>1961</v>
+      </c>
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>233.52769679299999</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>232.042</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>243.648</v>
       </c>
-      <c r="G9">
+      <c r="G10">
+        <v>276.62665566599998</v>
+      </c>
+      <c r="H10">
+        <f>(E10-D10)/E10*100</f>
+        <v>-0.64027063764318026</v>
+      </c>
+      <c r="I10" s="2">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <v>1588.3091932176624</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>-0.64027063764318026</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>1588.3091932176624</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" hidden="1">
-      <c r="B10">
-        <v>9807</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0.101809431255</v>
-      </c>
-      <c r="E10">
-        <v>610.86300000000006</v>
-      </c>
-      <c r="F10">
-        <v>782.41499999999996</v>
-      </c>
-      <c r="G10">
+        <v>1340.8476012344661</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
+        <v>1961</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>254.014530982</v>
+      </c>
+      <c r="E11">
+        <v>251.02699999999999</v>
+      </c>
+      <c r="F11">
+        <v>264.346</v>
+      </c>
+      <c r="G11">
+        <v>286.97534338100002</v>
+      </c>
+      <c r="H11">
+        <f>(E11-D11)/E11*100</f>
+        <v>-1.1901233660124249</v>
+      </c>
+      <c r="I11" s="2">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <v>1460.2085410363884</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>99.983333508289917</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>18219817.225476261</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" hidden="1">
-      <c r="B11">
-        <v>9807</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0.19899116109000001</v>
-      </c>
-      <c r="E11">
-        <v>805.73900000000003</v>
-      </c>
-      <c r="F11">
-        <v>1372.942</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>99.975303273009004</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>9321766.9525373094</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" hidden="1">
+        <v>1292.494969488818</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12">
         <v>1961</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>272.75209403500003</v>
+        <v>268.17761118099997</v>
       </c>
       <c r="E12">
-        <v>265.53300000000002</v>
+        <v>266.899</v>
       </c>
       <c r="F12">
-        <v>275.97899999999998</v>
+        <v>277.31299999999999</v>
       </c>
       <c r="G12">
+        <v>300.98859755900003</v>
+      </c>
+      <c r="H12">
+        <f>(E12-D12)/E12*100</f>
+        <v>-0.47906181027278999</v>
+      </c>
+      <c r="I12" s="2">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <v>1383.0915491186518</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
-        <v>-2.7187182139319828</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>1359.8949221620728</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>1232.3197313631185</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" hidden="1">
       <c r="B13">
         <v>1961</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>268.17761118099997</v>
+        <v>274.92017214999998</v>
       </c>
       <c r="E13">
-        <v>266.899</v>
+        <v>269.26900000000001</v>
       </c>
       <c r="F13">
-        <v>277.31299999999999</v>
+        <v>278.65199999999999</v>
       </c>
       <c r="G13">
+        <v>295.95597872799999</v>
+      </c>
+      <c r="H13">
+        <f>(E13-D13)/E13*100</f>
+        <v>-2.0987087819243877</v>
+      </c>
+      <c r="I13" s="2">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <v>1349.1705057018994</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
-        <v>-0.47906181027278999</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>1383.0915491186518</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+        <v>1253.2748595971414</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" hidden="1">
       <c r="B14">
         <v>2942</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>366.98829191499999</v>
+        <v>392.674348651</v>
       </c>
       <c r="E14">
-        <v>365.50200000000001</v>
+        <v>386.43599999999998</v>
       </c>
       <c r="F14">
-        <v>381.09899999999999</v>
+        <v>403.05200000000002</v>
       </c>
       <c r="G14">
+        <v>459.79175276400002</v>
+      </c>
+      <c r="H14">
+        <f>(E14-D14)/E14*100</f>
+        <v>-1.614329061215835</v>
+      </c>
+      <c r="I14" s="2">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <v>1417.1179150292264</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
-        <v>-0.40664398963616644</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>1516.3041069840194</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>1210.2562755869724</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15">
         <v>2942</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>393.53741496599997</v>
+        <v>366.98829191499999</v>
       </c>
       <c r="E15">
-        <v>392.66300000000001</v>
+        <v>365.50200000000001</v>
       </c>
       <c r="F15">
-        <v>406.68200000000002</v>
+        <v>381.09899999999999</v>
       </c>
       <c r="G15">
+        <v>440.135937754</v>
+      </c>
+      <c r="H15">
+        <f>(E15-D15)/E15*100</f>
+        <v>-0.40664398963616644</v>
+      </c>
+      <c r="I15" s="2">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <v>1516.3041069840194</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
-        <v>-0.22268840354195854</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
-        <v>1414.0100358534933</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>1264.3045171121282</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" hidden="1">
       <c r="B16">
         <v>2942</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>382.67851358199999</v>
+        <v>364.84566615799997</v>
       </c>
       <c r="E16">
-        <v>381.43299999999999</v>
+        <v>356.78199999999998</v>
       </c>
       <c r="F16">
-        <v>397.80799999999999</v>
+        <v>386.34399999999999</v>
       </c>
       <c r="G16">
+        <v>432.18568230699998</v>
+      </c>
+      <c r="H16">
+        <f>(E16-D16)/E16*100</f>
+        <v>-2.260110139524973</v>
+      </c>
+      <c r="I16" s="2">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <v>1525.208892038152</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
-        <v>-0.32653535011391277</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>1454.1340433176049</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" hidden="1">
+        <v>1287.5619832553434</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17">
         <v>2942</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>364.84566615799997</v>
+        <v>393.53741496599997</v>
       </c>
       <c r="E17">
-        <v>356.78199999999998</v>
+        <v>392.66300000000001</v>
       </c>
       <c r="F17">
-        <v>386.34399999999999</v>
+        <v>406.68200000000002</v>
       </c>
       <c r="G17">
+        <v>450.63029328300001</v>
+      </c>
+      <c r="H17">
+        <f>(E17-D17)/E17*100</f>
+        <v>-0.22268840354195854</v>
+      </c>
+      <c r="I17" s="2">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <v>1414.0100358534933</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
-        <v>-2.260110139524973</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>1525.208892038152</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" hidden="1">
+        <v>1234.8611767569273</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18">
-        <v>1961</v>
+        <v>2942</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18">
-        <v>254.014530982</v>
+        <v>382.67851358199999</v>
       </c>
       <c r="E18">
-        <v>251.02699999999999</v>
+        <v>381.43299999999999</v>
       </c>
       <c r="F18">
-        <v>264.346</v>
+        <v>397.80799999999999</v>
       </c>
       <c r="G18">
+        <v>442.29664179600002</v>
+      </c>
+      <c r="H18">
+        <f>(E18-D18)/E18*100</f>
+        <v>-0.32653535011391277</v>
+      </c>
+      <c r="I18" s="2">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <v>1454.1340433176049</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
-        <v>-1.1901233660124249</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>1460.2085410363884</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>1258.1281467256149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19">
         <v>2942</v>
       </c>
       <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>385.05715211299997</v>
+      </c>
+      <c r="E19">
+        <v>379.58499999999998</v>
+      </c>
+      <c r="F19">
+        <v>395.10599999999999</v>
+      </c>
+      <c r="G19">
+        <v>446.57380016600001</v>
+      </c>
+      <c r="H19">
+        <f>(E19-D19)/E19*100</f>
+        <v>-1.4416144244372124</v>
+      </c>
+      <c r="I19" s="2">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <v>1445.1513267372388</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1246.0781488724051</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20">
+        <v>2942</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>378.95784164000003</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>375.52699999999999</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>390.80500000000001</v>
       </c>
-      <c r="G19">
+      <c r="G20">
+        <v>456.09127847299999</v>
+      </c>
+      <c r="H20">
+        <f>(E20-D20)/E20*100</f>
+        <v>-0.9136071813744524</v>
+      </c>
+      <c r="I20" s="2">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <v>1468.4109763702754</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="0"/>
-        <v>-0.9136071813744524</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>1468.4109763702754</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" hidden="1">
-      <c r="B20">
-        <v>4903</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>597.81803878000005</v>
-      </c>
-      <c r="E20">
-        <v>591.71699999999998</v>
-      </c>
-      <c r="F20">
-        <v>620.23400000000004</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>-1.0310737700623891</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>1551.2747722126092</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+        <v>1220.0756307132647</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21">
         <v>2942</v>
       </c>
@@ -4956,315 +6584,406 @@
         <v>390.01100000000002</v>
       </c>
       <c r="G21">
+        <v>450.45527662799998</v>
+      </c>
+      <c r="H21">
+        <f>(E21-D21)/E21*100</f>
+        <v>-0.57265574076789361</v>
+      </c>
+      <c r="I21" s="2">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <v>1474.7321058168168</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="0"/>
-        <v>-0.57265574076789361</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>1474.7321058168168</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>1235.3409608415166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22">
         <v>4903</v>
       </c>
       <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>612.24258410799996</v>
+      </c>
+      <c r="E22">
+        <v>603.952</v>
+      </c>
+      <c r="F22">
+        <v>635.53099999999995</v>
+      </c>
+      <c r="G22">
+        <v>785.73397188199999</v>
+      </c>
+      <c r="H22">
+        <f>(E22-D22)/E22*100</f>
+        <v>-1.3727223534320545</v>
+      </c>
+      <c r="I22" s="2">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <v>1514.726459748254</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1180.2722996840278</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <v>4903</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>584.90443796600005</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>582.59699999999998</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>616.78399999999999</v>
       </c>
-      <c r="G22">
+      <c r="G23">
+        <v>750.72446998500004</v>
+      </c>
+      <c r="H23">
+        <f>(E23-D23)/E23*100</f>
+        <v>-0.39606073598045749</v>
+      </c>
+      <c r="I23" s="2">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <v>1585.5240304860554</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="0"/>
-        <v>-0.39606073598045749</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>1585.5240304860554</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" hidden="1">
-      <c r="B23">
-        <v>9807</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>0.33319450229100001</v>
-      </c>
-      <c r="E23">
-        <v>678.005</v>
-      </c>
-      <c r="F23">
-        <v>1199.7809999999999</v>
-      </c>
-      <c r="G23">
+        <v>1235.3134592130227</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24">
+        <v>4903</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>606.44638807900003</v>
+      </c>
+      <c r="E24">
+        <v>603.24900000000002</v>
+      </c>
+      <c r="F24">
+        <v>641.21199999999999</v>
+      </c>
+      <c r="G24">
+        <v>745.75037042700001</v>
+      </c>
+      <c r="H24">
+        <f>(E24-D24)/E24*100</f>
+        <v>-0.53002791202306287</v>
+      </c>
+      <c r="I24" s="2">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <v>1529.2036693806251</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="0"/>
-        <v>99.950856630512902</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>5567166.3744191816</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" hidden="1">
-      <c r="B24">
-        <v>1961</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24">
-        <v>274.92017214999998</v>
-      </c>
-      <c r="E24">
-        <v>269.26900000000001</v>
-      </c>
-      <c r="F24">
-        <v>278.65199999999999</v>
-      </c>
-      <c r="G24">
+        <v>1243.5529081963932</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>4903</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>576.74348651000003</v>
+      </c>
+      <c r="E25">
+        <v>573.697</v>
+      </c>
+      <c r="F25">
+        <v>603.45899999999995</v>
+      </c>
+      <c r="G25">
+        <v>730.03825367299999</v>
+      </c>
+      <c r="H25">
+        <f>(E25-D25)/E25*100</f>
+        <v>-0.53102709444184337</v>
+      </c>
+      <c r="I25" s="2">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <v>1607.9592810745228</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="0"/>
-        <v>-2.0987087819243877</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>1349.1705057018994</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" hidden="1">
-      <c r="B25">
-        <v>980</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>141.804340784</v>
-      </c>
-      <c r="E25">
-        <v>140.00899999999999</v>
-      </c>
-      <c r="F25">
-        <v>144.15100000000001</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>-1.2823038404674116</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>1307.1709942301534</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>1270.317051561557</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26">
         <v>4903</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>606.44638807900003</v>
+        <v>597.81803878000005</v>
       </c>
       <c r="E26">
-        <v>603.24900000000002</v>
+        <v>591.71699999999998</v>
       </c>
       <c r="F26">
-        <v>641.21199999999999</v>
+        <v>620.23400000000004</v>
       </c>
       <c r="G26">
+        <v>749.88594571900001</v>
+      </c>
+      <c r="H26">
+        <f>(E26-D26)/E26*100</f>
+        <v>-1.0310737700623891</v>
+      </c>
+      <c r="I26" s="2">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <v>1551.2747722126092</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="0"/>
-        <v>-0.53002791202306287</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>1529.2036693806251</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" hidden="1">
+        <v>1236.6947896907841</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27">
-        <v>2942</v>
+        <v>4903</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>385.05715211299997</v>
+        <v>658.16095145500003</v>
       </c>
       <c r="E27">
-        <v>379.58499999999998</v>
+        <v>653.51499999999999</v>
       </c>
       <c r="F27">
-        <v>395.10599999999999</v>
+        <v>682.35599999999999</v>
       </c>
       <c r="G27">
+        <v>751.93948092100004</v>
+      </c>
+      <c r="H27">
+        <f>(E27-D27)/E27*100</f>
+        <v>-0.7109173400763632</v>
+      </c>
+      <c r="I27" s="2">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <v>1409.0474980061781</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="0"/>
-        <v>-1.4416144244372124</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
-        <v>1445.1513267372388</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" hidden="1">
+        <v>1233.3173951674248</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28">
-        <v>980</v>
+        <v>4903</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>139.379425239</v>
+        <v>625.40839464999999</v>
       </c>
       <c r="E28">
-        <v>137.37700000000001</v>
+        <v>622.07399999999996</v>
       </c>
       <c r="F28">
-        <v>141.33099999999999</v>
+        <v>650.601</v>
       </c>
       <c r="G28">
+        <v>753.61209190900001</v>
+      </c>
+      <c r="H28">
+        <f>(E28-D28)/E28*100</f>
+        <v>-0.53601254030871504</v>
+      </c>
+      <c r="I28" s="2">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <v>1482.8391333826389</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="0"/>
-        <v>-1.4576131659593599</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
-        <v>1329.9130830172642</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>1230.5800980234485</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29">
         <v>4903</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>576.74348651000003</v>
+        <v>604.42176870699996</v>
       </c>
       <c r="E29">
-        <v>573.697</v>
+        <v>600.81799999999998</v>
       </c>
       <c r="F29">
-        <v>603.45899999999995</v>
+        <v>628.98599999999999</v>
       </c>
       <c r="G29">
+        <v>744.50837532699995</v>
+      </c>
+      <c r="H29">
+        <f>(E29-D29)/E29*100</f>
+        <v>-0.5998103763535666</v>
+      </c>
+      <c r="I29" s="2">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <v>1534.3260119782201</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="0"/>
-        <v>-0.53102709444184337</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>1607.9592810745228</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+        <v>1245.6274135609465</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30">
-        <v>4903</v>
+        <v>9807</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>658.16095145500003</v>
+        <v>907.37424221399999</v>
       </c>
       <c r="E30">
-        <v>653.51499999999999</v>
+        <v>915.87300000000005</v>
       </c>
       <c r="F30">
-        <v>682.35599999999999</v>
+        <v>1263.8409999999999</v>
       </c>
       <c r="G30">
+        <v>1031.66152487</v>
+      </c>
+      <c r="H30">
+        <f>(E30-D30)/E30*100</f>
+        <v>0.92794064089672423</v>
+      </c>
+      <c r="I30" s="2">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <v>2044.3044809930907</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="0"/>
-        <v>-0.7109173400763632</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
-        <v>1409.0474980061781</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
+        <v>1798.0211383084516</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" hidden="1">
       <c r="B31">
-        <v>4903</v>
+        <v>9807</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>625.40839464999999</v>
+        <v>0.101809431255</v>
       </c>
       <c r="E31">
-        <v>622.07399999999996</v>
+        <v>610.86300000000006</v>
       </c>
       <c r="F31">
-        <v>650.601</v>
+        <v>782.41499999999996</v>
       </c>
       <c r="G31">
+        <v>6.3583530514499997E-2</v>
+      </c>
+      <c r="H31">
+        <f>(E31-D31)/E31*100</f>
+        <v>99.983333508289917</v>
+      </c>
+      <c r="I31" s="2">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <v>18219817.225476261</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="0"/>
-        <v>-0.53601254030871504</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
-        <v>1482.8391333826389</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
+        <v>29173422.964815956</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" hidden="1">
       <c r="B32">
-        <v>4903</v>
+        <v>9807</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>604.42176870699996</v>
+        <v>0.19899116109000001</v>
       </c>
       <c r="E32">
-        <v>600.81799999999998</v>
+        <v>805.73900000000003</v>
       </c>
       <c r="F32">
-        <v>628.98599999999999</v>
+        <v>1372.942</v>
       </c>
       <c r="G32">
+        <v>0.11589336101</v>
+      </c>
+      <c r="H32">
+        <f>(E32-D32)/E32*100</f>
+        <v>99.975303273009004</v>
+      </c>
+      <c r="I32" s="2">
+        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <v>9321766.9525373094</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="0"/>
-        <v>-0.5998103763535666</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="1"/>
-        <v>1534.3260119782201</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+        <v>16005655.657322196</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" hidden="1">
       <c r="B33">
         <v>9807</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>907.37424221399999</v>
+        <v>0.33319450229100001</v>
       </c>
       <c r="E33">
-        <v>915.87300000000005</v>
+        <v>678.005</v>
       </c>
       <c r="F33">
-        <v>1263.8409999999999</v>
+        <v>1199.7809999999999</v>
       </c>
       <c r="G33">
+        <v>0.240009411605</v>
+      </c>
+      <c r="H33">
+        <f>(E33-D33)/E33*100</f>
+        <v>99.950856630512902</v>
+      </c>
+      <c r="I33" s="2">
+        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <v>5567166.3744191816</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="0"/>
-        <v>0.92794064089672423</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>2044.3044809930907</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+        <v>7728652.0428149197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34">
         <v>9807</v>
       </c>
@@ -5281,29 +7000,36 @@
         <v>1128.4090000000001</v>
       </c>
       <c r="G34">
+        <v>1365.3590599700001</v>
+      </c>
+      <c r="H34">
+        <f>(E34-D34)/E34*100</f>
+        <v>1.4099888725180152E-2</v>
+      </c>
+      <c r="I34" s="2">
+        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <v>1750.9603817848079</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="0"/>
-        <v>1.4099888725180152E-2</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="1"/>
-        <v>1750.9603817848079</v>
+        <v>1358.5797931692396</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G3:G34">
+  <autoFilter ref="H3:H34">
     <filterColumn colId="0">
-      <colorFilter dxfId="5"/>
+      <colorFilter dxfId="70"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B4:H34">
+  <sortState ref="B4:I34">
     <sortCondition ref="B4"/>
   </sortState>
-  <conditionalFormatting sqref="G4:G34">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
-      <formula>-1</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5319,10 +7045,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:H26"/>
+  <dimension ref="B3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5332,10 +7058,11 @@
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="1" customFormat="1">
+    <row r="3" spans="2:10" s="1" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5352,13 +7079,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>980</v>
       </c>
@@ -5375,15 +7108,22 @@
         <v>118.129</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G25" si="0">(E4-D4)/E4*100</f>
+        <v>137.73666246600001</v>
+      </c>
+      <c r="H4">
+        <f>(E4-D4)/E4*100</f>
         <v>-0.27015632427281822</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H25" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+      <c r="I4">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1630.9195649551327</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" hidden="1">
+      <c r="J4">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <v>1345.7747400735013</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>980</v>
       </c>
@@ -5400,15 +7140,22 @@
         <v>126.575</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <v>139.31991712300001</v>
+      </c>
+      <c r="H5">
+        <f>(E5-D5)/E5*100</f>
         <v>-1.4309208418495045</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="I5" s="2">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
         <v>1500.0578555752077</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" hidden="1">
+      <c r="J5">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <v>1330.4811326087968</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" hidden="1">
       <c r="B6">
         <v>980</v>
       </c>
@@ -5425,15 +7172,22 @@
         <v>115.93300000000001</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <v>133.21370797500001</v>
+      </c>
+      <c r="H6">
+        <f>(E6-D6)/E6*100</f>
         <v>-913.69133311894211</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="I6" s="2">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
         <v>1656.4810081362016</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="J6">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <v>1391.4673192908904</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>980</v>
       </c>
@@ -5450,15 +7204,22 @@
         <v>132.17099999999999</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <v>138.34530615599999</v>
+      </c>
+      <c r="H7">
+        <f>(E7-D7)/E7*100</f>
         <v>-0.95438310547489402</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
+      <c r="I7" s="2">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
         <v>1442.659631522635</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="J7">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <v>1339.8540671828471</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>980</v>
       </c>
@@ -5475,15 +7236,22 @@
         <v>119.431</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <v>132.35855680700001</v>
+      </c>
+      <c r="H8">
+        <f>(E8-D8)/E8*100</f>
         <v>0.21115794059891646</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
+      <c r="I8" s="2">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
         <v>1628.3992307342776</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="J8">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <v>1400.4574060070859</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>1961</v>
       </c>
@@ -5500,15 +7268,22 @@
         <v>298.37400000000002</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <v>272.32844907800001</v>
+      </c>
+      <c r="H9">
+        <f>(E9-D9)/E9*100</f>
         <v>1.421969326729944E-3</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
+      <c r="I9" s="2">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
         <v>1726.4514512706644</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="J9">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <v>1362.0104287416254</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10">
         <v>1961</v>
       </c>
@@ -5525,15 +7300,22 @@
         <v>241.45599999999999</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <v>276.51851982099998</v>
+      </c>
+      <c r="H10">
+        <f>(E10-D10)/E10*100</f>
         <v>-0.11827366833316273</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
+      <c r="I10" s="2">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
         <v>1658.1820677255384</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="J10">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <v>1341.3719555832076</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11">
         <v>1961</v>
       </c>
@@ -5550,15 +7332,22 @@
         <v>257.85700000000003</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <v>291.25068760200003</v>
+      </c>
+      <c r="H11">
+        <f>(E11-D11)/E11*100</f>
         <v>-0.2203409338093518</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
+      <c r="I11">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
         <v>1496.3700819404869</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" hidden="1">
+      <c r="J11">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <v>1273.5221013250637</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1">
       <c r="B12">
         <v>1961</v>
       </c>
@@ -5575,15 +7364,22 @@
         <v>239.566</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <v>272.57458571799998</v>
+      </c>
+      <c r="H12">
+        <f>(E12-D12)/E12*100</f>
         <v>-2.5595197747712071</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="I12" s="2">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
         <v>1589.6892890877939</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" hidden="1">
+      <c r="J12">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <v>1360.7805243846499</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13">
         <v>1961</v>
       </c>
@@ -5600,15 +7396,22 @@
         <v>263.12900000000002</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <v>296.75620702800001</v>
+      </c>
+      <c r="H13">
+        <f>(E13-D13)/E13*100</f>
         <v>-1.2585580814440833</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
+      <c r="I13" s="2">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
         <v>1455.1407598060139</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" hidden="1">
+      <c r="J13">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <v>1249.8952975641437</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" hidden="1">
       <c r="B14">
         <v>2942</v>
       </c>
@@ -5625,15 +7428,22 @@
         <v>350.404</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <v>347.324313233</v>
+      </c>
+      <c r="H14">
+        <f>(E14-D14)/E14*100</f>
         <v>-2.0670486962785555</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
+      <c r="I14" s="2">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
         <v>1809.7624906284952</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="J14">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <v>1602.1505925283832</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15">
         <v>2942</v>
       </c>
@@ -5650,15 +7460,22 @@
         <v>322.25</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <v>360.45668958300001</v>
+      </c>
+      <c r="H15">
+        <f>(E15-D15)/E15*100</f>
         <v>0.69282653343055711</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
+      <c r="I15">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
         <v>1882.7825511452668</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" hidden="1">
+      <c r="J15">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <v>1543.7800721343831</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" hidden="1">
       <c r="B16">
         <v>2942</v>
       </c>
@@ -5675,15 +7492,22 @@
         <v>329.529</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <v>384.01367874200002</v>
+      </c>
+      <c r="H16">
+        <f>(E16-D16)/E16*100</f>
         <v>2.8925142008530429</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
+      <c r="I16">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
         <v>1893.2306202698062</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" hidden="1">
+      <c r="J16">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <v>1449.0782101010177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" hidden="1">
       <c r="B17">
         <v>2942</v>
       </c>
@@ -5700,15 +7524,22 @@
         <v>413.95600000000002</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <v>476.74567724799999</v>
+      </c>
+      <c r="H17">
+        <f>(E17-D17)/E17*100</f>
         <v>-2.7405955325935984</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
+      <c r="I17" s="2">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
         <v>1355.08870751719</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="J17">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <v>1167.2174092022124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18">
         <v>2942</v>
       </c>
@@ -5725,15 +7556,22 @@
         <v>392.02499999999998</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <v>366.11172453400002</v>
+      </c>
+      <c r="H18">
+        <f>(E18-D18)/E18*100</f>
         <v>6.2777493159464862E-2</v>
       </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
+      <c r="I18" s="2">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
         <v>1602.0652748756656</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="J18">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <v>1519.9345362513427</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19">
         <v>2942</v>
       </c>
@@ -5750,15 +7588,22 @@
         <v>329.67200000000003</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <v>317.53161577600002</v>
+      </c>
+      <c r="H19">
+        <f>(E19-D19)/E19*100</f>
         <v>0.70373207060430421</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
+      <c r="I19" s="2">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
         <v>1983.1261534779187</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="J19">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <v>1752.4738533070004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20">
         <v>4903</v>
       </c>
@@ -5775,15 +7620,22 @@
         <v>551.625</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <v>529.752404222</v>
+      </c>
+      <c r="H20">
+        <f>(E20-D20)/E20*100</f>
         <v>-0.34051826266211865</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
+      <c r="I20">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
         <v>1880.7889595678184</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="J20">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <v>1750.59147356772</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21">
         <v>4903</v>
       </c>
@@ -5800,15 +7652,22 @@
         <v>521.71699999999998</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <v>520.04193427799999</v>
+      </c>
+      <c r="H21">
+        <f>(E21-D21)/E21*100</f>
         <v>0.20956215741071213</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
+      <c r="I21" s="2">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
         <v>2062.8665310084457</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="J21">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <v>1783.2793488482062</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22">
         <v>4903</v>
       </c>
@@ -5825,15 +7684,22 @@
         <v>512.78200000000004</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <v>464.85066349900001</v>
+      </c>
+      <c r="H22">
+        <f>(E22-D22)/E22*100</f>
         <v>0.34892271781173728</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
+      <c r="I22">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
         <v>2003.1279646067742</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="J22">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <v>1995.0063853894626</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23">
         <v>4903</v>
       </c>
@@ -5850,15 +7716,22 @@
         <v>678.50300000000004</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <v>415.997243115</v>
+      </c>
+      <c r="H23">
+        <f>(E23-D23)/E23*100</f>
         <v>0.33495401112384493</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
+      <c r="I23">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
         <v>2406.0195383814912</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="J23">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <v>2229.2937207679151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24">
         <v>4903</v>
       </c>
@@ -5875,15 +7748,22 @@
         <v>494.625</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <v>515.35834611400003</v>
+      </c>
+      <c r="H24">
+        <f>(E24-D24)/E24*100</f>
         <v>-0.15938156847344481</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
+      <c r="I24" s="2">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
         <v>2054.1689320401274</v>
       </c>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="J24">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <v>1799.4858314138799</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25">
         <v>4903</v>
       </c>
@@ -5900,32 +7780,39 @@
         <v>521.48400000000004</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <v>557.01636220199998</v>
+      </c>
+      <c r="H25">
+        <f>(E25-D25)/E25*100</f>
         <v>-0.38104303700811448</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
+      <c r="I25" s="2">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
         <v>2015.5811028623705</v>
       </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="H26" s="2"/>
+      <c r="J25">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <v>1664.9062843807851</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="I26" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="G3:G25">
+  <autoFilter ref="H3:H25">
     <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B4:H25">
+  <sortState ref="B4:J25">
     <sortCondition ref="B4"/>
   </sortState>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>-1</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5936,4 +7823,979 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B3:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" hidden="1">
+      <c r="B4">
+        <v>245</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>52.618213560999997</v>
+      </c>
+      <c r="E4">
+        <v>53.48</v>
+      </c>
+      <c r="F4">
+        <v>55.17</v>
+      </c>
+      <c r="G4">
+        <v>60.2521917547</v>
+      </c>
+      <c r="H4">
+        <f>(E4-D4)/E4*100</f>
+        <v>1.6114181731488395</v>
+      </c>
+      <c r="I4" s="2">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <v>880.69562126944425</v>
+      </c>
+      <c r="J4">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <v>769.11111334930592</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" hidden="1">
+      <c r="B5">
+        <v>245</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>37.245632531799998</v>
+      </c>
+      <c r="E5">
+        <v>40.360999999999997</v>
+      </c>
+      <c r="F5">
+        <v>41.378</v>
+      </c>
+      <c r="G5">
+        <v>29.908556819600001</v>
+      </c>
+      <c r="H5">
+        <f>(E5-D5)/E5*100</f>
+        <v>7.7187568895716137</v>
+      </c>
+      <c r="I5" s="2">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <v>1244.1896440509624</v>
+      </c>
+      <c r="J5">
+        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <v>1549.4104433626414</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" hidden="1">
+      <c r="B6">
+        <v>245</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>32.139577594099997</v>
+      </c>
+      <c r="E6">
+        <v>33.51</v>
+      </c>
+      <c r="F6">
+        <v>34.494</v>
+      </c>
+      <c r="G6">
+        <v>32.923535214200001</v>
+      </c>
+      <c r="H6">
+        <f>(E6-D6)/E6*100</f>
+        <v>4.0895923780960945</v>
+      </c>
+      <c r="I6" s="2">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <v>1441.8556107812738</v>
+      </c>
+      <c r="J6">
+        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <v>1407.5229157714011</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" hidden="1">
+      <c r="B7">
+        <v>490</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>52.7996009477</v>
+      </c>
+      <c r="E7">
+        <v>53.962000000000003</v>
+      </c>
+      <c r="F7">
+        <v>56.298000000000002</v>
+      </c>
+      <c r="G7">
+        <v>58.0670839211</v>
+      </c>
+      <c r="H7">
+        <f>(E7-D7)/E7*100</f>
+        <v>2.1541066904488404</v>
+      </c>
+      <c r="I7" s="2">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <v>1755.3401711537681</v>
+      </c>
+      <c r="J7">
+        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <v>1596.1066805131663</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8">
+        <v>490</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>67.269779727699998</v>
+      </c>
+      <c r="E8">
+        <v>67.182000000000002</v>
+      </c>
+      <c r="F8">
+        <v>68.968000000000004</v>
+      </c>
+      <c r="G8">
+        <v>65.160057722199994</v>
+      </c>
+      <c r="H8">
+        <f>(E8-D8)/E8*100</f>
+        <v>-0.13065959289690041</v>
+      </c>
+      <c r="I8" s="2">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <v>1377.7547799256815</v>
+      </c>
+      <c r="J8">
+        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <v>1422.3630826037456</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
+        <v>490</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>58.798988765300003</v>
+      </c>
+      <c r="E9">
+        <v>58.582999999999998</v>
+      </c>
+      <c r="F9">
+        <v>60.707000000000001</v>
+      </c>
+      <c r="G9">
+        <v>57.702171738099999</v>
+      </c>
+      <c r="H9">
+        <f>(E9-D9)/E9*100</f>
+        <v>-0.36868846815629808</v>
+      </c>
+      <c r="I9" s="2">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <v>1576.239022312606</v>
+      </c>
+      <c r="J9">
+        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <v>1606.2005600941729</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" hidden="1">
+      <c r="B10">
+        <v>490</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>60.014284256700002</v>
+      </c>
+      <c r="E10">
+        <v>60.954000000000001</v>
+      </c>
+      <c r="F10">
+        <v>63.460999999999999</v>
+      </c>
+      <c r="G10">
+        <v>59.642066231000001</v>
+      </c>
+      <c r="H10">
+        <f>(E10-D10)/E10*100</f>
+        <v>1.5416801904715014</v>
+      </c>
+      <c r="I10" s="2">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <v>1544.320018346956</v>
+      </c>
+      <c r="J10">
+        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <v>1553.9579095972647</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" hidden="1">
+      <c r="B11">
+        <v>490</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>57.172205989799998</v>
+      </c>
+      <c r="E11">
+        <v>59.628</v>
+      </c>
+      <c r="F11">
+        <v>61.716000000000001</v>
+      </c>
+      <c r="G11">
+        <v>60.296696219700003</v>
+      </c>
+      <c r="H11">
+        <f>(E11-D11)/E11*100</f>
+        <v>4.1185248712014522</v>
+      </c>
+      <c r="I11" s="2">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <v>1621.0894605137589</v>
+      </c>
+      <c r="J11">
+        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <v>1537.0868783040514</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1">
+      <c r="B12">
+        <v>490</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>53.6067748189</v>
+      </c>
+      <c r="E12">
+        <v>54.987000000000002</v>
+      </c>
+      <c r="F12">
+        <v>57.542999999999999</v>
+      </c>
+      <c r="G12">
+        <v>57.691442279699999</v>
+      </c>
+      <c r="H12">
+        <f>(E12-D12)/E12*100</f>
+        <v>2.5100936241293432</v>
+      </c>
+      <c r="I12" s="2">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <v>1728.9094685791467</v>
+      </c>
+      <c r="J12">
+        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <v>1606.4992813847248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" hidden="1">
+      <c r="B13">
+        <v>980</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>138.101554263</v>
+      </c>
+      <c r="E13">
+        <v>133.47900000000001</v>
+      </c>
+      <c r="F13">
+        <v>137.31200000000001</v>
+      </c>
+      <c r="G13">
+        <v>143.015852494</v>
+      </c>
+      <c r="H13">
+        <f>(E13-D13)/E13*100</f>
+        <v>-3.4631322252938537</v>
+      </c>
+      <c r="I13" s="2">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <v>1342.218935318926</v>
+      </c>
+      <c r="J13">
+        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <v>1296.0977255059843</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" hidden="1">
+      <c r="B14">
+        <v>980</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>136.176580621</v>
+      </c>
+      <c r="E14">
+        <v>132.57499999999999</v>
+      </c>
+      <c r="F14">
+        <v>135.93199999999999</v>
+      </c>
+      <c r="G14">
+        <v>137.31005033299999</v>
+      </c>
+      <c r="H14">
+        <f>(E14-D14)/E14*100</f>
+        <v>-2.7166363349047793</v>
+      </c>
+      <c r="I14" s="2">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <v>1361.1923598277494</v>
+      </c>
+      <c r="J14">
+        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <v>1349.9559622856261</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15">
+        <v>1961</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>201.56900089600001</v>
+      </c>
+      <c r="E15">
+        <v>201.304</v>
+      </c>
+      <c r="F15">
+        <v>211.13499999999999</v>
+      </c>
+      <c r="G15">
+        <v>228.841325203</v>
+      </c>
+      <c r="H15">
+        <f>(E15-D15)/E15*100</f>
+        <v>-0.13164214123912274</v>
+      </c>
+      <c r="I15" s="2">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <v>1840.1350705639641</v>
+      </c>
+      <c r="J15">
+        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <v>1620.8356919723265</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" hidden="1">
+      <c r="B16">
+        <v>1961</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>152.77803141000001</v>
+      </c>
+      <c r="E16">
+        <v>156.08099999999999</v>
+      </c>
+      <c r="F16">
+        <v>239.119</v>
+      </c>
+      <c r="G16">
+        <v>200.70506539799999</v>
+      </c>
+      <c r="H16">
+        <f>(E16-D16)/E16*100</f>
+        <v>2.1161887673707738</v>
+      </c>
+      <c r="I16" s="2">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <v>2427.7979252911796</v>
+      </c>
+      <c r="J16">
+        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <v>1848.0559369627392</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>1961</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>207.82006371200001</v>
+      </c>
+      <c r="E17">
+        <v>209.863</v>
+      </c>
+      <c r="F17">
+        <v>221.21199999999999</v>
+      </c>
+      <c r="G17">
+        <v>211.756740337</v>
+      </c>
+      <c r="H17">
+        <f>(E17-D17)/E17*100</f>
+        <v>0.97346187179254695</v>
+      </c>
+      <c r="I17" s="2">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <v>1784.7852659755069</v>
+      </c>
+      <c r="J17">
+        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <v>1751.6051063922584</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" hidden="1">
+      <c r="B18">
+        <v>1961</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>201.08605697799999</v>
+      </c>
+      <c r="E18">
+        <v>205.06100000000001</v>
+      </c>
+      <c r="F18">
+        <v>217.34200000000001</v>
+      </c>
+      <c r="G18">
+        <v>247.19698797300001</v>
+      </c>
+      <c r="H18">
+        <f>(E18-D18)/E18*100</f>
+        <v>1.9384197980113327</v>
+      </c>
+      <c r="I18" s="2">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <v>1844.5544821033959</v>
+      </c>
+      <c r="J18">
+        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <v>1500.4802070152314</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" hidden="1">
+      <c r="B19">
+        <v>2942</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>57.777118334599997</v>
+      </c>
+      <c r="E19">
+        <v>263.32299999999998</v>
+      </c>
+      <c r="F19">
+        <v>387.25599999999997</v>
+      </c>
+      <c r="G19">
+        <v>129.44201016900001</v>
+      </c>
+      <c r="H19">
+        <f>(E19-D19)/E19*100</f>
+        <v>78.05846115432378</v>
+      </c>
+      <c r="I19" s="2">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <v>9631.2497107098443</v>
+      </c>
+      <c r="J19">
+        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <v>4298.9586882901513</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" hidden="1">
+      <c r="B20">
+        <v>2942</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>126.157322863</v>
+      </c>
+      <c r="E20">
+        <v>242.73</v>
+      </c>
+      <c r="F20">
+        <v>294.95499999999998</v>
+      </c>
+      <c r="G20">
+        <v>280.83568021600001</v>
+      </c>
+      <c r="H20">
+        <f>(E20-D20)/E20*100</f>
+        <v>48.025656959172743</v>
+      </c>
+      <c r="I20" s="2">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <v>4410.8882593367671</v>
+      </c>
+      <c r="J20">
+        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <v>1981.4642278280608</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" hidden="1">
+      <c r="B21">
+        <v>2942</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>204.10199050400001</v>
+      </c>
+      <c r="E21">
+        <v>218.62200000000001</v>
+      </c>
+      <c r="F21">
+        <v>291.80799999999999</v>
+      </c>
+      <c r="G21">
+        <v>266.89559037599997</v>
+      </c>
+      <c r="H21">
+        <f>(E21-D21)/E21*100</f>
+        <v>6.641604914418493</v>
+      </c>
+      <c r="I21" s="2">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <v>2726.4107168756836</v>
+      </c>
+      <c r="J21">
+        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <v>2084.957093003376</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" hidden="1">
+      <c r="B22">
+        <v>4903</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>0.146092037984</v>
+      </c>
+      <c r="E22">
+        <v>281.685</v>
+      </c>
+      <c r="F22">
+        <v>366.524</v>
+      </c>
+      <c r="G22">
+        <v>8.3153007509300006E-2</v>
+      </c>
+      <c r="H22">
+        <f>(E22-D22)/E22*100</f>
+        <v>99.948136380004627</v>
+      </c>
+      <c r="I22" s="2">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <v>6347916.3870285666</v>
+      </c>
+      <c r="J22">
+        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <v>11152693.927869214</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" hidden="1">
+      <c r="B23">
+        <v>4903</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>121.64901387899999</v>
+      </c>
+      <c r="E23">
+        <v>331.00700000000001</v>
+      </c>
+      <c r="F23">
+        <v>586.59100000000001</v>
+      </c>
+      <c r="G23">
+        <v>238.09384987300001</v>
+      </c>
+      <c r="H23">
+        <f>(E23-D23)/E23*100</f>
+        <v>63.248809276238873</v>
+      </c>
+      <c r="I23" s="2">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <v>7623.4078054711217</v>
+      </c>
+      <c r="J23">
+        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <v>3895.0188861564493</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" hidden="1">
+      <c r="B24">
+        <v>4903</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>108.379747991</v>
+      </c>
+      <c r="E24">
+        <v>344.72800000000001</v>
+      </c>
+      <c r="F24">
+        <v>549.34699999999998</v>
+      </c>
+      <c r="G24">
+        <v>289.86313021400002</v>
+      </c>
+      <c r="H24">
+        <f>(E24-D24)/E24*100</f>
+        <v>68.5607934397554</v>
+      </c>
+      <c r="I24" s="2">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <v>8556.7650702605824</v>
+      </c>
+      <c r="J24">
+        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <v>3199.3722045586401</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" hidden="1">
+      <c r="B25">
+        <v>4903</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0.111851716581</v>
+      </c>
+      <c r="E25">
+        <v>243.29300000000001</v>
+      </c>
+      <c r="F25">
+        <v>450.74799999999999</v>
+      </c>
+      <c r="G25">
+        <v>7.1510636726399998E-2</v>
+      </c>
+      <c r="H25">
+        <f>(E25-D25)/E25*100</f>
+        <v>99.954025920770022</v>
+      </c>
+      <c r="I25" s="2">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <v>8291156.0973804966</v>
+      </c>
+      <c r="J25">
+        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <v>12968420.984436112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" hidden="1">
+      <c r="B26">
+        <v>4903</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4.7936449963500001E-2</v>
+      </c>
+      <c r="E26">
+        <v>370.02199999999999</v>
+      </c>
+      <c r="F26">
+        <v>632.33500000000004</v>
+      </c>
+      <c r="G26">
+        <v>2.7962929145399999E-2</v>
+      </c>
+      <c r="H26">
+        <f>(E26-D26)/E26*100</f>
+        <v>99.987044973011464</v>
+      </c>
+      <c r="I26" s="2">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <v>19346030.893801346</v>
+      </c>
+      <c r="J26">
+        <f>2*B26*SIN((136*3.14159/180)/2)*102/G26</f>
+        <v>33164624.389344085</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" hidden="1">
+      <c r="B27">
+        <v>4903</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>7.9894083272499999E-2</v>
+      </c>
+      <c r="E27">
+        <v>336.49099999999999</v>
+      </c>
+      <c r="F27">
+        <v>425.346</v>
+      </c>
+      <c r="G27">
+        <v>4.7247167246100001E-2</v>
+      </c>
+      <c r="H27">
+        <f>(E27-D27)/E27*100</f>
+        <v>99.976256695343253</v>
+      </c>
+      <c r="I27" s="2">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <v>11607618.536280807</v>
+      </c>
+      <c r="J27">
+        <f>2*B27*SIN((136*3.14159/180)/2)*102/G27</f>
+        <v>19628267.597558107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" hidden="1">
+      <c r="B28">
+        <v>4903</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>250.87198685199999</v>
+      </c>
+      <c r="E28">
+        <v>344.40699999999998</v>
+      </c>
+      <c r="F28">
+        <v>635.13499999999999</v>
+      </c>
+      <c r="G28">
+        <v>391.14215841100003</v>
+      </c>
+      <c r="H28">
+        <f>(E28-D28)/E28*100</f>
+        <v>27.158278765530312</v>
+      </c>
+      <c r="I28" s="2">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <v>3696.6265288126178</v>
+      </c>
+      <c r="J28">
+        <f>2*B28*SIN((136*3.14159/180)/2)*102/G28</f>
+        <v>2370.9539408906448</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" hidden="1">
+      <c r="B29">
+        <v>9807</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>80.273009496</v>
+      </c>
+      <c r="E29">
+        <v>572.91300000000001</v>
+      </c>
+      <c r="F29">
+        <v>929.91200000000003</v>
+      </c>
+      <c r="G29">
+        <v>301.46926320799997</v>
+      </c>
+      <c r="H29">
+        <f>(E29-D29)/E29*100</f>
+        <v>85.988621396966039</v>
+      </c>
+      <c r="I29" s="2">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <v>23108.006550921978</v>
+      </c>
+      <c r="J29">
+        <f>2*B29*SIN((136*3.14159/180)/2)*102/G29</f>
+        <v>6153.0293654380293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" hidden="1">
+      <c r="B30">
+        <v>9807</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0.18261504747999999</v>
+      </c>
+      <c r="E30">
+        <v>590.61300000000006</v>
+      </c>
+      <c r="F30">
+        <v>974.12800000000004</v>
+      </c>
+      <c r="G30">
+        <v>0.114332525478</v>
+      </c>
+      <c r="H30">
+        <f>(E30-D30)/E30*100</f>
+        <v>99.969080421954814</v>
+      </c>
+      <c r="I30" s="2">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <v>10157701.979618872</v>
+      </c>
+      <c r="J30">
+        <f>2*B30*SIN((136*3.14159/180)/2)*102/G30</f>
+        <v>16224160.37379251</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" hidden="1">
+      <c r="B31">
+        <v>9807</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>6.8480642805000005E-2</v>
+      </c>
+      <c r="E31">
+        <v>591.798</v>
+      </c>
+      <c r="F31">
+        <v>741.00199999999995</v>
+      </c>
+      <c r="G31">
+        <v>3.7655705010999997E-2</v>
+      </c>
+      <c r="H31">
+        <f>(E31-D31)/E31*100</f>
+        <v>99.988428375424562</v>
+      </c>
+      <c r="I31" s="2">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <v>27087205.278983656</v>
+      </c>
+      <c r="J31">
+        <f>2*B31*SIN((136*3.14159/180)/2)*102/G31</f>
+        <v>49260775.458962239</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="H3:H31">
+    <filterColumn colId="0">
+      <colorFilter dxfId="1"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>-1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H31">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>-1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="39.75" sheetId="1" r:id="rId1"/>
@@ -452,43 +452,7 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -531,416 +495,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -969,91 +523,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1126,12 +598,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1156,12 +626,38 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1495,8 +991,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:J47"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1559,15 +1055,15 @@
         <v>64.728393663800006</v>
       </c>
       <c r="H4">
-        <f>((D4-E4)/E4)*100</f>
+        <f t="shared" ref="H4:H42" si="0">((D4-E4)/E4)*100</f>
         <v>0.49625740435912158</v>
       </c>
       <c r="I4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="I4:I42" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1828.9985552198725</v>
       </c>
       <c r="J4">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <f t="shared" ref="J4:J42" si="2">2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
         <v>1431.8486110712693</v>
       </c>
     </row>
@@ -1591,15 +1087,15 @@
         <v>65.318952534499999</v>
       </c>
       <c r="H5">
-        <f>((D5-E5)/E5)*100</f>
+        <f t="shared" si="0"/>
         <v>5.6433976855386724E-2</v>
       </c>
       <c r="I5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>1771.7862728322841</v>
       </c>
       <c r="J5">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <f t="shared" si="2"/>
         <v>1418.9030437289121</v>
       </c>
     </row>
@@ -1623,15 +1119,15 @@
         <v>62.238960301500001</v>
       </c>
       <c r="H6">
-        <f>((D6-E6)/E6)*100</f>
+        <f t="shared" si="0"/>
         <v>-2.3455499211484505</v>
       </c>
       <c r="I6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>1790.3333284367498</v>
       </c>
       <c r="J6">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <f t="shared" si="2"/>
         <v>1489.119678661353</v>
       </c>
     </row>
@@ -1655,15 +1151,15 @@
         <v>57.989676575799997</v>
       </c>
       <c r="H7">
-        <f>((D7-E7)/E7)*100</f>
+        <f t="shared" si="0"/>
         <v>0.43168905796277374</v>
       </c>
       <c r="I7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>1749.1733091767246</v>
       </c>
       <c r="J7">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <f t="shared" si="2"/>
         <v>1598.2372387133423</v>
       </c>
     </row>
@@ -1687,15 +1183,15 @@
         <v>61.984560191</v>
       </c>
       <c r="H8">
-        <f>((D8-E8)/E8)*100</f>
+        <f t="shared" si="0"/>
         <v>0.83448388379692451</v>
       </c>
       <c r="I8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>1831.3989589796104</v>
       </c>
       <c r="J8">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <f t="shared" si="2"/>
         <v>1495.231397606068</v>
       </c>
     </row>
@@ -1719,15 +1215,15 @@
         <v>68.519872780100002</v>
       </c>
       <c r="H9">
-        <f>((D9-E9)/E9)*100</f>
+        <f t="shared" si="0"/>
         <v>0.67659491407982497</v>
       </c>
       <c r="I9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>1701.005139037165</v>
       </c>
       <c r="J9">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <f t="shared" si="2"/>
         <v>1352.6186900817406</v>
       </c>
     </row>
@@ -1751,15 +1247,15 @@
         <v>64.068407559500002</v>
       </c>
       <c r="H10">
-        <f>((D10-E10)/E10)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.24437616966732462</v>
       </c>
       <c r="I10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>1818.1664642795583</v>
       </c>
       <c r="J10">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <f t="shared" si="2"/>
         <v>1446.5984733320204</v>
       </c>
     </row>
@@ -1783,15 +1279,15 @@
         <v>127.509532648</v>
       </c>
       <c r="H11">
-        <f>((D11-E11)/E11)*100</f>
+        <f t="shared" si="0"/>
         <v>0.13856197514628768</v>
       </c>
       <c r="I11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>1764.0234295002922</v>
       </c>
       <c r="J11">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <f t="shared" si="2"/>
         <v>1453.7150068652547</v>
       </c>
     </row>
@@ -1815,15 +1311,15 @@
         <v>134.16567345199999</v>
       </c>
       <c r="H12">
-        <f>((D12-E12)/E12)*100</f>
+        <f t="shared" si="0"/>
         <v>3.5538603522236152E-2</v>
       </c>
       <c r="I12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1743.2139429530496</v>
       </c>
       <c r="J12">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <f t="shared" si="2"/>
         <v>1381.5942361373775</v>
       </c>
     </row>
@@ -1847,15 +1343,15 @@
         <v>229.03660427299999</v>
       </c>
       <c r="H13">
-        <f>((D13-E13)/E13)*100</f>
+        <f t="shared" si="0"/>
         <v>3.2034572265430197</v>
       </c>
       <c r="I13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>895.44734825526825</v>
       </c>
       <c r="J13">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <f t="shared" si="2"/>
         <v>809.31395973645351</v>
       </c>
     </row>
@@ -1879,15 +1375,15 @@
         <v>131.47177410200001</v>
       </c>
       <c r="H14">
-        <f>((D14-E14)/E14)*100</f>
+        <f t="shared" si="0"/>
         <v>8.7301340999804952E-2</v>
       </c>
       <c r="I14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>1760.1296171201511</v>
       </c>
       <c r="J14">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <f t="shared" si="2"/>
         <v>1409.9035507420974</v>
       </c>
     </row>
@@ -1911,15 +1407,15 @@
         <v>129.75410529999999</v>
       </c>
       <c r="H15">
-        <f>((D15-E15)/E15)*100</f>
+        <f t="shared" si="0"/>
         <v>0.77679014275675451</v>
       </c>
       <c r="I15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>1770.5855813952746</v>
       </c>
       <c r="J15">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <f t="shared" si="2"/>
         <v>1428.5676796137006</v>
       </c>
     </row>
@@ -1943,15 +1439,15 @@
         <v>132.75055655400001</v>
       </c>
       <c r="H16">
-        <f>((D16-E16)/E16)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.29479897788586157</v>
       </c>
       <c r="I16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>1766.0022002915587</v>
       </c>
       <c r="J16">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <f t="shared" si="2"/>
         <v>1396.3219887019559</v>
       </c>
     </row>
@@ -1975,15 +1471,15 @@
         <v>277.415683634</v>
       </c>
       <c r="H17">
-        <f>((D17-E17)/E17)*100</f>
+        <f t="shared" si="0"/>
         <v>0.63448578717830939</v>
       </c>
       <c r="I17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>1676.1589851173867</v>
       </c>
       <c r="J17">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <f t="shared" si="2"/>
         <v>1337.0339514640532</v>
       </c>
     </row>
@@ -2007,15 +1503,15 @@
         <v>243.53122477299999</v>
       </c>
       <c r="H18">
-        <f>((D18-E18)/E18)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.12396990911449828</v>
       </c>
       <c r="I18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="1"/>
         <v>1888.7839061803475</v>
       </c>
       <c r="J18">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <f t="shared" si="2"/>
         <v>1523.0662434889191</v>
       </c>
     </row>
@@ -2039,15 +1535,15 @@
         <v>253.831581943</v>
       </c>
       <c r="H19">
-        <f>((D19-E19)/E19)*100</f>
+        <f t="shared" si="0"/>
         <v>0.17138463731687861</v>
       </c>
       <c r="I19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="1"/>
         <v>1736.4126791977087</v>
       </c>
       <c r="J19">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <f t="shared" si="2"/>
         <v>1461.2609859184527</v>
       </c>
     </row>
@@ -2071,15 +1567,15 @@
         <v>220.684018149</v>
       </c>
       <c r="H20">
-        <f>((D20-E20)/E20)*100</f>
+        <f t="shared" si="0"/>
         <v>-4.1441801445754245E-3</v>
       </c>
       <c r="I20" s="2">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="1"/>
         <v>1929.0111793459421</v>
       </c>
       <c r="J20">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <f t="shared" si="2"/>
         <v>1680.7478439006729</v>
       </c>
     </row>
@@ -2103,15 +1599,15 @@
         <v>261.42446260000003</v>
       </c>
       <c r="H21">
-        <f>((D21-E21)/E21)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.15599619501358714</v>
       </c>
       <c r="I21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="1"/>
         <v>1834.0839483080831</v>
       </c>
       <c r="J21">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <f t="shared" si="2"/>
         <v>1418.8197385904034</v>
       </c>
     </row>
@@ -2135,15 +1631,15 @@
         <v>249.237884138</v>
       </c>
       <c r="H22">
-        <f>((D22-E22)/E22)*100</f>
+        <f t="shared" si="0"/>
         <v>0.18681760405657219</v>
       </c>
       <c r="I22" s="2">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="1"/>
         <v>1794.7399520833994</v>
       </c>
       <c r="J22">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <f t="shared" si="2"/>
         <v>1488.1934540974437</v>
       </c>
     </row>
@@ -2167,15 +1663,15 @@
         <v>267.08919540400001</v>
       </c>
       <c r="H23">
-        <f>((D23-E23)/E23)*100</f>
+        <f t="shared" si="0"/>
         <v>0.48921015827079622</v>
       </c>
       <c r="I23" s="2">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="1"/>
         <v>1745.4165380422603</v>
       </c>
       <c r="J23">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <f t="shared" si="2"/>
         <v>1388.7277885809744</v>
       </c>
     </row>
@@ -2199,15 +1695,15 @@
         <v>263.41370725600001</v>
       </c>
       <c r="H24">
-        <f>((D24-E24)/E24)*100</f>
+        <f t="shared" si="0"/>
         <v>3.6955908235461979E-2</v>
       </c>
       <c r="I24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="1"/>
         <v>1766.5729500389436</v>
       </c>
       <c r="J24">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <f t="shared" si="2"/>
         <v>1408.1051117313109</v>
       </c>
     </row>
@@ -2231,15 +1727,15 @@
         <v>381.53998950900001</v>
       </c>
       <c r="H25">
-        <f>((D25-E25)/E25)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.19767553189032708</v>
       </c>
       <c r="I25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>1839.4482322481108</v>
       </c>
       <c r="J25">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <f t="shared" si="2"/>
         <v>1458.4732126293629</v>
       </c>
     </row>
@@ -2263,15 +1759,15 @@
         <v>383.577801502</v>
       </c>
       <c r="H26">
-        <f>((D26-E26)/E26)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.45520263609791745</v>
       </c>
       <c r="I26" s="2">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <f t="shared" si="1"/>
         <v>1821.5159182784237</v>
       </c>
       <c r="J26">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/G26</f>
+        <f t="shared" si="2"/>
         <v>1450.7248648560369</v>
       </c>
     </row>
@@ -2295,15 +1791,15 @@
         <v>400.96906540200001</v>
       </c>
       <c r="H27">
-        <f>((D27-E27)/E27)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.24079215472042839</v>
       </c>
       <c r="I27" s="2">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <f t="shared" si="1"/>
         <v>1803.1181174924316</v>
       </c>
       <c r="J27">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/G27</f>
+        <f t="shared" si="2"/>
         <v>1387.8024572490849</v>
       </c>
     </row>
@@ -2327,15 +1823,15 @@
         <v>382.86810314000002</v>
       </c>
       <c r="H28">
-        <f>((D28-E28)/E28)*100</f>
+        <f t="shared" si="0"/>
         <v>-2.7772305820034014E-2</v>
       </c>
       <c r="I28" s="2">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <f t="shared" si="1"/>
         <v>1777.9254058215768</v>
       </c>
       <c r="J28">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/G28</f>
+        <f t="shared" si="2"/>
         <v>1453.4139816872828</v>
       </c>
     </row>
@@ -2359,15 +1855,15 @@
         <v>399.34814357599998</v>
       </c>
       <c r="H29">
-        <f>((D29-E29)/E29)*100</f>
+        <f t="shared" si="0"/>
         <v>4.3905505730414164E-2</v>
       </c>
       <c r="I29" s="2">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <f t="shared" si="1"/>
         <v>1750.3466014661863</v>
       </c>
       <c r="J29">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/G29</f>
+        <f t="shared" si="2"/>
         <v>1393.4354352140956</v>
       </c>
     </row>
@@ -2391,15 +1887,15 @@
         <v>400.04014783000002</v>
       </c>
       <c r="H30">
-        <f>((D30-E30)/E30)*100</f>
+        <f t="shared" si="0"/>
         <v>0.22830707687161428</v>
       </c>
       <c r="I30" s="2">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <f t="shared" si="1"/>
         <v>1785.2092683336259</v>
       </c>
       <c r="J30">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/G30</f>
+        <f t="shared" si="2"/>
         <v>1391.0250190244378</v>
       </c>
     </row>
@@ -2423,15 +1919,15 @@
         <v>380.147975901</v>
       </c>
       <c r="H31">
-        <f>((D31-E31)/E31)*100</f>
+        <f t="shared" si="0"/>
         <v>5.8721649125244649E-2</v>
       </c>
       <c r="I31" s="2">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <f t="shared" si="1"/>
         <v>1761.9751994052069</v>
       </c>
       <c r="J31">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/G31</f>
+        <f t="shared" si="2"/>
         <v>1463.8138028405083</v>
       </c>
     </row>
@@ -2455,15 +1951,15 @@
         <v>373.78974087500001</v>
       </c>
       <c r="H32">
-        <f>((D32-E32)/E32)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.77113228771003595</v>
       </c>
       <c r="I32" s="2">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <f t="shared" si="1"/>
         <v>1805.1576940461532</v>
       </c>
       <c r="J32">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/G32</f>
+        <f t="shared" si="2"/>
         <v>1488.7135557630349</v>
       </c>
     </row>
@@ -2487,15 +1983,15 @@
         <v>629.31803098700004</v>
       </c>
       <c r="H33">
-        <f>((D33-E33)/E33)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.54968126769926284</v>
       </c>
       <c r="I33" s="2">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <f t="shared" si="1"/>
         <v>1850.5588393074963</v>
       </c>
       <c r="J33">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/G33</f>
+        <f t="shared" si="2"/>
         <v>1473.6269998152818</v>
       </c>
     </row>
@@ -2519,15 +2015,15 @@
         <v>617.13922991499999</v>
       </c>
       <c r="H34">
-        <f>((D34-E34)/E34)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.25083285716223525</v>
       </c>
       <c r="I34" s="2">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <f t="shared" si="1"/>
         <v>1803.0219964466198</v>
       </c>
       <c r="J34">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/G34</f>
+        <f t="shared" si="2"/>
         <v>1502.7079741159278</v>
       </c>
     </row>
@@ -2551,15 +2047,15 @@
         <v>0.36348747917599999</v>
       </c>
       <c r="H35">
-        <f>((D35-E35)/E35)*100</f>
+        <f t="shared" si="0"/>
         <v>-99.910159783704515</v>
       </c>
       <c r="I35" s="2">
-        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
+        <f t="shared" si="1"/>
         <v>2075576.7911499839</v>
       </c>
       <c r="J35">
-        <f>2*B35*SIN((136*3.14159/180)/2)*102/G35</f>
+        <f t="shared" si="2"/>
         <v>2551339.7161171474</v>
       </c>
     </row>
@@ -2583,15 +2079,15 @@
         <v>626.18157665900003</v>
       </c>
       <c r="H36">
-        <f>((D36-E36)/E36)*100</f>
+        <f t="shared" si="0"/>
         <v>-5.0295696473799931E-2</v>
       </c>
       <c r="I36" s="2">
-        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
+        <f t="shared" si="1"/>
         <v>1834.2655278980601</v>
       </c>
       <c r="J36">
-        <f>2*B36*SIN((136*3.14159/180)/2)*102/G36</f>
+        <f t="shared" si="2"/>
         <v>1481.0081875629137</v>
       </c>
     </row>
@@ -2615,15 +2111,15 @@
         <v>662.43219597699999</v>
       </c>
       <c r="H37">
-        <f>((D37-E37)/E37)*100</f>
+        <f t="shared" si="0"/>
         <v>0.17383891242328106</v>
       </c>
       <c r="I37" s="2">
-        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
+        <f t="shared" si="1"/>
         <v>1818.9887615829655</v>
       </c>
       <c r="J37">
-        <f>2*B37*SIN((136*3.14159/180)/2)*102/G37</f>
+        <f t="shared" si="2"/>
         <v>1399.9622113252969</v>
       </c>
     </row>
@@ -2647,15 +2143,15 @@
         <v>636.92771173599999</v>
       </c>
       <c r="H38">
-        <f>((D38-E38)/E38)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.29133983184424822</v>
       </c>
       <c r="I38" s="2">
-        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
+        <f t="shared" si="1"/>
         <v>1841.7327327233288</v>
       </c>
       <c r="J38">
-        <f>2*B38*SIN((136*3.14159/180)/2)*102/G38</f>
+        <f t="shared" si="2"/>
         <v>1456.0208715136309</v>
       </c>
     </row>
@@ -2679,15 +2175,15 @@
         <v>649.35947337000005</v>
       </c>
       <c r="H39">
-        <f>((D39-E39)/E39)*100</f>
+        <f t="shared" si="0"/>
         <v>-3.6917010112461457E-2</v>
       </c>
       <c r="I39" s="2">
-        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
+        <f t="shared" si="1"/>
         <v>1864.379163658271</v>
       </c>
       <c r="J39">
-        <f>2*B39*SIN((136*3.14159/180)/2)*102/G39</f>
+        <f t="shared" si="2"/>
         <v>1428.1458575173806</v>
       </c>
     </row>
@@ -2711,15 +2207,15 @@
         <v>627.491244843</v>
       </c>
       <c r="H40">
-        <f>((D40-E40)/E40)*100</f>
+        <f t="shared" si="0"/>
         <v>0.13647116293228734</v>
       </c>
       <c r="I40" s="2">
-        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
+        <f t="shared" si="1"/>
         <v>1807.3980059421563</v>
       </c>
       <c r="J40">
-        <f>2*B40*SIN((136*3.14159/180)/2)*102/G40</f>
+        <f t="shared" si="2"/>
         <v>1477.9171017199872</v>
       </c>
     </row>
@@ -2743,15 +2239,15 @@
         <v>1247.87008158</v>
       </c>
       <c r="H41">
-        <f>((D41-E41)/E41)*100</f>
+        <f t="shared" si="0"/>
         <v>-2.821761373382603</v>
       </c>
       <c r="I41" s="2">
-        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
+        <f t="shared" si="1"/>
         <v>1863.7605110267439</v>
       </c>
       <c r="J41">
-        <f>2*B41*SIN((136*3.14159/180)/2)*102/G41</f>
+        <f t="shared" si="2"/>
         <v>1486.4922692490009</v>
       </c>
     </row>
@@ -2775,15 +2271,15 @@
         <v>1285.8612890899999</v>
       </c>
       <c r="H42">
-        <f>((D42-E42)/E42)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.22457652348661339</v>
       </c>
       <c r="I42" s="2">
-        <f>2*B42*SIN((136*3.14159/180)/2)*102/D42</f>
+        <f t="shared" si="1"/>
         <v>1803.1264899381135</v>
       </c>
       <c r="J42">
-        <f>2*B42*SIN((136*3.14159/180)/2)*102/G42</f>
+        <f t="shared" si="2"/>
         <v>1442.5733514448764</v>
       </c>
     </row>
@@ -2805,17 +2301,17 @@
   </sheetData>
   <autoFilter ref="H3:H42">
     <filterColumn colId="0">
-      <colorFilter dxfId="45"/>
+      <colorFilter dxfId="21"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:J42">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2898,15 +2394,15 @@
         <v>64.299096951199999</v>
       </c>
       <c r="H4">
-        <f>((D4-E4)/E4)*100</f>
+        <f t="shared" ref="H4:H43" si="0">((D4-E4)/E4)*100</f>
         <v>-0.36632840017859142</v>
       </c>
       <c r="I4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="I4:I43" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1730.4491901645849</v>
       </c>
       <c r="J4">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <f t="shared" ref="J4:J16" si="2">2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
         <v>1441.4084327611492</v>
       </c>
     </row>
@@ -2930,15 +2426,15 @@
         <v>62.684202589800002</v>
       </c>
       <c r="H5">
-        <f>((D5-E5)/E5)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.37362403168197178</v>
       </c>
       <c r="I5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>1877.2846062359467</v>
       </c>
       <c r="J5">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <f t="shared" si="2"/>
         <v>1478.5425471690935</v>
       </c>
     </row>
@@ -2962,15 +2458,15 @@
         <v>64.617478080599994</v>
       </c>
       <c r="H6">
-        <f>((D6-E6)/E6)*100</f>
+        <f t="shared" si="0"/>
         <v>0.28856197516197074</v>
       </c>
       <c r="I6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>1715.5430248604275</v>
       </c>
       <c r="J6">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <f t="shared" si="2"/>
         <v>1434.306372167315</v>
       </c>
     </row>
@@ -2994,15 +2490,15 @@
         <v>64.2395125675</v>
       </c>
       <c r="H7">
-        <f>((D7-E7)/E7)*100</f>
+        <f t="shared" si="0"/>
         <v>0.85732171029834148</v>
       </c>
       <c r="I7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>1749.5847184781362</v>
       </c>
       <c r="J7">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <f t="shared" si="2"/>
         <v>1442.7453892493513</v>
       </c>
     </row>
@@ -3026,15 +2522,15 @@
         <v>67.0941215605</v>
       </c>
       <c r="H8">
-        <f>((D8-E8)/E8)*100</f>
+        <f t="shared" si="0"/>
         <v>0.48864515148600546</v>
       </c>
       <c r="I8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>1774.1767876413576</v>
       </c>
       <c r="J8">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <f t="shared" si="2"/>
         <v>1381.3618601566156</v>
       </c>
     </row>
@@ -3058,15 +2554,15 @@
         <v>62.477365651699998</v>
       </c>
       <c r="H9">
-        <f>((D9-E9)/E9)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.12679962855828877</v>
       </c>
       <c r="I9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>1777.6891548599031</v>
       </c>
       <c r="J9">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <f t="shared" si="2"/>
         <v>1483.4373952491471</v>
       </c>
     </row>
@@ -3090,15 +2586,15 @@
         <v>131.20762337900001</v>
       </c>
       <c r="H10">
-        <f>((D10-E10)/E10)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.19581075567748313</v>
       </c>
       <c r="I10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>1709.6979038281797</v>
       </c>
       <c r="J10">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <f t="shared" si="2"/>
         <v>1412.7420065627095</v>
       </c>
     </row>
@@ -3122,15 +2618,15 @@
         <v>125.74568232999999</v>
       </c>
       <c r="H11">
-        <f>((D11-E11)/E11)*100</f>
+        <f t="shared" si="0"/>
         <v>0.51883087536523986</v>
       </c>
       <c r="I11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>1721.471672904871</v>
       </c>
       <c r="J11">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <f t="shared" si="2"/>
         <v>1474.1064479837776</v>
       </c>
     </row>
@@ -3154,15 +2650,15 @@
         <v>129.15430543799999</v>
       </c>
       <c r="H12">
-        <f>((D12-E12)/E12)*100</f>
+        <f t="shared" si="0"/>
         <v>0.47641071526136231</v>
       </c>
       <c r="I12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1737.8375555881892</v>
       </c>
       <c r="J12">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <f t="shared" si="2"/>
         <v>1435.2020283036968</v>
       </c>
     </row>
@@ -3186,15 +2682,15 @@
         <v>143.37796906299999</v>
       </c>
       <c r="H13">
-        <f>((D13-E13)/E13)*100</f>
+        <f t="shared" si="0"/>
         <v>0.49370498794495465</v>
       </c>
       <c r="I13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>1690.9314286484562</v>
       </c>
       <c r="J13">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <f t="shared" si="2"/>
         <v>1292.8242905109421</v>
       </c>
     </row>
@@ -3218,15 +2714,15 @@
         <v>250.847986147</v>
       </c>
       <c r="H14">
-        <f>((D14-E14)/E14)*100</f>
+        <f t="shared" si="0"/>
         <v>0.28890096649976316</v>
       </c>
       <c r="I14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>1766.9588933541363</v>
       </c>
       <c r="J14">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <f t="shared" si="2"/>
         <v>1478.6412814568439</v>
       </c>
     </row>
@@ -3250,15 +2746,15 @@
         <v>255.131021522</v>
       </c>
       <c r="H15">
-        <f>((D15-E15)/E15)*100</f>
+        <f t="shared" si="0"/>
         <v>0.14810134065271952</v>
       </c>
       <c r="I15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>1715.7282151481663</v>
       </c>
       <c r="J15">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <f t="shared" si="2"/>
         <v>1453.8184556098158</v>
       </c>
     </row>
@@ -3282,15 +2778,15 @@
         <v>224.302887932</v>
       </c>
       <c r="H16">
-        <f>((D16-E16)/E16)*100</f>
+        <f t="shared" si="0"/>
         <v>0.12158248210860849</v>
       </c>
       <c r="I16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>1968.2591483433694</v>
       </c>
       <c r="J16">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <f t="shared" si="2"/>
         <v>1653.6309055446295</v>
       </c>
     </row>
@@ -3314,11 +2810,11 @@
         <v>257.23653474299999</v>
       </c>
       <c r="H17">
-        <f>((D17-E17)/E17)*100</f>
+        <f t="shared" si="0"/>
         <v>-1.8771891633922055</v>
       </c>
       <c r="I17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>1896.9842440216523</v>
       </c>
     </row>
@@ -3342,15 +2838,15 @@
         <v>258.00954874000001</v>
       </c>
       <c r="H18">
-        <f>((D18-E18)/E18)*100</f>
+        <f t="shared" si="0"/>
         <v>0.27413530426917909</v>
       </c>
       <c r="I18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="1"/>
         <v>1706.8428761885962</v>
       </c>
       <c r="J18">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <f t="shared" ref="J18:J31" si="3">2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
         <v>1437.5986838419083</v>
       </c>
     </row>
@@ -3374,15 +2870,15 @@
         <v>256.84931624000001</v>
       </c>
       <c r="H19">
-        <f>((D19-E19)/E19)*100</f>
+        <f t="shared" si="0"/>
         <v>0.62316852493898378</v>
       </c>
       <c r="I19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="1"/>
         <v>1720.0742969270493</v>
       </c>
       <c r="J19">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <f t="shared" si="3"/>
         <v>1444.0925641424969</v>
       </c>
     </row>
@@ -3406,15 +2902,15 @@
         <v>368.61746544800002</v>
       </c>
       <c r="H20">
-        <f>((D20-E20)/E20)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.14285891752528038</v>
       </c>
       <c r="I20" s="2">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="1"/>
         <v>1809.5211817051024</v>
       </c>
       <c r="J20">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <f t="shared" si="3"/>
         <v>1509.6025186149623</v>
       </c>
     </row>
@@ -3438,15 +2934,15 @@
         <v>373.319264514</v>
       </c>
       <c r="H21">
-        <f>((D21-E21)/E21)*100</f>
+        <f t="shared" si="0"/>
         <v>0.11211865795083954</v>
       </c>
       <c r="I21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="1"/>
         <v>1771.5592251544304</v>
       </c>
       <c r="J21">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <f t="shared" si="3"/>
         <v>1490.5897100440056</v>
       </c>
     </row>
@@ -3470,15 +2966,15 @@
         <v>371.32574954500001</v>
       </c>
       <c r="H22">
-        <f>((D22-E22)/E22)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.28424571359814599</v>
       </c>
       <c r="I22" s="2">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="1"/>
         <v>1839.6735490876711</v>
       </c>
       <c r="J22">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <f t="shared" si="3"/>
         <v>1498.5921523827101</v>
       </c>
     </row>
@@ -3502,15 +2998,15 @@
         <v>370.974486985</v>
       </c>
       <c r="H23">
-        <f>((D23-E23)/E23)*100</f>
+        <f t="shared" si="0"/>
         <v>0.18435685171280033</v>
       </c>
       <c r="I23" s="2">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="1"/>
         <v>1759.670836212126</v>
       </c>
       <c r="J23">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <f t="shared" si="3"/>
         <v>1500.0111160427721</v>
       </c>
     </row>
@@ -3534,15 +3030,15 @@
         <v>378.09465159899997</v>
       </c>
       <c r="H24">
-        <f>((D24-E24)/E24)*100</f>
+        <f t="shared" si="0"/>
         <v>4.6531441046675684E-2</v>
       </c>
       <c r="I24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="1"/>
         <v>1738.4295044613821</v>
       </c>
       <c r="J24">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <f t="shared" si="3"/>
         <v>1471.7633584405785</v>
       </c>
     </row>
@@ -3566,15 +3062,15 @@
         <v>376.02096105999999</v>
       </c>
       <c r="H25">
-        <f>((D25-E25)/E25)*100</f>
+        <f t="shared" si="0"/>
         <v>-1.7408698510842199E-2</v>
       </c>
       <c r="I25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>1785.0621560606423</v>
       </c>
       <c r="J25">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <f t="shared" si="3"/>
         <v>1479.8798787096655</v>
       </c>
     </row>
@@ -3598,15 +3094,15 @@
         <v>370.30092538700001</v>
       </c>
       <c r="H26">
-        <f>((D26-E26)/E26)*100</f>
+        <f t="shared" si="0"/>
         <v>9.0794856576069047E-2</v>
       </c>
       <c r="I26" s="2">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <f t="shared" si="1"/>
         <v>1790.45988473741</v>
       </c>
       <c r="J26">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/G26</f>
+        <f t="shared" si="3"/>
         <v>1502.7395723200109</v>
       </c>
     </row>
@@ -3630,15 +3126,15 @@
         <v>383.70355886200002</v>
       </c>
       <c r="H27">
-        <f>((D27-E27)/E27)*100</f>
+        <f t="shared" si="0"/>
         <v>-5.0408319048471754E-2</v>
       </c>
       <c r="I27" s="2">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <f t="shared" si="1"/>
         <v>1722.6813686180039</v>
       </c>
       <c r="J27">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/G27</f>
+        <f t="shared" si="3"/>
         <v>1450.2493953825929</v>
       </c>
     </row>
@@ -3662,15 +3158,15 @@
         <v>394.82818801799999</v>
       </c>
       <c r="H28">
-        <f>((D28-E28)/E28)*100</f>
+        <f t="shared" si="0"/>
         <v>9.9771641612943343E-2</v>
       </c>
       <c r="I28" s="2">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <f t="shared" si="1"/>
         <v>1700.9133543119833</v>
       </c>
       <c r="J28">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/G28</f>
+        <f t="shared" si="3"/>
         <v>1409.3873515950581</v>
       </c>
     </row>
@@ -3694,15 +3190,15 @@
         <v>354.76118498099999</v>
       </c>
       <c r="H29">
-        <f>((D29-E29)/E29)*100</f>
+        <f t="shared" si="0"/>
         <v>-1.071998252155361E-2</v>
       </c>
       <c r="I29" s="2">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <f t="shared" si="1"/>
         <v>1755.8114653603889</v>
       </c>
       <c r="J29">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/G29</f>
+        <f t="shared" si="3"/>
         <v>1568.5646508243776</v>
       </c>
     </row>
@@ -3726,15 +3222,15 @@
         <v>636.15356541799997</v>
       </c>
       <c r="H30">
-        <f>((D30-E30)/E30)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.21618824744933923</v>
       </c>
       <c r="I30" s="2">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <f t="shared" si="1"/>
         <v>1766.7687610858295</v>
       </c>
       <c r="J30">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/G30</f>
+        <f t="shared" si="3"/>
         <v>1457.7927285901103</v>
       </c>
     </row>
@@ -3758,15 +3254,15 @@
         <v>618.68161622100001</v>
       </c>
       <c r="H31">
-        <f>((D31-E31)/E31)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.25277291262021784</v>
       </c>
       <c r="I31" s="2">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <f t="shared" si="1"/>
         <v>1820.373241571785</v>
       </c>
       <c r="J31">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/G31</f>
+        <f t="shared" si="3"/>
         <v>1498.9616914716321</v>
       </c>
     </row>
@@ -3790,11 +3286,11 @@
         <v>2.3778157831099999E-2</v>
       </c>
       <c r="H32">
-        <f>((D32-E32)/E32)*100</f>
+        <f t="shared" si="0"/>
         <v>-99.992228142978988</v>
       </c>
       <c r="I32" s="2">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <f t="shared" si="1"/>
         <v>21608349.606844418</v>
       </c>
     </row>
@@ -3818,15 +3314,15 @@
         <v>629.108739227</v>
       </c>
       <c r="H33">
-        <f>((D33-E33)/E33)*100</f>
+        <f t="shared" si="0"/>
         <v>-6.0563201609851583E-2</v>
       </c>
       <c r="I33" s="2">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <f t="shared" si="1"/>
         <v>1776.710302188872</v>
       </c>
       <c r="J33">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/G33</f>
+        <f t="shared" ref="J33:J43" si="4">2*B33*SIN((136*3.14159/180)/2)*102/G33</f>
         <v>1474.1172457284983</v>
       </c>
     </row>
@@ -3850,15 +3346,15 @@
         <v>637.55453732000001</v>
       </c>
       <c r="H34">
-        <f>((D34-E34)/E34)*100</f>
+        <f t="shared" si="0"/>
         <v>9.0955616841690345E-2</v>
       </c>
       <c r="I34" s="2">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <f t="shared" si="1"/>
         <v>1780.6793103825248</v>
       </c>
       <c r="J34">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/G34</f>
+        <f t="shared" si="4"/>
         <v>1454.589352985131</v>
       </c>
     </row>
@@ -3882,15 +3378,15 @@
         <v>635.88970359899997</v>
       </c>
       <c r="H35">
-        <f>((D35-E35)/E35)*100</f>
+        <f t="shared" si="0"/>
         <v>-2.2660265685966914E-2</v>
       </c>
       <c r="I35" s="2">
-        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
+        <f t="shared" si="1"/>
         <v>1768.425075343911</v>
       </c>
       <c r="J35">
-        <f>2*B35*SIN((136*3.14159/180)/2)*102/G35</f>
+        <f t="shared" si="4"/>
         <v>1458.3976382763556</v>
       </c>
     </row>
@@ -3914,15 +3410,15 @@
         <v>610.21077248200004</v>
       </c>
       <c r="H36">
-        <f>((D36-E36)/E36)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.20070884431756408</v>
       </c>
       <c r="I36" s="2">
-        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
+        <f t="shared" si="1"/>
         <v>1809.3342453666801</v>
       </c>
       <c r="J36">
-        <f>2*B36*SIN((136*3.14159/180)/2)*102/G36</f>
+        <f t="shared" si="4"/>
         <v>1519.7700266105826</v>
       </c>
     </row>
@@ -3946,15 +3442,15 @@
         <v>629.26795327800005</v>
       </c>
       <c r="H37">
-        <f>((D37-E37)/E37)*100</f>
+        <f t="shared" si="0"/>
         <v>4.4415323019862517E-3</v>
       </c>
       <c r="I37" s="2">
-        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
+        <f t="shared" si="1"/>
         <v>1741.4617936291602</v>
       </c>
       <c r="J37">
-        <f>2*B37*SIN((136*3.14159/180)/2)*102/G37</f>
+        <f t="shared" si="4"/>
         <v>1473.7442723757019</v>
       </c>
     </row>
@@ -3978,15 +3474,15 @@
         <v>637.32188651599995</v>
       </c>
       <c r="H38">
-        <f>((D38-E38)/E38)*100</f>
+        <f t="shared" si="0"/>
         <v>0.63353333339539097</v>
       </c>
       <c r="I38" s="2">
-        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
+        <f t="shared" si="1"/>
         <v>1715.5016756867478</v>
       </c>
       <c r="J38">
-        <f>2*B38*SIN((136*3.14159/180)/2)*102/G38</f>
+        <f t="shared" si="4"/>
         <v>1455.1203427245732</v>
       </c>
     </row>
@@ -4010,15 +3506,15 @@
         <v>624.53728806100003</v>
       </c>
       <c r="H39">
-        <f>((D39-E39)/E39)*100</f>
+        <f t="shared" si="0"/>
         <v>0.66191015114517204</v>
       </c>
       <c r="I39" s="2">
-        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
+        <f t="shared" si="1"/>
         <v>1786.8257242906818</v>
       </c>
       <c r="J39">
-        <f>2*B39*SIN((136*3.14159/180)/2)*102/G39</f>
+        <f t="shared" si="4"/>
         <v>1484.9074021060758</v>
       </c>
     </row>
@@ -4042,15 +3538,15 @@
         <v>1218.83039347</v>
       </c>
       <c r="H40">
-        <f>((D40-E40)/E40)*100</f>
+        <f t="shared" si="0"/>
         <v>0.36384042202343359</v>
       </c>
       <c r="I40" s="2">
-        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
+        <f t="shared" si="1"/>
         <v>1798.0500541997289</v>
       </c>
       <c r="J40">
-        <f>2*B40*SIN((136*3.14159/180)/2)*102/G40</f>
+        <f t="shared" si="4"/>
         <v>1521.9092330104809</v>
       </c>
     </row>
@@ -4074,15 +3570,15 @@
         <v>1187.23613699</v>
       </c>
       <c r="H41">
-        <f>((D41-E41)/E41)*100</f>
+        <f t="shared" si="0"/>
         <v>0.23147140103300601</v>
       </c>
       <c r="I41" s="2">
-        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
+        <f t="shared" si="1"/>
         <v>1815.5259629947925</v>
       </c>
       <c r="J41">
-        <f>2*B41*SIN((136*3.14159/180)/2)*102/G41</f>
+        <f t="shared" si="4"/>
         <v>1562.4096769819046</v>
       </c>
     </row>
@@ -4106,15 +3602,15 @@
         <v>1209.3732865100001</v>
       </c>
       <c r="H42">
-        <f>((D42-E42)/E42)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.33021476589197618</v>
       </c>
       <c r="I42" s="2">
-        <f>2*B42*SIN((136*3.14159/180)/2)*102/D42</f>
+        <f t="shared" si="1"/>
         <v>1798.6180429233038</v>
       </c>
       <c r="J42">
-        <f>2*B42*SIN((136*3.14159/180)/2)*102/G42</f>
+        <f t="shared" si="4"/>
         <v>1533.8103214176228</v>
       </c>
     </row>
@@ -4138,32 +3634,32 @@
         <v>1247.3555520100001</v>
       </c>
       <c r="H43">
-        <f>((D43-E43)/E43)*100</f>
+        <f t="shared" si="0"/>
         <v>0.58938659237060975</v>
       </c>
       <c r="I43" s="2">
-        <f>2*B43*SIN((136*3.14159/180)/2)*102/D43</f>
+        <f t="shared" si="1"/>
         <v>1768.9089131037813</v>
       </c>
       <c r="J43">
-        <f>2*B43*SIN((136*3.14159/180)/2)*102/G43</f>
+        <f t="shared" si="4"/>
         <v>1487.1054418338927</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="H3:H43">
     <filterColumn colId="0">
-      <colorFilter dxfId="54"/>
+      <colorFilter dxfId="18"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:J43">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4246,11 +3742,11 @@
         <v>31.832070885899999</v>
       </c>
       <c r="H4">
-        <f>(E4-D4)/E4*100</f>
+        <f t="shared" ref="H4:H41" si="0">(E4-D4)/E4*100</f>
         <v>-2.0462111826184826</v>
       </c>
       <c r="I4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="I4:I41" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1825.4378258462646</v>
       </c>
     </row>
@@ -4274,11 +3770,11 @@
         <v>22.438302803799999</v>
       </c>
       <c r="H5">
-        <f>(E5-D5)/E5*100</f>
+        <f t="shared" si="0"/>
         <v>4.4902805161421258</v>
       </c>
       <c r="I5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>1970.3261788990305</v>
       </c>
     </row>
@@ -4302,11 +3798,11 @@
         <v>27.266981072299998</v>
       </c>
       <c r="H6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>0.89947385563666249</v>
       </c>
       <c r="I6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>1896.2382550247062</v>
       </c>
       <c r="J6">
@@ -4334,11 +3830,11 @@
         <v>27.8964888625</v>
       </c>
       <c r="H7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="0"/>
         <v>1.8642787958854319</v>
       </c>
       <c r="I7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>1904.8390737632863</v>
       </c>
     </row>
@@ -4362,11 +3858,11 @@
         <v>29.7573172514</v>
       </c>
       <c r="H8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="0"/>
         <v>0.34787171403339051</v>
       </c>
       <c r="I8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>1866.6666255046839</v>
       </c>
       <c r="J8">
@@ -4394,11 +3890,11 @@
         <v>30.1383574014</v>
       </c>
       <c r="H9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="0"/>
         <v>0.12903274913819959</v>
       </c>
       <c r="I9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>1817.6317034511089</v>
       </c>
       <c r="J9">
@@ -4426,11 +3922,11 @@
         <v>68.618507097299997</v>
       </c>
       <c r="H10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="0"/>
         <v>-1.2846722910463908</v>
       </c>
       <c r="I10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>1661.203108654433</v>
       </c>
     </row>
@@ -4454,11 +3950,11 @@
         <v>64.286525971900005</v>
       </c>
       <c r="H11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="0"/>
         <v>-1.2589884109659377</v>
       </c>
       <c r="I11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>1806.5156523739922</v>
       </c>
     </row>
@@ -4482,15 +3978,15 @@
         <v>132.451348736</v>
       </c>
       <c r="H12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="0"/>
         <v>2.4345556405323234E-2</v>
       </c>
       <c r="I12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1708.4012241666487</v>
       </c>
       <c r="J12">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <f t="shared" ref="J12:J41" si="2">2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
         <v>1399.4762824064139</v>
       </c>
     </row>
@@ -4514,15 +4010,15 @@
         <v>132.816407191</v>
       </c>
       <c r="H13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="0"/>
         <v>-0.30606783619378586</v>
       </c>
       <c r="I13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>1672.7941668742933</v>
       </c>
       <c r="J13">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <f t="shared" si="2"/>
         <v>1395.6296895021976</v>
       </c>
     </row>
@@ -4546,15 +4042,15 @@
         <v>130.864181567</v>
       </c>
       <c r="H14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="0"/>
         <v>-0.32290329843076293</v>
       </c>
       <c r="I14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>1698.5438910466924</v>
       </c>
       <c r="J14">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <f t="shared" si="2"/>
         <v>1416.4496266984304</v>
       </c>
     </row>
@@ -4578,15 +4074,15 @@
         <v>130.84358175599999</v>
       </c>
       <c r="H15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="0"/>
         <v>-0.54357054095504787</v>
       </c>
       <c r="I15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>1745.3742601089341</v>
       </c>
       <c r="J15">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <f t="shared" si="2"/>
         <v>1416.6726303353639</v>
       </c>
     </row>
@@ -4610,15 +4106,15 @@
         <v>138.92986140799999</v>
       </c>
       <c r="H16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="0"/>
         <v>-0.74550510198384035</v>
       </c>
       <c r="I16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>1712.0525168531531</v>
       </c>
       <c r="J16">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <f t="shared" si="2"/>
         <v>1334.2165553913021</v>
       </c>
     </row>
@@ -4642,15 +4138,15 @@
         <v>131.286272002</v>
       </c>
       <c r="H17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="0"/>
         <v>-0.52153519069566467</v>
       </c>
       <c r="I17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>1730.959120193955</v>
       </c>
       <c r="J17">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <f t="shared" si="2"/>
         <v>1411.8956864427453</v>
       </c>
     </row>
@@ -4674,15 +4170,15 @@
         <v>139.40095450499999</v>
       </c>
       <c r="H18">
-        <f>(E18-D18)/E18*100</f>
+        <f t="shared" si="0"/>
         <v>-0.58789663509589452</v>
       </c>
       <c r="I18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="1"/>
         <v>1754.1207006380573</v>
       </c>
       <c r="J18">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <f t="shared" si="2"/>
         <v>1329.7076894988136</v>
       </c>
     </row>
@@ -4706,15 +4202,15 @@
         <v>241.906667341</v>
       </c>
       <c r="H19">
-        <f>(E19-D19)/E19*100</f>
+        <f t="shared" si="0"/>
         <v>0.11037025093251684</v>
       </c>
       <c r="I19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="1"/>
         <v>1798.789027460854</v>
       </c>
       <c r="J19">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <f t="shared" si="2"/>
         <v>1533.2946039243113</v>
       </c>
     </row>
@@ -4738,15 +4234,15 @@
         <v>260.51860473400001</v>
       </c>
       <c r="H20">
-        <f>(E20-D20)/E20*100</f>
+        <f t="shared" si="0"/>
         <v>-0.16894471039130718</v>
       </c>
       <c r="I20" s="2">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="1"/>
         <v>1722.2966119363805</v>
       </c>
       <c r="J20">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <f t="shared" si="2"/>
         <v>1423.7531636789897</v>
       </c>
     </row>
@@ -4770,15 +4266,15 @@
         <v>265.31792249799997</v>
       </c>
       <c r="H21">
-        <f>(E21-D21)/E21*100</f>
+        <f t="shared" si="0"/>
         <v>-8.951214587630052E-2</v>
       </c>
       <c r="I21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="1"/>
         <v>1713.7712676074907</v>
       </c>
       <c r="J21">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <f t="shared" si="2"/>
         <v>1397.9989900232417</v>
       </c>
     </row>
@@ -4802,15 +4298,15 @@
         <v>260.49979464</v>
       </c>
       <c r="H22">
-        <f>(E22-D22)/E22*100</f>
+        <f t="shared" si="0"/>
         <v>-5.539793886662865E-3</v>
       </c>
       <c r="I22" s="2">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="1"/>
         <v>1709.4393686811959</v>
       </c>
       <c r="J22">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <f t="shared" si="2"/>
         <v>1423.855969636586</v>
       </c>
     </row>
@@ -4834,15 +4330,15 @@
         <v>251.68993040399999</v>
       </c>
       <c r="H23">
-        <f>(E23-D23)/E23*100</f>
+        <f t="shared" si="0"/>
         <v>-0.1957526963932498</v>
       </c>
       <c r="I23" s="2">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="1"/>
         <v>1735.3556205979969</v>
       </c>
       <c r="J23">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <f t="shared" si="2"/>
         <v>1473.6949829176556</v>
       </c>
     </row>
@@ -4866,15 +4362,15 @@
         <v>256.43459727800001</v>
       </c>
       <c r="H24">
-        <f>(E24-D24)/E24*100</f>
+        <f t="shared" si="0"/>
         <v>-0.2318628419909709</v>
       </c>
       <c r="I24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="1"/>
         <v>1724.4880443371353</v>
       </c>
       <c r="J24">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <f t="shared" si="2"/>
         <v>1446.4280234587914</v>
       </c>
     </row>
@@ -4898,15 +4394,15 @@
         <v>252.02617637899999</v>
       </c>
       <c r="H25">
-        <f>(E25-D25)/E25*100</f>
+        <f t="shared" si="0"/>
         <v>-0.23971231235791832</v>
       </c>
       <c r="I25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>1812.8634620260025</v>
       </c>
       <c r="J25">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <f t="shared" si="2"/>
         <v>1471.7288220469745</v>
       </c>
     </row>
@@ -4930,15 +4426,15 @@
         <v>252.975875078</v>
       </c>
       <c r="H26">
-        <f>(E26-D26)/E26*100</f>
+        <f t="shared" si="0"/>
         <v>-0.1242243698005258</v>
       </c>
       <c r="I26" s="2">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <f t="shared" si="1"/>
         <v>1784.520641584169</v>
       </c>
       <c r="J26">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/G26</f>
+        <f t="shared" si="2"/>
         <v>1466.2037934364484</v>
       </c>
     </row>
@@ -4962,15 +4458,15 @@
         <v>373.59498682200001</v>
       </c>
       <c r="H27">
-        <f>(E27-D27)/E27*100</f>
+        <f t="shared" si="0"/>
         <v>1.3635718018067448E-2</v>
       </c>
       <c r="I27" s="2">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <f t="shared" si="1"/>
         <v>1828.9906723820225</v>
       </c>
       <c r="J27">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/G27</f>
+        <f t="shared" si="2"/>
         <v>1489.4896181005067</v>
       </c>
     </row>
@@ -4994,15 +4490,15 @@
         <v>384.01009813899998</v>
       </c>
       <c r="H28">
-        <f>(E28-D28)/E28*100</f>
+        <f t="shared" si="0"/>
         <v>9.9634219460883328E-3</v>
       </c>
       <c r="I28" s="2">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <f t="shared" si="1"/>
         <v>1754.3535708677605</v>
       </c>
       <c r="J28">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/G28</f>
+        <f t="shared" si="2"/>
         <v>1449.0917216566033</v>
       </c>
     </row>
@@ -5026,15 +4522,15 @@
         <v>371.74563323400002</v>
       </c>
       <c r="H29">
-        <f>(E29-D29)/E29*100</f>
+        <f t="shared" si="0"/>
         <v>9.239387121698725E-2</v>
       </c>
       <c r="I29" s="2">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <f t="shared" si="1"/>
         <v>1808.2489889163091</v>
       </c>
       <c r="J29">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/G29</f>
+        <f t="shared" si="2"/>
         <v>1496.8995046553516</v>
       </c>
     </row>
@@ -5058,15 +4554,15 @@
         <v>384.477042375</v>
       </c>
       <c r="H30">
-        <f>(E30-D30)/E30*100</f>
+        <f t="shared" si="0"/>
         <v>-0.73247827746917715</v>
       </c>
       <c r="I30" s="2">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <f t="shared" si="1"/>
         <v>1776.8226790913056</v>
       </c>
       <c r="J30">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/G30</f>
+        <f t="shared" si="2"/>
         <v>1447.331811565007</v>
       </c>
     </row>
@@ -5090,15 +4586,15 @@
         <v>369.33176488999999</v>
       </c>
       <c r="H31">
-        <f>(E31-D31)/E31*100</f>
+        <f t="shared" si="0"/>
         <v>0.17823826265152876</v>
       </c>
       <c r="I31" s="2">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <f t="shared" si="1"/>
         <v>1779.4174587202424</v>
       </c>
       <c r="J31">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/G31</f>
+        <f t="shared" si="2"/>
         <v>1506.6828990772017</v>
       </c>
     </row>
@@ -5122,15 +4618,15 @@
         <v>646.77871231699999</v>
       </c>
       <c r="H32">
-        <f>(E32-D32)/E32*100</f>
+        <f t="shared" si="0"/>
         <v>0.19486181206547393</v>
       </c>
       <c r="I32" s="2">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <f t="shared" si="1"/>
         <v>1812.0473097479394</v>
       </c>
       <c r="J32">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/G32</f>
+        <f t="shared" si="2"/>
         <v>1433.8444111909866</v>
       </c>
     </row>
@@ -5154,15 +4650,15 @@
         <v>619.66163711900003</v>
       </c>
       <c r="H33">
-        <f>(E33-D33)/E33*100</f>
+        <f t="shared" si="0"/>
         <v>0.20546102182278531</v>
       </c>
       <c r="I33" s="2">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <f t="shared" si="1"/>
         <v>1822.729298883608</v>
       </c>
       <c r="J33">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/G33</f>
+        <f t="shared" si="2"/>
         <v>1496.5910206168517</v>
       </c>
     </row>
@@ -5186,15 +4682,15 @@
         <v>620.54513263299998</v>
       </c>
       <c r="H34">
-        <f>(E34-D34)/E34*100</f>
+        <f t="shared" si="0"/>
         <v>0.1414157726093318</v>
       </c>
       <c r="I34" s="2">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <f t="shared" si="1"/>
         <v>1785.0905542035844</v>
       </c>
       <c r="J34">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/G34</f>
+        <f t="shared" si="2"/>
         <v>1494.460262701795</v>
       </c>
     </row>
@@ -5218,15 +4714,15 @@
         <v>622.68316510399995</v>
       </c>
       <c r="H35">
-        <f>(E35-D35)/E35*100</f>
+        <f t="shared" si="0"/>
         <v>0.29492006146765398</v>
       </c>
       <c r="I35" s="2">
-        <f>2*B35*SIN((136*3.14159/180)/2)*102/D35</f>
+        <f t="shared" si="1"/>
         <v>1810.4023266104459</v>
       </c>
       <c r="J35">
-        <f>2*B35*SIN((136*3.14159/180)/2)*102/G35</f>
+        <f t="shared" si="2"/>
         <v>1489.3289138114778</v>
       </c>
     </row>
@@ -5250,15 +4746,15 @@
         <v>617.058493376</v>
       </c>
       <c r="H36">
-        <f>(E36-D36)/E36*100</f>
+        <f t="shared" si="0"/>
         <v>0.16576013134014794</v>
       </c>
       <c r="I36" s="2">
-        <f>2*B36*SIN((136*3.14159/180)/2)*102/D36</f>
+        <f t="shared" si="1"/>
         <v>1816.6240742978969</v>
       </c>
       <c r="J36">
-        <f>2*B36*SIN((136*3.14159/180)/2)*102/G36</f>
+        <f t="shared" si="2"/>
         <v>1502.9045899023729</v>
       </c>
     </row>
@@ -5282,15 +4778,15 @@
         <v>607.63047869900004</v>
       </c>
       <c r="H37">
-        <f>(E37-D37)/E37*100</f>
+        <f t="shared" si="0"/>
         <v>-0.32378300326623849</v>
       </c>
       <c r="I37" s="2">
-        <f>2*B37*SIN((136*3.14159/180)/2)*102/D37</f>
+        <f t="shared" si="1"/>
         <v>1836.5353957886343</v>
       </c>
       <c r="J37">
-        <f>2*B37*SIN((136*3.14159/180)/2)*102/G37</f>
+        <f t="shared" si="2"/>
         <v>1526.2237074062682</v>
       </c>
     </row>
@@ -5314,15 +4810,15 @@
         <v>629.51009361399997</v>
       </c>
       <c r="H38">
-        <f>(E38-D38)/E38*100</f>
+        <f t="shared" si="0"/>
         <v>-0.62748818599704159</v>
       </c>
       <c r="I38" s="2">
-        <f>2*B38*SIN((136*3.14159/180)/2)*102/D38</f>
+        <f t="shared" si="1"/>
         <v>1788.2485332225149</v>
       </c>
       <c r="J38">
-        <f>2*B38*SIN((136*3.14159/180)/2)*102/G38</f>
+        <f t="shared" si="2"/>
         <v>1473.1773983304545</v>
       </c>
     </row>
@@ -5346,15 +4842,15 @@
         <v>604.46839100099999</v>
       </c>
       <c r="H39">
-        <f>(E39-D39)/E39*100</f>
+        <f t="shared" si="0"/>
         <v>0.29403721591589715</v>
       </c>
       <c r="I39" s="2">
-        <f>2*B39*SIN((136*3.14159/180)/2)*102/D39</f>
+        <f t="shared" si="1"/>
         <v>1856.2055981954372</v>
       </c>
       <c r="J39">
-        <f>2*B39*SIN((136*3.14159/180)/2)*102/G39</f>
+        <f t="shared" si="2"/>
         <v>1534.2076703089331</v>
       </c>
     </row>
@@ -5378,15 +4874,15 @@
         <v>605.97842360100003</v>
       </c>
       <c r="H40">
-        <f>(E40-D40)/E40*100</f>
+        <f t="shared" si="0"/>
         <v>0.18694243637731839</v>
       </c>
       <c r="I40" s="2">
-        <f>2*B40*SIN((136*3.14159/180)/2)*102/D40</f>
+        <f t="shared" si="1"/>
         <v>1840.0906181193704</v>
       </c>
       <c r="J40">
-        <f>2*B40*SIN((136*3.14159/180)/2)*102/G40</f>
+        <f t="shared" si="2"/>
         <v>1530.3845909597217</v>
       </c>
     </row>
@@ -5410,15 +4906,15 @@
         <v>614.47975941599998</v>
       </c>
       <c r="H41">
-        <f>(E41-D41)/E41*100</f>
+        <f t="shared" si="0"/>
         <v>-0.84776830080463794</v>
       </c>
       <c r="I41" s="2">
-        <f>2*B41*SIN((136*3.14159/180)/2)*102/D41</f>
+        <f t="shared" si="1"/>
         <v>1847.9942192687311</v>
       </c>
       <c r="J41">
-        <f>2*B41*SIN((136*3.14159/180)/2)*102/G41</f>
+        <f t="shared" si="2"/>
         <v>1509.2116993640491</v>
       </c>
     </row>
@@ -5431,17 +4927,17 @@
   </sheetData>
   <autoFilter ref="H3:H43">
     <filterColumn colId="0">
-      <colorFilter dxfId="59"/>
+      <colorFilter dxfId="15"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:J41">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5523,15 +5019,15 @@
         <v>365.78829599400001</v>
       </c>
       <c r="H4">
-        <f>(E4-D4)/E4*100</f>
+        <f t="shared" ref="H4:H17" si="0">(E4-D4)/E4*100</f>
         <v>0.711913841610335</v>
       </c>
       <c r="I4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="I4:I17" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>528.62131655095016</v>
       </c>
       <c r="J4">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <f t="shared" ref="J4:J17" si="2">2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
         <v>506.7480921582391</v>
       </c>
     </row>
@@ -5555,15 +5051,15 @@
         <v>367.89376955099999</v>
       </c>
       <c r="H5">
-        <f>(E5-D5)/E5*100</f>
+        <f t="shared" si="0"/>
         <v>0.69734839596614817</v>
       </c>
       <c r="I5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>585.8834382611559</v>
       </c>
       <c r="J5">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <f t="shared" si="2"/>
         <v>503.84794870269343</v>
       </c>
     </row>
@@ -5587,15 +5083,15 @@
         <v>370.24069813800003</v>
       </c>
       <c r="H6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>-0.1172574802842412</v>
       </c>
       <c r="I6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>601.86015392076274</v>
       </c>
       <c r="J6">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <f t="shared" si="2"/>
         <v>500.65409356937437</v>
       </c>
     </row>
@@ -5619,15 +5115,15 @@
         <v>374.09387770000001</v>
       </c>
       <c r="H7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="0"/>
         <v>0.64426869463358183</v>
       </c>
       <c r="I7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>546.34892095553369</v>
       </c>
       <c r="J7">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <f t="shared" si="2"/>
         <v>495.49733951385849</v>
       </c>
     </row>
@@ -5651,15 +5147,15 @@
         <v>376.26291068500001</v>
       </c>
       <c r="H8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="0"/>
         <v>-3.8719093799216252E-2</v>
       </c>
       <c r="I8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>594.41605490378527</v>
       </c>
       <c r="J8">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <f t="shared" si="2"/>
         <v>492.64095892766494</v>
       </c>
     </row>
@@ -5683,15 +5179,15 @@
         <v>615.26629976599997</v>
       </c>
       <c r="H9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="0"/>
         <v>-0.76591004554175934</v>
       </c>
       <c r="I9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>734.92721860006793</v>
       </c>
       <c r="J9">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <f t="shared" si="2"/>
         <v>602.85146095005689</v>
       </c>
     </row>
@@ -5715,15 +5211,15 @@
         <v>603.98992726400002</v>
       </c>
       <c r="H10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="0"/>
         <v>-0.3410579314807976</v>
       </c>
       <c r="I10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>736.07553890244765</v>
       </c>
       <c r="J10">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <f t="shared" si="2"/>
         <v>614.10657851110909</v>
       </c>
     </row>
@@ -5747,15 +5243,15 @@
         <v>620.538215616</v>
       </c>
       <c r="H11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="0"/>
         <v>2.8481918950459813E-3</v>
       </c>
       <c r="I11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>740.94999138246453</v>
       </c>
       <c r="J11">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <f t="shared" si="2"/>
         <v>597.7298067276439</v>
       </c>
     </row>
@@ -5779,15 +5275,15 @@
         <v>607.68541366700003</v>
       </c>
       <c r="H12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="0"/>
         <v>-0.55297122711298508</v>
       </c>
       <c r="I12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>747.61435561660664</v>
       </c>
       <c r="J12">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <f t="shared" si="2"/>
         <v>610.37204340488347</v>
       </c>
     </row>
@@ -5811,15 +5307,15 @@
         <v>609.67705160499997</v>
       </c>
       <c r="H13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="0"/>
         <v>7.8808360468922201E-2</v>
       </c>
       <c r="I13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>735.69654975045114</v>
       </c>
       <c r="J13">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <f t="shared" si="2"/>
         <v>608.37813513042988</v>
       </c>
     </row>
@@ -5843,15 +5339,15 @@
         <v>611.66389825500005</v>
       </c>
       <c r="H14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="0"/>
         <v>-0.1532945435682177</v>
       </c>
       <c r="I14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>737.48046860162287</v>
       </c>
       <c r="J14">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <f t="shared" si="2"/>
         <v>606.40196151095415</v>
       </c>
     </row>
@@ -5875,15 +5371,15 @@
         <v>594.23545630800004</v>
       </c>
       <c r="H15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="0"/>
         <v>0.54789815191881719</v>
       </c>
       <c r="I15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>697.98070803577423</v>
       </c>
       <c r="J15">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <f t="shared" si="2"/>
         <v>624.18723714631233</v>
       </c>
     </row>
@@ -5907,15 +5403,15 @@
         <v>619.860151331</v>
       </c>
       <c r="H16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="0"/>
         <v>-0.80351593305974123</v>
       </c>
       <c r="I16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>696.81942878103769</v>
       </c>
       <c r="J16">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <f t="shared" si="2"/>
         <v>598.38366265490697</v>
       </c>
     </row>
@@ -5939,15 +5435,15 @@
         <v>705.46924269399995</v>
       </c>
       <c r="H17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="0"/>
         <v>0.65379037186126687</v>
       </c>
       <c r="I17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>602.6143558494864</v>
       </c>
       <c r="J17">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <f t="shared" si="2"/>
         <v>525.76946695910624</v>
       </c>
     </row>
@@ -5957,10 +5453,10 @@
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6043,11 +5539,11 @@
         <v>158.482620674</v>
       </c>
       <c r="H4">
-        <f>(E4-D4)/E4*100</f>
+        <f t="shared" ref="H4:H34" si="0">(E4-D4)/E4*100</f>
         <v>-1.2823038404674116</v>
       </c>
       <c r="I4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="I4:I34" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1307.1709942301534</v>
       </c>
       <c r="J4">
@@ -6075,15 +5571,15 @@
         <v>144.16835659399999</v>
       </c>
       <c r="H5">
-        <f>(E5-D5)/E5*100</f>
+        <f t="shared" si="0"/>
         <v>-1.4576131659593599</v>
       </c>
       <c r="I5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>1329.9130830172642</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J34" si="0">2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <f t="shared" ref="J5:J34" si="2">2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
         <v>1285.7365201906393</v>
       </c>
     </row>
@@ -6107,15 +5603,15 @@
         <v>142.536167869</v>
       </c>
       <c r="H6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>-0.5227324673954451</v>
       </c>
       <c r="I6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>1297.138463725626</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1300.4595528282546</v>
       </c>
     </row>
@@ -6139,15 +5635,15 @@
         <v>295.08769347200001</v>
       </c>
       <c r="H7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="0"/>
         <v>-0.91726207547755068</v>
       </c>
       <c r="I7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>1425.2586744657951</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1256.9625772023721</v>
       </c>
     </row>
@@ -6171,15 +5667,15 @@
         <v>300.163447179</v>
       </c>
       <c r="H8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="0"/>
         <v>-2.0102955106282181</v>
       </c>
       <c r="I8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>1409.8777793550125</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1235.7073826716719</v>
       </c>
     </row>
@@ -6203,15 +5699,15 @@
         <v>290.86769312400003</v>
       </c>
       <c r="H9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="0"/>
         <v>-2.7187182139319828</v>
       </c>
       <c r="I9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>1359.8949221620728</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1275.1989872218087</v>
       </c>
     </row>
@@ -6235,15 +5731,15 @@
         <v>276.62665566599998</v>
       </c>
       <c r="H10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="0"/>
         <v>-0.64027063764318026</v>
       </c>
       <c r="I10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>1588.3091932176624</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1340.8476012344661</v>
       </c>
     </row>
@@ -6267,15 +5763,15 @@
         <v>286.97534338100002</v>
       </c>
       <c r="H11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="0"/>
         <v>-1.1901233660124249</v>
       </c>
       <c r="I11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>1460.2085410363884</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1292.494969488818</v>
       </c>
     </row>
@@ -6299,15 +5795,15 @@
         <v>300.98859755900003</v>
       </c>
       <c r="H12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="0"/>
         <v>-0.47906181027278999</v>
       </c>
       <c r="I12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1383.0915491186518</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1232.3197313631185</v>
       </c>
     </row>
@@ -6331,15 +5827,15 @@
         <v>295.95597872799999</v>
       </c>
       <c r="H13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="0"/>
         <v>-2.0987087819243877</v>
       </c>
       <c r="I13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>1349.1705057018994</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1253.2748595971414</v>
       </c>
     </row>
@@ -6363,15 +5859,15 @@
         <v>459.79175276400002</v>
       </c>
       <c r="H14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="0"/>
         <v>-1.614329061215835</v>
       </c>
       <c r="I14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>1417.1179150292264</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1210.2562755869724</v>
       </c>
     </row>
@@ -6395,15 +5891,15 @@
         <v>440.135937754</v>
       </c>
       <c r="H15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="0"/>
         <v>-0.40664398963616644</v>
       </c>
       <c r="I15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>1516.3041069840194</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1264.3045171121282</v>
       </c>
     </row>
@@ -6427,15 +5923,15 @@
         <v>432.18568230699998</v>
       </c>
       <c r="H16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="0"/>
         <v>-2.260110139524973</v>
       </c>
       <c r="I16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>1525.208892038152</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1287.5619832553434</v>
       </c>
     </row>
@@ -6459,15 +5955,15 @@
         <v>450.63029328300001</v>
       </c>
       <c r="H17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="0"/>
         <v>-0.22268840354195854</v>
       </c>
       <c r="I17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>1414.0100358534933</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1234.8611767569273</v>
       </c>
     </row>
@@ -6491,15 +5987,15 @@
         <v>442.29664179600002</v>
       </c>
       <c r="H18">
-        <f>(E18-D18)/E18*100</f>
+        <f t="shared" si="0"/>
         <v>-0.32653535011391277</v>
       </c>
       <c r="I18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="1"/>
         <v>1454.1340433176049</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1258.1281467256149</v>
       </c>
     </row>
@@ -6523,15 +6019,15 @@
         <v>446.57380016600001</v>
       </c>
       <c r="H19">
-        <f>(E19-D19)/E19*100</f>
+        <f t="shared" si="0"/>
         <v>-1.4416144244372124</v>
       </c>
       <c r="I19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="1"/>
         <v>1445.1513267372388</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1246.0781488724051</v>
       </c>
     </row>
@@ -6555,15 +6051,15 @@
         <v>456.09127847299999</v>
       </c>
       <c r="H20">
-        <f>(E20-D20)/E20*100</f>
+        <f t="shared" si="0"/>
         <v>-0.9136071813744524</v>
       </c>
       <c r="I20" s="2">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="1"/>
         <v>1468.4109763702754</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1220.0756307132647</v>
       </c>
     </row>
@@ -6587,15 +6083,15 @@
         <v>450.45527662799998</v>
       </c>
       <c r="H21">
-        <f>(E21-D21)/E21*100</f>
+        <f t="shared" si="0"/>
         <v>-0.57265574076789361</v>
       </c>
       <c r="I21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="1"/>
         <v>1474.7321058168168</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1235.3409608415166</v>
       </c>
     </row>
@@ -6619,15 +6115,15 @@
         <v>785.73397188199999</v>
       </c>
       <c r="H22">
-        <f>(E22-D22)/E22*100</f>
+        <f t="shared" si="0"/>
         <v>-1.3727223534320545</v>
       </c>
       <c r="I22" s="2">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="1"/>
         <v>1514.726459748254</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1180.2722996840278</v>
       </c>
     </row>
@@ -6651,15 +6147,15 @@
         <v>750.72446998500004</v>
       </c>
       <c r="H23">
-        <f>(E23-D23)/E23*100</f>
+        <f t="shared" si="0"/>
         <v>-0.39606073598045749</v>
       </c>
       <c r="I23" s="2">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="1"/>
         <v>1585.5240304860554</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1235.3134592130227</v>
       </c>
     </row>
@@ -6683,15 +6179,15 @@
         <v>745.75037042700001</v>
       </c>
       <c r="H24">
-        <f>(E24-D24)/E24*100</f>
+        <f t="shared" si="0"/>
         <v>-0.53002791202306287</v>
       </c>
       <c r="I24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="1"/>
         <v>1529.2036693806251</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1243.5529081963932</v>
       </c>
     </row>
@@ -6715,15 +6211,15 @@
         <v>730.03825367299999</v>
       </c>
       <c r="H25">
-        <f>(E25-D25)/E25*100</f>
+        <f t="shared" si="0"/>
         <v>-0.53102709444184337</v>
       </c>
       <c r="I25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>1607.9592810745228</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1270.317051561557</v>
       </c>
     </row>
@@ -6747,15 +6243,15 @@
         <v>749.88594571900001</v>
       </c>
       <c r="H26">
-        <f>(E26-D26)/E26*100</f>
+        <f t="shared" si="0"/>
         <v>-1.0310737700623891</v>
       </c>
       <c r="I26" s="2">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <f t="shared" si="1"/>
         <v>1551.2747722126092</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1236.6947896907841</v>
       </c>
     </row>
@@ -6779,15 +6275,15 @@
         <v>751.93948092100004</v>
       </c>
       <c r="H27">
-        <f>(E27-D27)/E27*100</f>
+        <f t="shared" si="0"/>
         <v>-0.7109173400763632</v>
       </c>
       <c r="I27" s="2">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <f t="shared" si="1"/>
         <v>1409.0474980061781</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1233.3173951674248</v>
       </c>
     </row>
@@ -6811,15 +6307,15 @@
         <v>753.61209190900001</v>
       </c>
       <c r="H28">
-        <f>(E28-D28)/E28*100</f>
+        <f t="shared" si="0"/>
         <v>-0.53601254030871504</v>
       </c>
       <c r="I28" s="2">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <f t="shared" si="1"/>
         <v>1482.8391333826389</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1230.5800980234485</v>
       </c>
     </row>
@@ -6843,15 +6339,15 @@
         <v>744.50837532699995</v>
       </c>
       <c r="H29">
-        <f>(E29-D29)/E29*100</f>
+        <f t="shared" si="0"/>
         <v>-0.5998103763535666</v>
       </c>
       <c r="I29" s="2">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <f t="shared" si="1"/>
         <v>1534.3260119782201</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1245.6274135609465</v>
       </c>
     </row>
@@ -6875,15 +6371,15 @@
         <v>1031.66152487</v>
       </c>
       <c r="H30">
-        <f>(E30-D30)/E30*100</f>
+        <f t="shared" si="0"/>
         <v>0.92794064089672423</v>
       </c>
       <c r="I30" s="2">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <f t="shared" si="1"/>
         <v>2044.3044809930907</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1798.0211383084516</v>
       </c>
     </row>
@@ -6907,15 +6403,15 @@
         <v>6.3583530514499997E-2</v>
       </c>
       <c r="H31">
-        <f>(E31-D31)/E31*100</f>
+        <f t="shared" si="0"/>
         <v>99.983333508289917</v>
       </c>
       <c r="I31" s="2">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <f t="shared" si="1"/>
         <v>18219817.225476261</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29173422.964815956</v>
       </c>
     </row>
@@ -6939,15 +6435,15 @@
         <v>0.11589336101</v>
       </c>
       <c r="H32">
-        <f>(E32-D32)/E32*100</f>
+        <f t="shared" si="0"/>
         <v>99.975303273009004</v>
       </c>
       <c r="I32" s="2">
-        <f>2*B32*SIN((136*3.14159/180)/2)*102/D32</f>
+        <f t="shared" si="1"/>
         <v>9321766.9525373094</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16005655.657322196</v>
       </c>
     </row>
@@ -6971,15 +6467,15 @@
         <v>0.240009411605</v>
       </c>
       <c r="H33">
-        <f>(E33-D33)/E33*100</f>
+        <f t="shared" si="0"/>
         <v>99.950856630512902</v>
       </c>
       <c r="I33" s="2">
-        <f>2*B33*SIN((136*3.14159/180)/2)*102/D33</f>
+        <f t="shared" si="1"/>
         <v>5567166.3744191816</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7728652.0428149197</v>
       </c>
     </row>
@@ -7003,32 +6499,32 @@
         <v>1365.3590599700001</v>
       </c>
       <c r="H34">
-        <f>(E34-D34)/E34*100</f>
+        <f t="shared" si="0"/>
         <v>1.4099888725180152E-2</v>
       </c>
       <c r="I34" s="2">
-        <f>2*B34*SIN((136*3.14159/180)/2)*102/D34</f>
+        <f t="shared" si="1"/>
         <v>1750.9603817848079</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1358.5797931692396</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="H3:H34">
     <filterColumn colId="0">
-      <colorFilter dxfId="70"/>
+      <colorFilter dxfId="10"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:I34">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7111,15 +6607,15 @@
         <v>137.73666246600001</v>
       </c>
       <c r="H4">
-        <f>(E4-D4)/E4*100</f>
+        <f t="shared" ref="H4:H25" si="0">(E4-D4)/E4*100</f>
         <v>-0.27015632427281822</v>
       </c>
       <c r="I4">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="I4:I25" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>1630.9195649551327</v>
       </c>
       <c r="J4">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <f t="shared" ref="J4:J25" si="2">2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
         <v>1345.7747400735013</v>
       </c>
     </row>
@@ -7143,15 +6639,15 @@
         <v>139.31991712300001</v>
       </c>
       <c r="H5">
-        <f>(E5-D5)/E5*100</f>
+        <f t="shared" si="0"/>
         <v>-1.4309208418495045</v>
       </c>
       <c r="I5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>1500.0578555752077</v>
       </c>
       <c r="J5">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <f t="shared" si="2"/>
         <v>1330.4811326087968</v>
       </c>
     </row>
@@ -7175,15 +6671,15 @@
         <v>133.21370797500001</v>
       </c>
       <c r="H6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>-913.69133311894211</v>
       </c>
       <c r="I6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>1656.4810081362016</v>
       </c>
       <c r="J6">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <f t="shared" si="2"/>
         <v>1391.4673192908904</v>
       </c>
     </row>
@@ -7207,15 +6703,15 @@
         <v>138.34530615599999</v>
       </c>
       <c r="H7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="0"/>
         <v>-0.95438310547489402</v>
       </c>
       <c r="I7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>1442.659631522635</v>
       </c>
       <c r="J7">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <f t="shared" si="2"/>
         <v>1339.8540671828471</v>
       </c>
     </row>
@@ -7239,15 +6735,15 @@
         <v>132.35855680700001</v>
       </c>
       <c r="H8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="0"/>
         <v>0.21115794059891646</v>
       </c>
       <c r="I8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>1628.3992307342776</v>
       </c>
       <c r="J8">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <f t="shared" si="2"/>
         <v>1400.4574060070859</v>
       </c>
     </row>
@@ -7271,15 +6767,15 @@
         <v>272.32844907800001</v>
       </c>
       <c r="H9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="0"/>
         <v>1.421969326729944E-3</v>
       </c>
       <c r="I9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>1726.4514512706644</v>
       </c>
       <c r="J9">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <f t="shared" si="2"/>
         <v>1362.0104287416254</v>
       </c>
     </row>
@@ -7303,15 +6799,15 @@
         <v>276.51851982099998</v>
       </c>
       <c r="H10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="0"/>
         <v>-0.11827366833316273</v>
       </c>
       <c r="I10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>1658.1820677255384</v>
       </c>
       <c r="J10">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <f t="shared" si="2"/>
         <v>1341.3719555832076</v>
       </c>
     </row>
@@ -7335,15 +6831,15 @@
         <v>291.25068760200003</v>
       </c>
       <c r="H11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="0"/>
         <v>-0.2203409338093518</v>
       </c>
       <c r="I11">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>1496.3700819404869</v>
       </c>
       <c r="J11">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <f t="shared" si="2"/>
         <v>1273.5221013250637</v>
       </c>
     </row>
@@ -7367,15 +6863,15 @@
         <v>272.57458571799998</v>
       </c>
       <c r="H12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="0"/>
         <v>-2.5595197747712071</v>
       </c>
       <c r="I12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1589.6892890877939</v>
       </c>
       <c r="J12">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <f t="shared" si="2"/>
         <v>1360.7805243846499</v>
       </c>
     </row>
@@ -7399,15 +6895,15 @@
         <v>296.75620702800001</v>
       </c>
       <c r="H13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="0"/>
         <v>-1.2585580814440833</v>
       </c>
       <c r="I13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>1455.1407598060139</v>
       </c>
       <c r="J13">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <f t="shared" si="2"/>
         <v>1249.8952975641437</v>
       </c>
     </row>
@@ -7431,15 +6927,15 @@
         <v>347.324313233</v>
       </c>
       <c r="H14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="0"/>
         <v>-2.0670486962785555</v>
       </c>
       <c r="I14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>1809.7624906284952</v>
       </c>
       <c r="J14">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <f t="shared" si="2"/>
         <v>1602.1505925283832</v>
       </c>
     </row>
@@ -7463,15 +6959,15 @@
         <v>360.45668958300001</v>
       </c>
       <c r="H15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="0"/>
         <v>0.69282653343055711</v>
       </c>
       <c r="I15">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>1882.7825511452668</v>
       </c>
       <c r="J15">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <f t="shared" si="2"/>
         <v>1543.7800721343831</v>
       </c>
     </row>
@@ -7495,15 +6991,15 @@
         <v>384.01367874200002</v>
       </c>
       <c r="H16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="0"/>
         <v>2.8925142008530429</v>
       </c>
       <c r="I16">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>1893.2306202698062</v>
       </c>
       <c r="J16">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <f t="shared" si="2"/>
         <v>1449.0782101010177</v>
       </c>
     </row>
@@ -7527,15 +7023,15 @@
         <v>476.74567724799999</v>
       </c>
       <c r="H17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="0"/>
         <v>-2.7405955325935984</v>
       </c>
       <c r="I17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>1355.08870751719</v>
       </c>
       <c r="J17">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <f t="shared" si="2"/>
         <v>1167.2174092022124</v>
       </c>
     </row>
@@ -7559,15 +7055,15 @@
         <v>366.11172453400002</v>
       </c>
       <c r="H18">
-        <f>(E18-D18)/E18*100</f>
+        <f t="shared" si="0"/>
         <v>6.2777493159464862E-2</v>
       </c>
       <c r="I18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="1"/>
         <v>1602.0652748756656</v>
       </c>
       <c r="J18">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <f t="shared" si="2"/>
         <v>1519.9345362513427</v>
       </c>
     </row>
@@ -7591,15 +7087,15 @@
         <v>317.53161577600002</v>
       </c>
       <c r="H19">
-        <f>(E19-D19)/E19*100</f>
+        <f t="shared" si="0"/>
         <v>0.70373207060430421</v>
       </c>
       <c r="I19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="1"/>
         <v>1983.1261534779187</v>
       </c>
       <c r="J19">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <f t="shared" si="2"/>
         <v>1752.4738533070004</v>
       </c>
     </row>
@@ -7623,15 +7119,15 @@
         <v>529.752404222</v>
       </c>
       <c r="H20">
-        <f>(E20-D20)/E20*100</f>
+        <f t="shared" si="0"/>
         <v>-0.34051826266211865</v>
       </c>
       <c r="I20">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="1"/>
         <v>1880.7889595678184</v>
       </c>
       <c r="J20">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <f t="shared" si="2"/>
         <v>1750.59147356772</v>
       </c>
     </row>
@@ -7655,15 +7151,15 @@
         <v>520.04193427799999</v>
       </c>
       <c r="H21">
-        <f>(E21-D21)/E21*100</f>
+        <f t="shared" si="0"/>
         <v>0.20956215741071213</v>
       </c>
       <c r="I21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="1"/>
         <v>2062.8665310084457</v>
       </c>
       <c r="J21">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <f t="shared" si="2"/>
         <v>1783.2793488482062</v>
       </c>
     </row>
@@ -7687,15 +7183,15 @@
         <v>464.85066349900001</v>
       </c>
       <c r="H22">
-        <f>(E22-D22)/E22*100</f>
+        <f t="shared" si="0"/>
         <v>0.34892271781173728</v>
       </c>
       <c r="I22">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="1"/>
         <v>2003.1279646067742</v>
       </c>
       <c r="J22">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <f t="shared" si="2"/>
         <v>1995.0063853894626</v>
       </c>
     </row>
@@ -7719,15 +7215,15 @@
         <v>415.997243115</v>
       </c>
       <c r="H23">
-        <f>(E23-D23)/E23*100</f>
+        <f t="shared" si="0"/>
         <v>0.33495401112384493</v>
       </c>
       <c r="I23">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="1"/>
         <v>2406.0195383814912</v>
       </c>
       <c r="J23">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <f t="shared" si="2"/>
         <v>2229.2937207679151</v>
       </c>
     </row>
@@ -7751,15 +7247,15 @@
         <v>515.35834611400003</v>
       </c>
       <c r="H24">
-        <f>(E24-D24)/E24*100</f>
+        <f t="shared" si="0"/>
         <v>-0.15938156847344481</v>
       </c>
       <c r="I24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="1"/>
         <v>2054.1689320401274</v>
       </c>
       <c r="J24">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <f t="shared" si="2"/>
         <v>1799.4858314138799</v>
       </c>
     </row>
@@ -7783,15 +7279,15 @@
         <v>557.01636220199998</v>
       </c>
       <c r="H25">
-        <f>(E25-D25)/E25*100</f>
+        <f t="shared" si="0"/>
         <v>-0.38104303700811448</v>
       </c>
       <c r="I25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>2015.5811028623705</v>
       </c>
       <c r="J25">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <f t="shared" si="2"/>
         <v>1664.9062843807851</v>
       </c>
     </row>
@@ -7801,17 +7297,17 @@
   </sheetData>
   <autoFilter ref="H3:H25">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="7"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:J25">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7830,7 +7326,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -7893,15 +7389,15 @@
         <v>60.2521917547</v>
       </c>
       <c r="H4">
-        <f>(E4-D4)/E4*100</f>
+        <f t="shared" ref="H4:H31" si="0">(E4-D4)/E4*100</f>
         <v>1.6114181731488395</v>
       </c>
       <c r="I4" s="2">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <f t="shared" ref="I4:I31" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
         <v>880.69562126944425</v>
       </c>
       <c r="J4">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <f t="shared" ref="J4:J31" si="2">2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
         <v>769.11111334930592</v>
       </c>
     </row>
@@ -7925,15 +7421,15 @@
         <v>29.908556819600001</v>
       </c>
       <c r="H5">
-        <f>(E5-D5)/E5*100</f>
+        <f t="shared" si="0"/>
         <v>7.7187568895716137</v>
       </c>
       <c r="I5" s="2">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/D5</f>
+        <f t="shared" si="1"/>
         <v>1244.1896440509624</v>
       </c>
       <c r="J5">
-        <f>2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <f t="shared" si="2"/>
         <v>1549.4104433626414</v>
       </c>
     </row>
@@ -7957,15 +7453,15 @@
         <v>32.923535214200001</v>
       </c>
       <c r="H6">
-        <f>(E6-D6)/E6*100</f>
+        <f t="shared" si="0"/>
         <v>4.0895923780960945</v>
       </c>
       <c r="I6" s="2">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/D6</f>
+        <f t="shared" si="1"/>
         <v>1441.8556107812738</v>
       </c>
       <c r="J6">
-        <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
+        <f t="shared" si="2"/>
         <v>1407.5229157714011</v>
       </c>
     </row>
@@ -7989,15 +7485,15 @@
         <v>58.0670839211</v>
       </c>
       <c r="H7">
-        <f>(E7-D7)/E7*100</f>
+        <f t="shared" si="0"/>
         <v>2.1541066904488404</v>
       </c>
       <c r="I7" s="2">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/D7</f>
+        <f t="shared" si="1"/>
         <v>1755.3401711537681</v>
       </c>
       <c r="J7">
-        <f>2*B7*SIN((136*3.14159/180)/2)*102/G7</f>
+        <f t="shared" si="2"/>
         <v>1596.1066805131663</v>
       </c>
     </row>
@@ -8021,15 +7517,15 @@
         <v>65.160057722199994</v>
       </c>
       <c r="H8">
-        <f>(E8-D8)/E8*100</f>
+        <f t="shared" si="0"/>
         <v>-0.13065959289690041</v>
       </c>
       <c r="I8" s="2">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/D8</f>
+        <f t="shared" si="1"/>
         <v>1377.7547799256815</v>
       </c>
       <c r="J8">
-        <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
+        <f t="shared" si="2"/>
         <v>1422.3630826037456</v>
       </c>
     </row>
@@ -8053,15 +7549,15 @@
         <v>57.702171738099999</v>
       </c>
       <c r="H9">
-        <f>(E9-D9)/E9*100</f>
+        <f t="shared" si="0"/>
         <v>-0.36868846815629808</v>
       </c>
       <c r="I9" s="2">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/D9</f>
+        <f t="shared" si="1"/>
         <v>1576.239022312606</v>
       </c>
       <c r="J9">
-        <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
+        <f t="shared" si="2"/>
         <v>1606.2005600941729</v>
       </c>
     </row>
@@ -8085,15 +7581,15 @@
         <v>59.642066231000001</v>
       </c>
       <c r="H10">
-        <f>(E10-D10)/E10*100</f>
+        <f t="shared" si="0"/>
         <v>1.5416801904715014</v>
       </c>
       <c r="I10" s="2">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/D10</f>
+        <f t="shared" si="1"/>
         <v>1544.320018346956</v>
       </c>
       <c r="J10">
-        <f>2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <f t="shared" si="2"/>
         <v>1553.9579095972647</v>
       </c>
     </row>
@@ -8117,15 +7613,15 @@
         <v>60.296696219700003</v>
       </c>
       <c r="H11">
-        <f>(E11-D11)/E11*100</f>
+        <f t="shared" si="0"/>
         <v>4.1185248712014522</v>
       </c>
       <c r="I11" s="2">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/D11</f>
+        <f t="shared" si="1"/>
         <v>1621.0894605137589</v>
       </c>
       <c r="J11">
-        <f>2*B11*SIN((136*3.14159/180)/2)*102/G11</f>
+        <f t="shared" si="2"/>
         <v>1537.0868783040514</v>
       </c>
     </row>
@@ -8149,15 +7645,15 @@
         <v>57.691442279699999</v>
       </c>
       <c r="H12">
-        <f>(E12-D12)/E12*100</f>
+        <f t="shared" si="0"/>
         <v>2.5100936241293432</v>
       </c>
       <c r="I12" s="2">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/D12</f>
+        <f t="shared" si="1"/>
         <v>1728.9094685791467</v>
       </c>
       <c r="J12">
-        <f>2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <f t="shared" si="2"/>
         <v>1606.4992813847248</v>
       </c>
     </row>
@@ -8181,15 +7677,15 @@
         <v>143.015852494</v>
       </c>
       <c r="H13">
-        <f>(E13-D13)/E13*100</f>
+        <f t="shared" si="0"/>
         <v>-3.4631322252938537</v>
       </c>
       <c r="I13" s="2">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/D13</f>
+        <f t="shared" si="1"/>
         <v>1342.218935318926</v>
       </c>
       <c r="J13">
-        <f>2*B13*SIN((136*3.14159/180)/2)*102/G13</f>
+        <f t="shared" si="2"/>
         <v>1296.0977255059843</v>
       </c>
     </row>
@@ -8213,15 +7709,15 @@
         <v>137.31005033299999</v>
       </c>
       <c r="H14">
-        <f>(E14-D14)/E14*100</f>
+        <f t="shared" si="0"/>
         <v>-2.7166363349047793</v>
       </c>
       <c r="I14" s="2">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/D14</f>
+        <f t="shared" si="1"/>
         <v>1361.1923598277494</v>
       </c>
       <c r="J14">
-        <f>2*B14*SIN((136*3.14159/180)/2)*102/G14</f>
+        <f t="shared" si="2"/>
         <v>1349.9559622856261</v>
       </c>
     </row>
@@ -8245,15 +7741,15 @@
         <v>228.841325203</v>
       </c>
       <c r="H15">
-        <f>(E15-D15)/E15*100</f>
+        <f t="shared" si="0"/>
         <v>-0.13164214123912274</v>
       </c>
       <c r="I15" s="2">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/D15</f>
+        <f t="shared" si="1"/>
         <v>1840.1350705639641</v>
       </c>
       <c r="J15">
-        <f>2*B15*SIN((136*3.14159/180)/2)*102/G15</f>
+        <f t="shared" si="2"/>
         <v>1620.8356919723265</v>
       </c>
     </row>
@@ -8277,15 +7773,15 @@
         <v>200.70506539799999</v>
       </c>
       <c r="H16">
-        <f>(E16-D16)/E16*100</f>
+        <f t="shared" si="0"/>
         <v>2.1161887673707738</v>
       </c>
       <c r="I16" s="2">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/D16</f>
+        <f t="shared" si="1"/>
         <v>2427.7979252911796</v>
       </c>
       <c r="J16">
-        <f>2*B16*SIN((136*3.14159/180)/2)*102/G16</f>
+        <f t="shared" si="2"/>
         <v>1848.0559369627392</v>
       </c>
     </row>
@@ -8309,15 +7805,15 @@
         <v>211.756740337</v>
       </c>
       <c r="H17">
-        <f>(E17-D17)/E17*100</f>
+        <f t="shared" si="0"/>
         <v>0.97346187179254695</v>
       </c>
       <c r="I17" s="2">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/D17</f>
+        <f t="shared" si="1"/>
         <v>1784.7852659755069</v>
       </c>
       <c r="J17">
-        <f>2*B17*SIN((136*3.14159/180)/2)*102/G17</f>
+        <f t="shared" si="2"/>
         <v>1751.6051063922584</v>
       </c>
     </row>
@@ -8341,15 +7837,15 @@
         <v>247.19698797300001</v>
       </c>
       <c r="H18">
-        <f>(E18-D18)/E18*100</f>
+        <f t="shared" si="0"/>
         <v>1.9384197980113327</v>
       </c>
       <c r="I18" s="2">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/D18</f>
+        <f t="shared" si="1"/>
         <v>1844.5544821033959</v>
       </c>
       <c r="J18">
-        <f>2*B18*SIN((136*3.14159/180)/2)*102/G18</f>
+        <f t="shared" si="2"/>
         <v>1500.4802070152314</v>
       </c>
     </row>
@@ -8373,15 +7869,15 @@
         <v>129.44201016900001</v>
       </c>
       <c r="H19">
-        <f>(E19-D19)/E19*100</f>
+        <f t="shared" si="0"/>
         <v>78.05846115432378</v>
       </c>
       <c r="I19" s="2">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/D19</f>
+        <f t="shared" si="1"/>
         <v>9631.2497107098443</v>
       </c>
       <c r="J19">
-        <f>2*B19*SIN((136*3.14159/180)/2)*102/G19</f>
+        <f t="shared" si="2"/>
         <v>4298.9586882901513</v>
       </c>
     </row>
@@ -8405,15 +7901,15 @@
         <v>280.83568021600001</v>
       </c>
       <c r="H20">
-        <f>(E20-D20)/E20*100</f>
+        <f t="shared" si="0"/>
         <v>48.025656959172743</v>
       </c>
       <c r="I20" s="2">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/D20</f>
+        <f t="shared" si="1"/>
         <v>4410.8882593367671</v>
       </c>
       <c r="J20">
-        <f>2*B20*SIN((136*3.14159/180)/2)*102/G20</f>
+        <f t="shared" si="2"/>
         <v>1981.4642278280608</v>
       </c>
     </row>
@@ -8437,15 +7933,15 @@
         <v>266.89559037599997</v>
       </c>
       <c r="H21">
-        <f>(E21-D21)/E21*100</f>
+        <f t="shared" si="0"/>
         <v>6.641604914418493</v>
       </c>
       <c r="I21" s="2">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/D21</f>
+        <f t="shared" si="1"/>
         <v>2726.4107168756836</v>
       </c>
       <c r="J21">
-        <f>2*B21*SIN((136*3.14159/180)/2)*102/G21</f>
+        <f t="shared" si="2"/>
         <v>2084.957093003376</v>
       </c>
     </row>
@@ -8469,15 +7965,15 @@
         <v>8.3153007509300006E-2</v>
       </c>
       <c r="H22">
-        <f>(E22-D22)/E22*100</f>
+        <f t="shared" si="0"/>
         <v>99.948136380004627</v>
       </c>
       <c r="I22" s="2">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/D22</f>
+        <f t="shared" si="1"/>
         <v>6347916.3870285666</v>
       </c>
       <c r="J22">
-        <f>2*B22*SIN((136*3.14159/180)/2)*102/G22</f>
+        <f t="shared" si="2"/>
         <v>11152693.927869214</v>
       </c>
     </row>
@@ -8501,15 +7997,15 @@
         <v>238.09384987300001</v>
       </c>
       <c r="H23">
-        <f>(E23-D23)/E23*100</f>
+        <f t="shared" si="0"/>
         <v>63.248809276238873</v>
       </c>
       <c r="I23" s="2">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/D23</f>
+        <f t="shared" si="1"/>
         <v>7623.4078054711217</v>
       </c>
       <c r="J23">
-        <f>2*B23*SIN((136*3.14159/180)/2)*102/G23</f>
+        <f t="shared" si="2"/>
         <v>3895.0188861564493</v>
       </c>
     </row>
@@ -8533,15 +8029,15 @@
         <v>289.86313021400002</v>
       </c>
       <c r="H24">
-        <f>(E24-D24)/E24*100</f>
+        <f t="shared" si="0"/>
         <v>68.5607934397554</v>
       </c>
       <c r="I24" s="2">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/D24</f>
+        <f t="shared" si="1"/>
         <v>8556.7650702605824</v>
       </c>
       <c r="J24">
-        <f>2*B24*SIN((136*3.14159/180)/2)*102/G24</f>
+        <f t="shared" si="2"/>
         <v>3199.3722045586401</v>
       </c>
     </row>
@@ -8565,15 +8061,15 @@
         <v>7.1510636726399998E-2</v>
       </c>
       <c r="H25">
-        <f>(E25-D25)/E25*100</f>
+        <f t="shared" si="0"/>
         <v>99.954025920770022</v>
       </c>
       <c r="I25" s="2">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/D25</f>
+        <f t="shared" si="1"/>
         <v>8291156.0973804966</v>
       </c>
       <c r="J25">
-        <f>2*B25*SIN((136*3.14159/180)/2)*102/G25</f>
+        <f t="shared" si="2"/>
         <v>12968420.984436112</v>
       </c>
     </row>
@@ -8597,15 +8093,15 @@
         <v>2.7962929145399999E-2</v>
       </c>
       <c r="H26">
-        <f>(E26-D26)/E26*100</f>
+        <f t="shared" si="0"/>
         <v>99.987044973011464</v>
       </c>
       <c r="I26" s="2">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/D26</f>
+        <f t="shared" si="1"/>
         <v>19346030.893801346</v>
       </c>
       <c r="J26">
-        <f>2*B26*SIN((136*3.14159/180)/2)*102/G26</f>
+        <f t="shared" si="2"/>
         <v>33164624.389344085</v>
       </c>
     </row>
@@ -8629,15 +8125,15 @@
         <v>4.7247167246100001E-2</v>
       </c>
       <c r="H27">
-        <f>(E27-D27)/E27*100</f>
+        <f t="shared" si="0"/>
         <v>99.976256695343253</v>
       </c>
       <c r="I27" s="2">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/D27</f>
+        <f t="shared" si="1"/>
         <v>11607618.536280807</v>
       </c>
       <c r="J27">
-        <f>2*B27*SIN((136*3.14159/180)/2)*102/G27</f>
+        <f t="shared" si="2"/>
         <v>19628267.597558107</v>
       </c>
     </row>
@@ -8661,15 +8157,15 @@
         <v>391.14215841100003</v>
       </c>
       <c r="H28">
-        <f>(E28-D28)/E28*100</f>
+        <f t="shared" si="0"/>
         <v>27.158278765530312</v>
       </c>
       <c r="I28" s="2">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/D28</f>
+        <f t="shared" si="1"/>
         <v>3696.6265288126178</v>
       </c>
       <c r="J28">
-        <f>2*B28*SIN((136*3.14159/180)/2)*102/G28</f>
+        <f t="shared" si="2"/>
         <v>2370.9539408906448</v>
       </c>
     </row>
@@ -8693,15 +8189,15 @@
         <v>301.46926320799997</v>
       </c>
       <c r="H29">
-        <f>(E29-D29)/E29*100</f>
+        <f t="shared" si="0"/>
         <v>85.988621396966039</v>
       </c>
       <c r="I29" s="2">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/D29</f>
+        <f t="shared" si="1"/>
         <v>23108.006550921978</v>
       </c>
       <c r="J29">
-        <f>2*B29*SIN((136*3.14159/180)/2)*102/G29</f>
+        <f t="shared" si="2"/>
         <v>6153.0293654380293</v>
       </c>
     </row>
@@ -8725,15 +8221,15 @@
         <v>0.114332525478</v>
       </c>
       <c r="H30">
-        <f>(E30-D30)/E30*100</f>
+        <f t="shared" si="0"/>
         <v>99.969080421954814</v>
       </c>
       <c r="I30" s="2">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/D30</f>
+        <f t="shared" si="1"/>
         <v>10157701.979618872</v>
       </c>
       <c r="J30">
-        <f>2*B30*SIN((136*3.14159/180)/2)*102/G30</f>
+        <f t="shared" si="2"/>
         <v>16224160.37379251</v>
       </c>
     </row>
@@ -8757,37 +8253,37 @@
         <v>3.7655705010999997E-2</v>
       </c>
       <c r="H31">
-        <f>(E31-D31)/E31*100</f>
+        <f t="shared" si="0"/>
         <v>99.988428375424562</v>
       </c>
       <c r="I31" s="2">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/D31</f>
+        <f t="shared" si="1"/>
         <v>27087205.278983656</v>
       </c>
       <c r="J31">
-        <f>2*B31*SIN((136*3.14159/180)/2)*102/G31</f>
+        <f t="shared" si="2"/>
         <v>49260775.458962239</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="H3:H31">
     <filterColumn colId="0">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="4"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="10">
   <si>
     <t>Load</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Hardness with Box</t>
+  </si>
+  <si>
+    <t>Average Hardness</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,14 +285,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="171">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -370,6 +384,11 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -450,6 +469,11 @@
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
@@ -494,10 +518,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -522,10 +548,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -550,10 +578,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -606,22 +646,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -634,22 +662,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -664,6 +688,1146 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0951089238845144"/>
+                  <c:y val="0.285783756197142"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'39.75'!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1961.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4903.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9807.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'39.75'!$N$4:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1461.793876170672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1313.236070299473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1463.244389721529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1435.925291157981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1295.773617223922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1442.573351444876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1558521688"/>
+        <c:axId val="-2137025912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1558521688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137025912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2137025912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1558521688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.139553368328959"/>
+                  <c:y val="0.1885746573345"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'45.14'!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1961.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4903.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9807.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'45.14'!$N$4:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1443.633666125445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1403.718693340281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1493.556378119139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1488.137970435673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1475.266744540962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1526.308668310975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2145829576"/>
+        <c:axId val="1558990600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2145829576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1558990600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1558990600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2145829576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0286642607174103"/>
+                  <c:y val="0.197771580635754"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'48.51'!$M$6:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1961.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4903.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'48.51'!$N$6:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1598.132051263339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1396.182344813791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1386.292594325038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1454.619793640375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1477.899111010934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1499.033426459291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1562258424"/>
+        <c:axId val="1558252376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1562258424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1558252376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1558252376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1562258424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'85.98'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Hardness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.206220034995625"/>
+                  <c:y val="0.279730606590843"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'85.98'!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4903.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9807.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'85.98'!$N$4:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1251.934649208859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1272.255208197043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1249.4786520396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1234.459426887201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1578.300465738846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1561346808"/>
+        <c:axId val="1561512344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1561346808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1561512344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1561512344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1561346808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0463357392825897"/>
+                  <c:y val="0.283333333333333"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'89.93'!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>980.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4903.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'89.93'!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1361.606933032624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1317.516061519738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1486.496816199191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1870.427174061328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1557303912"/>
+        <c:axId val="1561306696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1557303912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1561306696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1561306696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1557303912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.168987532808399"/>
+                  <c:y val="-0.503595800524934"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100'!$M$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1514.281821348959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100'!$M$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1961.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1740.165578442441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1561428424"/>
+        <c:axId val="1562053000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1561428424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1562053000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1562053000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1561428424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>389467</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>728133</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>321733</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>516467</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>110067</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>618067</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135468</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>651934</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>245534</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -989,10 +2153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:J47"/>
+  <dimension ref="B3:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1004,9 +2168,10 @@
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,8 +2199,14 @@
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>490</v>
       </c>
@@ -1066,8 +2237,15 @@
         <f t="shared" ref="J4:J42" si="2">2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
         <v>1431.8486110712693</v>
       </c>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="M4">
+        <v>490</v>
+      </c>
+      <c r="N4" s="2">
+        <f>AVERAGE(J4:J10)</f>
+        <v>1461.7938761706721</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>490</v>
       </c>
@@ -1098,8 +2276,15 @@
         <f t="shared" si="2"/>
         <v>1418.9030437289121</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" hidden="1">
+      <c r="M5">
+        <v>980</v>
+      </c>
+      <c r="N5" s="2">
+        <f>AVERAGE(J11:J16)</f>
+        <v>1313.2360702994731</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" hidden="1">
       <c r="B6">
         <v>490</v>
       </c>
@@ -1131,7 +2316,7 @@
         <v>1489.119678661353</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>490</v>
       </c>
@@ -1162,8 +2347,15 @@
         <f t="shared" si="2"/>
         <v>1598.2372387133423</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="M7">
+        <v>1961</v>
+      </c>
+      <c r="N7" s="2">
+        <f>AVERAGE(J17:J24)</f>
+        <v>1463.2443897215287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>490</v>
       </c>
@@ -1194,8 +2386,15 @@
         <f t="shared" si="2"/>
         <v>1495.231397606068</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="M8">
+        <v>2942</v>
+      </c>
+      <c r="N8" s="2">
+        <f>AVERAGE(J25:J32)</f>
+        <v>1435.9252911579806</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>490</v>
       </c>
@@ -1226,8 +2425,15 @@
         <f t="shared" si="2"/>
         <v>1352.6186900817406</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="M9">
+        <v>4903</v>
+      </c>
+      <c r="N9" s="2">
+        <f>AVERAGE(J33,J34,J36,J37,J38,J39,J40,J42,)</f>
+        <v>1295.7736172239217</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>490</v>
       </c>
@@ -1258,8 +2464,15 @@
         <f t="shared" si="2"/>
         <v>1446.5984733320204</v>
       </c>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="M10">
+        <v>9807</v>
+      </c>
+      <c r="N10" s="2">
+        <f>AVERAGE(J42)</f>
+        <v>1442.5733514448764</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>980</v>
       </c>
@@ -1291,7 +2504,7 @@
         <v>1453.7150068652547</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>980</v>
       </c>
@@ -1323,7 +2536,7 @@
         <v>1381.5942361373775</v>
       </c>
     </row>
-    <row r="13" spans="2:10" hidden="1">
+    <row r="13" spans="2:14" hidden="1">
       <c r="B13">
         <v>980</v>
       </c>
@@ -1355,7 +2568,7 @@
         <v>809.31395973645351</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>980</v>
       </c>
@@ -1387,7 +2600,7 @@
         <v>1409.9035507420974</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>980</v>
       </c>
@@ -1419,7 +2632,7 @@
         <v>1428.5676796137006</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>980</v>
       </c>
@@ -2308,15 +3521,16 @@
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2328,10 +3542,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:J43"/>
+  <dimension ref="B3:N43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2345,7 +3559,7 @@
     <col min="8" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2373,8 +3587,14 @@
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>490</v>
       </c>
@@ -2405,8 +3625,15 @@
         <f t="shared" ref="J4:J16" si="2">2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
         <v>1441.4084327611492</v>
       </c>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="M4">
+        <v>490</v>
+      </c>
+      <c r="N4" s="2">
+        <f>AVERAGE(J4:J9)</f>
+        <v>1443.6336661254454</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>490</v>
       </c>
@@ -2437,8 +3664,15 @@
         <f t="shared" si="2"/>
         <v>1478.5425471690935</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="M5">
+        <v>980</v>
+      </c>
+      <c r="N5" s="2">
+        <f>AVERAGE(J10:J13)</f>
+        <v>1403.7186933402813</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>490</v>
       </c>
@@ -2469,8 +3703,15 @@
         <f t="shared" si="2"/>
         <v>1434.306372167315</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="M6">
+        <v>1961</v>
+      </c>
+      <c r="N6" s="2">
+        <f>AVERAGE(J14:J19)</f>
+        <v>1493.5563781191388</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>490</v>
       </c>
@@ -2501,8 +3742,15 @@
         <f t="shared" si="2"/>
         <v>1442.7453892493513</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="M7">
+        <v>2942</v>
+      </c>
+      <c r="N7" s="2">
+        <f>AVERAGE(J20:J29)</f>
+        <v>1488.1379704356734</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>490</v>
       </c>
@@ -2533,8 +3781,15 @@
         <f t="shared" si="2"/>
         <v>1381.3618601566156</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="M8">
+        <v>4903</v>
+      </c>
+      <c r="N8" s="2">
+        <f>AVERAGE(J30:J39)</f>
+        <v>1475.266744540962</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>490</v>
       </c>
@@ -2565,8 +3820,15 @@
         <f t="shared" si="2"/>
         <v>1483.4373952491471</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="M9">
+        <v>9807</v>
+      </c>
+      <c r="N9" s="2">
+        <f>AVERAGE(J40:J43)</f>
+        <v>1526.3086683109752</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>980</v>
       </c>
@@ -2598,7 +3860,7 @@
         <v>1412.7420065627095</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>980</v>
       </c>
@@ -2630,7 +3892,7 @@
         <v>1474.1064479837776</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>980</v>
       </c>
@@ -2662,7 +3924,7 @@
         <v>1435.2020283036968</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>980</v>
       </c>
@@ -2694,7 +3956,7 @@
         <v>1292.8242905109421</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>1961</v>
       </c>
@@ -2726,7 +3988,7 @@
         <v>1478.6412814568439</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>1961</v>
       </c>
@@ -2758,7 +4020,7 @@
         <v>1453.8184556098158</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>1961</v>
       </c>
@@ -3649,22 +4911,23 @@
   </sheetData>
   <autoFilter ref="H3:H43">
     <filterColumn colId="0">
-      <colorFilter dxfId="18"/>
+      <colorFilter dxfId="20"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:J43">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3676,10 +4939,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:J43"/>
+  <dimension ref="B3:N43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3691,9 +4954,10 @@
     <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3721,8 +4985,14 @@
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" hidden="1">
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" hidden="1">
       <c r="B4">
         <v>245</v>
       </c>
@@ -3750,7 +5020,7 @@
         <v>1825.4378258462646</v>
       </c>
     </row>
-    <row r="5" spans="2:10" hidden="1">
+    <row r="5" spans="2:14" hidden="1">
       <c r="B5">
         <v>245</v>
       </c>
@@ -3778,7 +5048,7 @@
         <v>1970.3261788990305</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>245</v>
       </c>
@@ -3809,8 +5079,15 @@
         <f>2*B6*SIN((136*3.14159/180)/2)*102/G6</f>
         <v>1699.5145212195766</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1">
+      <c r="M6" s="4">
+        <v>245</v>
+      </c>
+      <c r="N6" s="2">
+        <f>AVERAGE(J6:J9)</f>
+        <v>1598.1320512633395</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" hidden="1">
       <c r="B7">
         <v>245</v>
       </c>
@@ -3838,7 +5115,7 @@
         <v>1904.8390737632863</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>245</v>
       </c>
@@ -3869,8 +5146,15 @@
         <f>2*B8*SIN((136*3.14159/180)/2)*102/G8</f>
         <v>1557.2852179748493</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="M8">
+        <v>490</v>
+      </c>
+      <c r="N8" s="2">
+        <f>AVERAGE(J10:J11)</f>
+        <v>1396.1823448137907</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>245</v>
       </c>
@@ -3901,8 +5185,15 @@
         <f>2*B9*SIN((136*3.14159/180)/2)*102/G9</f>
         <v>1537.5964145955929</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="M9">
+        <v>980</v>
+      </c>
+      <c r="N9" s="2">
+        <f>AVERAGE(J12:J18)</f>
+        <v>1386.292594325038</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>490</v>
       </c>
@@ -3929,8 +5220,19 @@
         <f t="shared" si="1"/>
         <v>1661.203108654433</v>
       </c>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="J10">
+        <f t="shared" ref="J10:J11" si="2">2*B10*SIN((136*3.14159/180)/2)*102/G10</f>
+        <v>1350.6743950719558</v>
+      </c>
+      <c r="M10">
+        <v>1961</v>
+      </c>
+      <c r="N10" s="2">
+        <f>AVERAGE(J19:J26)</f>
+        <v>1454.6197936403748</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>490</v>
       </c>
@@ -3957,8 +5259,19 @@
         <f t="shared" si="1"/>
         <v>1806.5156523739922</v>
       </c>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1441.6902945556253</v>
+      </c>
+      <c r="M11">
+        <v>2942</v>
+      </c>
+      <c r="N11" s="2">
+        <f>AVERAGE(J27:J31)</f>
+        <v>1477.8991110109341</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>980</v>
       </c>
@@ -3986,11 +5299,18 @@
         <v>1708.4012241666487</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J41" si="2">2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
+        <f t="shared" ref="J12:J41" si="3">2*B12*SIN((136*3.14159/180)/2)*102/G12</f>
         <v>1399.4762824064139</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="M12">
+        <v>4903</v>
+      </c>
+      <c r="N12" s="2">
+        <f>AVERAGE(J32:J41)</f>
+        <v>1499.0334264592909</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>980</v>
       </c>
@@ -4018,11 +5338,11 @@
         <v>1672.7941668742933</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1395.6296895021976</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>980</v>
       </c>
@@ -4050,11 +5370,11 @@
         <v>1698.5438910466924</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1416.4496266984304</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>980</v>
       </c>
@@ -4082,11 +5402,11 @@
         <v>1745.3742601089341</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1416.6726303353639</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>980</v>
       </c>
@@ -4114,7 +5434,7 @@
         <v>1712.0525168531531</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1334.2165553913021</v>
       </c>
     </row>
@@ -4146,7 +5466,7 @@
         <v>1730.959120193955</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1411.8956864427453</v>
       </c>
     </row>
@@ -4178,7 +5498,7 @@
         <v>1754.1207006380573</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1329.7076894988136</v>
       </c>
     </row>
@@ -4210,7 +5530,7 @@
         <v>1798.789027460854</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1533.2946039243113</v>
       </c>
     </row>
@@ -4242,7 +5562,7 @@
         <v>1722.2966119363805</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1423.7531636789897</v>
       </c>
     </row>
@@ -4274,7 +5594,7 @@
         <v>1713.7712676074907</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1397.9989900232417</v>
       </c>
     </row>
@@ -4306,7 +5626,7 @@
         <v>1709.4393686811959</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1423.855969636586</v>
       </c>
     </row>
@@ -4338,7 +5658,7 @@
         <v>1735.3556205979969</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1473.6949829176556</v>
       </c>
     </row>
@@ -4370,7 +5690,7 @@
         <v>1724.4880443371353</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1446.4280234587914</v>
       </c>
     </row>
@@ -4402,7 +5722,7 @@
         <v>1812.8634620260025</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1471.7288220469745</v>
       </c>
     </row>
@@ -4434,7 +5754,7 @@
         <v>1784.520641584169</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1466.2037934364484</v>
       </c>
     </row>
@@ -4466,7 +5786,7 @@
         <v>1828.9906723820225</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1489.4896181005067</v>
       </c>
     </row>
@@ -4498,7 +5818,7 @@
         <v>1754.3535708677605</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1449.0917216566033</v>
       </c>
     </row>
@@ -4530,7 +5850,7 @@
         <v>1808.2489889163091</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1496.8995046553516</v>
       </c>
     </row>
@@ -4562,7 +5882,7 @@
         <v>1776.8226790913056</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1447.331811565007</v>
       </c>
     </row>
@@ -4594,7 +5914,7 @@
         <v>1779.4174587202424</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1506.6828990772017</v>
       </c>
     </row>
@@ -4626,7 +5946,7 @@
         <v>1812.0473097479394</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1433.8444111909866</v>
       </c>
     </row>
@@ -4658,7 +5978,7 @@
         <v>1822.729298883608</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1496.5910206168517</v>
       </c>
     </row>
@@ -4690,7 +6010,7 @@
         <v>1785.0905542035844</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1494.460262701795</v>
       </c>
     </row>
@@ -4722,7 +6042,7 @@
         <v>1810.4023266104459</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1489.3289138114778</v>
       </c>
     </row>
@@ -4754,7 +6074,7 @@
         <v>1816.6240742978969</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1502.9045899023729</v>
       </c>
     </row>
@@ -4786,7 +6106,7 @@
         <v>1836.5353957886343</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1526.2237074062682</v>
       </c>
     </row>
@@ -4818,7 +6138,7 @@
         <v>1788.2485332225149</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1473.1773983304545</v>
       </c>
     </row>
@@ -4850,7 +6170,7 @@
         <v>1856.2055981954372</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1534.2076703089331</v>
       </c>
     </row>
@@ -4882,7 +6202,7 @@
         <v>1840.0906181193704</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1530.3845909597217</v>
       </c>
     </row>
@@ -4914,7 +6234,7 @@
         <v>1847.9942192687311</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1509.2116993640491</v>
       </c>
     </row>
@@ -4927,22 +6247,23 @@
   </sheetData>
   <autoFilter ref="H3:H43">
     <filterColumn colId="0">
-      <colorFilter dxfId="15"/>
+      <colorFilter dxfId="19"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:J41">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4955,7 +6276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -5450,1074 +6771,6 @@
   </sheetData>
   <autoFilter ref="H3:H17"/>
   <sortState ref="B4:J17">
-    <sortCondition ref="B4"/>
-  </sortState>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
-      <formula>-1.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
-      <formula>1.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:J34"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10" s="1" customFormat="1">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4">
-        <v>980</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>141.804340784</v>
-      </c>
-      <c r="E4">
-        <v>140.00899999999999</v>
-      </c>
-      <c r="F4">
-        <v>144.15100000000001</v>
-      </c>
-      <c r="G4">
-        <v>158.482620674</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H34" si="0">(E4-D4)/E4*100</f>
-        <v>-1.2823038404674116</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:I34" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
-        <v>1307.1709942301534</v>
-      </c>
-      <c r="J4">
-        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
-        <v>1169.6078746076828</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5">
-        <v>980</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>139.379425239</v>
-      </c>
-      <c r="E5">
-        <v>137.37700000000001</v>
-      </c>
-      <c r="F5">
-        <v>141.33099999999999</v>
-      </c>
-      <c r="G5">
-        <v>144.16835659399999</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>-1.4576131659593599</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
-        <v>1329.9130830172642</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J34" si="2">2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
-        <v>1285.7365201906393</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6">
-        <v>980</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>142.901106021</v>
-      </c>
-      <c r="E6">
-        <v>142.15799999999999</v>
-      </c>
-      <c r="F6">
-        <v>147.114</v>
-      </c>
-      <c r="G6">
-        <v>142.536167869</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>-0.5227324673954451</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>1297.138463725626</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>1300.4595528282546</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7">
-        <v>1961</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>260.24341709499998</v>
-      </c>
-      <c r="E7">
-        <v>257.87799999999999</v>
-      </c>
-      <c r="F7">
-        <v>268.334</v>
-      </c>
-      <c r="G7">
-        <v>295.08769347200001</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>-0.91726207547755068</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>1425.2586744657951</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>1256.9625772023721</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" hidden="1">
-      <c r="B8">
-        <v>1961</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>263.08251191599999</v>
-      </c>
-      <c r="E8">
-        <v>257.89800000000002</v>
-      </c>
-      <c r="F8">
-        <v>266.67500000000001</v>
-      </c>
-      <c r="G8">
-        <v>300.163447179</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>-2.0102955106282181</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>1409.8777793550125</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>1235.7073826716719</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" hidden="1">
-      <c r="B9">
-        <v>1961</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>272.75209403500003</v>
-      </c>
-      <c r="E9">
-        <v>265.53300000000002</v>
-      </c>
-      <c r="F9">
-        <v>275.97899999999998</v>
-      </c>
-      <c r="G9">
-        <v>290.86769312400003</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>-2.7187182139319828</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>1359.8949221620728</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>1275.1989872218087</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10">
-        <v>1961</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>233.52769679299999</v>
-      </c>
-      <c r="E10">
-        <v>232.042</v>
-      </c>
-      <c r="F10">
-        <v>243.648</v>
-      </c>
-      <c r="G10">
-        <v>276.62665566599998</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>-0.64027063764318026</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>1588.3091932176624</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>1340.8476012344661</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11">
-        <v>1961</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>254.014530982</v>
-      </c>
-      <c r="E11">
-        <v>251.02699999999999</v>
-      </c>
-      <c r="F11">
-        <v>264.346</v>
-      </c>
-      <c r="G11">
-        <v>286.97534338100002</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>-1.1901233660124249</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>1460.2085410363884</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>1292.494969488818</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12">
-        <v>1961</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>268.17761118099997</v>
-      </c>
-      <c r="E12">
-        <v>266.899</v>
-      </c>
-      <c r="F12">
-        <v>277.31299999999999</v>
-      </c>
-      <c r="G12">
-        <v>300.98859755900003</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>-0.47906181027278999</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>1383.0915491186518</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>1232.3197313631185</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" hidden="1">
-      <c r="B13">
-        <v>1961</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>274.92017214999998</v>
-      </c>
-      <c r="E13">
-        <v>269.26900000000001</v>
-      </c>
-      <c r="F13">
-        <v>278.65199999999999</v>
-      </c>
-      <c r="G13">
-        <v>295.95597872799999</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>-2.0987087819243877</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="1"/>
-        <v>1349.1705057018994</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>1253.2748595971414</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" hidden="1">
-      <c r="B14">
-        <v>2942</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>392.674348651</v>
-      </c>
-      <c r="E14">
-        <v>386.43599999999998</v>
-      </c>
-      <c r="F14">
-        <v>403.05200000000002</v>
-      </c>
-      <c r="G14">
-        <v>459.79175276400002</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>-1.614329061215835</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>1417.1179150292264</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>1210.2562755869724</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15">
-        <v>2942</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>366.98829191499999</v>
-      </c>
-      <c r="E15">
-        <v>365.50200000000001</v>
-      </c>
-      <c r="F15">
-        <v>381.09899999999999</v>
-      </c>
-      <c r="G15">
-        <v>440.135937754</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>-0.40664398963616644</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>1516.3041069840194</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>1264.3045171121282</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" hidden="1">
-      <c r="B16">
-        <v>2942</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>364.84566615799997</v>
-      </c>
-      <c r="E16">
-        <v>356.78199999999998</v>
-      </c>
-      <c r="F16">
-        <v>386.34399999999999</v>
-      </c>
-      <c r="G16">
-        <v>432.18568230699998</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>-2.260110139524973</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="1"/>
-        <v>1525.208892038152</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>1287.5619832553434</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17">
-        <v>2942</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>393.53741496599997</v>
-      </c>
-      <c r="E17">
-        <v>392.66300000000001</v>
-      </c>
-      <c r="F17">
-        <v>406.68200000000002</v>
-      </c>
-      <c r="G17">
-        <v>450.63029328300001</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>-0.22268840354195854</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>1414.0100358534933</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>1234.8611767569273</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18">
-        <v>2942</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>382.67851358199999</v>
-      </c>
-      <c r="E18">
-        <v>381.43299999999999</v>
-      </c>
-      <c r="F18">
-        <v>397.80799999999999</v>
-      </c>
-      <c r="G18">
-        <v>442.29664179600002</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>-0.32653535011391277</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="1"/>
-        <v>1454.1340433176049</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>1258.1281467256149</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19">
-        <v>2942</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>385.05715211299997</v>
-      </c>
-      <c r="E19">
-        <v>379.58499999999998</v>
-      </c>
-      <c r="F19">
-        <v>395.10599999999999</v>
-      </c>
-      <c r="G19">
-        <v>446.57380016600001</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>-1.4416144244372124</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="1"/>
-        <v>1445.1513267372388</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>1246.0781488724051</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20">
-        <v>2942</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>378.95784164000003</v>
-      </c>
-      <c r="E20">
-        <v>375.52699999999999</v>
-      </c>
-      <c r="F20">
-        <v>390.80500000000001</v>
-      </c>
-      <c r="G20">
-        <v>456.09127847299999</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>-0.9136071813744524</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="1"/>
-        <v>1468.4109763702754</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>1220.0756307132647</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21">
-        <v>2942</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>377.33351844100002</v>
-      </c>
-      <c r="E21">
-        <v>375.185</v>
-      </c>
-      <c r="F21">
-        <v>390.01100000000002</v>
-      </c>
-      <c r="G21">
-        <v>450.45527662799998</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>-0.57265574076789361</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="1"/>
-        <v>1474.7321058168168</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>1235.3409608415166</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22">
-        <v>4903</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>612.24258410799996</v>
-      </c>
-      <c r="E22">
-        <v>603.952</v>
-      </c>
-      <c r="F22">
-        <v>635.53099999999995</v>
-      </c>
-      <c r="G22">
-        <v>785.73397188199999</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>-1.3727223534320545</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="1"/>
-        <v>1514.726459748254</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>1180.2722996840278</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23">
-        <v>4903</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>584.90443796600005</v>
-      </c>
-      <c r="E23">
-        <v>582.59699999999998</v>
-      </c>
-      <c r="F23">
-        <v>616.78399999999999</v>
-      </c>
-      <c r="G23">
-        <v>750.72446998500004</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>-0.39606073598045749</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>1585.5240304860554</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>1235.3134592130227</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24">
-        <v>4903</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>606.44638807900003</v>
-      </c>
-      <c r="E24">
-        <v>603.24900000000002</v>
-      </c>
-      <c r="F24">
-        <v>641.21199999999999</v>
-      </c>
-      <c r="G24">
-        <v>745.75037042700001</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>-0.53002791202306287</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" si="1"/>
-        <v>1529.2036693806251</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>1243.5529081963932</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25">
-        <v>4903</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>576.74348651000003</v>
-      </c>
-      <c r="E25">
-        <v>573.697</v>
-      </c>
-      <c r="F25">
-        <v>603.45899999999995</v>
-      </c>
-      <c r="G25">
-        <v>730.03825367299999</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>-0.53102709444184337</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="1"/>
-        <v>1607.9592810745228</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>1270.317051561557</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26">
-        <v>4903</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>597.81803878000005</v>
-      </c>
-      <c r="E26">
-        <v>591.71699999999998</v>
-      </c>
-      <c r="F26">
-        <v>620.23400000000004</v>
-      </c>
-      <c r="G26">
-        <v>749.88594571900001</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>-1.0310737700623891</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" si="1"/>
-        <v>1551.2747722126092</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
-        <v>1236.6947896907841</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27">
-        <v>4903</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>658.16095145500003</v>
-      </c>
-      <c r="E27">
-        <v>653.51499999999999</v>
-      </c>
-      <c r="F27">
-        <v>682.35599999999999</v>
-      </c>
-      <c r="G27">
-        <v>751.93948092100004</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>-0.7109173400763632</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="1"/>
-        <v>1409.0474980061781</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="2"/>
-        <v>1233.3173951674248</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28">
-        <v>4903</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>625.40839464999999</v>
-      </c>
-      <c r="E28">
-        <v>622.07399999999996</v>
-      </c>
-      <c r="F28">
-        <v>650.601</v>
-      </c>
-      <c r="G28">
-        <v>753.61209190900001</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>-0.53601254030871504</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="1"/>
-        <v>1482.8391333826389</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="2"/>
-        <v>1230.5800980234485</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29">
-        <v>4903</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>604.42176870699996</v>
-      </c>
-      <c r="E29">
-        <v>600.81799999999998</v>
-      </c>
-      <c r="F29">
-        <v>628.98599999999999</v>
-      </c>
-      <c r="G29">
-        <v>744.50837532699995</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>-0.5998103763535666</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="1"/>
-        <v>1534.3260119782201</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
-        <v>1245.6274135609465</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30">
-        <v>9807</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>907.37424221399999</v>
-      </c>
-      <c r="E30">
-        <v>915.87300000000005</v>
-      </c>
-      <c r="F30">
-        <v>1263.8409999999999</v>
-      </c>
-      <c r="G30">
-        <v>1031.66152487</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0.92794064089672423</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="1"/>
-        <v>2044.3044809930907</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>1798.0211383084516</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" hidden="1">
-      <c r="B31">
-        <v>9807</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>0.101809431255</v>
-      </c>
-      <c r="E31">
-        <v>610.86300000000006</v>
-      </c>
-      <c r="F31">
-        <v>782.41499999999996</v>
-      </c>
-      <c r="G31">
-        <v>6.3583530514499997E-2</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>99.983333508289917</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="1"/>
-        <v>18219817.225476261</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="2"/>
-        <v>29173422.964815956</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" hidden="1">
-      <c r="B32">
-        <v>9807</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>0.19899116109000001</v>
-      </c>
-      <c r="E32">
-        <v>805.73900000000003</v>
-      </c>
-      <c r="F32">
-        <v>1372.942</v>
-      </c>
-      <c r="G32">
-        <v>0.11589336101</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>99.975303273009004</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="1"/>
-        <v>9321766.9525373094</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
-        <v>16005655.657322196</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" hidden="1">
-      <c r="B33">
-        <v>9807</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>0.33319450229100001</v>
-      </c>
-      <c r="E33">
-        <v>678.005</v>
-      </c>
-      <c r="F33">
-        <v>1199.7809999999999</v>
-      </c>
-      <c r="G33">
-        <v>0.240009411605</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>99.950856630512902</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="1"/>
-        <v>5567166.3744191816</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>7728652.0428149197</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34">
-        <v>9807</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>1059.3896061800001</v>
-      </c>
-      <c r="E34">
-        <v>1059.539</v>
-      </c>
-      <c r="F34">
-        <v>1128.4090000000001</v>
-      </c>
-      <c r="G34">
-        <v>1365.3590599700001</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1.4099888725180152E-2</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="1"/>
-        <v>1750.9603817848079</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="2"/>
-        <v>1358.5797931692396</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="H3:H34">
-    <filterColumn colId="0">
-      <colorFilter dxfId="10"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="B4:I34">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
@@ -6538,13 +6791,1123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B3:N34"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4">
+        <v>980</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>141.804340784</v>
+      </c>
+      <c r="E4">
+        <v>140.00899999999999</v>
+      </c>
+      <c r="F4">
+        <v>144.15100000000001</v>
+      </c>
+      <c r="G4">
+        <v>158.482620674</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H34" si="0">(E4-D4)/E4*100</f>
+        <v>-1.2823038404674116</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I34" si="1">2*B4*SIN((136*3.14159/180)/2)*102/D4</f>
+        <v>1307.1709942301534</v>
+      </c>
+      <c r="J4">
+        <f>2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
+        <v>1169.6078746076828</v>
+      </c>
+      <c r="M4" s="4">
+        <v>980</v>
+      </c>
+      <c r="N4" s="2">
+        <f>AVERAGE(J4:J6)</f>
+        <v>1251.9346492088589</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>980</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>139.379425239</v>
+      </c>
+      <c r="E5">
+        <v>137.37700000000001</v>
+      </c>
+      <c r="F5">
+        <v>141.33099999999999</v>
+      </c>
+      <c r="G5">
+        <v>144.16835659399999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-1.4576131659593599</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>1329.9130830172642</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J34" si="2">2*B5*SIN((136*3.14159/180)/2)*102/G5</f>
+        <v>1285.7365201906393</v>
+      </c>
+      <c r="M5">
+        <v>1961</v>
+      </c>
+      <c r="N5" s="2">
+        <f>AVERAGE(J7:J12)</f>
+        <v>1272.2552081970425</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>980</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>142.901106021</v>
+      </c>
+      <c r="E6">
+        <v>142.15799999999999</v>
+      </c>
+      <c r="F6">
+        <v>147.114</v>
+      </c>
+      <c r="G6">
+        <v>142.536167869</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-0.5227324673954451</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>1297.138463725626</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>1300.4595528282546</v>
+      </c>
+      <c r="M6">
+        <v>2942</v>
+      </c>
+      <c r="N6" s="2">
+        <f>AVERAGE(J15:J21)</f>
+        <v>1249.4786520395999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7">
+        <v>1961</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>260.24341709499998</v>
+      </c>
+      <c r="E7">
+        <v>257.87799999999999</v>
+      </c>
+      <c r="F7">
+        <v>268.334</v>
+      </c>
+      <c r="G7">
+        <v>295.08769347200001</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-0.91726207547755068</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>1425.2586744657951</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1256.9625772023721</v>
+      </c>
+      <c r="M7">
+        <v>4903</v>
+      </c>
+      <c r="N7" s="2">
+        <f>AVERAGE(J22:J29)</f>
+        <v>1234.4594268872006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" hidden="1">
+      <c r="B8">
+        <v>1961</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>263.08251191599999</v>
+      </c>
+      <c r="E8">
+        <v>257.89800000000002</v>
+      </c>
+      <c r="F8">
+        <v>266.67500000000001</v>
+      </c>
+      <c r="G8">
+        <v>300.163447179</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-2.0102955106282181</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>1409.8777793550125</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1235.7073826716719</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" hidden="1">
+      <c r="B9">
+        <v>1961</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>272.75209403500003</v>
+      </c>
+      <c r="E9">
+        <v>265.53300000000002</v>
+      </c>
+      <c r="F9">
+        <v>275.97899999999998</v>
+      </c>
+      <c r="G9">
+        <v>290.86769312400003</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-2.7187182139319828</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>1359.8949221620728</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1275.1989872218087</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10">
+        <v>1961</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>233.52769679299999</v>
+      </c>
+      <c r="E10">
+        <v>232.042</v>
+      </c>
+      <c r="F10">
+        <v>243.648</v>
+      </c>
+      <c r="G10">
+        <v>276.62665566599998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-0.64027063764318026</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>1588.3091932176624</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1340.8476012344661</v>
+      </c>
+      <c r="M10">
+        <v>9807</v>
+      </c>
+      <c r="N10" s="2">
+        <f>(J30+J34)/2</f>
+        <v>1578.3004657388456</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11">
+        <v>1961</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>254.014530982</v>
+      </c>
+      <c r="E11">
+        <v>251.02699999999999</v>
+      </c>
+      <c r="F11">
+        <v>264.346</v>
+      </c>
+      <c r="G11">
+        <v>286.97534338100002</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-1.1901233660124249</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>1460.2085410363884</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1292.494969488818</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12">
+        <v>1961</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>268.17761118099997</v>
+      </c>
+      <c r="E12">
+        <v>266.899</v>
+      </c>
+      <c r="F12">
+        <v>277.31299999999999</v>
+      </c>
+      <c r="G12">
+        <v>300.98859755900003</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-0.47906181027278999</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>1383.0915491186518</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1232.3197313631185</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" hidden="1">
+      <c r="B13">
+        <v>1961</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>274.92017214999998</v>
+      </c>
+      <c r="E13">
+        <v>269.26900000000001</v>
+      </c>
+      <c r="F13">
+        <v>278.65199999999999</v>
+      </c>
+      <c r="G13">
+        <v>295.95597872799999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-2.0987087819243877</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>1349.1705057018994</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>1253.2748595971414</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" hidden="1">
+      <c r="B14">
+        <v>2942</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>392.674348651</v>
+      </c>
+      <c r="E14">
+        <v>386.43599999999998</v>
+      </c>
+      <c r="F14">
+        <v>403.05200000000002</v>
+      </c>
+      <c r="G14">
+        <v>459.79175276400002</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-1.614329061215835</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>1417.1179150292264</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>1210.2562755869724</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15">
+        <v>2942</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>366.98829191499999</v>
+      </c>
+      <c r="E15">
+        <v>365.50200000000001</v>
+      </c>
+      <c r="F15">
+        <v>381.09899999999999</v>
+      </c>
+      <c r="G15">
+        <v>440.135937754</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-0.40664398963616644</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>1516.3041069840194</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>1264.3045171121282</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" hidden="1">
+      <c r="B16">
+        <v>2942</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>364.84566615799997</v>
+      </c>
+      <c r="E16">
+        <v>356.78199999999998</v>
+      </c>
+      <c r="F16">
+        <v>386.34399999999999</v>
+      </c>
+      <c r="G16">
+        <v>432.18568230699998</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-2.260110139524973</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>1525.208892038152</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>1287.5619832553434</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>2942</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>393.53741496599997</v>
+      </c>
+      <c r="E17">
+        <v>392.66300000000001</v>
+      </c>
+      <c r="F17">
+        <v>406.68200000000002</v>
+      </c>
+      <c r="G17">
+        <v>450.63029328300001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-0.22268840354195854</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>1414.0100358534933</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>1234.8611767569273</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18">
+        <v>2942</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>382.67851358199999</v>
+      </c>
+      <c r="E18">
+        <v>381.43299999999999</v>
+      </c>
+      <c r="F18">
+        <v>397.80799999999999</v>
+      </c>
+      <c r="G18">
+        <v>442.29664179600002</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-0.32653535011391277</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>1454.1340433176049</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>1258.1281467256149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <v>2942</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>385.05715211299997</v>
+      </c>
+      <c r="E19">
+        <v>379.58499999999998</v>
+      </c>
+      <c r="F19">
+        <v>395.10599999999999</v>
+      </c>
+      <c r="G19">
+        <v>446.57380016600001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-1.4416144244372124</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>1445.1513267372388</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>1246.0781488724051</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20">
+        <v>2942</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>378.95784164000003</v>
+      </c>
+      <c r="E20">
+        <v>375.52699999999999</v>
+      </c>
+      <c r="F20">
+        <v>390.80500000000001</v>
+      </c>
+      <c r="G20">
+        <v>456.09127847299999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>-0.9136071813744524</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>1468.4109763702754</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>1220.0756307132647</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21">
+        <v>2942</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>377.33351844100002</v>
+      </c>
+      <c r="E21">
+        <v>375.185</v>
+      </c>
+      <c r="F21">
+        <v>390.01100000000002</v>
+      </c>
+      <c r="G21">
+        <v>450.45527662799998</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>-0.57265574076789361</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>1474.7321058168168</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>1235.3409608415166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22">
+        <v>4903</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>612.24258410799996</v>
+      </c>
+      <c r="E22">
+        <v>603.952</v>
+      </c>
+      <c r="F22">
+        <v>635.53099999999995</v>
+      </c>
+      <c r="G22">
+        <v>785.73397188199999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>-1.3727223534320545</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>1514.726459748254</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>1180.2722996840278</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <v>4903</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>584.90443796600005</v>
+      </c>
+      <c r="E23">
+        <v>582.59699999999998</v>
+      </c>
+      <c r="F23">
+        <v>616.78399999999999</v>
+      </c>
+      <c r="G23">
+        <v>750.72446998500004</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>-0.39606073598045749</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>1585.5240304860554</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>1235.3134592130227</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24">
+        <v>4903</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>606.44638807900003</v>
+      </c>
+      <c r="E24">
+        <v>603.24900000000002</v>
+      </c>
+      <c r="F24">
+        <v>641.21199999999999</v>
+      </c>
+      <c r="G24">
+        <v>745.75037042700001</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>-0.53002791202306287</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>1529.2036693806251</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>1243.5529081963932</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>4903</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>576.74348651000003</v>
+      </c>
+      <c r="E25">
+        <v>573.697</v>
+      </c>
+      <c r="F25">
+        <v>603.45899999999995</v>
+      </c>
+      <c r="G25">
+        <v>730.03825367299999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>-0.53102709444184337</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>1607.9592810745228</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>1270.317051561557</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>4903</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>597.81803878000005</v>
+      </c>
+      <c r="E26">
+        <v>591.71699999999998</v>
+      </c>
+      <c r="F26">
+        <v>620.23400000000004</v>
+      </c>
+      <c r="G26">
+        <v>749.88594571900001</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-1.0310737700623891</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>1551.2747722126092</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>1236.6947896907841</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27">
+        <v>4903</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>658.16095145500003</v>
+      </c>
+      <c r="E27">
+        <v>653.51499999999999</v>
+      </c>
+      <c r="F27">
+        <v>682.35599999999999</v>
+      </c>
+      <c r="G27">
+        <v>751.93948092100004</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>-0.7109173400763632</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>1409.0474980061781</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>1233.3173951674248</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28">
+        <v>4903</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>625.40839464999999</v>
+      </c>
+      <c r="E28">
+        <v>622.07399999999996</v>
+      </c>
+      <c r="F28">
+        <v>650.601</v>
+      </c>
+      <c r="G28">
+        <v>753.61209190900001</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>-0.53601254030871504</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>1482.8391333826389</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>1230.5800980234485</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29">
+        <v>4903</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>604.42176870699996</v>
+      </c>
+      <c r="E29">
+        <v>600.81799999999998</v>
+      </c>
+      <c r="F29">
+        <v>628.98599999999999</v>
+      </c>
+      <c r="G29">
+        <v>744.50837532699995</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>-0.5998103763535666</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>1534.3260119782201</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>1245.6274135609465</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30">
+        <v>9807</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>907.37424221399999</v>
+      </c>
+      <c r="E30">
+        <v>915.87300000000005</v>
+      </c>
+      <c r="F30">
+        <v>1263.8409999999999</v>
+      </c>
+      <c r="G30">
+        <v>1031.66152487</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.92794064089672423</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="1"/>
+        <v>2044.3044809930907</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>1798.0211383084516</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" hidden="1">
+      <c r="B31">
+        <v>9807</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0.101809431255</v>
+      </c>
+      <c r="E31">
+        <v>610.86300000000006</v>
+      </c>
+      <c r="F31">
+        <v>782.41499999999996</v>
+      </c>
+      <c r="G31">
+        <v>6.3583530514499997E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>99.983333508289917</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>18219817.225476261</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>29173422.964815956</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" hidden="1">
+      <c r="B32">
+        <v>9807</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0.19899116109000001</v>
+      </c>
+      <c r="E32">
+        <v>805.73900000000003</v>
+      </c>
+      <c r="F32">
+        <v>1372.942</v>
+      </c>
+      <c r="G32">
+        <v>0.11589336101</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>99.975303273009004</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>9321766.9525373094</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>16005655.657322196</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" hidden="1">
+      <c r="B33">
+        <v>9807</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>0.33319450229100001</v>
+      </c>
+      <c r="E33">
+        <v>678.005</v>
+      </c>
+      <c r="F33">
+        <v>1199.7809999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.240009411605</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>99.950856630512902</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>5567166.3744191816</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>7728652.0428149197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34">
+        <v>9807</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>1059.3896061800001</v>
+      </c>
+      <c r="E34">
+        <v>1059.539</v>
+      </c>
+      <c r="F34">
+        <v>1128.4090000000001</v>
+      </c>
+      <c r="G34">
+        <v>1365.3590599700001</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.4099888725180152E-2</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
+        <v>1750.9603817848079</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>1358.5797931692396</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="H3:H34">
+    <filterColumn colId="0">
+      <colorFilter dxfId="18"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="B4:I34">
+    <sortCondition ref="B4"/>
+  </sortState>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>-1.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:J26"/>
+  <dimension ref="B3:N26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6558,7 +7921,7 @@
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="1" customFormat="1">
+    <row r="3" spans="2:14" s="1" customFormat="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6586,8 +7949,14 @@
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4">
         <v>980</v>
       </c>
@@ -6618,8 +7987,15 @@
         <f t="shared" ref="J4:J25" si="2">2*B4*SIN((136*3.14159/180)/2)*102/G4</f>
         <v>1345.7747400735013</v>
       </c>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="M4">
+        <v>980</v>
+      </c>
+      <c r="N4" s="2">
+        <f>AVERAGE(J4:J8)</f>
+        <v>1361.6069330326241</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>980</v>
       </c>
@@ -6650,8 +8026,15 @@
         <f t="shared" si="2"/>
         <v>1330.4811326087968</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" hidden="1">
+      <c r="M5">
+        <v>1961</v>
+      </c>
+      <c r="N5" s="2">
+        <f>AVERAGE(J9:J13)</f>
+        <v>1317.5160615197378</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" hidden="1">
       <c r="B6">
         <v>980</v>
       </c>
@@ -6683,7 +8066,7 @@
         <v>1391.4673192908904</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>980</v>
       </c>
@@ -6714,8 +8097,15 @@
         <f t="shared" si="2"/>
         <v>1339.8540671828471</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="M7">
+        <v>2942</v>
+      </c>
+      <c r="N7" s="2">
+        <f>AVERAGE(J15:J19)</f>
+        <v>1486.4968161991912</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>980</v>
       </c>
@@ -6746,8 +8136,15 @@
         <f t="shared" si="2"/>
         <v>1400.4574060070859</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="M8">
+        <v>4903</v>
+      </c>
+      <c r="N8" s="2">
+        <f>AVERAGE(J20:J25)</f>
+        <v>1870.4271740613283</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>1961</v>
       </c>
@@ -6779,7 +8176,7 @@
         <v>1362.0104287416254</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>1961</v>
       </c>
@@ -6811,7 +8208,7 @@
         <v>1341.3719555832076</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>1961</v>
       </c>
@@ -6843,7 +8240,7 @@
         <v>1273.5221013250637</v>
       </c>
     </row>
-    <row r="12" spans="2:10" hidden="1">
+    <row r="12" spans="2:14" hidden="1">
       <c r="B12">
         <v>1961</v>
       </c>
@@ -6875,7 +8272,7 @@
         <v>1360.7805243846499</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>1961</v>
       </c>
@@ -6907,7 +8304,7 @@
         <v>1249.8952975641437</v>
       </c>
     </row>
-    <row r="14" spans="2:10" hidden="1">
+    <row r="14" spans="2:14" hidden="1">
       <c r="B14">
         <v>2942</v>
       </c>
@@ -6939,7 +8336,7 @@
         <v>1602.1505925283832</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>2942</v>
       </c>
@@ -6971,7 +8368,7 @@
         <v>1543.7800721343831</v>
       </c>
     </row>
-    <row r="16" spans="2:10" hidden="1">
+    <row r="16" spans="2:14" hidden="1">
       <c r="B16">
         <v>2942</v>
       </c>
@@ -7297,22 +8694,23 @@
   </sheetData>
   <autoFilter ref="H3:H25">
     <filterColumn colId="0">
-      <colorFilter dxfId="7"/>
+      <colorFilter dxfId="17"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:J25">
     <sortCondition ref="B4"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>-1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7324,10 +8722,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B3:J31"/>
+  <dimension ref="B3:N31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7340,7 +8738,7 @@
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7368,8 +8766,14 @@
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" hidden="1">
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" hidden="1">
       <c r="B4">
         <v>245</v>
       </c>
@@ -7401,7 +8805,7 @@
         <v>769.11111334930592</v>
       </c>
     </row>
-    <row r="5" spans="2:10" hidden="1">
+    <row r="5" spans="2:14" hidden="1">
       <c r="B5">
         <v>245</v>
       </c>
@@ -7433,7 +8837,7 @@
         <v>1549.4104433626414</v>
       </c>
     </row>
-    <row r="6" spans="2:10" hidden="1">
+    <row r="6" spans="2:14" hidden="1">
       <c r="B6">
         <v>245</v>
       </c>
@@ -7465,7 +8869,7 @@
         <v>1407.5229157714011</v>
       </c>
     </row>
-    <row r="7" spans="2:10" hidden="1">
+    <row r="7" spans="2:14" hidden="1">
       <c r="B7">
         <v>490</v>
       </c>
@@ -7497,7 +8901,7 @@
         <v>1596.1066805131663</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>490</v>
       </c>
@@ -7528,8 +8932,15 @@
         <f t="shared" si="2"/>
         <v>1422.3630826037456</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="M8">
+        <v>490</v>
+      </c>
+      <c r="N8" s="2">
+        <f>AVERAGE(J8:J9)</f>
+        <v>1514.2818213489593</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>490</v>
       </c>
@@ -7560,8 +8971,15 @@
         <f t="shared" si="2"/>
         <v>1606.2005600941729</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" hidden="1">
+      <c r="M9">
+        <v>1961</v>
+      </c>
+      <c r="N9" s="2">
+        <f>AVERAGE(J15:J17)</f>
+        <v>1740.1655784424413</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" hidden="1">
       <c r="B10">
         <v>490</v>
       </c>
@@ -7593,7 +9011,7 @@
         <v>1553.9579095972647</v>
       </c>
     </row>
-    <row r="11" spans="2:10" hidden="1">
+    <row r="11" spans="2:14" hidden="1">
       <c r="B11">
         <v>490</v>
       </c>
@@ -7625,7 +9043,7 @@
         <v>1537.0868783040514</v>
       </c>
     </row>
-    <row r="12" spans="2:10" hidden="1">
+    <row r="12" spans="2:14" hidden="1">
       <c r="B12">
         <v>490</v>
       </c>
@@ -7657,7 +9075,7 @@
         <v>1606.4992813847248</v>
       </c>
     </row>
-    <row r="13" spans="2:10" hidden="1">
+    <row r="13" spans="2:14" hidden="1">
       <c r="B13">
         <v>980</v>
       </c>
@@ -7689,7 +9107,7 @@
         <v>1296.0977255059843</v>
       </c>
     </row>
-    <row r="14" spans="2:10" hidden="1">
+    <row r="14" spans="2:14" hidden="1">
       <c r="B14">
         <v>980</v>
       </c>
@@ -7721,7 +9139,7 @@
         <v>1349.9559622856261</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>1961</v>
       </c>
@@ -7753,7 +9171,7 @@
         <v>1620.8356919723265</v>
       </c>
     </row>
-    <row r="16" spans="2:10" hidden="1">
+    <row r="16" spans="2:14" hidden="1">
       <c r="B16">
         <v>1961</v>
       </c>
@@ -8268,7 +9686,7 @@
   </sheetData>
   <autoFilter ref="H3:H31">
     <filterColumn colId="0">
-      <colorFilter dxfId="4"/>
+      <colorFilter dxfId="16"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="H3">
@@ -8288,6 +9706,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
